--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1317,7 +1317,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9926646112554521</v>
+        <v>0.9940375853451225</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1332,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>79.42851574123137</v>
+        <v>80.21321942355746</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9744069022334625</v>
+        <v>0.9752242775966748</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1478,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>123.2952574732174</v>
+        <v>125.9586505340634</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9961093472757901</v>
+        <v>0.9966602590273586</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1627,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>35.57619318654503</v>
+        <v>41.85304092554195</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9896808194655923</v>
+        <v>0.9868045410673191</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1794,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>68.98063261057932</v>
+        <v>69.6933627091348</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1934,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9969288709270548</v>
+        <v>0.9972776028955636</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>71.93161907612469</v>
+        <v>73.22296166513804</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2086,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.996491293342356</v>
+        <v>0.9964746131716093</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2101,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>41.25751180954379</v>
+        <v>43.0562472930707</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2241,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9849745945636682</v>
+        <v>0.9823533739876812</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2256,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>85.5818596394662</v>
+        <v>87.35267387980851</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2390,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9959514866852781</v>
+        <v>0.9956817638440708</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>66.29500823011963</v>
+        <v>69.58656294508647</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2533,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9970613404175291</v>
+        <v>0.9975105901439369</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2548,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>90.65587845786484</v>
+        <v>94.63189125951075</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2691,7 +2691,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.9791916274324272</v>
+        <v>0.979410922592436</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2706,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>59.38041122973839</v>
+        <v>60.59914421548687</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2837,7 +2837,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9898934868148941</v>
+        <v>0.9893061886761115</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>67.24773137727452</v>
+        <v>69.30545658912753</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2986,7 +2986,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9546560166851534</v>
+        <v>0.9549917065612049</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>49.04403004832292</v>
+        <v>48.48767019224105</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3135,7 +3135,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9633054362411911</v>
+        <v>0.9658127749354358</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>46.67766993614866</v>
+        <v>45.55299317063253</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3278,7 +3278,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9992287236160313</v>
+        <v>0.9994103428982705</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3293,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>100.9536687017665</v>
+        <v>104.3176260942404</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3433,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9968225140419856</v>
+        <v>0.9970336935750469</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3448,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>52.01816211634516</v>
+        <v>53.77974476027949</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9807693202346051</v>
+        <v>0.9856114185042946</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>76.86563734451821</v>
+        <v>80.39255212322088</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3755,7 +3755,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.988276021817263</v>
+        <v>0.9897267189180453</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>54.18419287058687</v>
+        <v>57.36413609905982</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.997136856287237</v>
+        <v>0.9975721003264745</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3925,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>59.51531127249995</v>
+        <v>63.13534404702405</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4068,7 +4068,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9507004263199893</v>
+        <v>0.9528421949640077</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4083,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>73.15315572356192</v>
+        <v>77.05096506949072</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4223,7 +4223,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9920653749658619</v>
+        <v>0.9931620774651758</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4238,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>39.02044398478295</v>
+        <v>37.79989891206617</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4390,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9984580377372869</v>
+        <v>0.9987078393686382</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>70.70041955415016</v>
+        <v>71.06643578893696</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4548,7 +4548,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9946524143126327</v>
+        <v>0.9923661547508316</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>146.4679487280519</v>
+        <v>147.8086692817523</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.9783052080463942</v>
+        <v>0.978094846902997</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4715,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>88.98555492173882</v>
+        <v>93.33460589879806</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9611159926283952</v>
+        <v>0.9551328057843997</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>50.98030365658955</v>
+        <v>54.12370371612263</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5025,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9990579285040792</v>
+        <v>0.9991013062044587</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5040,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>73.67547077190636</v>
+        <v>72.99045479867016</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5183,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9872496953339317</v>
+        <v>0.9882632315907168</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5198,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>40.73555247053601</v>
+        <v>42.56710294233747</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9572942728362014</v>
+        <v>0.9585146762703598</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5350,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>46.71267873852356</v>
+        <v>50.74020274045394</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5481,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9623534442152931</v>
+        <v>0.9688388913131653</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5496,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>76.35929319148482</v>
+        <v>81.07568316381358</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5615,7 +5615,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9882455864424117</v>
+        <v>0.9883237144537169</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5630,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>35.30276851946299</v>
+        <v>37.4768667526158</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5758,7 +5758,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9972867443097357</v>
+        <v>0.9978217477060232</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5773,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>59.84841139159953</v>
+        <v>62.5896011704331</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5913,7 +5913,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.9850505028280239</v>
+        <v>0.983016721493746</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>77.4295813193125</v>
+        <v>84.5750768825398</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -6077,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9987209665708087</v>
+        <v>0.9989965404758312</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6092,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>148.0919216512835</v>
+        <v>153.7512569566155</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9790077813370821</v>
+        <v>0.9775346624415908</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6247,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>152.6006981941599</v>
+        <v>154.2590867517739</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6390,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9986738293912852</v>
+        <v>0.9989120094347583</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6405,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>45.8292545256063</v>
+        <v>47.69958377674879</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9940425779211732</v>
+        <v>0.9952196654605417</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6551,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>214.3355849597693</v>
+        <v>221.45435052803</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6688,7 +6688,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9924004826858552</v>
+        <v>0.9923983989421158</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6703,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>42.0482411963317</v>
+        <v>44.25455026786602</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6855,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9866823162424269</v>
+        <v>0.9876867348507868</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6870,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>67.36765891228413</v>
+        <v>69.24220613287214</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7016,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9903245986031014</v>
+        <v>0.9917189161444635</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7031,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>41.09569937623688</v>
+        <v>41.78019959210391</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7174,7 +7174,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.987221427902933</v>
+        <v>0.986296132884417</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7189,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>45.3343464284967</v>
+        <v>45.78502327968599</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7326,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.9926140122668374</v>
+        <v>0.990553677168119</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7341,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>242.7265399639927</v>
+        <v>244.4853057614066</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7493,7 +7493,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9891923624293419</v>
+        <v>0.9898418468969139</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7508,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>35.40435868230194</v>
+        <v>36.96196186252747</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7642,7 +7642,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9759676789466865</v>
+        <v>0.9785897880225279</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7657,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>65.13417548341353</v>
+        <v>68.38573612617976</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7797,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9943040222741955</v>
+        <v>0.9951962487659342</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7812,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>106.6127349756764</v>
+        <v>109.253479336339</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7940,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9939744359733207</v>
+        <v>0.9948357592660498</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7955,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>60.1188685680356</v>
+        <v>61.44567515281533</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -8089,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9966202016120344</v>
+        <v>0.9970211175116955</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8104,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>135.8350386123793</v>
+        <v>135.4424773812359</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8244,7 +8244,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9527662016269449</v>
+        <v>0.9545195582373056</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8259,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>53.86402500069548</v>
+        <v>55.76868578120869</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8393,7 +8393,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9990667079604288</v>
+        <v>0.9992866063331659</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8408,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>45.89301057888606</v>
+        <v>47.9493530413047</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8554,7 +8554,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9831893633175837</v>
+        <v>0.9850349045409454</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8569,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.59910919115021</v>
+        <v>68.94183843362015</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8700,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.983676706813113</v>
+        <v>0.9842422604658922</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8715,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>141.9424880444684</v>
+        <v>140.8878877855167</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8861,7 +8861,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.996275675453875</v>
+        <v>0.9965319167051916</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8876,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>50.41423878759534</v>
+        <v>52.89185060199839</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9028,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9878051306969708</v>
+        <v>0.9875277530189548</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9043,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>49.09888572951384</v>
+        <v>48.6821626910488</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
   <si>
     <t>Province_State</t>
   </si>
@@ -679,15 +679,18 @@
     <t>5/8/2020 14:00</t>
   </si>
   <si>
+    <t>5/6/2020 00:00</t>
+  </si>
+  <si>
+    <t>5/7/2020 20:30</t>
+  </si>
+  <si>
+    <t>5/7/2020 18:00</t>
+  </si>
+  <si>
     <t>5/7/2020 00:00</t>
   </si>
   <si>
-    <t>5/7/2020 20:30</t>
-  </si>
-  <si>
-    <t>5/7/2020 18:00</t>
-  </si>
-  <si>
     <t>5/8/2020 10:10</t>
   </si>
   <si>
@@ -731,12 +734,6 @@
   </si>
   <si>
     <t>5/7/2020 16:13</t>
-  </si>
-  <si>
-    <t>5/7/2020 05:00</t>
-  </si>
-  <si>
-    <t>5/7/2020 02:59</t>
   </si>
   <si>
     <t>5/7/2020 04:28</t>
@@ -1317,7 +1314,7 @@
         <v>109</v>
       </c>
       <c r="O2">
-        <v>0.9940375853451225</v>
+        <v>0.997536999013395</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1332,7 +1329,7 @@
         <v>111</v>
       </c>
       <c r="T2">
-        <v>80.21321942355746</v>
+        <v>79.51351706419696</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1463,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="O3">
-        <v>0.9752242775966748</v>
+        <v>0.9811860175730837</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1478,7 +1475,7 @@
         <v>112</v>
       </c>
       <c r="T3">
-        <v>125.9586505340634</v>
+        <v>114.3808916466667</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1612,7 +1609,7 @@
         <v>109</v>
       </c>
       <c r="O4">
-        <v>0.9966602590273586</v>
+        <v>0.9985862770639508</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1627,7 +1624,7 @@
         <v>113</v>
       </c>
       <c r="T4">
-        <v>41.85304092554195</v>
+        <v>50.39785327235814</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -1639,7 +1636,7 @@
         <v>10526</v>
       </c>
       <c r="X4">
-        <v>109381</v>
+        <v>90599</v>
       </c>
       <c r="Z4">
         <v>730</v>
@@ -1669,10 +1666,10 @@
         <v>1482</v>
       </c>
       <c r="AK4">
-        <v>119907</v>
+        <v>101125</v>
       </c>
       <c r="AL4">
-        <v>119907</v>
+        <v>101125</v>
       </c>
       <c r="AM4">
         <v>67</v>
@@ -1681,13 +1678,13 @@
         <v>33</v>
       </c>
       <c r="AO4">
-        <v>8240</v>
+        <v>4110</v>
       </c>
       <c r="AP4">
         <v>581</v>
       </c>
       <c r="AQ4">
-        <v>8821</v>
+        <v>4691</v>
       </c>
       <c r="AR4" t="s">
         <v>108</v>
@@ -1699,10 +1696,10 @@
         <v>0.001446133982128993</v>
       </c>
       <c r="AU4">
-        <v>0.01502751102975978</v>
+        <v>0.01244711121479239</v>
       </c>
       <c r="AV4">
-        <v>8.779999999999999</v>
+        <v>10.41</v>
       </c>
       <c r="AW4">
         <v>0.01647364501188877</v>
@@ -1720,7 +1717,7 @@
         <v>2.713490543093942</v>
       </c>
       <c r="BB4">
-        <v>5.038941889531367</v>
+        <v>4.95712340411303</v>
       </c>
       <c r="BC4">
         <v>4.022263365681258</v>
@@ -1779,7 +1776,7 @@
         <v>109</v>
       </c>
       <c r="O5">
-        <v>0.9868045410673191</v>
+        <v>0.9927874700751119</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1794,7 +1791,7 @@
         <v>114</v>
       </c>
       <c r="T5">
-        <v>69.6933627091348</v>
+        <v>69.31463352662821</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -1934,7 +1931,7 @@
         <v>109</v>
       </c>
       <c r="O6">
-        <v>0.9972776028955636</v>
+        <v>0.998089826195516</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1949,7 +1946,7 @@
         <v>115</v>
       </c>
       <c r="T6">
-        <v>73.22296166513804</v>
+        <v>86.78721973204053</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2086,7 +2083,7 @@
         <v>109</v>
       </c>
       <c r="O7">
-        <v>0.9964746131716093</v>
+        <v>0.9900583349451499</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2101,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="T7">
-        <v>43.0562472930707</v>
+        <v>49.22962768255079</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2241,7 +2238,7 @@
         <v>109</v>
       </c>
       <c r="O8">
-        <v>0.9823533739876812</v>
+        <v>0.9767941527145232</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2256,7 +2253,7 @@
         <v>117</v>
       </c>
       <c r="T8">
-        <v>87.35267387980851</v>
+        <v>116.333347065589</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2390,7 +2387,7 @@
         <v>109</v>
       </c>
       <c r="O9">
-        <v>0.9956817638440708</v>
+        <v>0.9914408095960948</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2405,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="T9">
-        <v>69.58656294508647</v>
+        <v>101.5095505449412</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2533,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="O10">
-        <v>0.9975105901439369</v>
+        <v>0.9928459735479503</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2548,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="T10">
-        <v>94.63189125951075</v>
+        <v>119.5934447723671</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2578,7 +2575,7 @@
         <v>215</v>
       </c>
       <c r="AH10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI10">
         <v>304</v>
@@ -2691,7 +2688,7 @@
         <v>109</v>
       </c>
       <c r="O11">
-        <v>0.979410922592436</v>
+        <v>0.986534084877519</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2706,7 +2703,7 @@
         <v>120</v>
       </c>
       <c r="T11">
-        <v>60.59914421548687</v>
+        <v>75.89301349114884</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -2730,7 +2727,7 @@
         <v>214</v>
       </c>
       <c r="AH11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI11">
         <v>1738</v>
@@ -2837,7 +2834,7 @@
         <v>109</v>
       </c>
       <c r="O12">
-        <v>0.9893061886761115</v>
+        <v>0.9893832209119763</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2852,7 +2849,7 @@
         <v>121</v>
       </c>
       <c r="T12">
-        <v>69.30545658912753</v>
+        <v>93.97371844712819</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -2876,7 +2873,7 @@
         <v>216</v>
       </c>
       <c r="AH12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI12">
         <v>1377</v>
@@ -2986,7 +2983,7 @@
         <v>109</v>
       </c>
       <c r="O13">
-        <v>0.9549917065612049</v>
+        <v>0.9630392724297467</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3001,7 +2998,7 @@
         <v>122</v>
       </c>
       <c r="T13">
-        <v>48.48767019224105</v>
+        <v>50.63365598443173</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3025,7 +3022,7 @@
         <v>213</v>
       </c>
       <c r="AH13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI13">
         <v>17</v>
@@ -3135,7 +3132,7 @@
         <v>109</v>
       </c>
       <c r="O14">
-        <v>0.9658127749354358</v>
+        <v>0.9787736133862747</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3150,7 +3147,7 @@
         <v>123</v>
       </c>
       <c r="T14">
-        <v>45.55299317063253</v>
+        <v>35.18970610650799</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3177,7 +3174,7 @@
         <v>213</v>
       </c>
       <c r="AH14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI14">
         <v>67</v>
@@ -3278,7 +3275,7 @@
         <v>110</v>
       </c>
       <c r="O15">
-        <v>0.9994103428982705</v>
+        <v>0.9966977014518694</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3293,7 +3290,7 @@
         <v>124</v>
       </c>
       <c r="T15">
-        <v>104.3176260942404</v>
+        <v>125.5778556532945</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3433,7 +3430,7 @@
         <v>109</v>
       </c>
       <c r="O16">
-        <v>0.9970336935750469</v>
+        <v>0.9922541003552595</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3448,7 +3445,7 @@
         <v>125</v>
       </c>
       <c r="T16">
-        <v>53.77974476027949</v>
+        <v>64.15881523290309</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -3481,7 +3478,7 @@
         <v>215</v>
       </c>
       <c r="AH16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AI16">
         <v>1447</v>
@@ -3594,7 +3591,7 @@
         <v>109</v>
       </c>
       <c r="O17">
-        <v>0.9856114185042946</v>
+        <v>0.9896238358828998</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3609,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="T17">
-        <v>80.39255212322088</v>
+        <v>85.75075590461225</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -3639,7 +3636,7 @@
         <v>215</v>
       </c>
       <c r="AH17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AI17">
         <v>243</v>
@@ -3755,7 +3752,7 @@
         <v>109</v>
       </c>
       <c r="O18">
-        <v>0.9897267189180453</v>
+        <v>0.984909782302857</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3770,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="T18">
-        <v>57.36413609905982</v>
+        <v>54.60661935558579</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -3800,7 +3797,7 @@
         <v>216</v>
       </c>
       <c r="AH18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI18">
         <v>152</v>
@@ -3910,7 +3907,7 @@
         <v>109</v>
       </c>
       <c r="O19">
-        <v>0.9975721003264745</v>
+        <v>0.9922539511663268</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3925,7 +3922,7 @@
         <v>128</v>
       </c>
       <c r="T19">
-        <v>63.13534404702405</v>
+        <v>78.13944365003803</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -3958,7 +3955,7 @@
         <v>216</v>
       </c>
       <c r="AH19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI19">
         <v>294</v>
@@ -4068,7 +4065,7 @@
         <v>109</v>
       </c>
       <c r="O20">
-        <v>0.9528421949640077</v>
+        <v>0.9696833660977756</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4083,7 +4080,7 @@
         <v>129</v>
       </c>
       <c r="T20">
-        <v>77.05096506949072</v>
+        <v>109.6900427234498</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4110,7 +4107,7 @@
         <v>213</v>
       </c>
       <c r="AH20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI20">
         <v>2227</v>
@@ -4223,7 +4220,7 @@
         <v>109</v>
       </c>
       <c r="O21">
-        <v>0.9931620774651758</v>
+        <v>0.9953845889286235</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4238,7 +4235,7 @@
         <v>130</v>
       </c>
       <c r="T21">
-        <v>37.79989891206617</v>
+        <v>38.1793488219099</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -4271,7 +4268,7 @@
         <v>213</v>
       </c>
       <c r="AH21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI21">
         <v>63</v>
@@ -4390,7 +4387,7 @@
         <v>109</v>
       </c>
       <c r="O22">
-        <v>0.9987078393686382</v>
+        <v>0.9966908348169232</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4405,7 +4402,7 @@
         <v>131</v>
       </c>
       <c r="T22">
-        <v>71.06643578893696</v>
+        <v>77.49449186574968</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -4435,7 +4432,7 @@
         <v>216</v>
       </c>
       <c r="AH22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI22">
         <v>1560</v>
@@ -4548,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="O23">
-        <v>0.9923661547508316</v>
+        <v>0.9772306944369016</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4563,7 +4560,7 @@
         <v>132</v>
       </c>
       <c r="T23">
-        <v>147.8086692817523</v>
+        <v>148.6993701860184</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -4590,7 +4587,7 @@
         <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI23">
         <v>4702</v>
@@ -4700,7 +4697,7 @@
         <v>109</v>
       </c>
       <c r="O24">
-        <v>0.978094846902997</v>
+        <v>0.9812032425663659</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4715,7 +4712,7 @@
         <v>133</v>
       </c>
       <c r="T24">
-        <v>93.33460589879806</v>
+        <v>93.14920908614481</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -4745,7 +4742,7 @@
         <v>215</v>
       </c>
       <c r="AH24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI24">
         <v>4393</v>
@@ -4861,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="O25">
-        <v>0.9551328057843997</v>
+        <v>0.9875194876392167</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4876,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="T25">
-        <v>54.12370371612263</v>
+        <v>67.93223833238642</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -4903,13 +4900,13 @@
         <v>540</v>
       </c>
       <c r="AF25">
-        <v>5697</v>
+        <v>5163</v>
       </c>
       <c r="AG25" t="s">
         <v>216</v>
       </c>
       <c r="AH25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI25">
         <v>534</v>
@@ -5025,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="O26">
-        <v>0.9991013062044587</v>
+        <v>0.9974383420455454</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5040,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="T26">
-        <v>72.99045479867016</v>
+        <v>85.44824172023003</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5073,7 +5070,7 @@
         <v>216</v>
       </c>
       <c r="AH26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI26">
         <v>409</v>
@@ -5183,7 +5180,7 @@
         <v>109</v>
       </c>
       <c r="O27">
-        <v>0.9882632315907168</v>
+        <v>0.987873291976519</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5198,7 +5195,7 @@
         <v>136</v>
       </c>
       <c r="T27">
-        <v>42.56710294233747</v>
+        <v>48.3862686507663</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -5222,7 +5219,7 @@
         <v>213</v>
       </c>
       <c r="AH27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI27">
         <v>449</v>
@@ -5335,7 +5332,7 @@
         <v>109</v>
       </c>
       <c r="O28">
-        <v>0.9585146762703598</v>
+        <v>0.9650514019302625</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5350,7 +5347,7 @@
         <v>137</v>
       </c>
       <c r="T28">
-        <v>50.74020274045394</v>
+        <v>52.01452221998006</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -5481,7 +5478,7 @@
         <v>109</v>
       </c>
       <c r="O29">
-        <v>0.9688388913131653</v>
+        <v>0.9884187863149539</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5496,7 +5493,7 @@
         <v>138</v>
       </c>
       <c r="T29">
-        <v>81.07568316381358</v>
+        <v>90.67037774996147</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -5514,7 +5511,7 @@
         <v>217</v>
       </c>
       <c r="AH29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI29">
         <v>90</v>
@@ -5615,7 +5612,7 @@
         <v>109</v>
       </c>
       <c r="O30">
-        <v>0.9883237144537169</v>
+        <v>0.991387468128768</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5630,7 +5627,7 @@
         <v>139</v>
       </c>
       <c r="T30">
-        <v>37.4768667526158</v>
+        <v>65.46207863741141</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -5651,7 +5648,7 @@
         <v>217</v>
       </c>
       <c r="AH30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI30">
         <v>293</v>
@@ -5758,7 +5755,7 @@
         <v>109</v>
       </c>
       <c r="O31">
-        <v>0.9978217477060232</v>
+        <v>0.9953633121518665</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5773,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="T31">
-        <v>62.5896011704331</v>
+        <v>87.58609533951415</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -5806,7 +5803,7 @@
         <v>213</v>
       </c>
       <c r="AH31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AI31">
         <v>114</v>
@@ -5913,7 +5910,7 @@
         <v>109</v>
       </c>
       <c r="O32">
-        <v>0.983016721493746</v>
+        <v>0.9734298102002974</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5928,7 +5925,7 @@
         <v>141</v>
       </c>
       <c r="T32">
-        <v>84.5750768825398</v>
+        <v>132.1761945419189</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -5961,7 +5958,7 @@
         <v>215</v>
       </c>
       <c r="AH32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI32">
         <v>8952</v>
@@ -6077,7 +6074,7 @@
         <v>109</v>
       </c>
       <c r="O33">
-        <v>0.9989965404758312</v>
+        <v>0.9956379267604937</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6092,7 +6089,7 @@
         <v>142</v>
       </c>
       <c r="T33">
-        <v>153.7512569566155</v>
+        <v>153.0889969180106</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -6119,7 +6116,7 @@
         <v>214</v>
       </c>
       <c r="AH33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AI33">
         <v>172</v>
@@ -6232,7 +6229,7 @@
         <v>109</v>
       </c>
       <c r="O34">
-        <v>0.9775346624415908</v>
+        <v>0.97601411044696</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6247,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="T34">
-        <v>154.2590867517739</v>
+        <v>140.3097318806356</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -6390,7 +6387,7 @@
         <v>109</v>
       </c>
       <c r="O35">
-        <v>0.9989120094347583</v>
+        <v>0.9990783518784273</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6405,7 +6402,7 @@
         <v>144</v>
       </c>
       <c r="T35">
-        <v>47.69958377674879</v>
+        <v>62.03554104206539</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -6426,7 +6423,7 @@
         <v>213</v>
       </c>
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI35">
         <v>527</v>
@@ -6536,7 +6533,7 @@
         <v>109</v>
       </c>
       <c r="O36">
-        <v>0.9952196654605417</v>
+        <v>0.997211353672802</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6551,7 +6548,7 @@
         <v>145</v>
       </c>
       <c r="T36">
-        <v>221.45435052803</v>
+        <v>179.67355524279</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -6578,7 +6575,7 @@
         <v>214</v>
       </c>
       <c r="AH36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI36">
         <v>33</v>
@@ -6688,7 +6685,7 @@
         <v>109</v>
       </c>
       <c r="O37">
-        <v>0.9923983989421158</v>
+        <v>0.9905154583603117</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6703,7 +6700,7 @@
         <v>146</v>
       </c>
       <c r="T37">
-        <v>44.25455026786602</v>
+        <v>54.78060111382486</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -6855,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="O38">
-        <v>0.9876867348507868</v>
+        <v>0.9925129408212375</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6870,7 +6867,7 @@
         <v>147</v>
       </c>
       <c r="T38">
-        <v>69.24220613287214</v>
+        <v>82.72274076540145</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -7016,7 +7013,7 @@
         <v>109</v>
       </c>
       <c r="O39">
-        <v>0.9917189161444635</v>
+        <v>0.993852897857794</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7031,7 +7028,7 @@
         <v>148</v>
       </c>
       <c r="T39">
-        <v>41.78019959210391</v>
+        <v>46.63702265997834</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -7064,7 +7061,7 @@
         <v>215</v>
       </c>
       <c r="AH39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI39">
         <v>124</v>
@@ -7174,7 +7171,7 @@
         <v>109</v>
       </c>
       <c r="O40">
-        <v>0.986296132884417</v>
+        <v>0.9809859915649997</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7189,7 +7186,7 @@
         <v>149</v>
       </c>
       <c r="T40">
-        <v>45.78502327968599</v>
+        <v>50.17593883676927</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -7326,7 +7323,7 @@
         <v>109</v>
       </c>
       <c r="O41">
-        <v>0.990553677168119</v>
+        <v>0.9755748197615287</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7341,7 +7338,7 @@
         <v>150</v>
       </c>
       <c r="T41">
-        <v>244.4853057614066</v>
+        <v>256.6893778449509</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -7374,7 +7371,7 @@
         <v>215</v>
       </c>
       <c r="AH41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AI41">
         <v>399</v>
@@ -7493,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="O42">
-        <v>0.9898418468969139</v>
+        <v>0.9936671403195644</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7508,7 +7505,7 @@
         <v>151</v>
       </c>
       <c r="T42">
-        <v>36.96196186252747</v>
+        <v>61.08178658348977</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -7532,7 +7529,7 @@
         <v>213</v>
       </c>
       <c r="AH42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AI42">
         <v>316</v>
@@ -7642,7 +7639,7 @@
         <v>109</v>
       </c>
       <c r="O43">
-        <v>0.9785897880225279</v>
+        <v>0.9836216898177923</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7657,7 +7654,7 @@
         <v>152</v>
       </c>
       <c r="T43">
-        <v>68.38573612617976</v>
+        <v>63.90013913819039</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -7797,7 +7794,7 @@
         <v>109</v>
       </c>
       <c r="O44">
-        <v>0.9951962487659342</v>
+        <v>0.9954036235576912</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7812,7 +7809,7 @@
         <v>153</v>
       </c>
       <c r="T44">
-        <v>109.253479336339</v>
+        <v>115.7151667119078</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -7940,7 +7937,7 @@
         <v>109</v>
       </c>
       <c r="O45">
-        <v>0.9948357592660498</v>
+        <v>0.9971024231022834</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7955,7 +7952,7 @@
         <v>154</v>
       </c>
       <c r="T45">
-        <v>61.44567515281533</v>
+        <v>55.57058620283092</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -7979,7 +7976,7 @@
         <v>213</v>
       </c>
       <c r="AH45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AI45">
         <v>1004</v>
@@ -8089,7 +8086,7 @@
         <v>109</v>
       </c>
       <c r="O46">
-        <v>0.9970211175116955</v>
+        <v>0.9971953379631662</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8104,7 +8101,7 @@
         <v>155</v>
       </c>
       <c r="T46">
-        <v>135.4424773812359</v>
+        <v>109.3584255820245</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -8137,7 +8134,7 @@
         <v>213</v>
       </c>
       <c r="AH46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AI46">
         <v>61</v>
@@ -8244,7 +8241,7 @@
         <v>109</v>
       </c>
       <c r="O47">
-        <v>0.9545195582373056</v>
+        <v>0.9644765463176461</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8259,7 +8256,7 @@
         <v>156</v>
       </c>
       <c r="T47">
-        <v>55.76868578120869</v>
+        <v>67.485916758752</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -8268,10 +8265,10 @@
         <v>207</v>
       </c>
       <c r="W47">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="X47">
-        <v>18089</v>
+        <v>17222</v>
       </c>
       <c r="Z47">
         <v>15</v>
@@ -8283,16 +8280,16 @@
         <v>213</v>
       </c>
       <c r="AH47" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AI47">
         <v>53</v>
       </c>
       <c r="AK47">
-        <v>19008</v>
+        <v>18140</v>
       </c>
       <c r="AL47">
-        <v>19008</v>
+        <v>18140</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -8301,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="AP47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="AR47" t="s">
         <v>108</v>
@@ -8316,13 +8313,13 @@
         <v>789.9297437114266</v>
       </c>
       <c r="AT47">
-        <v>0.001472782372766187</v>
+        <v>0.001471179780412796</v>
       </c>
       <c r="AU47">
-        <v>0.02898929308048699</v>
+        <v>0.02759984551009713</v>
       </c>
       <c r="AV47">
-        <v>4.83</v>
+        <v>5.06</v>
       </c>
       <c r="AW47">
         <v>0.03046207545325318</v>
@@ -8340,10 +8337,10 @@
         <v>1.724275869600789</v>
       </c>
       <c r="BB47">
-        <v>4.257414558762187</v>
+        <v>4.236083584895046</v>
       </c>
       <c r="BC47">
-        <v>2.963315511386111</v>
+        <v>2.962842681201242</v>
       </c>
       <c r="BD47">
         <v>1.176091259055681</v>
@@ -8393,7 +8390,7 @@
         <v>109</v>
       </c>
       <c r="O48">
-        <v>0.9992866063331659</v>
+        <v>0.9992004542801751</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8408,7 +8405,7 @@
         <v>157</v>
       </c>
       <c r="T48">
-        <v>47.9493530413047</v>
+        <v>59.15974433611961</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -8444,7 +8441,7 @@
         <v>215</v>
       </c>
       <c r="AH48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI48">
         <v>812</v>
@@ -8554,7 +8551,7 @@
         <v>109</v>
       </c>
       <c r="O49">
-        <v>0.9850349045409454</v>
+        <v>0.9917395335531803</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8569,7 +8566,7 @@
         <v>158</v>
       </c>
       <c r="T49">
-        <v>68.94183843362015</v>
+        <v>68.51882227104601</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -8578,10 +8575,10 @@
         <v>209</v>
       </c>
       <c r="W49">
-        <v>16231</v>
+        <v>17273</v>
       </c>
       <c r="X49">
-        <v>214449</v>
+        <v>238978</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -8593,16 +8590,16 @@
         <v>213</v>
       </c>
       <c r="AH49" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AI49">
         <v>891</v>
       </c>
       <c r="AK49">
-        <v>230680</v>
+        <v>256251</v>
       </c>
       <c r="AL49">
-        <v>230680</v>
+        <v>256251</v>
       </c>
       <c r="AM49">
         <v>21</v>
@@ -8611,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>5541</v>
+        <v>5769</v>
       </c>
       <c r="AP49">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="AQ49">
-        <v>5867</v>
+        <v>6014</v>
       </c>
       <c r="AR49" t="s">
         <v>108</v>
@@ -8626,13 +8623,13 @@
         <v>2759.50955787437</v>
       </c>
       <c r="AT49">
-        <v>0.002131481033285694</v>
+        <v>0.002268318149710048</v>
       </c>
       <c r="AU49">
-        <v>0.0281617876968199</v>
+        <v>0.03138297544036404</v>
       </c>
       <c r="AV49">
-        <v>7.04</v>
+        <v>6.74</v>
       </c>
       <c r="AW49">
         <v>0.0302932687301056</v>
@@ -8650,10 +8647,10 @@
         <v>2.956648579205203</v>
       </c>
       <c r="BB49">
-        <v>5.331324025415407</v>
+        <v>5.378357922210168</v>
       </c>
       <c r="BC49">
-        <v>4.21034527775002</v>
+        <v>4.237367773021761</v>
       </c>
       <c r="BD49">
         <v>2.594392550375427</v>
@@ -8700,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="O50">
-        <v>0.9842422604658922</v>
+        <v>0.9894950134223128</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8715,7 +8712,7 @@
         <v>159</v>
       </c>
       <c r="T50">
-        <v>140.8878877855167</v>
+        <v>90.42256454859745</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -8745,7 +8742,7 @@
         <v>214</v>
       </c>
       <c r="AH50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AI50">
         <v>51</v>
@@ -8861,7 +8858,7 @@
         <v>109</v>
       </c>
       <c r="O51">
-        <v>0.9965319167051916</v>
+        <v>0.9987650483927512</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8876,7 +8873,7 @@
         <v>160</v>
       </c>
       <c r="T51">
-        <v>52.89185060199839</v>
+        <v>66.15480777122553</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -9028,7 +9025,7 @@
         <v>109</v>
       </c>
       <c r="O52">
-        <v>0.9875277530189548</v>
+        <v>0.9887391077291161</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9043,7 +9040,7 @@
         <v>161</v>
       </c>
       <c r="T52">
-        <v>48.6821626910488</v>
+        <v>58.1934737590841</v>
       </c>
       <c r="U52">
         <v>20200508</v>
@@ -9070,7 +9067,7 @@
         <v>214</v>
       </c>
       <c r="AH52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI52">
         <v>7</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="299">
   <si>
     <t>Province_State</t>
   </si>
@@ -115,31 +115,67 @@
     <t>lastUpdateEt</t>
   </si>
   <si>
+    <t>dateModified</t>
+  </si>
+  <si>
+    <t>checkTimeEt</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
     <t>hospitalized</t>
   </si>
   <si>
+    <t>totalTestsViral</t>
+  </si>
+  <si>
+    <t>positiveTestsViral</t>
+  </si>
+  <si>
+    <t>negativeTestsViral</t>
+  </si>
+  <si>
+    <t>positiveCasesViral</t>
+  </si>
+  <si>
+    <t>positiveIncrease</t>
+  </si>
+  <si>
+    <t>negativeIncrease</t>
+  </si>
+  <si>
     <t>total</t>
   </si>
   <si>
     <t>totalTestResults</t>
   </si>
   <si>
+    <t>totalTestResultsIncrease</t>
+  </si>
+  <si>
     <t>deathIncrease</t>
   </si>
   <si>
     <t>hospitalizedIncrease</t>
   </si>
   <si>
-    <t>negativeIncrease</t>
-  </si>
-  <si>
-    <t>positiveIncrease</t>
-  </si>
-  <si>
-    <t>totalTestResultsIncrease</t>
+    <t>commercialScore</t>
+  </si>
+  <si>
+    <t>negativeRegularScore</t>
+  </si>
+  <si>
+    <t>negativeScore</t>
+  </si>
+  <si>
+    <t>positiveScore</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>grade</t>
   </si>
   <si>
     <t>formatted_dates</t>
@@ -737,6 +773,144 @@
   </si>
   <si>
     <t>5/7/2020 04:28</t>
+  </si>
+  <si>
+    <t>2020-05-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T08:15:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T20:30:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T18:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T10:10:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T15:25:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T19:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T23:59:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T10:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T17:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T17:45:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-08T12:50:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T06:09:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T16:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-05-07T04:28:00Z</t>
+  </si>
+  <si>
+    <t>05/07 20:00</t>
+  </si>
+  <si>
+    <t>05/08 04:15</t>
+  </si>
+  <si>
+    <t>05/08 10:00</t>
+  </si>
+  <si>
+    <t>05/05 20:00</t>
+  </si>
+  <si>
+    <t>05/07 16:30</t>
+  </si>
+  <si>
+    <t>05/07 14:00</t>
+  </si>
+  <si>
+    <t>05/06 20:00</t>
+  </si>
+  <si>
+    <t>05/08 06:10</t>
+  </si>
+  <si>
+    <t>05/08 11:25</t>
+  </si>
+  <si>
+    <t>05/07 15:00</t>
+  </si>
+  <si>
+    <t>05/07 19:59</t>
+  </si>
+  <si>
+    <t>05/08 06:00</t>
+  </si>
+  <si>
+    <t>05/07 13:00</t>
+  </si>
+  <si>
+    <t>05/08 09:00</t>
+  </si>
+  <si>
+    <t>05/08 08:00</t>
+  </si>
+  <si>
+    <t>05/08 07:00</t>
+  </si>
+  <si>
+    <t>05/08 11:00</t>
+  </si>
+  <si>
+    <t>05/07 13:45</t>
+  </si>
+  <si>
+    <t>05/08 08:50</t>
+  </si>
+  <si>
+    <t>05/07 05:00</t>
+  </si>
+  <si>
+    <t>05/07 02:09</t>
+  </si>
+  <si>
+    <t>05/07 12:13</t>
+  </si>
+  <si>
+    <t>05/07 00:28</t>
   </si>
 </sst>
 </file>
@@ -1094,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF52"/>
+  <dimension ref="A1:BR52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:70">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,16 +1446,52 @@
       <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1326</v>
+        <v>1275</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>9385</v>
@@ -1311,10 +1521,10 @@
         <v>4903185</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O2">
-        <v>0.997536999013395</v>
+        <v>0.9961548173283249</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1326,16 +1536,16 @@
         <v>15.6</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="T2">
-        <v>79.51351706419696</v>
+        <v>91.53394787277495</v>
       </c>
       <c r="U2">
         <v>20200508</v>
       </c>
       <c r="V2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="W2">
         <v>9221</v>
@@ -1353,84 +1563,108 @@
         <v>266</v>
       </c>
       <c r="AG2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI2">
+        <v>230</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK2">
         <v>375</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>1207</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>9221</v>
+      </c>
+      <c r="AQ2">
+        <v>323</v>
+      </c>
+      <c r="AR2">
+        <v>4618</v>
+      </c>
+      <c r="AS2">
         <v>120114</v>
       </c>
-      <c r="AL2">
+      <c r="AT2">
         <v>120114</v>
       </c>
-      <c r="AM2">
+      <c r="AU2">
+        <v>4941</v>
+      </c>
+      <c r="AV2">
         <v>26</v>
       </c>
-      <c r="AN2">
+      <c r="AW2">
         <v>29</v>
       </c>
-      <c r="AO2">
-        <v>4618</v>
-      </c>
-      <c r="AP2">
-        <v>323</v>
-      </c>
-      <c r="AQ2">
-        <v>4941</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS2">
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE2">
         <v>2214.313663418081</v>
       </c>
-      <c r="AT2">
+      <c r="BF2">
         <v>0.001880614335375883</v>
       </c>
-      <c r="AU2">
+      <c r="BG2">
         <v>0.02261652374935883</v>
       </c>
-      <c r="AV2">
+      <c r="BH2">
         <v>7.68</v>
       </c>
-      <c r="AW2">
+      <c r="BI2">
         <v>0.02449713808473472</v>
       </c>
-      <c r="AX2">
+      <c r="BJ2">
         <v>6.690478279736778</v>
       </c>
-      <c r="AY2">
+      <c r="BK2">
         <v>5.079593629954077</v>
       </c>
-      <c r="AZ2">
+      <c r="BL2">
         <v>3.972434276957365</v>
       </c>
-      <c r="BA2">
+      <c r="BM2">
         <v>2.583198773968623</v>
       </c>
-      <c r="BB2">
+      <c r="BN2">
         <v>5.044904132647613</v>
       </c>
-      <c r="BC2">
+      <c r="BO2">
         <v>3.964778022022376</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1327</v>
+        <v>1276</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>377</v>
@@ -1457,10 +1691,10 @@
         <v>731545</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9811860175730837</v>
+        <v>0.9396936619575512</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1472,16 +1706,16 @@
         <v>12.6</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="T3">
-        <v>114.3808916466667</v>
+        <v>149.9804404139065</v>
       </c>
       <c r="U3">
         <v>20200508</v>
       </c>
       <c r="V3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="W3">
         <v>377</v>
@@ -1496,84 +1730,108 @@
         <v>305</v>
       </c>
       <c r="AG3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI3">
+        <v>230</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK3">
         <v>10</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>25473</v>
       </c>
-      <c r="AL3">
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>1129</v>
+      </c>
+      <c r="AS3">
         <v>25473</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>1129</v>
-      </c>
-      <c r="AP3">
-        <v>3</v>
-      </c>
-      <c r="AQ3">
+      <c r="AT3">
+        <v>25473</v>
+      </c>
+      <c r="AU3">
         <v>1132</v>
       </c>
-      <c r="AR3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS3">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE3">
         <v>855.3040395087586</v>
       </c>
-      <c r="AT3">
+      <c r="BF3">
         <v>0.0005153476546213836</v>
       </c>
-      <c r="AU3">
+      <c r="BG3">
         <v>0.03430547676492902</v>
       </c>
-      <c r="AV3">
+      <c r="BH3">
         <v>1.48</v>
       </c>
-      <c r="AW3">
+      <c r="BI3">
         <v>0.0348208244195504</v>
       </c>
-      <c r="AX3">
+      <c r="BJ3">
         <v>5.864241046319956</v>
       </c>
-      <c r="AY3">
+      <c r="BK3">
         <v>4.406080095600492</v>
       </c>
-      <c r="AZ3">
+      <c r="BL3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BA3">
+      <c r="BM3">
         <v>1</v>
       </c>
-      <c r="BB3">
+      <c r="BN3">
         <v>4.399604505689688</v>
       </c>
-      <c r="BC3">
+      <c r="BO3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BD3">
+      <c r="BP3">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1328</v>
+        <v>1277</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>10526</v>
@@ -1606,10 +1864,10 @@
         <v>7278717</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9985862770639508</v>
+        <v>0.9585735101071652</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1621,16 +1879,16 @@
         <v>13.2</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="T4">
-        <v>50.39785327235814</v>
+        <v>72.4740470704175</v>
       </c>
       <c r="U4">
         <v>20200508</v>
       </c>
       <c r="V4" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="W4">
         <v>10526</v>
@@ -1642,7 +1900,7 @@
         <v>730</v>
       </c>
       <c r="AA4">
-        <v>1482</v>
+        <v>2350</v>
       </c>
       <c r="AB4">
         <v>295</v>
@@ -1654,93 +1912,117 @@
         <v>1747</v>
       </c>
       <c r="AG4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI4">
+        <v>230</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK4">
         <v>517</v>
       </c>
-      <c r="AJ4">
-        <v>1482</v>
-      </c>
-      <c r="AK4">
+      <c r="AL4">
+        <v>2350</v>
+      </c>
+      <c r="AM4">
         <v>101125</v>
       </c>
-      <c r="AL4">
+      <c r="AQ4">
+        <v>581</v>
+      </c>
+      <c r="AR4">
+        <v>4110</v>
+      </c>
+      <c r="AS4">
         <v>101125</v>
       </c>
-      <c r="AM4">
+      <c r="AT4">
+        <v>101125</v>
+      </c>
+      <c r="AU4">
+        <v>4691</v>
+      </c>
+      <c r="AV4">
         <v>67</v>
       </c>
-      <c r="AN4">
-        <v>33</v>
-      </c>
-      <c r="AO4">
-        <v>4110</v>
-      </c>
-      <c r="AP4">
-        <v>581</v>
-      </c>
-      <c r="AQ4">
-        <v>4691</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS4">
+      <c r="AW4">
+        <v>58</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4">
         <v>2697.909746451871</v>
       </c>
-      <c r="AT4">
+      <c r="BF4">
         <v>0.001446133982128993</v>
       </c>
-      <c r="AU4">
+      <c r="BG4">
         <v>0.01244711121479239</v>
       </c>
-      <c r="AV4">
+      <c r="BH4">
         <v>10.41</v>
       </c>
-      <c r="AW4">
+      <c r="BI4">
         <v>0.01647364501188877</v>
       </c>
-      <c r="AX4">
+      <c r="BJ4">
         <v>6.862054834130968</v>
       </c>
-      <c r="AY4">
+      <c r="BK4">
         <v>5.078844537332663</v>
       </c>
-      <c r="AZ4">
+      <c r="BL4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BA4">
+      <c r="BM4">
         <v>2.713490543093942</v>
       </c>
-      <c r="BB4">
+      <c r="BN4">
         <v>4.95712340411303</v>
       </c>
-      <c r="BC4">
+      <c r="BO4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BD4">
+      <c r="BP4">
         <v>2.863322860120456</v>
       </c>
-      <c r="BE4">
+      <c r="BQ4">
         <v>2.469822015978163</v>
       </c>
-      <c r="BF4">
+      <c r="BR4">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1329</v>
+        <v>1278</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>3747</v>
@@ -1773,10 +2055,10 @@
         <v>3017804</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9927874700751119</v>
+        <v>0.9782316520703097</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -1788,16 +2070,16 @@
         <v>15.4</v>
       </c>
       <c r="S5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="T5">
-        <v>69.31463352662821</v>
+        <v>99.37484707052971</v>
       </c>
       <c r="U5">
         <v>20200508</v>
       </c>
       <c r="V5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="W5">
         <v>3694</v>
@@ -1821,90 +2103,114 @@
         <v>2159</v>
       </c>
       <c r="AG5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI5">
+        <v>231</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AK5">
         <v>88</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>466</v>
       </c>
-      <c r="AK5">
+      <c r="AP5">
+        <v>3694</v>
+      </c>
+      <c r="AQ5">
+        <v>83</v>
+      </c>
+      <c r="AR5">
+        <v>3916</v>
+      </c>
+      <c r="AS5">
         <v>63994</v>
       </c>
-      <c r="AL5">
+      <c r="AT5">
         <v>63994</v>
       </c>
-      <c r="AM5">
+      <c r="AU5">
+        <v>3999</v>
+      </c>
+      <c r="AV5">
         <v>1</v>
       </c>
-      <c r="AN5">
+      <c r="AW5">
         <v>4</v>
       </c>
-      <c r="AO5">
-        <v>3916</v>
-      </c>
-      <c r="AP5">
-        <v>83</v>
-      </c>
-      <c r="AQ5">
-        <v>3999</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS5">
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE5">
         <v>1737.182776796961</v>
       </c>
-      <c r="AT5">
+      <c r="BF5">
         <v>0.001224068892479432</v>
       </c>
-      <c r="AU5">
+      <c r="BG5">
         <v>0.01998141695086891</v>
       </c>
-      <c r="AV5">
+      <c r="BH5">
         <v>5.77</v>
       </c>
-      <c r="AW5">
+      <c r="BI5">
         <v>0.02120548584334834</v>
       </c>
-      <c r="AX5">
+      <c r="BJ5">
         <v>6.479691029845591</v>
       </c>
-      <c r="AY5">
+      <c r="BK5">
         <v>4.806139256967569</v>
       </c>
-      <c r="AZ5">
+      <c r="BL5">
         <v>3.573683693093798</v>
       </c>
-      <c r="BA5">
+      <c r="BM5">
         <v>1.944482672150169</v>
       </c>
-      <c r="BB5">
+      <c r="BN5">
         <v>4.780317312140151</v>
       </c>
-      <c r="BC5">
+      <c r="BO5">
         <v>3.567496891104223</v>
       </c>
-      <c r="BD5">
+      <c r="BP5">
         <v>1.845098040014257</v>
       </c>
-      <c r="BF5">
+      <c r="BR5">
         <v>1.146128035678238</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1330</v>
+        <v>1279</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>63779</v>
@@ -1928,10 +2234,10 @@
         <v>39512223</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O6">
-        <v>0.998089826195516</v>
+        <v>0.9987941687246119</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -1943,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="T6">
-        <v>86.78721973204053</v>
+        <v>114.621214595318</v>
       </c>
       <c r="U6">
         <v>20200508</v>
       </c>
       <c r="V6" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="W6">
         <v>62512</v>
@@ -1967,87 +2273,114 @@
         <v>1342</v>
       </c>
       <c r="AG6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI6">
+        <v>232</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK6">
         <v>2585</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>875272</v>
       </c>
-      <c r="AL6">
+      <c r="AP6">
+        <v>62512</v>
+      </c>
+      <c r="AQ6">
+        <v>1898</v>
+      </c>
+      <c r="AR6">
+        <v>30500</v>
+      </c>
+      <c r="AS6">
         <v>875272</v>
       </c>
-      <c r="AM6">
+      <c r="AT6">
+        <v>875272</v>
+      </c>
+      <c r="AU6">
+        <v>32398</v>
+      </c>
+      <c r="AV6">
         <v>81</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>30500</v>
-      </c>
-      <c r="AP6">
-        <v>1898</v>
-      </c>
-      <c r="AQ6">
-        <v>32398</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS6">
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE6">
         <v>6285.874879442002</v>
       </c>
-      <c r="AT6">
+      <c r="BF6">
         <v>0.001582092710906192</v>
       </c>
-      <c r="AU6">
+      <c r="BG6">
         <v>0.02056983733868884</v>
       </c>
-      <c r="AV6">
+      <c r="BH6">
         <v>7.14</v>
       </c>
-      <c r="AW6">
+      <c r="BI6">
         <v>0.02215193004959503</v>
       </c>
-      <c r="AX6">
+      <c r="BJ6">
         <v>7.596731464241672</v>
       </c>
-      <c r="AY6">
+      <c r="BK6">
         <v>5.942143035585056</v>
       </c>
-      <c r="AZ6">
+      <c r="BL6">
         <v>4.804677705595455</v>
       </c>
-      <c r="BA6">
+      <c r="BM6">
         <v>3.417139409727326</v>
       </c>
-      <c r="BB6">
+      <c r="BN6">
         <v>5.909962321653986</v>
       </c>
-      <c r="BC6">
+      <c r="BO6">
         <v>4.795963393880709</v>
       </c>
-      <c r="BD6">
+      <c r="BP6">
         <v>3.654561554741743</v>
       </c>
-      <c r="BE6">
+      <c r="BQ6">
         <v>3.127752515832973</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1331</v>
+        <v>1280</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>18827</v>
@@ -2080,10 +2413,10 @@
         <v>5758736</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9900583349451499</v>
+        <v>0.9860540186790731</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2095,16 +2428,16 @@
         <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="T7">
-        <v>49.22962768255079</v>
+        <v>62.20774888055355</v>
       </c>
       <c r="U7">
         <v>20200508</v>
       </c>
       <c r="V7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="W7">
         <v>18801</v>
@@ -2122,87 +2455,111 @@
         <v>2869</v>
       </c>
       <c r="AG7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI7">
+        <v>233</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AK7">
         <v>961</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>3557</v>
       </c>
-      <c r="AK7">
+      <c r="AP7">
+        <v>16532</v>
+      </c>
+      <c r="AQ7">
+        <v>971</v>
+      </c>
+      <c r="AR7">
+        <v>2218</v>
+      </c>
+      <c r="AS7">
         <v>94536</v>
       </c>
-      <c r="AL7">
+      <c r="AT7">
         <v>94536</v>
       </c>
-      <c r="AM7">
+      <c r="AU7">
+        <v>3189</v>
+      </c>
+      <c r="AV7">
         <v>40</v>
       </c>
-      <c r="AN7">
+      <c r="AW7">
         <v>571</v>
       </c>
-      <c r="AO7">
-        <v>2218</v>
-      </c>
-      <c r="AP7">
-        <v>971</v>
-      </c>
-      <c r="AQ7">
-        <v>3189</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS7">
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE7">
         <v>2399.736652218322</v>
       </c>
-      <c r="AT7">
+      <c r="BF7">
         <v>0.003264778937600196</v>
       </c>
-      <c r="AU7">
+      <c r="BG7">
         <v>0.01315132348487585</v>
       </c>
-      <c r="AV7">
+      <c r="BH7">
         <v>19.89</v>
       </c>
-      <c r="AW7">
+      <c r="BI7">
         <v>0.01641610242247604</v>
       </c>
-      <c r="AX7">
+      <c r="BJ7">
         <v>6.760327169453462</v>
       </c>
-      <c r="AY7">
+      <c r="BK7">
         <v>4.975597222520748</v>
       </c>
-      <c r="AZ7">
+      <c r="BL7">
         <v>4.274781122605907</v>
       </c>
-      <c r="BA7">
+      <c r="BM7">
         <v>2.982271233039568</v>
       </c>
-      <c r="BB7">
+      <c r="BN7">
         <v>4.879296629751168</v>
       </c>
-      <c r="BC7">
+      <c r="BO7">
         <v>4.274180949419634</v>
       </c>
-      <c r="BD7">
+      <c r="BP7">
         <v>2.914343157119441</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1332</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>32411</v>
@@ -2235,10 +2592,10 @@
         <v>3565287</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9767941527145232</v>
+        <v>0.9726436968450395</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2250,16 +2607,16 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="T8">
-        <v>116.333347065589</v>
+        <v>147.7700549584814</v>
       </c>
       <c r="U8">
         <v>20200508</v>
       </c>
       <c r="V8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="W8">
         <v>32411</v>
@@ -2277,87 +2634,111 @@
         <v>5413</v>
       </c>
       <c r="AG8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI8">
+        <v>234</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK8">
         <v>2874</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>9389</v>
       </c>
-      <c r="AK8">
+      <c r="AP8">
+        <v>32411</v>
+      </c>
+      <c r="AQ8">
+        <v>627</v>
+      </c>
+      <c r="AR8">
+        <v>3740</v>
+      </c>
+      <c r="AS8">
         <v>120541</v>
       </c>
-      <c r="AL8">
+      <c r="AT8">
         <v>120541</v>
       </c>
-      <c r="AM8">
+      <c r="AU8">
+        <v>4367</v>
+      </c>
+      <c r="AV8">
         <v>77</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>3740</v>
-      </c>
-      <c r="AP8">
-        <v>627</v>
-      </c>
-      <c r="AQ8">
-        <v>4367</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE8">
         <v>1888.19675881514</v>
       </c>
-      <c r="AT8">
+      <c r="BF8">
         <v>0.009090712753279049</v>
       </c>
-      <c r="AU8">
+      <c r="BG8">
         <v>0.02471890762230362</v>
       </c>
-      <c r="AV8">
+      <c r="BH8">
         <v>26.89</v>
       </c>
-      <c r="AW8">
+      <c r="BI8">
         <v>0.03380962037558267</v>
       </c>
-      <c r="AX8">
+      <c r="BJ8">
         <v>6.552094495618293</v>
       </c>
-      <c r="AY8">
+      <c r="BK8">
         <v>5.081134790024547</v>
       </c>
-      <c r="AZ8">
+      <c r="BL8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BA8">
+      <c r="BM8">
         <v>3.458486763798207</v>
       </c>
-      <c r="BB8">
+      <c r="BN8">
         <v>4.94512377012212</v>
       </c>
-      <c r="BC8">
+      <c r="BO8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BD8">
+      <c r="BP8">
         <v>3.122870922864435</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1333</v>
+        <v>1282</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>6111</v>
@@ -2384,10 +2765,10 @@
         <v>973764</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9914408095960948</v>
+        <v>0.9719125100354388</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2399,16 +2780,16 @@
         <v>8.1</v>
       </c>
       <c r="S9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="T9">
-        <v>101.5095505449412</v>
+        <v>126.6392305279023</v>
       </c>
       <c r="U9">
         <v>20200508</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="W9">
         <v>6111</v>
@@ -2423,84 +2804,108 @@
         <v>2288</v>
       </c>
       <c r="AG9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH9" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI9">
-        <v>213</v>
+        <v>235</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>281</v>
       </c>
       <c r="AK9">
+        <v>297</v>
+      </c>
+      <c r="AP9">
+        <v>6111</v>
+      </c>
+      <c r="AQ9">
+        <v>172</v>
+      </c>
+      <c r="AR9">
+        <v>766</v>
+      </c>
+      <c r="AS9">
         <v>28264</v>
       </c>
-      <c r="AL9">
+      <c r="AT9">
         <v>28264</v>
       </c>
-      <c r="AM9">
-        <v>11</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>766</v>
-      </c>
-      <c r="AP9">
-        <v>172</v>
-      </c>
-      <c r="AQ9">
+      <c r="AU9">
         <v>938</v>
       </c>
-      <c r="AR9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS9">
+      <c r="AV9">
+        <v>12</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE9">
         <v>986.7948114983175</v>
       </c>
-      <c r="AT9">
+      <c r="BF9">
         <v>0.006275647898258715</v>
       </c>
-      <c r="AU9">
+      <c r="BG9">
         <v>0.02274986547048361</v>
       </c>
-      <c r="AV9">
+      <c r="BH9">
         <v>21.62</v>
       </c>
-      <c r="AW9">
+      <c r="BI9">
         <v>0.02902551336874232</v>
       </c>
-      <c r="AX9">
+      <c r="BJ9">
         <v>5.98845371466423</v>
       </c>
-      <c r="AY9">
+      <c r="BK9">
         <v>4.451233624426789</v>
       </c>
-      <c r="AZ9">
+      <c r="BL9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BA9">
+      <c r="BM9">
         <v>2.328379603438738</v>
       </c>
-      <c r="BB9">
+      <c r="BN9">
         <v>4.345432547499147</v>
       </c>
-      <c r="BC9">
+      <c r="BO9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BD9">
+      <c r="BP9">
         <v>2.460897842756548</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1334</v>
+        <v>1283</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>5899</v>
@@ -2527,10 +2932,10 @@
         <v>705749</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9928459735479503</v>
+        <v>0.978849421709537</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2542,16 +2947,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="T10">
-        <v>119.5934447723671</v>
+        <v>133.2805559023537</v>
       </c>
       <c r="U10">
         <v>20200508</v>
       </c>
       <c r="V10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="W10">
         <v>5899</v>
@@ -2572,90 +2977,114 @@
         <v>825</v>
       </c>
       <c r="AG10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI10">
+        <v>236</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK10">
         <v>304</v>
       </c>
-      <c r="AK10">
+      <c r="AP10">
+        <v>5899</v>
+      </c>
+      <c r="AQ10">
+        <v>245</v>
+      </c>
+      <c r="AR10">
+        <v>1014</v>
+      </c>
+      <c r="AS10">
         <v>27115</v>
       </c>
-      <c r="AL10">
+      <c r="AT10">
         <v>27115</v>
       </c>
-      <c r="AM10">
+      <c r="AU10">
+        <v>1259</v>
+      </c>
+      <c r="AV10">
         <v>19</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>1014</v>
-      </c>
-      <c r="AP10">
-        <v>245</v>
-      </c>
-      <c r="AQ10">
-        <v>1259</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS10">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE10">
         <v>840.0886857945416</v>
       </c>
-      <c r="AT10">
+      <c r="BF10">
         <v>0.008358495725817535</v>
       </c>
-      <c r="AU10">
+      <c r="BG10">
         <v>0.03006167915221984</v>
       </c>
-      <c r="AV10">
+      <c r="BH10">
         <v>21.76</v>
       </c>
-      <c r="AW10">
+      <c r="BI10">
         <v>0.03842017487803737</v>
       </c>
-      <c r="AX10">
+      <c r="BJ10">
         <v>5.848650271452624</v>
       </c>
-      <c r="AY10">
+      <c r="BK10">
         <v>4.433209608771474</v>
       </c>
-      <c r="AZ10">
+      <c r="BL10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BA10">
+      <c r="BM10">
         <v>2.482873583608754</v>
       </c>
-      <c r="BB10">
+      <c r="BN10">
         <v>4.326663506724679</v>
       </c>
-      <c r="BC10">
+      <c r="BO10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BD10">
+      <c r="BP10">
         <v>2.650307523131937</v>
       </c>
-      <c r="BE10">
+      <c r="BQ10">
         <v>2.113943352306837</v>
       </c>
-      <c r="BF10">
+      <c r="BR10">
         <v>1.959041392321094</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1335</v>
+        <v>1284</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D11">
         <v>39199</v>
@@ -2685,10 +3114,10 @@
         <v>21477737</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O11">
-        <v>0.986534084877519</v>
+        <v>0.9806884548028498</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -2700,16 +3129,16 @@
         <v>13.5</v>
       </c>
       <c r="S11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="T11">
-        <v>75.89301349114884</v>
+        <v>96.85147746037484</v>
       </c>
       <c r="U11">
         <v>20200508</v>
       </c>
       <c r="V11" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="W11">
         <v>39199</v>
@@ -2724,84 +3153,108 @@
         <v>7157</v>
       </c>
       <c r="AG11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI11">
+        <v>237</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AK11">
         <v>1738</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>7157</v>
       </c>
-      <c r="AK11">
+      <c r="AP11">
+        <v>39199</v>
+      </c>
+      <c r="AQ11">
+        <v>371</v>
+      </c>
+      <c r="AR11">
+        <v>20020</v>
+      </c>
+      <c r="AS11">
         <v>514774</v>
       </c>
-      <c r="AL11">
+      <c r="AT11">
         <v>513341</v>
       </c>
-      <c r="AM11">
+      <c r="AU11">
+        <v>20391</v>
+      </c>
+      <c r="AV11">
         <v>71</v>
       </c>
-      <c r="AN11">
+      <c r="AW11">
         <v>167</v>
       </c>
-      <c r="AO11">
-        <v>20020</v>
-      </c>
-      <c r="AP11">
-        <v>371</v>
-      </c>
-      <c r="AQ11">
-        <v>20391</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS11">
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE11">
         <v>4634.40794492673</v>
       </c>
-      <c r="AT11">
+      <c r="BF11">
         <v>0.001825099171295374</v>
       </c>
-      <c r="AU11">
+      <c r="BG11">
         <v>0.02207597569520476</v>
       </c>
-      <c r="AV11">
+      <c r="BH11">
         <v>7.64</v>
       </c>
-      <c r="AW11">
+      <c r="BI11">
         <v>0.02390107486650013</v>
       </c>
-      <c r="AX11">
+      <c r="BJ11">
         <v>7.331988520035549</v>
       </c>
-      <c r="AY11">
+      <c r="BK11">
         <v>5.710405952284654</v>
       </c>
-      <c r="AZ11">
+      <c r="BL11">
         <v>4.593274987938277</v>
       </c>
-      <c r="BA11">
+      <c r="BM11">
         <v>3.222456336679247</v>
       </c>
-      <c r="BB11">
+      <c r="BN11">
         <v>5.675908427287614</v>
       </c>
-      <c r="BC11">
+      <c r="BO11">
         <v>4.593274987938277</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1336</v>
+        <v>1285</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>32181</v>
@@ -2831,10 +3284,10 @@
         <v>10617423</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9893832209119763</v>
+        <v>0.9941931544408225</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -2846,16 +3299,16 @@
         <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="T12">
-        <v>93.97371844712819</v>
+        <v>91.58501914554807</v>
       </c>
       <c r="U12">
         <v>20200508</v>
       </c>
       <c r="V12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="W12">
         <v>32106</v>
@@ -2870,84 +3323,111 @@
         <v>1399</v>
       </c>
       <c r="AG12" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI12">
+        <v>238</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AK12">
         <v>1377</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <v>5935</v>
       </c>
-      <c r="AK12">
+      <c r="AM12">
+        <v>227477</v>
+      </c>
+      <c r="AP12">
+        <v>32106</v>
+      </c>
+      <c r="AQ12">
+        <v>667</v>
+      </c>
+      <c r="AR12">
+        <v>9597</v>
+      </c>
+      <c r="AS12">
         <v>227567</v>
       </c>
-      <c r="AL12">
+      <c r="AT12">
         <v>227567</v>
       </c>
-      <c r="AM12">
+      <c r="AU12">
+        <v>10264</v>
+      </c>
+      <c r="AV12">
         <v>41</v>
       </c>
-      <c r="AN12">
+      <c r="AW12">
         <v>100</v>
       </c>
-      <c r="AO12">
-        <v>9597</v>
-      </c>
-      <c r="AP12">
-        <v>667</v>
-      </c>
-      <c r="AQ12">
-        <v>10264</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS12">
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE12">
         <v>3258.438736573084</v>
       </c>
-      <c r="AT12">
+      <c r="BF12">
         <v>0.003023897606792157</v>
       </c>
-      <c r="AU12">
+      <c r="BG12">
         <v>0.01840945773753198</v>
       </c>
-      <c r="AV12">
+      <c r="BH12">
         <v>14.11</v>
       </c>
-      <c r="AW12">
+      <c r="BI12">
         <v>0.02143335534432414</v>
       </c>
-      <c r="AX12">
+      <c r="BJ12">
         <v>7.026019120070406</v>
       </c>
-      <c r="AY12">
+      <c r="BK12">
         <v>5.357109284274045</v>
       </c>
-      <c r="AZ12">
+      <c r="BL12">
         <v>4.507599535342071</v>
       </c>
-      <c r="BA12">
+      <c r="BM12">
         <v>3.146128035678238</v>
       </c>
-      <c r="BB12">
+      <c r="BN12">
         <v>5.291060116338353</v>
       </c>
-      <c r="BC12">
+      <c r="BO12">
         <v>4.506586201357899</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1337</v>
+        <v>1286</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>629</v>
@@ -2980,10 +3460,10 @@
         <v>1415872</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9630392724297467</v>
+        <v>0.9437349933161601</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -2995,16 +3475,16 @@
         <v>9.9</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="T13">
-        <v>50.63365598443173</v>
+        <v>47.81581927580163</v>
       </c>
       <c r="U13">
         <v>20200508</v>
       </c>
       <c r="V13" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="W13">
         <v>629</v>
@@ -3019,84 +3499,108 @@
         <v>565</v>
       </c>
       <c r="AG13" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI13">
+        <v>236</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK13">
         <v>17</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <v>74</v>
       </c>
-      <c r="AK13">
+      <c r="AP13">
+        <v>602</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>1074</v>
+      </c>
+      <c r="AS13">
         <v>36618</v>
       </c>
-      <c r="AL13">
+      <c r="AT13">
         <v>36618</v>
       </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>1074</v>
-      </c>
-      <c r="AP13">
-        <v>3</v>
-      </c>
-      <c r="AQ13">
+      <c r="AU13">
         <v>1077</v>
       </c>
-      <c r="AR13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS13">
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE13">
         <v>1189.904197824346</v>
       </c>
-      <c r="AT13">
+      <c r="BF13">
         <v>0.0004442491976675858</v>
       </c>
-      <c r="AU13">
+      <c r="BG13">
         <v>0.02541825814762916</v>
       </c>
-      <c r="AV13">
+      <c r="BH13">
         <v>1.72</v>
       </c>
-      <c r="AW13">
+      <c r="BI13">
         <v>0.02586250734529675</v>
       </c>
-      <c r="AX13">
+      <c r="BJ13">
         <v>6.151023993321008</v>
       </c>
-      <c r="AY13">
+      <c r="BK13">
         <v>4.563694620340237</v>
       </c>
-      <c r="AZ13">
+      <c r="BL13">
         <v>2.798650645445269</v>
       </c>
-      <c r="BA13">
+      <c r="BM13">
         <v>1.230448921378274</v>
       </c>
-      <c r="BB13">
+      <c r="BN13">
         <v>4.556169779397686</v>
       </c>
-      <c r="BC13">
+      <c r="BO13">
         <v>2.798650645445269</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1338</v>
+        <v>1287</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>2178</v>
@@ -3129,10 +3633,10 @@
         <v>1787065</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9787736133862747</v>
+        <v>0.9762479729976651</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3144,16 +3648,16 @@
         <v>11.5</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="T14">
-        <v>35.18970610650799</v>
+        <v>42.977139494608</v>
       </c>
       <c r="U14">
         <v>20200508</v>
       </c>
       <c r="V14" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="W14">
         <v>2178</v>
@@ -3171,84 +3675,111 @@
         <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH14" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI14">
+        <v>239</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK14">
         <v>67</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <v>206</v>
       </c>
-      <c r="AK14">
+      <c r="AM14">
+        <v>31099</v>
+      </c>
+      <c r="AP14">
+        <v>2007</v>
+      </c>
+      <c r="AQ14">
+        <v>20</v>
+      </c>
+      <c r="AR14">
+        <v>360</v>
+      </c>
+      <c r="AS14">
         <v>31270</v>
       </c>
-      <c r="AL14">
+      <c r="AT14">
         <v>31270</v>
       </c>
-      <c r="AM14">
+      <c r="AU14">
+        <v>380</v>
+      </c>
+      <c r="AV14">
         <v>1</v>
       </c>
-      <c r="AN14">
+      <c r="AW14">
         <v>1</v>
       </c>
-      <c r="AO14">
-        <v>360</v>
-      </c>
-      <c r="AP14">
-        <v>20</v>
-      </c>
-      <c r="AQ14">
-        <v>380</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS14">
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE14">
         <v>1336.811505037266</v>
       </c>
-      <c r="AT14">
+      <c r="BF14">
         <v>0.001218758131349447</v>
       </c>
-      <c r="AU14">
+      <c r="BG14">
         <v>0.01627920640827278</v>
       </c>
-      <c r="AV14">
+      <c r="BH14">
         <v>6.97</v>
       </c>
-      <c r="AW14">
+      <c r="BI14">
         <v>0.01749796453962223</v>
       </c>
-      <c r="AX14">
+      <c r="BJ14">
         <v>6.252140349163694</v>
       </c>
-      <c r="AY14">
+      <c r="BK14">
         <v>4.495127881242933</v>
       </c>
-      <c r="AZ14">
+      <c r="BL14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BA14">
+      <c r="BM14">
         <v>1.826074802700826</v>
       </c>
-      <c r="BB14">
+      <c r="BN14">
         <v>4.463773578899397</v>
       </c>
-      <c r="BC14">
+      <c r="BO14">
         <v>3.338057875419756</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1339</v>
+        <v>1288</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D15">
         <v>73760</v>
@@ -3272,10 +3803,10 @@
         <v>12671821</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9966977014518694</v>
+        <v>0.9749763890778772</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3287,16 +3818,16 @@
         <v>10.9</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="T15">
-        <v>125.5778556532945</v>
+        <v>149.453713546894</v>
       </c>
       <c r="U15">
         <v>20200508</v>
       </c>
       <c r="V15" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="W15">
         <v>73760</v>
@@ -3314,90 +3845,114 @@
         <v>727</v>
       </c>
       <c r="AG15" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI15">
+        <v>230</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK15">
         <v>3241</v>
       </c>
-      <c r="AK15">
+      <c r="AP15">
+        <v>73760</v>
+      </c>
+      <c r="AQ15">
+        <v>2887</v>
+      </c>
+      <c r="AR15">
+        <v>17784</v>
+      </c>
+      <c r="AS15">
         <v>399714</v>
       </c>
-      <c r="AL15">
+      <c r="AT15">
         <v>399714</v>
       </c>
-      <c r="AM15">
+      <c r="AU15">
+        <v>20671</v>
+      </c>
+      <c r="AV15">
         <v>130</v>
       </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>17784</v>
-      </c>
-      <c r="AP15">
-        <v>2887</v>
-      </c>
-      <c r="AQ15">
-        <v>20671</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE15">
         <v>3559.750131680593</v>
       </c>
-      <c r="AT15">
+      <c r="BF15">
         <v>0.005820789293030575</v>
       </c>
-      <c r="AU15">
+      <c r="BG15">
         <v>0.02572274340049469</v>
       </c>
-      <c r="AV15">
+      <c r="BH15">
         <v>18.45</v>
       </c>
-      <c r="AW15">
+      <c r="BI15">
         <v>0.03154353269352526</v>
       </c>
-      <c r="AX15">
+      <c r="BJ15">
         <v>7.102839029518357</v>
       </c>
-      <c r="AY15">
+      <c r="BK15">
         <v>5.60174935970936</v>
       </c>
-      <c r="AZ15">
+      <c r="BL15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BA15">
+      <c r="BM15">
         <v>3.51067903103221</v>
       </c>
-      <c r="BB15">
+      <c r="BN15">
         <v>5.513156314927574</v>
       </c>
-      <c r="BC15">
+      <c r="BO15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BD15">
+      <c r="BP15">
         <v>3.676693609624866</v>
       </c>
-      <c r="BE15">
+      <c r="BQ15">
         <v>3.087071205906535</v>
       </c>
-      <c r="BF15">
+      <c r="BR15">
         <v>2.861534410859038</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1340</v>
+        <v>1289</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>23146</v>
@@ -3427,10 +3982,10 @@
         <v>6732219</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9922541003552595</v>
+        <v>0.9879377796585311</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3442,16 +3997,16 @@
         <v>11.6</v>
       </c>
       <c r="S16" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="T16">
-        <v>64.15881523290309</v>
+        <v>78.84787775501175</v>
       </c>
       <c r="U16">
         <v>20200508</v>
       </c>
       <c r="V16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="W16">
         <v>23146</v>
@@ -3475,93 +4030,117 @@
         <v>219</v>
       </c>
       <c r="AG16" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI16">
+        <v>240</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK16">
         <v>1447</v>
       </c>
-      <c r="AJ16">
+      <c r="AL16">
         <v>4389</v>
       </c>
-      <c r="AK16">
+      <c r="AP16">
+        <v>23146</v>
+      </c>
+      <c r="AQ16">
+        <v>643</v>
+      </c>
+      <c r="AR16">
+        <v>4703</v>
+      </c>
+      <c r="AS16">
         <v>130128</v>
       </c>
-      <c r="AL16">
+      <c r="AT16">
         <v>130128</v>
       </c>
-      <c r="AM16">
+      <c r="AU16">
+        <v>5346</v>
+      </c>
+      <c r="AV16">
         <v>33</v>
       </c>
-      <c r="AN16">
+      <c r="AW16">
         <v>4389</v>
       </c>
-      <c r="AO16">
-        <v>4703</v>
-      </c>
-      <c r="AP16">
-        <v>643</v>
-      </c>
-      <c r="AQ16">
-        <v>5346</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS16">
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE16">
         <v>2594.651999787255</v>
       </c>
-      <c r="AT16">
+      <c r="BF16">
         <v>0.003438093739968946</v>
       </c>
-      <c r="AU16">
+      <c r="BG16">
         <v>0.01589104573098409</v>
       </c>
-      <c r="AV16">
+      <c r="BH16">
         <v>17.79</v>
       </c>
-      <c r="AW16">
+      <c r="BI16">
         <v>0.01932913947095304</v>
       </c>
-      <c r="AX16">
+      <c r="BJ16">
         <v>6.828158235192161</v>
       </c>
-      <c r="AY16">
+      <c r="BK16">
         <v>5.114370754956073</v>
       </c>
-      <c r="AZ16">
+      <c r="BL16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BA16">
+      <c r="BM16">
         <v>3.160468531119037</v>
       </c>
-      <c r="BB16">
+      <c r="BN16">
         <v>5.029310712654574</v>
       </c>
-      <c r="BC16">
+      <c r="BO16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BD16">
+      <c r="BP16">
         <v>3.13956426617585</v>
       </c>
-      <c r="BE16">
+      <c r="BQ16">
         <v>2.682145076373832</v>
       </c>
-      <c r="BF16">
+      <c r="BR16">
         <v>2.340444114840118</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1341</v>
+        <v>1290</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D17">
         <v>11457</v>
@@ -3588,10 +4167,10 @@
         <v>3155070</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9896238358828998</v>
+        <v>0.9813897143857576</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -3603,16 +4182,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="T17">
-        <v>85.75075590461225</v>
+        <v>109.7394337303711</v>
       </c>
       <c r="U17">
         <v>20200508</v>
       </c>
       <c r="V17" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="W17">
         <v>11457</v>
@@ -3633,90 +4212,114 @@
         <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH17" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI17">
+        <v>236</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK17">
         <v>243</v>
       </c>
-      <c r="AK17">
+      <c r="AP17">
+        <v>11457</v>
+      </c>
+      <c r="AQ17">
+        <v>398</v>
+      </c>
+      <c r="AR17">
+        <v>3436</v>
+      </c>
+      <c r="AS17">
         <v>70261</v>
       </c>
-      <c r="AL17">
+      <c r="AT17">
         <v>70261</v>
       </c>
-      <c r="AM17">
+      <c r="AU17">
+        <v>3834</v>
+      </c>
+      <c r="AV17">
         <v>12</v>
       </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>3436</v>
-      </c>
-      <c r="AP17">
-        <v>398</v>
-      </c>
-      <c r="AQ17">
-        <v>3834</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS17">
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE17">
         <v>1776.251671357412</v>
       </c>
-      <c r="AT17">
+      <c r="BF17">
         <v>0.003631298196236534</v>
       </c>
-      <c r="AU17">
+      <c r="BG17">
         <v>0.01863793830247823</v>
       </c>
-      <c r="AV17">
+      <c r="BH17">
         <v>16.31</v>
       </c>
-      <c r="AW17">
+      <c r="BI17">
         <v>0.02226923649871477</v>
       </c>
-      <c r="AX17">
+      <c r="BJ17">
         <v>6.499008999166996</v>
       </c>
-      <c r="AY17">
+      <c r="BK17">
         <v>4.846714326659982</v>
       </c>
-      <c r="AZ17">
+      <c r="BL17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BA17">
+      <c r="BM17">
         <v>2.385606273598312</v>
       </c>
-      <c r="BB17">
+      <c r="BN17">
         <v>4.769406868913598</v>
       </c>
-      <c r="BC17">
+      <c r="BO17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BD17">
+      <c r="BP17">
         <v>2.60959440922522</v>
       </c>
-      <c r="BE17">
+      <c r="BQ17">
         <v>2.214843848047698</v>
       </c>
-      <c r="BF17">
+      <c r="BR17">
         <v>2.037426497940624</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1342</v>
+        <v>1291</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>6667</v>
@@ -3749,10 +4352,10 @@
         <v>2913314</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O18">
-        <v>0.984909782302857</v>
+        <v>0.9704972644250689</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -3764,16 +4367,16 @@
         <v>10.9</v>
       </c>
       <c r="S18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="T18">
-        <v>54.60661935558579</v>
+        <v>68.07288019186623</v>
       </c>
       <c r="U18">
         <v>20200508</v>
       </c>
       <c r="V18" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="W18">
         <v>6501</v>
@@ -3794,84 +4397,108 @@
         <v>332</v>
       </c>
       <c r="AG18" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI18">
+        <v>241</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK18">
         <v>152</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>608</v>
       </c>
-      <c r="AK18">
+      <c r="AP18">
+        <v>6144</v>
+      </c>
+      <c r="AQ18">
+        <v>357</v>
+      </c>
+      <c r="AR18">
+        <v>2529</v>
+      </c>
+      <c r="AS18">
         <v>47708</v>
       </c>
-      <c r="AL18">
+      <c r="AT18">
         <v>47708</v>
       </c>
-      <c r="AM18">
+      <c r="AU18">
+        <v>2886</v>
+      </c>
+      <c r="AV18">
         <v>5</v>
       </c>
-      <c r="AN18">
+      <c r="AW18">
         <v>21</v>
       </c>
-      <c r="AO18">
-        <v>2529</v>
-      </c>
-      <c r="AP18">
-        <v>357</v>
-      </c>
-      <c r="AQ18">
-        <v>2886</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS18">
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE18">
         <v>1706.843285131942</v>
       </c>
-      <c r="AT18">
+      <c r="BF18">
         <v>0.002231479339336577</v>
       </c>
-      <c r="AU18">
+      <c r="BG18">
         <v>0.01414437304046182</v>
       </c>
-      <c r="AV18">
+      <c r="BH18">
         <v>13.63</v>
       </c>
-      <c r="AW18">
+      <c r="BI18">
         <v>0.0163758523797984</v>
       </c>
-      <c r="AX18">
+      <c r="BJ18">
         <v>6.464387295859416</v>
       </c>
-      <c r="AY18">
+      <c r="BK18">
         <v>4.678591210581774</v>
       </c>
-      <c r="AZ18">
+      <c r="BL18">
         <v>3.823930455125564</v>
       </c>
-      <c r="BA18">
+      <c r="BM18">
         <v>2.225309281725863</v>
       </c>
-      <c r="BB18">
+      <c r="BN18">
         <v>4.614970997662866</v>
       </c>
-      <c r="BC18">
+      <c r="BO18">
         <v>3.81298016603948</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1343</v>
+        <v>1292</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>6288</v>
@@ -3904,10 +4531,10 @@
         <v>4467673</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9922539511663268</v>
+        <v>0.9944689672255347</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -3919,16 +4546,16 @@
         <v>14.6</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="T19">
-        <v>78.13944365003803</v>
+        <v>100.4023862570682</v>
       </c>
       <c r="U19">
         <v>20200508</v>
       </c>
       <c r="V19" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="W19">
         <v>6129</v>
@@ -3952,90 +4579,114 @@
         <v>2177</v>
       </c>
       <c r="AG19" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI19">
+        <v>242</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK19">
         <v>294</v>
       </c>
-      <c r="AJ19">
+      <c r="AL19">
         <v>1684</v>
       </c>
-      <c r="AK19">
+      <c r="AP19">
+        <v>6119</v>
+      </c>
+      <c r="AQ19">
+        <v>195</v>
+      </c>
+      <c r="AR19">
+        <v>2600</v>
+      </c>
+      <c r="AS19">
         <v>81401</v>
       </c>
-      <c r="AL19">
+      <c r="AT19">
         <v>81401</v>
       </c>
-      <c r="AM19">
+      <c r="AU19">
+        <v>2795</v>
+      </c>
+      <c r="AV19">
         <v>11</v>
       </c>
-      <c r="AN19">
+      <c r="AW19">
         <v>68</v>
       </c>
-      <c r="AO19">
-        <v>2600</v>
-      </c>
-      <c r="AP19">
-        <v>195</v>
-      </c>
-      <c r="AQ19">
-        <v>2795</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS19">
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE19">
         <v>2113.687062930556</v>
       </c>
-      <c r="AT19">
+      <c r="BF19">
         <v>0.001371855102197497</v>
       </c>
-      <c r="AU19">
+      <c r="BG19">
         <v>0.01684814443671236</v>
       </c>
-      <c r="AV19">
+      <c r="BH19">
         <v>7.53</v>
       </c>
-      <c r="AW19">
+      <c r="BI19">
         <v>0.01821999953890985</v>
       </c>
-      <c r="AX19">
+      <c r="BJ19">
         <v>6.650081378523105</v>
       </c>
-      <c r="AY19">
+      <c r="BK19">
         <v>4.910629740169475</v>
       </c>
-      <c r="AZ19">
+      <c r="BL19">
         <v>3.798512533031352</v>
       </c>
-      <c r="BA19">
+      <c r="BM19">
         <v>2.474216264076255</v>
       </c>
-      <c r="BB19">
+      <c r="BN19">
         <v>4.876633455524433</v>
       </c>
-      <c r="BC19">
+      <c r="BO19">
         <v>3.78738962135211</v>
       </c>
-      <c r="BD19">
+      <c r="BP19">
         <v>2.551449997972875</v>
       </c>
-      <c r="BE19">
+      <c r="BQ19">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1344</v>
+        <v>1293</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D20">
         <v>30855</v>
@@ -4062,10 +4713,10 @@
         <v>4648794</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9696833660977756</v>
+        <v>0.981659257592705</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4077,16 +4728,16 @@
         <v>19.8</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="T20">
-        <v>109.6900427234498</v>
+        <v>151.7772520123101</v>
       </c>
       <c r="U20">
         <v>20200508</v>
       </c>
       <c r="V20" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="W20">
         <v>30855</v>
@@ -4104,87 +4755,111 @@
         <v>20316</v>
       </c>
       <c r="AG20" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI20">
+        <v>243</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK20">
         <v>2227</v>
       </c>
-      <c r="AK20">
+      <c r="AP20">
+        <v>30855</v>
+      </c>
+      <c r="AQ20">
+        <v>203</v>
+      </c>
+      <c r="AR20">
+        <v>1446</v>
+      </c>
+      <c r="AS20">
         <v>202416</v>
       </c>
-      <c r="AL20">
+      <c r="AT20">
         <v>202416</v>
       </c>
-      <c r="AM20">
+      <c r="AU20">
+        <v>1649</v>
+      </c>
+      <c r="AV20">
         <v>19</v>
       </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>1446</v>
-      </c>
-      <c r="AP20">
-        <v>203</v>
-      </c>
-      <c r="AQ20">
-        <v>1649</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE20">
         <v>2156.106212597144</v>
       </c>
-      <c r="AT20">
+      <c r="BF20">
         <v>0.006637205262268021</v>
       </c>
-      <c r="AU20">
+      <c r="BG20">
         <v>0.03690441004699283</v>
       </c>
-      <c r="AV20">
+      <c r="BH20">
         <v>15.24</v>
       </c>
-      <c r="AW20">
+      <c r="BI20">
         <v>0.04354161530926085</v>
       </c>
-      <c r="AX20">
+      <c r="BJ20">
         <v>6.667340301905727</v>
       </c>
-      <c r="AY20">
+      <c r="BK20">
         <v>5.306244838390451</v>
       </c>
-      <c r="AZ20">
+      <c r="BL20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BA20">
+      <c r="BM20">
         <v>3.347720217034038</v>
       </c>
-      <c r="BB20">
+      <c r="BN20">
         <v>5.234418569003362</v>
       </c>
-      <c r="BC20">
+      <c r="BO20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BD20">
+      <c r="BP20">
         <v>3.133219456732494</v>
       </c>
-      <c r="BF20">
+      <c r="BR20">
         <v>2.267171728403014</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1345</v>
+        <v>1294</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D21">
         <v>1374</v>
@@ -4217,10 +4892,10 @@
         <v>1344212</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9953845889286235</v>
+        <v>0.996702555912258</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4232,16 +4907,16 @@
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="T21">
-        <v>38.1793488219099</v>
+        <v>71.53593001211121</v>
       </c>
       <c r="U21">
         <v>20200508</v>
       </c>
       <c r="V21" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="W21">
         <v>1374</v>
@@ -4265,93 +4940,117 @@
         <v>836</v>
       </c>
       <c r="AG21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI21">
+        <v>244</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK21">
         <v>63</v>
       </c>
-      <c r="AJ21">
+      <c r="AL21">
         <v>194</v>
       </c>
-      <c r="AK21">
-        <v>23466</v>
-      </c>
-      <c r="AL21">
-        <v>23466</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>2</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
       <c r="AP21">
-        <v>44</v>
+        <v>1264</v>
       </c>
       <c r="AQ21">
         <v>44</v>
       </c>
-      <c r="AR21" t="s">
-        <v>108</v>
+      <c r="AR21">
+        <v>0</v>
       </c>
       <c r="AS21">
+        <v>23466</v>
+      </c>
+      <c r="AT21">
+        <v>23466</v>
+      </c>
+      <c r="AU21">
+        <v>44</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE21">
         <v>1159.401569776408</v>
       </c>
-      <c r="AT21">
+      <c r="BF21">
         <v>0.001022160194969246</v>
       </c>
-      <c r="AU21">
+      <c r="BG21">
         <v>0.0164349075889815</v>
       </c>
-      <c r="AV21">
+      <c r="BH21">
         <v>5.86</v>
       </c>
-      <c r="AW21">
+      <c r="BI21">
         <v>0.01745706778395074</v>
       </c>
-      <c r="AX21">
+      <c r="BJ21">
         <v>6.128467768099815</v>
       </c>
-      <c r="AY21">
+      <c r="BK21">
         <v>4.370439066335774</v>
       </c>
-      <c r="AZ21">
+      <c r="BL21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BA21">
+      <c r="BM21">
         <v>1.799340549453582</v>
       </c>
-      <c r="BB21">
+      <c r="BN21">
         <v>4.344235034551639</v>
       </c>
-      <c r="BC21">
+      <c r="BO21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BD21">
+      <c r="BP21">
         <v>1.643452676486187</v>
       </c>
-      <c r="BE21">
+      <c r="BQ21">
         <v>1.361727836017593</v>
       </c>
-      <c r="BF21">
+      <c r="BR21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1346</v>
+        <v>1295</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D22">
         <v>30485</v>
@@ -4384,10 +5083,10 @@
         <v>6045680</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9966908348169232</v>
+        <v>0.9851929909913988</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -4399,16 +5098,16 @@
         <v>7.8</v>
       </c>
       <c r="S22" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="T22">
-        <v>77.49449186574968</v>
+        <v>103.2403366612406</v>
       </c>
       <c r="U22">
         <v>20200508</v>
       </c>
       <c r="V22" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="W22">
         <v>30485</v>
@@ -4429,90 +5128,114 @@
         <v>2041</v>
       </c>
       <c r="AG22" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI22">
-        <v>1560</v>
-      </c>
-      <c r="AJ22">
+        <v>241</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK22">
+        <v>1643</v>
+      </c>
+      <c r="AL22">
         <v>5811</v>
       </c>
-      <c r="AK22">
+      <c r="AP22">
+        <v>30485</v>
+      </c>
+      <c r="AQ22">
+        <v>1111</v>
+      </c>
+      <c r="AR22">
+        <v>2476</v>
+      </c>
+      <c r="AS22">
         <v>152187</v>
       </c>
-      <c r="AL22">
+      <c r="AT22">
         <v>152187</v>
       </c>
-      <c r="AM22">
-        <v>57</v>
-      </c>
-      <c r="AN22">
+      <c r="AU22">
+        <v>3587</v>
+      </c>
+      <c r="AV22">
+        <v>63</v>
+      </c>
+      <c r="AW22">
         <v>148</v>
       </c>
-      <c r="AO22">
-        <v>2476</v>
-      </c>
-      <c r="AP22">
-        <v>1111</v>
-      </c>
-      <c r="AQ22">
-        <v>3587</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS22">
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE22">
         <v>2458.796453552022</v>
       </c>
-      <c r="AT22">
+      <c r="BF22">
         <v>0.005042443529925501</v>
       </c>
-      <c r="AU22">
+      <c r="BG22">
         <v>0.02013040716677032</v>
       </c>
-      <c r="AV22">
+      <c r="BH22">
         <v>20.03</v>
       </c>
-      <c r="AW22">
+      <c r="BI22">
         <v>0.02517285069669582</v>
       </c>
-      <c r="AX22">
+      <c r="BJ22">
         <v>6.781445156088222</v>
       </c>
-      <c r="AY22">
+      <c r="BK22">
         <v>5.182377556052198</v>
       </c>
-      <c r="AZ22">
+      <c r="BL22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BA22">
+      <c r="BM22">
         <v>3.193124598354462</v>
       </c>
-      <c r="BB22">
+      <c r="BN22">
         <v>5.085297715303415</v>
       </c>
-      <c r="BC22">
+      <c r="BO22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BD22">
+      <c r="BP22">
         <v>3.223755453657241</v>
       </c>
-      <c r="BE22">
+      <c r="BQ22">
         <v>2.756636108245848</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1347</v>
+        <v>1296</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>75333</v>
@@ -4542,10 +5265,10 @@
         <v>6892503</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9772306944369016</v>
+        <v>0.9705834515204367</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -4557,16 +5280,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="T23">
-        <v>148.6993701860184</v>
+        <v>141.5574427157853</v>
       </c>
       <c r="U23">
         <v>20200508</v>
       </c>
       <c r="V23" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="W23">
         <v>75333</v>
@@ -4584,90 +5307,114 @@
         <v>826</v>
       </c>
       <c r="AG23" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI23">
+        <v>241</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK23">
         <v>4702</v>
       </c>
-      <c r="AJ23">
+      <c r="AL23">
         <v>7434</v>
       </c>
-      <c r="AK23">
+      <c r="AP23">
+        <v>75333</v>
+      </c>
+      <c r="AQ23">
+        <v>1612</v>
+      </c>
+      <c r="AR23">
+        <v>12779</v>
+      </c>
+      <c r="AS23">
         <v>366023</v>
       </c>
-      <c r="AL23">
+      <c r="AT23">
         <v>366023</v>
       </c>
-      <c r="AM23">
+      <c r="AU23">
+        <v>14391</v>
+      </c>
+      <c r="AV23">
         <v>150</v>
       </c>
-      <c r="AN23">
+      <c r="AW23">
         <v>197</v>
       </c>
-      <c r="AO23">
-        <v>12779</v>
-      </c>
-      <c r="AP23">
-        <v>1612</v>
-      </c>
-      <c r="AQ23">
-        <v>14391</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS23">
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE23">
         <v>2625.357689915795</v>
       </c>
-      <c r="AT23">
+      <c r="BF23">
         <v>0.01092970144517891</v>
       </c>
-      <c r="AU23">
+      <c r="BG23">
         <v>0.04217480935445368</v>
       </c>
-      <c r="AV23">
+      <c r="BH23">
         <v>20.58</v>
       </c>
-      <c r="AW23">
+      <c r="BI23">
         <v>0.05310451079963258</v>
       </c>
-      <c r="AX23">
+      <c r="BJ23">
         <v>6.838376963806924</v>
       </c>
-      <c r="AY23">
+      <c r="BK23">
         <v>5.563508376266657</v>
       </c>
-      <c r="AZ23">
+      <c r="BL23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BA23">
+      <c r="BM23">
         <v>3.672282624788921</v>
       </c>
-      <c r="BB23">
+      <c r="BN23">
         <v>5.463430091902802</v>
       </c>
-      <c r="BC23">
+      <c r="BO23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BD23">
+      <c r="BP23">
         <v>3.524915147539867</v>
       </c>
-      <c r="BE23">
+      <c r="BQ23">
         <v>2.916980047320382</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1348</v>
+        <v>1297</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>46386</v>
@@ -4694,10 +5441,10 @@
         <v>9986857</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9812032425663659</v>
+        <v>0.9882887715048982</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -4709,22 +5456,22 @@
         <v>11</v>
       </c>
       <c r="S24" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="T24">
-        <v>93.14920908614481</v>
+        <v>118.4723961100509</v>
       </c>
       <c r="U24">
         <v>20200508</v>
       </c>
       <c r="V24" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="W24">
-        <v>46326</v>
+        <v>52349</v>
       </c>
       <c r="X24">
-        <v>213927</v>
+        <v>248142</v>
       </c>
       <c r="Z24">
         <v>1637</v>
@@ -4739,90 +5486,123 @@
         <v>15659</v>
       </c>
       <c r="AG24" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI24">
-        <v>4393</v>
+        <v>245</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>291</v>
       </c>
       <c r="AK24">
-        <v>260253</v>
-      </c>
-      <c r="AL24">
-        <v>260253</v>
+        <v>4987</v>
       </c>
       <c r="AM24">
-        <v>50</v>
+        <v>307801</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>59659</v>
       </c>
       <c r="AO24">
-        <v>12511</v>
+        <v>248142</v>
       </c>
       <c r="AP24">
-        <v>680</v>
+        <v>49871</v>
       </c>
       <c r="AQ24">
-        <v>13191</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>108</v>
+        <v>618</v>
+      </c>
+      <c r="AR24">
+        <v>11958</v>
       </c>
       <c r="AS24">
+        <v>300491</v>
+      </c>
+      <c r="AT24">
+        <v>300491</v>
+      </c>
+      <c r="AU24">
+        <v>12576</v>
+      </c>
+      <c r="AV24">
+        <v>62</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE24">
         <v>3160.19888614625</v>
       </c>
-      <c r="AT24">
-        <v>0.004638696638992628</v>
-      </c>
-      <c r="AU24">
-        <v>0.02142085342765997</v>
-      </c>
-      <c r="AV24">
-        <v>17.8</v>
-      </c>
-      <c r="AW24">
+      <c r="BF24">
+        <v>0.005241789283655508</v>
+      </c>
+      <c r="BG24">
+        <v>0.02484685622313406</v>
+      </c>
+      <c r="BH24">
+        <v>17.42</v>
+      </c>
+      <c r="BI24">
         <v>0.0260595500666526</v>
       </c>
-      <c r="AX24">
+      <c r="BJ24">
         <v>6.999428831336674</v>
       </c>
-      <c r="AY24">
+      <c r="BK24">
         <v>5.415395744430167</v>
       </c>
-      <c r="AZ24">
+      <c r="BL24">
         <v>4.666386923654211</v>
       </c>
-      <c r="BA24">
+      <c r="BM24">
         <v>3.643353961976863</v>
       </c>
-      <c r="BB24">
-        <v>5.33026560089227</v>
-      </c>
-      <c r="BC24">
-        <v>4.665824802838091</v>
-      </c>
-      <c r="BD24">
+      <c r="BN24">
+        <v>5.3947002782766</v>
+      </c>
+      <c r="BO24">
+        <v>4.718908389956982</v>
+      </c>
+      <c r="BP24">
         <v>3.214048679411941</v>
       </c>
-      <c r="BE24">
+      <c r="BQ24">
         <v>2.860338006570994</v>
       </c>
-      <c r="BF24">
+      <c r="BR24">
         <v>2.755874855672491</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1349</v>
+        <v>1298</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>10088</v>
@@ -4855,10 +5635,10 @@
         <v>5639632</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9875194876392167</v>
+        <v>0.9817307467490208</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -4870,22 +5650,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="T25">
-        <v>67.93223833238642</v>
+        <v>116.3471431019844</v>
       </c>
       <c r="U25">
         <v>20200508</v>
       </c>
       <c r="V25" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="W25">
-        <v>10088</v>
+        <v>13040</v>
       </c>
       <c r="X25">
-        <v>91182</v>
+        <v>101408</v>
       </c>
       <c r="Z25">
         <v>473</v>
@@ -4903,90 +5683,117 @@
         <v>5163</v>
       </c>
       <c r="AG25" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI25">
+        <v>242</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK25">
         <v>534</v>
       </c>
-      <c r="AJ25">
+      <c r="AL25">
         <v>1549</v>
       </c>
-      <c r="AK25">
-        <v>101270</v>
-      </c>
-      <c r="AL25">
-        <v>101270</v>
-      </c>
       <c r="AM25">
+        <v>114448</v>
+      </c>
+      <c r="AP25">
+        <v>10088</v>
+      </c>
+      <c r="AQ25">
+        <v>712</v>
+      </c>
+      <c r="AR25">
+        <v>4164</v>
+      </c>
+      <c r="AS25">
+        <v>114448</v>
+      </c>
+      <c r="AT25">
+        <v>114448</v>
+      </c>
+      <c r="AU25">
+        <v>4876</v>
+      </c>
+      <c r="AV25">
         <v>26</v>
       </c>
-      <c r="AN25">
+      <c r="AW25">
         <v>90</v>
       </c>
-      <c r="AO25">
-        <v>3126</v>
-      </c>
-      <c r="AP25">
-        <v>723</v>
-      </c>
-      <c r="AQ25">
-        <v>3849</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS25">
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE25">
         <v>2374.790938166979</v>
       </c>
-      <c r="AT25">
-        <v>0.001788769196287985</v>
-      </c>
-      <c r="AU25">
-        <v>0.01616807621490196</v>
-      </c>
-      <c r="AV25">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="AW25">
+      <c r="BF25">
+        <v>0.002312207605035222</v>
+      </c>
+      <c r="BG25">
+        <v>0.01798131509289968</v>
+      </c>
+      <c r="BH25">
+        <v>11.39</v>
+      </c>
+      <c r="BI25">
         <v>0.01795684541118995</v>
       </c>
-      <c r="AX25">
+      <c r="BJ25">
         <v>6.751250766113916</v>
       </c>
-      <c r="AY25">
+      <c r="BK25">
         <v>5.005480809979401</v>
       </c>
-      <c r="AZ25">
+      <c r="BL25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BA25">
+      <c r="BM25">
         <v>2.727541257028556</v>
       </c>
-      <c r="BB25">
-        <v>4.95990911385232</v>
-      </c>
-      <c r="BC25">
-        <v>4.003805073565025</v>
-      </c>
-      <c r="BD25">
+      <c r="BN25">
+        <v>5.006072217510207</v>
+      </c>
+      <c r="BO25">
+        <v>4.115277591395901</v>
+      </c>
+      <c r="BP25">
         <v>2.674861140737812</v>
       </c>
-      <c r="BE25">
+      <c r="BQ25">
         <v>2.296665190261531</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D26">
         <v>9090</v>
@@ -5019,10 +5826,10 @@
         <v>2976149</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9974383420455454</v>
+        <v>0.9971131485166618</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5034,16 +5841,16 @@
         <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="T26">
-        <v>85.44824172023003</v>
+        <v>109.3888784191183</v>
       </c>
       <c r="U26">
         <v>20200508</v>
       </c>
       <c r="V26" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="W26">
         <v>9090</v>
@@ -5067,93 +5874,117 @@
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AH26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI26">
+        <v>239</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK26">
         <v>409</v>
       </c>
-      <c r="AJ26">
+      <c r="AL26">
         <v>1478</v>
       </c>
-      <c r="AK26">
-        <v>81191</v>
-      </c>
-      <c r="AL26">
-        <v>81191</v>
-      </c>
-      <c r="AM26">
-        <v>13</v>
-      </c>
-      <c r="AN26">
-        <v>36</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
       <c r="AP26">
-        <v>404</v>
+        <v>9090</v>
       </c>
       <c r="AQ26">
         <v>404</v>
       </c>
-      <c r="AR26" t="s">
-        <v>108</v>
+      <c r="AR26">
+        <v>0</v>
       </c>
       <c r="AS26">
+        <v>81191</v>
+      </c>
+      <c r="AT26">
+        <v>81191</v>
+      </c>
+      <c r="AU26">
+        <v>404</v>
+      </c>
+      <c r="AV26">
+        <v>13</v>
+      </c>
+      <c r="AW26">
+        <v>36</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE26">
         <v>1725.151877371961</v>
       </c>
-      <c r="AT26">
+      <c r="BF26">
         <v>0.003054282564481819</v>
       </c>
-      <c r="AU26">
+      <c r="BG26">
         <v>0.02422627361734913</v>
       </c>
-      <c r="AV26">
+      <c r="BH26">
         <v>11.2</v>
       </c>
-      <c r="AW26">
+      <c r="BI26">
         <v>0.02728055618183095</v>
       </c>
-      <c r="AX26">
+      <c r="BJ26">
         <v>6.473654670240083</v>
       </c>
-      <c r="AY26">
+      <c r="BK26">
         <v>4.909507890485442</v>
       </c>
-      <c r="AZ26">
+      <c r="BL26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BA26">
+      <c r="BM26">
         <v>2.611723308007342</v>
       </c>
-      <c r="BB26">
+      <c r="BN26">
         <v>4.857941288179487</v>
       </c>
-      <c r="BC26">
+      <c r="BO26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BD26">
+      <c r="BP26">
         <v>2.800717078282385</v>
       </c>
-      <c r="BE26">
+      <c r="BQ26">
         <v>2.089905111439398</v>
       </c>
-      <c r="BF26">
+      <c r="BR26">
         <v>1.763427993562937</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1351</v>
+        <v>1300</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D27">
         <v>9733</v>
@@ -5177,10 +6008,10 @@
         <v>6137428</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O27">
-        <v>0.987873291976519</v>
+        <v>0.9940717914068239</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -5192,16 +6023,16 @@
         <v>11.9</v>
       </c>
       <c r="S27" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="T27">
-        <v>48.3862686507663</v>
+        <v>63.4642306382282</v>
       </c>
       <c r="U27">
         <v>20200508</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="W27">
         <v>9489</v>
@@ -5216,87 +6047,120 @@
         <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH27" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI27">
+        <v>246</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK27">
         <v>449</v>
       </c>
-      <c r="AK27">
+      <c r="AM27">
+        <v>113490</v>
+      </c>
+      <c r="AN27">
+        <v>11307</v>
+      </c>
+      <c r="AO27">
+        <v>101966</v>
+      </c>
+      <c r="AP27">
+        <v>9489</v>
+      </c>
+      <c r="AQ27">
+        <v>148</v>
+      </c>
+      <c r="AR27">
+        <v>4951</v>
+      </c>
+      <c r="AS27">
         <v>108721</v>
       </c>
-      <c r="AL27">
+      <c r="AT27">
         <v>108721</v>
       </c>
-      <c r="AM27">
+      <c r="AU27">
+        <v>5099</v>
+      </c>
+      <c r="AV27">
         <v>31</v>
       </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>4951</v>
-      </c>
-      <c r="AP27">
-        <v>148</v>
-      </c>
-      <c r="AQ27">
-        <v>5099</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS27">
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE27">
         <v>2477.383296948617</v>
       </c>
-      <c r="AT27">
+      <c r="BF27">
         <v>0.001546087383835705</v>
       </c>
-      <c r="AU27">
+      <c r="BG27">
         <v>0.01616833631286591</v>
       </c>
-      <c r="AV27">
+      <c r="BH27">
         <v>8.73</v>
       </c>
-      <c r="AW27">
+      <c r="BI27">
         <v>0.01771442369670162</v>
       </c>
-      <c r="AX27">
+      <c r="BJ27">
         <v>6.787986410322698</v>
       </c>
-      <c r="AY27">
+      <c r="BK27">
         <v>5.036313438320507</v>
       </c>
-      <c r="AZ27">
+      <c r="BL27">
         <v>3.988246723375378</v>
       </c>
-      <c r="BA27">
+      <c r="BM27">
         <v>2.683947130751512</v>
       </c>
-      <c r="BB27">
+      <c r="BN27">
         <v>4.996651744557233</v>
       </c>
-      <c r="BC27">
+      <c r="BO27">
         <v>3.977220446635385</v>
       </c>
-      <c r="BD27">
+      <c r="BP27">
         <v>2.920123326290724</v>
       </c>
-      <c r="BF27">
+      <c r="BR27">
         <v>2.155336037465062</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1352</v>
+        <v>1301</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>458</v>
@@ -5329,10 +6193,10 @@
         <v>1068778</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9650514019302625</v>
+        <v>0.9210771907078852</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -5344,16 +6208,16 @@
         <v>10.3</v>
       </c>
       <c r="S28" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="T28">
-        <v>52.01452221998006</v>
+        <v>78.48934719960789</v>
       </c>
       <c r="U28">
         <v>20200508</v>
       </c>
       <c r="V28" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="W28">
         <v>458</v>
@@ -5371,87 +6235,111 @@
         <v>420</v>
       </c>
       <c r="AG28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI28">
+        <v>230</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK28">
         <v>16</v>
       </c>
-      <c r="AJ28">
+      <c r="AL28">
         <v>62</v>
       </c>
-      <c r="AK28">
+      <c r="AP28">
+        <v>458</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>696</v>
+      </c>
+      <c r="AS28">
         <v>20945</v>
       </c>
-      <c r="AL28">
+      <c r="AT28">
         <v>20945</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>696</v>
-      </c>
-      <c r="AP28">
-        <v>2</v>
-      </c>
-      <c r="AQ28">
+      <c r="AU28">
         <v>698</v>
       </c>
-      <c r="AR28" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS28">
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE28">
         <v>1033.817198541406</v>
       </c>
-      <c r="AT28">
+      <c r="BF28">
         <v>0.0004285267847953457</v>
       </c>
-      <c r="AU28">
+      <c r="BG28">
         <v>0.01916862061157696</v>
       </c>
-      <c r="AV28">
+      <c r="BH28">
         <v>2.19</v>
       </c>
-      <c r="AW28">
+      <c r="BI28">
         <v>0.01959714739637231</v>
       </c>
-      <c r="AX28">
+      <c r="BJ28">
         <v>6.028887505594666</v>
       </c>
-      <c r="AY28">
+      <c r="BK28">
         <v>4.321080364697238</v>
       </c>
-      <c r="AZ28">
+      <c r="BL28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BA28">
+      <c r="BM28">
         <v>1.204119982655925</v>
       </c>
-      <c r="BB28">
+      <c r="BN28">
         <v>4.311478367438068</v>
       </c>
-      <c r="BC28">
+      <c r="BO28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BD28">
+      <c r="BP28">
         <v>0.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1353</v>
+        <v>1302</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D29">
         <v>7818</v>
@@ -5475,10 +6363,10 @@
         <v>1934408</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9884187863149539</v>
+        <v>0.9731312257934863</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -5490,16 +6378,16 @@
         <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="T29">
-        <v>90.67037774996147</v>
+        <v>110.2133837683125</v>
       </c>
       <c r="U29">
         <v>20200508</v>
       </c>
       <c r="V29" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="W29">
         <v>7190</v>
@@ -5508,81 +6396,105 @@
         <v>33222</v>
       </c>
       <c r="AG29" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AH29" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI29">
+        <v>247</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK29">
         <v>90</v>
       </c>
-      <c r="AK29">
+      <c r="AP29">
+        <v>7190</v>
+      </c>
+      <c r="AQ29">
+        <v>419</v>
+      </c>
+      <c r="AR29">
+        <v>2235</v>
+      </c>
+      <c r="AS29">
         <v>40412</v>
       </c>
-      <c r="AL29">
+      <c r="AT29">
         <v>40412</v>
       </c>
-      <c r="AM29">
+      <c r="AU29">
+        <v>2654</v>
+      </c>
+      <c r="AV29">
         <v>4</v>
       </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>2235</v>
-      </c>
-      <c r="AP29">
-        <v>419</v>
-      </c>
-      <c r="AQ29">
-        <v>2654</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS29">
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE29">
         <v>1390.829968040666</v>
       </c>
-      <c r="AT29">
+      <c r="BF29">
         <v>0.003716899433831953</v>
       </c>
-      <c r="AU29">
+      <c r="BG29">
         <v>0.01717424659120517</v>
       </c>
-      <c r="AV29">
+      <c r="BH29">
         <v>17.79</v>
       </c>
-      <c r="AW29">
+      <c r="BI29">
         <v>0.02089114602503712</v>
       </c>
-      <c r="AX29">
+      <c r="BJ29">
         <v>6.286548079602651</v>
       </c>
-      <c r="AY29">
+      <c r="BK29">
         <v>4.606510344317186</v>
       </c>
-      <c r="AZ29">
+      <c r="BL29">
         <v>3.893095666096228</v>
       </c>
-      <c r="BA29">
+      <c r="BM29">
         <v>1.954242509439325</v>
       </c>
-      <c r="BB29">
+      <c r="BN29">
         <v>4.521425773895577</v>
       </c>
-      <c r="BC29">
+      <c r="BO29">
         <v>3.856728890382882</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1354</v>
+        <v>1303</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>5920</v>
@@ -5609,10 +6521,10 @@
         <v>3080156</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O30">
-        <v>0.991387468128768</v>
+        <v>0.9928326829811833</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -5624,16 +6536,16 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="T30">
-        <v>65.46207863741141</v>
+        <v>107.0794355845264</v>
       </c>
       <c r="U30">
         <v>20200508</v>
       </c>
       <c r="V30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="W30">
         <v>5884</v>
@@ -5645,81 +6557,108 @@
         <v>205</v>
       </c>
       <c r="AG30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AH30" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI30">
-        <v>293</v>
+        <v>248</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>294</v>
       </c>
       <c r="AK30">
+        <v>328</v>
+      </c>
+      <c r="AM30">
+        <v>65544</v>
+      </c>
+      <c r="AP30">
+        <v>5884</v>
+      </c>
+      <c r="AQ30">
+        <v>118</v>
+      </c>
+      <c r="AR30">
+        <v>1869</v>
+      </c>
+      <c r="AS30">
         <v>53344</v>
       </c>
-      <c r="AL30">
+      <c r="AT30">
         <v>53344</v>
       </c>
-      <c r="AM30">
-        <v>7</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>1869</v>
-      </c>
-      <c r="AP30">
-        <v>118</v>
-      </c>
-      <c r="AQ30">
+      <c r="AU30">
         <v>1987</v>
       </c>
-      <c r="AR30" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS30">
+      <c r="AV30">
+        <v>8</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE30">
         <v>1755.037321540485</v>
       </c>
-      <c r="AT30">
+      <c r="BF30">
         <v>0.001910292855296939</v>
       </c>
-      <c r="AU30">
+      <c r="BG30">
         <v>0.01540831048817008</v>
       </c>
-      <c r="AV30">
+      <c r="BH30">
         <v>11.03</v>
       </c>
-      <c r="AW30">
+      <c r="BI30">
         <v>0.01731860334346702</v>
       </c>
-      <c r="AX30">
+      <c r="BJ30">
         <v>6.488572712676902</v>
       </c>
-      <c r="AY30">
+      <c r="BK30">
         <v>4.727085578147912</v>
       </c>
-      <c r="AZ30">
+      <c r="BL30">
         <v>3.77232170672292</v>
       </c>
-      <c r="BA30">
+      <c r="BM30">
         <v>2.468347330412157</v>
       </c>
-      <c r="BB30">
+      <c r="BN30">
         <v>4.67632773388132</v>
       </c>
-      <c r="BC30">
+      <c r="BO30">
         <v>3.769672664055492</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1355</v>
+        <v>1304</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>2947</v>
@@ -5752,10 +6691,10 @@
         <v>1359711</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9953633121518665</v>
+        <v>0.9868490708601265</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -5767,16 +6706,16 @@
         <v>6.6</v>
       </c>
       <c r="S31" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="T31">
-        <v>87.58609533951415</v>
+        <v>110.0345008057216</v>
       </c>
       <c r="U31">
         <v>20200508</v>
       </c>
       <c r="V31" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="W31">
         <v>2843</v>
@@ -5800,87 +6739,111 @@
         <v>1165</v>
       </c>
       <c r="AG31" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH31" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI31">
+        <v>249</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK31">
         <v>114</v>
       </c>
-      <c r="AJ31">
+      <c r="AL31">
         <v>308</v>
       </c>
-      <c r="AK31">
+      <c r="AP31">
+        <v>2843</v>
+      </c>
+      <c r="AQ31">
+        <v>103</v>
+      </c>
+      <c r="AR31">
+        <v>1763</v>
+      </c>
+      <c r="AS31">
         <v>31204</v>
       </c>
-      <c r="AL31">
+      <c r="AT31">
         <v>30672</v>
       </c>
-      <c r="AM31">
+      <c r="AU31">
+        <v>1866</v>
+      </c>
+      <c r="AV31">
         <v>3</v>
       </c>
-      <c r="AN31">
+      <c r="AW31">
         <v>1</v>
       </c>
-      <c r="AO31">
-        <v>1763</v>
-      </c>
-      <c r="AP31">
-        <v>103</v>
-      </c>
-      <c r="AQ31">
-        <v>1866</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS31">
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE31">
         <v>1166.066464657997</v>
       </c>
-      <c r="AT31">
+      <c r="BF31">
         <v>0.002090885489637136</v>
       </c>
-      <c r="AU31">
+      <c r="BG31">
         <v>0.02046684920545616</v>
       </c>
-      <c r="AV31">
+      <c r="BH31">
         <v>9.27</v>
       </c>
-      <c r="AW31">
+      <c r="BI31">
         <v>0.02255773469509329</v>
       </c>
-      <c r="AX31">
+      <c r="BJ31">
         <v>6.133446610985868</v>
       </c>
-      <c r="AY31">
+      <c r="BK31">
         <v>4.486742095533987</v>
       </c>
-      <c r="AZ31">
+      <c r="BL31">
         <v>3.469380135849925</v>
       </c>
-      <c r="BA31">
+      <c r="BM31">
         <v>2.08278537031645</v>
       </c>
-      <c r="BB31">
+      <c r="BN31">
         <v>4.444497600790215</v>
       </c>
-      <c r="BC31">
+      <c r="BO31">
         <v>3.453776859690442</v>
       </c>
-      <c r="BD31">
+      <c r="BP31">
         <v>2.05307844348342</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1356</v>
+        <v>1305</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>135840</v>
@@ -5907,10 +6870,10 @@
         <v>8882190</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9734298102002974</v>
+        <v>0.9758490774144092</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -5922,16 +6885,16 @@
         <v>9.1</v>
       </c>
       <c r="S32" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="T32">
-        <v>132.1761945419189</v>
+        <v>191.2847067363578</v>
       </c>
       <c r="U32">
         <v>20200508</v>
       </c>
       <c r="V32" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="W32">
         <v>135454</v>
@@ -5955,90 +6918,114 @@
         <v>15642</v>
       </c>
       <c r="AG32" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH32" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI32">
+        <v>243</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK32">
         <v>8952</v>
       </c>
-      <c r="AK32">
+      <c r="AP32">
+        <v>135454</v>
+      </c>
+      <c r="AQ32">
+        <v>1819</v>
+      </c>
+      <c r="AR32">
+        <v>4282</v>
+      </c>
+      <c r="AS32">
         <v>299312</v>
       </c>
-      <c r="AL32">
+      <c r="AT32">
         <v>298759</v>
       </c>
-      <c r="AM32">
+      <c r="AU32">
+        <v>6101</v>
+      </c>
+      <c r="AV32">
         <v>151</v>
       </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>4282</v>
-      </c>
-      <c r="AP32">
-        <v>1819</v>
-      </c>
-      <c r="AQ32">
-        <v>6101</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS32">
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE32">
         <v>2980.300320437523</v>
       </c>
-      <c r="AT32">
+      <c r="BF32">
         <v>0.01525006783237017</v>
       </c>
-      <c r="AU32">
+      <c r="BG32">
         <v>0.01838566839934746</v>
       </c>
-      <c r="AV32">
+      <c r="BH32">
         <v>45.34</v>
       </c>
-      <c r="AW32">
+      <c r="BI32">
         <v>0.03363573623171763</v>
       </c>
-      <c r="AX32">
+      <c r="BJ32">
         <v>6.948520058982782</v>
       </c>
-      <c r="AY32">
+      <c r="BK32">
         <v>5.475320997107535</v>
       </c>
-      <c r="AZ32">
+      <c r="BL32">
         <v>5.133027672899877</v>
       </c>
-      <c r="BA32">
+      <c r="BM32">
         <v>3.952308009662125</v>
       </c>
-      <c r="BB32">
+      <c r="BN32">
         <v>5.2129994819759</v>
       </c>
-      <c r="BC32">
+      <c r="BO32">
         <v>5.131791834413688</v>
       </c>
-      <c r="BD32">
+      <c r="BP32">
         <v>3.663229634532868</v>
       </c>
-      <c r="BE32">
+      <c r="BQ32">
         <v>3.158060793936605</v>
       </c>
-      <c r="BF32">
+      <c r="BR32">
         <v>3.037027879755775</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1357</v>
+        <v>1306</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D33">
         <v>4673</v>
@@ -6071,10 +7058,10 @@
         <v>2096829</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9956379267604937</v>
+        <v>0.9921320852609766</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -6086,16 +7073,16 @@
         <v>18.2</v>
       </c>
       <c r="S33" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="T33">
-        <v>153.0889969180106</v>
+        <v>180.3655798148936</v>
       </c>
       <c r="U33">
         <v>20200508</v>
       </c>
       <c r="V33" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="W33">
         <v>4493</v>
@@ -6113,87 +7100,111 @@
         <v>1125</v>
       </c>
       <c r="AG33" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH33" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI33">
+        <v>250</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>296</v>
+      </c>
+      <c r="AK33">
         <v>172</v>
       </c>
-      <c r="AJ33">
+      <c r="AL33">
         <v>760</v>
       </c>
-      <c r="AK33">
+      <c r="AP33">
+        <v>4493</v>
+      </c>
+      <c r="AQ33">
+        <v>202</v>
+      </c>
+      <c r="AR33">
+        <v>3146</v>
+      </c>
+      <c r="AS33">
         <v>89032</v>
       </c>
-      <c r="AL33">
+      <c r="AT33">
         <v>89032</v>
       </c>
-      <c r="AM33">
+      <c r="AU33">
+        <v>3348</v>
+      </c>
+      <c r="AV33">
         <v>3</v>
       </c>
-      <c r="AN33">
+      <c r="AW33">
         <v>73</v>
       </c>
-      <c r="AO33">
-        <v>3146</v>
-      </c>
-      <c r="AP33">
-        <v>202</v>
-      </c>
-      <c r="AQ33">
-        <v>3348</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS33">
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE33">
         <v>1448.043162340129</v>
       </c>
-      <c r="AT33">
+      <c r="BF33">
         <v>0.002142759376181844</v>
       </c>
-      <c r="AU33">
+      <c r="BG33">
         <v>0.04031754616137034</v>
       </c>
-      <c r="AV33">
+      <c r="BH33">
         <v>5.05</v>
       </c>
-      <c r="AW33">
+      <c r="BI33">
         <v>0.04246030553755218</v>
       </c>
-      <c r="AX33">
+      <c r="BJ33">
         <v>6.321563014449838</v>
       </c>
-      <c r="AY33">
+      <c r="BK33">
         <v>4.949546129404536</v>
       </c>
-      <c r="AZ33">
+      <c r="BL33">
         <v>3.669595781024313</v>
       </c>
-      <c r="BA33">
+      <c r="BM33">
         <v>2.257678574869185</v>
       </c>
-      <c r="BB33">
+      <c r="BN33">
         <v>4.927057106314735</v>
       </c>
-      <c r="BC33">
+      <c r="BO33">
         <v>3.652536418593026</v>
       </c>
-      <c r="BD33">
+      <c r="BP33">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1358</v>
+        <v>1307</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>330407</v>
@@ -6226,10 +7237,10 @@
         <v>19453561</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O34">
-        <v>0.97601411044696</v>
+        <v>0.9821488351939572</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -6241,16 +7252,16 @@
         <v>11.9</v>
       </c>
       <c r="S34" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="T34">
-        <v>140.3097318806356</v>
+        <v>203.17023778342</v>
       </c>
       <c r="U34">
         <v>20200508</v>
       </c>
       <c r="V34" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="W34">
         <v>330407</v>
@@ -6262,7 +7273,7 @@
         <v>8196</v>
       </c>
       <c r="AA34">
-        <v>71679</v>
+        <v>82730</v>
       </c>
       <c r="AB34">
         <v>2811</v>
@@ -6274,93 +7285,117 @@
         <v>56378</v>
       </c>
       <c r="AG34" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH34" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI34">
+        <v>230</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK34">
         <v>21045</v>
       </c>
-      <c r="AJ34">
-        <v>71679</v>
-      </c>
-      <c r="AK34">
+      <c r="AL34">
+        <v>82730</v>
+      </c>
+      <c r="AP34">
+        <v>330407</v>
+      </c>
+      <c r="AQ34">
+        <v>2758</v>
+      </c>
+      <c r="AR34">
+        <v>28869</v>
+      </c>
+      <c r="AS34">
         <v>1121543</v>
       </c>
-      <c r="AL34">
+      <c r="AT34">
         <v>1121543</v>
       </c>
-      <c r="AM34">
+      <c r="AU34">
+        <v>31627</v>
+      </c>
+      <c r="AV34">
         <v>217</v>
       </c>
-      <c r="AN34">
-        <v>527</v>
-      </c>
-      <c r="AO34">
-        <v>28869</v>
-      </c>
-      <c r="AP34">
-        <v>2758</v>
-      </c>
-      <c r="AQ34">
-        <v>31627</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS34">
+      <c r="AW34">
+        <v>533</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE34">
         <v>4410.619117538942</v>
       </c>
-      <c r="AT34">
+      <c r="BF34">
         <v>0.01698439684127754</v>
       </c>
-      <c r="AU34">
+      <c r="BG34">
         <v>0.04066792707001047</v>
       </c>
-      <c r="AV34">
+      <c r="BH34">
         <v>29.46</v>
       </c>
-      <c r="AW34">
+      <c r="BI34">
         <v>0.05765232391128802</v>
       </c>
-      <c r="AX34">
+      <c r="BJ34">
         <v>7.288999111116478</v>
       </c>
-      <c r="AY34">
+      <c r="BK34">
         <v>6.049815929104652</v>
       </c>
-      <c r="AZ34">
+      <c r="BL34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BA34">
+      <c r="BM34">
         <v>4.419013480435807</v>
       </c>
-      <c r="BB34">
+      <c r="BN34">
         <v>5.898251147179793</v>
       </c>
-      <c r="BC34">
+      <c r="BO34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BD34">
+      <c r="BP34">
         <v>3.913601949729157</v>
       </c>
-      <c r="BE34">
+      <c r="BQ34">
         <v>3.448860845607441</v>
       </c>
-      <c r="BF34">
+      <c r="BR34">
         <v>3.36078268987328</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1359</v>
+        <v>1308</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>14006</v>
@@ -6384,10 +7419,10 @@
         <v>10488084</v>
       </c>
       <c r="N35" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9990783518784273</v>
+        <v>0.9952795482136761</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -6399,16 +7434,16 @@
         <v>14.1</v>
       </c>
       <c r="S35" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="T35">
-        <v>62.03554104206539</v>
+        <v>93.80962655871849</v>
       </c>
       <c r="U35">
         <v>20200508</v>
       </c>
       <c r="V35" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="W35">
         <v>13868</v>
@@ -6420,84 +7455,108 @@
         <v>515</v>
       </c>
       <c r="AG35" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH35" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI35">
+        <v>245</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK35">
         <v>527</v>
       </c>
-      <c r="AK35">
+      <c r="AP35">
+        <v>13868</v>
+      </c>
+      <c r="AQ35">
+        <v>471</v>
+      </c>
+      <c r="AR35">
+        <v>6814</v>
+      </c>
+      <c r="AS35">
         <v>178613</v>
       </c>
-      <c r="AL35">
+      <c r="AT35">
         <v>178613</v>
       </c>
-      <c r="AM35">
+      <c r="AU35">
+        <v>7285</v>
+      </c>
+      <c r="AV35">
         <v>20</v>
       </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>6814</v>
-      </c>
-      <c r="AP35">
-        <v>471</v>
-      </c>
-      <c r="AQ35">
-        <v>7285</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS35">
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE35">
         <v>3238.531148530148</v>
       </c>
-      <c r="AT35">
+      <c r="BF35">
         <v>0.001322262483786362</v>
       </c>
-      <c r="AU35">
+      <c r="BG35">
         <v>0.01570782613869225</v>
       </c>
-      <c r="AV35">
+      <c r="BH35">
         <v>7.76</v>
       </c>
-      <c r="AW35">
+      <c r="BI35">
         <v>0.01703008862247862</v>
       </c>
-      <c r="AX35">
+      <c r="BJ35">
         <v>7.02069615699919</v>
       </c>
-      <c r="AY35">
+      <c r="BK35">
         <v>5.251913064982536</v>
       </c>
-      <c r="AZ35">
+      <c r="BL35">
         <v>4.146314122011972</v>
       </c>
-      <c r="BA35">
+      <c r="BM35">
         <v>2.724275869600789</v>
       </c>
-      <c r="BB35">
+      <c r="BN35">
         <v>5.216812242656875</v>
       </c>
-      <c r="BC35">
+      <c r="BO35">
         <v>4.142013832984359</v>
       </c>
-      <c r="BD35">
+      <c r="BP35">
         <v>2.711807229041191</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1360</v>
+        <v>1309</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>1425</v>
@@ -6530,10 +7589,10 @@
         <v>762062</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O36">
-        <v>0.997211353672802</v>
+        <v>0.9844215367003923</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -6545,16 +7604,16 @@
         <v>11.1</v>
       </c>
       <c r="S36" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="T36">
-        <v>179.67355524279</v>
+        <v>158.0238058924984</v>
       </c>
       <c r="U36">
         <v>20200508</v>
       </c>
       <c r="V36" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="W36">
         <v>1425</v>
@@ -6572,87 +7631,111 @@
         <v>714</v>
       </c>
       <c r="AG36" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI36">
+        <v>243</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK36">
         <v>33</v>
       </c>
-      <c r="AJ36">
+      <c r="AL36">
         <v>104</v>
       </c>
-      <c r="AK36">
+      <c r="AP36">
+        <v>1425</v>
+      </c>
+      <c r="AQ36">
+        <v>54</v>
+      </c>
+      <c r="AR36">
+        <v>1580</v>
+      </c>
+      <c r="AS36">
         <v>42501</v>
       </c>
-      <c r="AL36">
+      <c r="AT36">
         <v>42501</v>
       </c>
-      <c r="AM36">
+      <c r="AU36">
+        <v>1634</v>
+      </c>
+      <c r="AV36">
         <v>2</v>
       </c>
-      <c r="AN36">
+      <c r="AW36">
         <v>2</v>
       </c>
-      <c r="AO36">
-        <v>1580</v>
-      </c>
-      <c r="AP36">
-        <v>54</v>
-      </c>
-      <c r="AQ36">
-        <v>1634</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS36">
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE36">
         <v>872.9616257316241</v>
       </c>
-      <c r="AT36">
+      <c r="BF36">
         <v>0.001869926593899184</v>
       </c>
-      <c r="AU36">
+      <c r="BG36">
         <v>0.05390112615508974</v>
       </c>
-      <c r="AV36">
+      <c r="BH36">
         <v>3.35</v>
       </c>
-      <c r="AW36">
+      <c r="BI36">
         <v>0.05577105274898893</v>
       </c>
-      <c r="AX36">
+      <c r="BJ36">
         <v>5.88199030619854</v>
       </c>
-      <c r="AY36">
+      <c r="BK36">
         <v>4.628399148623785</v>
       </c>
-      <c r="AZ36">
+      <c r="BL36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BA36">
+      <c r="BM36">
         <v>1.518513939877888</v>
       </c>
-      <c r="BB36">
+      <c r="BN36">
         <v>4.613588145185502</v>
       </c>
-      <c r="BC36">
+      <c r="BO36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BD36">
+      <c r="BP36">
         <v>1.518513939877888</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1361</v>
+        <v>1310</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <v>23016</v>
@@ -6682,10 +7765,10 @@
         <v>11689100</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9905154583603117</v>
+        <v>0.9883347597064077</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -6697,16 +7780,16 @@
         <v>12.4</v>
       </c>
       <c r="S37" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="T37">
-        <v>54.78060111382486</v>
+        <v>71.97855804974382</v>
       </c>
       <c r="U37">
         <v>20200508</v>
       </c>
       <c r="V37" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="W37">
         <v>23016</v>
@@ -6730,93 +7813,117 @@
         <v>274</v>
       </c>
       <c r="AG37" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI37">
+        <v>232</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>278</v>
+      </c>
+      <c r="AK37">
         <v>1306</v>
       </c>
-      <c r="AJ37">
+      <c r="AL37">
         <v>4218</v>
       </c>
-      <c r="AK37">
+      <c r="AP37">
+        <v>21969</v>
+      </c>
+      <c r="AQ37">
+        <v>885</v>
+      </c>
+      <c r="AR37">
+        <v>7372</v>
+      </c>
+      <c r="AS37">
         <v>184316</v>
       </c>
-      <c r="AL37">
+      <c r="AT37">
         <v>184316</v>
       </c>
-      <c r="AM37">
+      <c r="AU37">
+        <v>8257</v>
+      </c>
+      <c r="AV37">
         <v>35</v>
       </c>
-      <c r="AN37">
+      <c r="AW37">
         <v>78</v>
       </c>
-      <c r="AO37">
-        <v>7372</v>
-      </c>
-      <c r="AP37">
-        <v>885</v>
-      </c>
-      <c r="AQ37">
-        <v>8257</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS37">
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE37">
         <v>3418.932581961803</v>
       </c>
-      <c r="AT37">
+      <c r="BF37">
         <v>0.001969013867620262</v>
       </c>
-      <c r="AU37">
+      <c r="BG37">
         <v>0.01379918043305301</v>
       </c>
-      <c r="AV37">
+      <c r="BH37">
         <v>12.49</v>
       </c>
-      <c r="AW37">
+      <c r="BI37">
         <v>0.01576819430067328</v>
       </c>
-      <c r="AX37">
+      <c r="BJ37">
         <v>7.067781074029195</v>
       </c>
-      <c r="AY37">
+      <c r="BK37">
         <v>5.265563036847407</v>
       </c>
-      <c r="AZ37">
+      <c r="BL37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BA37">
+      <c r="BM37">
         <v>3.115943176939055</v>
       </c>
-      <c r="BB37">
+      <c r="BN37">
         <v>5.207634367388962</v>
       </c>
-      <c r="BC37">
+      <c r="BO37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BD37">
+      <c r="BP37">
         <v>3.02530586526477</v>
       </c>
-      <c r="BE37">
+      <c r="BQ37">
         <v>2.594392550375427</v>
       </c>
-      <c r="BF37">
+      <c r="BR37">
         <v>2.437750562820388</v>
       </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1362</v>
+        <v>1311</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D38">
         <v>4424</v>
@@ -6849,10 +7956,10 @@
         <v>3956971</v>
       </c>
       <c r="N38" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9925129408212375</v>
+        <v>0.9900390545618953</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -6864,16 +7971,16 @@
         <v>13.1</v>
       </c>
       <c r="S38" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="T38">
-        <v>82.72274076540145</v>
+        <v>98.27391121152233</v>
       </c>
       <c r="U38">
         <v>20200508</v>
       </c>
       <c r="V38" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="W38">
         <v>4424</v>
@@ -6894,90 +8001,120 @@
         <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH38" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI38">
+        <v>230</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK38">
         <v>266</v>
       </c>
-      <c r="AJ38">
+      <c r="AL38">
         <v>805</v>
       </c>
-      <c r="AK38">
+      <c r="AM38">
         <v>89857</v>
       </c>
-      <c r="AL38">
+      <c r="AN38">
+        <v>4779</v>
+      </c>
+      <c r="AO38">
+        <v>85078</v>
+      </c>
+      <c r="AQ38">
+        <v>94</v>
+      </c>
+      <c r="AR38">
+        <v>2876</v>
+      </c>
+      <c r="AS38">
         <v>89857</v>
       </c>
-      <c r="AM38">
+      <c r="AT38">
+        <v>89857</v>
+      </c>
+      <c r="AU38">
+        <v>2970</v>
+      </c>
+      <c r="AV38">
         <v>6</v>
       </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
-        <v>2876</v>
-      </c>
-      <c r="AP38">
-        <v>94</v>
-      </c>
-      <c r="AQ38">
-        <v>2970</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS38">
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE38">
         <v>1989.213663737508</v>
       </c>
-      <c r="AT38">
+      <c r="BF38">
         <v>0.001118026894814241</v>
       </c>
-      <c r="AU38">
+      <c r="BG38">
         <v>0.0215905044540382</v>
       </c>
-      <c r="AV38">
+      <c r="BH38">
         <v>4.92</v>
       </c>
-      <c r="AW38">
+      <c r="BI38">
         <v>0.02270853134885244</v>
       </c>
-      <c r="AX38">
+      <c r="BJ38">
         <v>6.597362867403726</v>
       </c>
-      <c r="AY38">
+      <c r="BK38">
         <v>4.953551914978187</v>
       </c>
-      <c r="AZ38">
+      <c r="BL38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BA38">
+      <c r="BM38">
         <v>2.424881636631067</v>
       </c>
-      <c r="BB38">
+      <c r="BN38">
         <v>4.931625656984171</v>
       </c>
-      <c r="BC38">
+      <c r="BO38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BD38">
+      <c r="BP38">
         <v>2.357934847000454</v>
       </c>
-      <c r="BE38">
+      <c r="BQ38">
         <v>1.982271233039568</v>
       </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1363</v>
+        <v>1312</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>3068</v>
@@ -7010,10 +8147,10 @@
         <v>4217737</v>
       </c>
       <c r="N39" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O39">
-        <v>0.993852897857794</v>
+        <v>0.9886104819709842</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -7025,16 +8162,16 @@
         <v>10.6</v>
       </c>
       <c r="S39" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="T39">
-        <v>46.63702265997834</v>
+        <v>56.7613242684394</v>
       </c>
       <c r="U39">
         <v>20200508</v>
       </c>
       <c r="V39" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="W39">
         <v>3068</v>
@@ -7058,93 +8195,117 @@
         <v>1125</v>
       </c>
       <c r="AG39" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH39" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI39">
+        <v>245</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK39">
         <v>124</v>
       </c>
-      <c r="AJ39">
+      <c r="AL39">
         <v>659</v>
       </c>
-      <c r="AK39">
+      <c r="AP39">
+        <v>3032</v>
+      </c>
+      <c r="AQ39">
+        <v>79</v>
+      </c>
+      <c r="AR39">
+        <v>2156</v>
+      </c>
+      <c r="AS39">
         <v>72693</v>
       </c>
-      <c r="AL39">
+      <c r="AT39">
         <v>72693</v>
       </c>
-      <c r="AM39">
+      <c r="AU39">
+        <v>2235</v>
+      </c>
+      <c r="AV39">
         <v>3</v>
       </c>
-      <c r="AN39">
+      <c r="AW39">
         <v>14</v>
       </c>
-      <c r="AO39">
-        <v>2156</v>
-      </c>
-      <c r="AP39">
-        <v>79</v>
-      </c>
-      <c r="AQ39">
-        <v>2235</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS39">
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE39">
         <v>2053.712978972475</v>
       </c>
-      <c r="AT39">
+      <c r="BF39">
         <v>0.0007274042928707978</v>
       </c>
-      <c r="AU39">
+      <c r="BG39">
         <v>0.01650766750036809</v>
       </c>
-      <c r="AV39">
+      <c r="BH39">
         <v>4.22</v>
       </c>
-      <c r="AW39">
+      <c r="BI39">
         <v>0.01723507179323889</v>
       </c>
-      <c r="AX39">
+      <c r="BJ39">
         <v>6.625079495505463</v>
       </c>
-      <c r="AY39">
+      <c r="BK39">
         <v>4.861492592320653</v>
       </c>
-      <c r="AZ39">
+      <c r="BL39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BA39">
+      <c r="BM39">
         <v>2.093421685162235</v>
       </c>
-      <c r="BB39">
+      <c r="BN39">
         <v>4.842765208181786</v>
       </c>
-      <c r="BC39">
+      <c r="BO39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BD39">
+      <c r="BP39">
         <v>2.201397124320451</v>
       </c>
-      <c r="BE39">
+      <c r="BQ39">
         <v>1.623249290397901</v>
       </c>
-      <c r="BF39">
+      <c r="BR39">
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1364</v>
+        <v>1313</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D40">
         <v>57371</v>
@@ -7168,10 +8329,10 @@
         <v>12801989</v>
       </c>
       <c r="N40" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9809859915649997</v>
+        <v>0.9798306541168111</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -7183,16 +8344,16 @@
         <v>11.4</v>
       </c>
       <c r="S40" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="T40">
-        <v>50.17593883676927</v>
+        <v>60.08776123620963</v>
       </c>
       <c r="U40">
         <v>20200508</v>
       </c>
       <c r="V40" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="W40">
         <v>54238</v>
@@ -7207,87 +8368,108 @@
         <v>517</v>
       </c>
       <c r="AG40" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH40" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI40">
+        <v>230</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK40">
         <v>3616</v>
       </c>
-      <c r="AK40">
+      <c r="AQ40">
+        <v>1323</v>
+      </c>
+      <c r="AR40">
+        <v>6448</v>
+      </c>
+      <c r="AS40">
         <v>270559</v>
       </c>
-      <c r="AL40">
+      <c r="AT40">
         <v>270559</v>
       </c>
-      <c r="AM40">
+      <c r="AU40">
+        <v>7771</v>
+      </c>
+      <c r="AV40">
         <v>200</v>
       </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
-        <v>6448</v>
-      </c>
-      <c r="AP40">
-        <v>1323</v>
-      </c>
-      <c r="AQ40">
-        <v>7771</v>
-      </c>
-      <c r="AR40" t="s">
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE40">
+        <v>3577.986724402426</v>
+      </c>
+      <c r="BF40">
+        <v>0.004236685408806397</v>
+      </c>
+      <c r="BG40">
+        <v>0.01689745241930765</v>
+      </c>
+      <c r="BH40">
+        <v>20.05</v>
+      </c>
+      <c r="BI40">
+        <v>0.02113413782811405</v>
+      </c>
+      <c r="BJ40">
+        <v>7.107277449696098</v>
+      </c>
+      <c r="BK40">
+        <v>5.432261985081858</v>
+      </c>
+      <c r="BL40">
+        <v>4.758692419878901</v>
+      </c>
+      <c r="BM40">
+        <v>3.569958818096594</v>
+      </c>
+      <c r="BN40">
+        <v>5.335098681905209</v>
+      </c>
+      <c r="BO40">
+        <v>4.73430366675543</v>
+      </c>
+      <c r="BP40">
+        <v>3.369586890736344</v>
+      </c>
+      <c r="BR40">
+        <v>2.713490543093942</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70">
+      <c r="A41" s="1">
+        <v>1314</v>
+      </c>
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="AS40">
-        <v>3577.986724402426</v>
-      </c>
-      <c r="AT40">
-        <v>0.004236685408806397</v>
-      </c>
-      <c r="AU40">
-        <v>0.01689745241930765</v>
-      </c>
-      <c r="AV40">
-        <v>20.05</v>
-      </c>
-      <c r="AW40">
-        <v>0.02113413782811405</v>
-      </c>
-      <c r="AX40">
-        <v>7.107277449696098</v>
-      </c>
-      <c r="AY40">
-        <v>5.432261985081858</v>
-      </c>
-      <c r="AZ40">
-        <v>4.758692419878901</v>
-      </c>
-      <c r="BA40">
-        <v>3.569958818096594</v>
-      </c>
-      <c r="BB40">
-        <v>5.335098681905209</v>
-      </c>
-      <c r="BC40">
-        <v>4.73430366675543</v>
-      </c>
-      <c r="BD40">
-        <v>3.369586890736344</v>
-      </c>
-      <c r="BF40">
-        <v>2.713490543093942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58">
-      <c r="A41" s="1">
-        <v>1365</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D41">
         <v>10779</v>
@@ -7320,10 +8502,10 @@
         <v>1059361</v>
       </c>
       <c r="N41" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9755748197615287</v>
+        <v>0.9615473858506286</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -7335,16 +8517,16 @@
         <v>10.1</v>
       </c>
       <c r="S41" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="T41">
-        <v>256.6893778449509</v>
+        <v>274.329813760173</v>
       </c>
       <c r="U41">
         <v>20200508</v>
       </c>
       <c r="V41" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="W41">
         <v>10779</v>
@@ -7368,93 +8550,117 @@
         <v>730</v>
       </c>
       <c r="AG41" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH41" t="s">
-        <v>232</v>
-      </c>
-      <c r="AI41">
+        <v>244</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK41">
         <v>399</v>
       </c>
-      <c r="AJ41">
+      <c r="AL41">
         <v>1187</v>
       </c>
-      <c r="AK41">
+      <c r="AP41">
+        <v>10779</v>
+      </c>
+      <c r="AQ41">
+        <v>249</v>
+      </c>
+      <c r="AR41">
+        <v>2699</v>
+      </c>
+      <c r="AS41">
         <v>85266</v>
       </c>
-      <c r="AL41">
+      <c r="AT41">
         <v>85266</v>
       </c>
-      <c r="AM41">
+      <c r="AU41">
+        <v>2948</v>
+      </c>
+      <c r="AV41">
         <v>11</v>
       </c>
-      <c r="AN41">
+      <c r="AW41">
         <v>34</v>
       </c>
-      <c r="AO41">
-        <v>2699</v>
-      </c>
-      <c r="AP41">
-        <v>249</v>
-      </c>
-      <c r="AQ41">
-        <v>2948</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS41">
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE41">
         <v>1029.25264148313</v>
       </c>
-      <c r="AT41">
+      <c r="BF41">
         <v>0.01017500172273663</v>
       </c>
-      <c r="AU41">
+      <c r="BG41">
         <v>0.07031314160139933</v>
       </c>
-      <c r="AV41">
+      <c r="BH41">
         <v>12.64</v>
       </c>
-      <c r="AW41">
+      <c r="BI41">
         <v>0.08048814332413597</v>
       </c>
-      <c r="AX41">
+      <c r="BJ41">
         <v>6.025043980496346</v>
       </c>
-      <c r="AY41">
+      <c r="BK41">
         <v>4.930775889831263</v>
       </c>
-      <c r="AZ41">
+      <c r="BL41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BA41">
+      <c r="BM41">
         <v>2.600972895686748</v>
       </c>
-      <c r="BB41">
+      <c r="BN41">
         <v>4.872080483205862</v>
       </c>
-      <c r="BC41">
+      <c r="BO41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BD41">
+      <c r="BP41">
         <v>2.494154594018443</v>
       </c>
-      <c r="BE41">
+      <c r="BQ41">
         <v>1.851258348719075</v>
       </c>
-      <c r="BF41">
+      <c r="BR41">
         <v>1.716003343634799</v>
       </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1366</v>
+        <v>1315</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>7367</v>
@@ -7487,10 +8693,10 @@
         <v>5148714</v>
       </c>
       <c r="N42" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9936671403195644</v>
+        <v>0.97057640889811</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -7502,16 +8708,16 @@
         <v>14</v>
       </c>
       <c r="S42" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="T42">
-        <v>61.08178658348977</v>
+        <v>80.69518614907113</v>
       </c>
       <c r="U42">
         <v>20200508</v>
       </c>
       <c r="V42" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="W42">
         <v>7142</v>
@@ -7526,84 +8732,105 @@
         <v>3816</v>
       </c>
       <c r="AG42" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI42">
+        <v>251</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK42">
         <v>316</v>
       </c>
-      <c r="AJ42">
+      <c r="AL42">
         <v>1152</v>
       </c>
-      <c r="AK42">
+      <c r="AQ42">
+        <v>206</v>
+      </c>
+      <c r="AR42">
+        <v>-4246</v>
+      </c>
+      <c r="AS42">
         <v>73442</v>
       </c>
-      <c r="AL42">
+      <c r="AT42">
         <v>73442</v>
       </c>
-      <c r="AM42">
+      <c r="AU42">
+        <v>-4040</v>
+      </c>
+      <c r="AV42">
         <v>11</v>
       </c>
-      <c r="AN42">
-        <v>0</v>
-      </c>
-      <c r="AO42">
-        <v>-4246</v>
-      </c>
-      <c r="AP42">
-        <v>206</v>
-      </c>
-      <c r="AQ42">
-        <v>-4040</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS42">
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE42">
         <v>2269.077786238277</v>
       </c>
-      <c r="AT42">
+      <c r="BF42">
         <v>0.001387142498107294</v>
       </c>
-      <c r="AU42">
+      <c r="BG42">
         <v>0.01287700190766083</v>
       </c>
-      <c r="AV42">
+      <c r="BH42">
         <v>9.720000000000001</v>
       </c>
-      <c r="AW42">
+      <c r="BI42">
         <v>0.01426414440576812</v>
       </c>
-      <c r="AX42">
+      <c r="BJ42">
         <v>6.711698768371901</v>
       </c>
-      <c r="AY42">
+      <c r="BK42">
         <v>4.865944495223916</v>
       </c>
-      <c r="AZ42">
+      <c r="BL42">
         <v>3.867290669854884</v>
       </c>
-      <c r="BA42">
+      <c r="BM42">
         <v>2.505149978319906</v>
       </c>
-      <c r="BB42">
+      <c r="BN42">
         <v>4.821513528404773</v>
       </c>
-      <c r="BC42">
+      <c r="BO42">
         <v>3.853819845856763</v>
       </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1367</v>
+        <v>1316</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>3145</v>
@@ -7636,10 +8863,10 @@
         <v>884659</v>
       </c>
       <c r="N43" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9836216898177923</v>
+        <v>0.9825784888827817</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -7651,16 +8878,16 @@
         <v>10.7</v>
       </c>
       <c r="S43" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="T43">
-        <v>63.90013913819039</v>
+        <v>101.9816028587354</v>
       </c>
       <c r="U43">
         <v>20200508</v>
       </c>
       <c r="V43" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="W43">
         <v>3144</v>
@@ -7678,87 +8905,111 @@
         <v>2069</v>
       </c>
       <c r="AG43" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH43" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI43">
+        <v>235</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK43">
         <v>31</v>
       </c>
-      <c r="AJ43">
+      <c r="AL43">
         <v>247</v>
       </c>
-      <c r="AK43">
+      <c r="AP43">
+        <v>3144</v>
+      </c>
+      <c r="AQ43">
+        <v>239</v>
+      </c>
+      <c r="AR43">
+        <v>940</v>
+      </c>
+      <c r="AS43">
         <v>21293</v>
       </c>
-      <c r="AL43">
+      <c r="AT43">
         <v>21293</v>
       </c>
-      <c r="AM43">
-        <v>0</v>
-      </c>
-      <c r="AN43">
+      <c r="AU43">
+        <v>1179</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
         <v>11</v>
       </c>
-      <c r="AO43">
-        <v>940</v>
-      </c>
-      <c r="AP43">
-        <v>239</v>
-      </c>
-      <c r="AQ43">
-        <v>1179</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS43">
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE43">
         <v>940.5631291944204</v>
       </c>
-      <c r="AT43">
+      <c r="BF43">
         <v>0.003553911733221501</v>
       </c>
-      <c r="AU43">
+      <c r="BG43">
         <v>0.02051524937857412</v>
       </c>
-      <c r="AV43">
+      <c r="BH43">
         <v>14.77</v>
       </c>
-      <c r="AW43">
+      <c r="BI43">
         <v>0.02406916111179562</v>
       </c>
-      <c r="AX43">
+      <c r="BJ43">
         <v>5.94677590012512</v>
       </c>
-      <c r="AY43">
+      <c r="BK43">
         <v>4.328236854094916</v>
       </c>
-      <c r="AZ43">
+      <c r="BL43">
         <v>3.497620649781288</v>
       </c>
-      <c r="BA43">
+      <c r="BM43">
         <v>1.491361693834273</v>
       </c>
-      <c r="BB43">
+      <c r="BN43">
         <v>4.258852700642303</v>
       </c>
-      <c r="BC43">
+      <c r="BO43">
         <v>3.49748253736737</v>
       </c>
-      <c r="BD43">
+      <c r="BP43">
         <v>1.880813592280791</v>
       </c>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1368</v>
+        <v>1317</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>14441</v>
@@ -7791,10 +9042,10 @@
         <v>6829174</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9954036235576912</v>
+        <v>0.9978709122358577</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -7806,16 +9057,16 @@
         <v>11.7</v>
       </c>
       <c r="S44" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="T44">
-        <v>115.7151667119078</v>
+        <v>129.6309653746785</v>
       </c>
       <c r="U44">
         <v>20200508</v>
       </c>
       <c r="V44" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="W44">
         <v>14441</v>
@@ -7830,84 +9081,108 @@
         <v>7011</v>
       </c>
       <c r="AG44" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH44" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI44">
+        <v>230</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK44">
         <v>241</v>
       </c>
-      <c r="AJ44">
+      <c r="AL44">
         <v>1299</v>
       </c>
-      <c r="AK44">
+      <c r="AP44">
+        <v>14441</v>
+      </c>
+      <c r="AQ44">
+        <v>345</v>
+      </c>
+      <c r="AR44">
+        <v>6905</v>
+      </c>
+      <c r="AS44">
         <v>243578</v>
       </c>
-      <c r="AL44">
+      <c r="AT44">
         <v>243578</v>
       </c>
-      <c r="AM44">
+      <c r="AU44">
+        <v>7250</v>
+      </c>
+      <c r="AV44">
         <v>4</v>
       </c>
-      <c r="AN44">
+      <c r="AW44">
         <v>33</v>
       </c>
-      <c r="AO44">
-        <v>6905</v>
-      </c>
-      <c r="AP44">
-        <v>345</v>
-      </c>
-      <c r="AQ44">
-        <v>7250</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS44">
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE44">
         <v>2613.26883423807</v>
       </c>
-      <c r="AT44">
+      <c r="BF44">
         <v>0.002114604196642229</v>
       </c>
-      <c r="AU44">
+      <c r="BG44">
         <v>0.03355266683789284</v>
       </c>
-      <c r="AV44">
+      <c r="BH44">
         <v>5.93</v>
       </c>
-      <c r="AW44">
+      <c r="BI44">
         <v>0.03566727103453507</v>
       </c>
-      <c r="AX44">
+      <c r="BJ44">
         <v>6.834368178215133</v>
       </c>
-      <c r="AY44">
+      <c r="BK44">
         <v>5.386638060192078</v>
       </c>
-      <c r="AZ44">
+      <c r="BL44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BA44">
+      <c r="BM44">
         <v>2.383815365980431</v>
       </c>
-      <c r="BB44">
+      <c r="BN44">
         <v>5.360095222748518</v>
       </c>
-      <c r="BC44">
+      <c r="BO44">
         <v>4.159597267987408</v>
       </c>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1369</v>
+        <v>1318</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D45">
         <v>37246</v>
@@ -7934,10 +9209,10 @@
         <v>28995881</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9971024231022834</v>
+        <v>0.9944280946049716</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -7949,16 +9224,16 @@
         <v>13.4</v>
       </c>
       <c r="S45" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="T45">
-        <v>55.57058620283092</v>
+        <v>64.36408866906658</v>
       </c>
       <c r="U45">
         <v>20200508</v>
       </c>
       <c r="V45" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="W45">
         <v>36609</v>
@@ -7973,84 +9248,108 @@
         <v>19197</v>
       </c>
       <c r="AG45" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH45" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI45">
+        <v>243</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK45">
         <v>1004</v>
       </c>
-      <c r="AK45">
+      <c r="AP45">
+        <v>36609</v>
+      </c>
+      <c r="AQ45">
+        <v>1219</v>
+      </c>
+      <c r="AR45">
+        <v>20737</v>
+      </c>
+      <c r="AS45">
         <v>477118</v>
       </c>
-      <c r="AL45">
+      <c r="AT45">
         <v>477118</v>
       </c>
-      <c r="AM45">
+      <c r="AU45">
+        <v>21956</v>
+      </c>
+      <c r="AV45">
         <v>31</v>
       </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>20737</v>
-      </c>
-      <c r="AP45">
-        <v>1219</v>
-      </c>
-      <c r="AQ45">
-        <v>21956</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS45">
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE45">
         <v>5384.782354004663</v>
       </c>
-      <c r="AT45">
+      <c r="BF45">
         <v>0.001262558637207816</v>
       </c>
-      <c r="AU45">
+      <c r="BG45">
         <v>0.01519212332261951</v>
       </c>
-      <c r="AV45">
+      <c r="BH45">
         <v>7.67</v>
       </c>
-      <c r="AW45">
+      <c r="BI45">
         <v>0.01645468195982733</v>
       </c>
-      <c r="AX45">
+      <c r="BJ45">
         <v>7.462336308725756</v>
       </c>
-      <c r="AY45">
+      <c r="BK45">
         <v>5.678625801285844</v>
       </c>
-      <c r="AZ45">
+      <c r="BL45">
         <v>4.571079638931142</v>
       </c>
-      <c r="BA45">
+      <c r="BM45">
         <v>3.010723865391773</v>
       </c>
-      <c r="BB45">
+      <c r="BN45">
         <v>5.643954785870446</v>
       </c>
-      <c r="BC45">
+      <c r="BO45">
         <v>4.563587865991245</v>
       </c>
-      <c r="BD45">
+      <c r="BP45">
         <v>3.239049093140192</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1370</v>
+        <v>1319</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D46">
         <v>5919</v>
@@ -8083,10 +9382,10 @@
         <v>3205958</v>
       </c>
       <c r="N46" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9971953379631662</v>
+        <v>0.9933386403683274</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -8098,16 +9397,16 @@
         <v>7.8</v>
       </c>
       <c r="S46" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="T46">
-        <v>109.3584255820245</v>
+        <v>105.6502142038924</v>
       </c>
       <c r="U46">
         <v>20200508</v>
       </c>
       <c r="V46" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="W46">
         <v>5919</v>
@@ -8131,87 +9430,111 @@
         <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH46" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI46">
+        <v>246</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>269</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>292</v>
+      </c>
+      <c r="AK46">
         <v>61</v>
       </c>
-      <c r="AJ46">
+      <c r="AL46">
         <v>488</v>
       </c>
-      <c r="AK46">
+      <c r="AP46">
+        <v>5919</v>
+      </c>
+      <c r="AQ46">
+        <v>195</v>
+      </c>
+      <c r="AR46">
+        <v>3950</v>
+      </c>
+      <c r="AS46">
         <v>138688</v>
       </c>
-      <c r="AL46">
+      <c r="AT46">
         <v>138688</v>
       </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
+      <c r="AU46">
+        <v>4145</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
         <v>12</v>
       </c>
-      <c r="AO46">
-        <v>3950</v>
-      </c>
-      <c r="AP46">
-        <v>195</v>
-      </c>
-      <c r="AQ46">
-        <v>4145</v>
-      </c>
-      <c r="AR46" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS46">
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE46">
         <v>1790.518919196332</v>
       </c>
-      <c r="AT46">
+      <c r="BF46">
         <v>0.001846250013256568</v>
       </c>
-      <c r="AU46">
+      <c r="BG46">
         <v>0.04141320628654524</v>
       </c>
-      <c r="AV46">
+      <c r="BH46">
         <v>4.27</v>
       </c>
-      <c r="AW46">
+      <c r="BI46">
         <v>0.0432594562998018</v>
       </c>
-      <c r="AX46">
+      <c r="BJ46">
         <v>6.505957828533497</v>
       </c>
-      <c r="AY46">
+      <c r="BK46">
         <v>5.142038885303705</v>
       </c>
-      <c r="AZ46">
+      <c r="BL46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BA46">
+      <c r="BM46">
         <v>1.785329835010767</v>
       </c>
-      <c r="BB46">
+      <c r="BN46">
         <v>5.123096684214545</v>
       </c>
-      <c r="BC46">
+      <c r="BO46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BD46">
+      <c r="BP46">
         <v>2.334453751150931</v>
       </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1371</v>
+        <v>1320</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D47">
         <v>919</v>
@@ -8238,10 +9561,10 @@
         <v>623989</v>
       </c>
       <c r="N47" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9644765463176461</v>
+        <v>0.9577699286930086</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -8253,16 +9576,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S47" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="T47">
-        <v>67.485916758752</v>
+        <v>108.5934239042338</v>
       </c>
       <c r="U47">
         <v>20200508</v>
       </c>
       <c r="V47" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="W47">
         <v>918</v>
@@ -8277,84 +9600,108 @@
         <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH47" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI47">
+        <v>230</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK47">
         <v>53</v>
       </c>
-      <c r="AK47">
+      <c r="AP47">
+        <v>919</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>532</v>
+      </c>
+      <c r="AS47">
         <v>18140</v>
       </c>
-      <c r="AL47">
+      <c r="AT47">
         <v>18140</v>
       </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>532</v>
-      </c>
-      <c r="AP47">
-        <v>2</v>
-      </c>
-      <c r="AQ47">
+      <c r="AU47">
         <v>534</v>
       </c>
-      <c r="AR47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS47">
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE47">
         <v>789.9297437114266</v>
       </c>
-      <c r="AT47">
+      <c r="BF47">
         <v>0.001471179780412796</v>
       </c>
-      <c r="AU47">
+      <c r="BG47">
         <v>0.02759984551009713</v>
       </c>
-      <c r="AV47">
+      <c r="BH47">
         <v>5.06</v>
       </c>
-      <c r="AW47">
+      <c r="BI47">
         <v>0.03046207545325318</v>
       </c>
-      <c r="AX47">
+      <c r="BJ47">
         <v>5.795176933782731</v>
       </c>
-      <c r="AY47">
+      <c r="BK47">
         <v>4.2789364233011</v>
       </c>
-      <c r="AZ47">
+      <c r="BL47">
         <v>2.963315511386111</v>
       </c>
-      <c r="BA47">
+      <c r="BM47">
         <v>1.724275869600789</v>
       </c>
-      <c r="BB47">
+      <c r="BN47">
         <v>4.236083584895046</v>
       </c>
-      <c r="BC47">
+      <c r="BO47">
         <v>2.962842681201242</v>
       </c>
-      <c r="BD47">
+      <c r="BP47">
         <v>1.176091259055681</v>
       </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1372</v>
+        <v>1321</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>22342</v>
@@ -8387,10 +9734,10 @@
         <v>8535519</v>
       </c>
       <c r="N48" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9992004542801751</v>
+        <v>0.9905480469442071</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -8402,16 +9749,16 @@
         <v>10.1</v>
       </c>
       <c r="S48" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T48">
-        <v>59.15974433611961</v>
+        <v>85.63677801517683</v>
       </c>
       <c r="U48">
         <v>20200508</v>
       </c>
       <c r="V48" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="W48">
         <v>22342</v>
@@ -8438,93 +9785,120 @@
         <v>2997</v>
       </c>
       <c r="AG48" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI48">
+        <v>242</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK48">
         <v>812</v>
       </c>
-      <c r="AJ48">
+      <c r="AL48">
         <v>4622</v>
       </c>
-      <c r="AK48">
+      <c r="AM48">
+        <v>143220</v>
+      </c>
+      <c r="AP48">
+        <v>21274</v>
+      </c>
+      <c r="AQ48">
+        <v>772</v>
+      </c>
+      <c r="AR48">
+        <v>6021</v>
+      </c>
+      <c r="AS48">
         <v>130494</v>
       </c>
-      <c r="AL48">
+      <c r="AT48">
         <v>129945</v>
       </c>
-      <c r="AM48">
+      <c r="AU48">
+        <v>6793</v>
+      </c>
+      <c r="AV48">
         <v>43</v>
       </c>
-      <c r="AN48">
+      <c r="AW48">
         <v>184</v>
       </c>
-      <c r="AO48">
-        <v>6021</v>
-      </c>
-      <c r="AP48">
-        <v>772</v>
-      </c>
-      <c r="AQ48">
-        <v>6793</v>
-      </c>
-      <c r="AR48" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS48">
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE48">
         <v>2921.561055326416</v>
       </c>
-      <c r="AT48">
+      <c r="BF48">
         <v>0.002617532688990558</v>
       </c>
-      <c r="AU48">
+      <c r="BG48">
         <v>0.01260649762480758</v>
       </c>
-      <c r="AV48">
+      <c r="BH48">
         <v>17.19</v>
       </c>
-      <c r="AW48">
+      <c r="BI48">
         <v>0.01522403031379814</v>
       </c>
-      <c r="AX48">
+      <c r="BJ48">
         <v>6.931229933415991</v>
       </c>
-      <c r="AY48">
+      <c r="BK48">
         <v>5.113759573454686</v>
       </c>
-      <c r="AZ48">
+      <c r="BL48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BA48">
+      <c r="BM48">
         <v>2.909556029241176</v>
       </c>
-      <c r="BB48">
+      <c r="BN48">
         <v>5.031824379743782</v>
       </c>
-      <c r="BC48">
+      <c r="BO48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BD48">
+      <c r="BP48">
         <v>3.210853365314893</v>
       </c>
-      <c r="BE48">
+      <c r="BQ48">
         <v>2.577491799837226</v>
       </c>
-      <c r="BF48">
+      <c r="BR48">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1373</v>
+        <v>1322</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D49">
         <v>16388</v>
@@ -8548,10 +9922,10 @@
         <v>7614893</v>
       </c>
       <c r="N49" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9917395335531803</v>
+        <v>0.993000411042239</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -8563,22 +9937,22 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S49" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="T49">
-        <v>68.51882227104601</v>
+        <v>71.61429497600437</v>
       </c>
       <c r="U49">
         <v>20200508</v>
       </c>
       <c r="V49" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="W49">
-        <v>17273</v>
+        <v>18124</v>
       </c>
       <c r="X49">
-        <v>238978</v>
+        <v>221418</v>
       </c>
       <c r="Z49">
         <v>393</v>
@@ -8587,87 +9961,111 @@
         <v>122</v>
       </c>
       <c r="AG49" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AH49" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI49">
+        <v>230</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK49">
         <v>891</v>
       </c>
-      <c r="AK49">
-        <v>256251</v>
-      </c>
-      <c r="AL49">
-        <v>256251</v>
-      </c>
-      <c r="AM49">
+      <c r="AP49">
+        <v>17519</v>
+      </c>
+      <c r="AQ49">
+        <v>210</v>
+      </c>
+      <c r="AR49">
+        <v>4965</v>
+      </c>
+      <c r="AS49">
+        <v>239542</v>
+      </c>
+      <c r="AT49">
+        <v>239542</v>
+      </c>
+      <c r="AU49">
+        <v>5175</v>
+      </c>
+      <c r="AV49">
         <v>21</v>
       </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>5769</v>
-      </c>
-      <c r="AP49">
-        <v>245</v>
-      </c>
-      <c r="AQ49">
-        <v>6014</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS49">
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE49">
         <v>2759.50955787437</v>
       </c>
-      <c r="AT49">
-        <v>0.002268318149710048</v>
-      </c>
-      <c r="AU49">
-        <v>0.03138297544036404</v>
-      </c>
-      <c r="AV49">
-        <v>6.74</v>
-      </c>
-      <c r="AW49">
+      <c r="BF49">
+        <v>0.002380072838843566</v>
+      </c>
+      <c r="BG49">
+        <v>0.0290769679889133</v>
+      </c>
+      <c r="BH49">
+        <v>7.57</v>
+      </c>
+      <c r="BI49">
         <v>0.0302932687301056</v>
       </c>
-      <c r="AX49">
+      <c r="BJ49">
         <v>6.881663805264177</v>
       </c>
-      <c r="AY49">
+      <c r="BK49">
         <v>5.363009942738859</v>
       </c>
-      <c r="AZ49">
+      <c r="BL49">
         <v>4.214525955281105</v>
       </c>
-      <c r="BA49">
+      <c r="BM49">
         <v>2.956648579205203</v>
       </c>
-      <c r="BB49">
-        <v>5.378357922210168</v>
-      </c>
-      <c r="BC49">
-        <v>4.237367773021761</v>
-      </c>
-      <c r="BD49">
+      <c r="BN49">
+        <v>5.345212923601941</v>
+      </c>
+      <c r="BO49">
+        <v>4.258254053507148</v>
+      </c>
+      <c r="BP49">
         <v>2.594392550375427</v>
       </c>
-      <c r="BE49">
+      <c r="BQ49">
         <v>2.086359830674748</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1374</v>
+        <v>1323</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D50">
         <v>1323</v>
@@ -8694,10 +10092,10 @@
         <v>1792147</v>
       </c>
       <c r="N50" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9894950134223128</v>
+        <v>0.9949874688666737</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -8709,16 +10107,16 @@
         <v>16.5</v>
       </c>
       <c r="S50" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="T50">
-        <v>90.42256454859745</v>
+        <v>92.96456470501974</v>
       </c>
       <c r="U50">
         <v>20200508</v>
       </c>
       <c r="V50" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="W50">
         <v>1310</v>
@@ -8739,90 +10137,114 @@
         <v>761</v>
       </c>
       <c r="AG50" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH50" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI50">
+        <v>241</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK50">
         <v>51</v>
       </c>
-      <c r="AK50">
+      <c r="AP50">
+        <v>1310</v>
+      </c>
+      <c r="AQ50">
+        <v>23</v>
+      </c>
+      <c r="AR50">
+        <v>1892</v>
+      </c>
+      <c r="AS50">
         <v>59436</v>
       </c>
-      <c r="AL50">
+      <c r="AT50">
         <v>59436</v>
       </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>1892</v>
-      </c>
-      <c r="AP50">
-        <v>23</v>
-      </c>
-      <c r="AQ50">
+      <c r="AU50">
         <v>1915</v>
       </c>
-      <c r="AR50" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS50">
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE50">
         <v>1338.71094714281</v>
       </c>
-      <c r="AT50">
+      <c r="BF50">
         <v>0.0007309668235920379</v>
       </c>
-      <c r="AU50">
+      <c r="BG50">
         <v>0.0324337233497029</v>
       </c>
-      <c r="AV50">
+      <c r="BH50">
         <v>2.2</v>
       </c>
-      <c r="AW50">
+      <c r="BI50">
         <v>0.03316469017329494</v>
       </c>
-      <c r="AX50">
+      <c r="BJ50">
         <v>6.253373629584194</v>
       </c>
-      <c r="AY50">
+      <c r="BK50">
         <v>4.774049574030081</v>
       </c>
-      <c r="AZ50">
+      <c r="BL50">
         <v>3.121559844187501</v>
       </c>
-      <c r="BA50">
+      <c r="BM50">
         <v>1.716003343634799</v>
       </c>
-      <c r="BB50">
+      <c r="BN50">
         <v>4.76437043756676</v>
       </c>
-      <c r="BC50">
+      <c r="BO50">
         <v>3.117271295655764</v>
       </c>
-      <c r="BD50">
+      <c r="BP50">
         <v>1.812913356642855</v>
       </c>
-      <c r="BE50">
+      <c r="BQ50">
         <v>1.278753600952829</v>
       </c>
-      <c r="BF50">
+      <c r="BR50">
         <v>1.041392685158225</v>
       </c>
     </row>
-    <row r="51" spans="1:58">
+    <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1375</v>
+        <v>1324</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D51">
         <v>9590</v>
@@ -8855,10 +10277,10 @@
         <v>5822434</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9987650483927512</v>
+        <v>0.9958508341621574</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -8870,16 +10292,16 @@
         <v>8.9</v>
       </c>
       <c r="S51" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="T51">
-        <v>66.15480777122553</v>
+        <v>112.3991414945011</v>
       </c>
       <c r="U51">
         <v>20200508</v>
       </c>
       <c r="V51" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="W51">
         <v>9590</v>
@@ -8906,90 +10328,114 @@
         <v>4694</v>
       </c>
       <c r="AG51" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AH51" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI51">
+        <v>230</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK51">
         <v>384</v>
       </c>
-      <c r="AJ51">
+      <c r="AL51">
         <v>1767</v>
       </c>
-      <c r="AK51">
+      <c r="AP51">
+        <v>9590</v>
+      </c>
+      <c r="AQ51">
+        <v>375</v>
+      </c>
+      <c r="AR51">
+        <v>4230</v>
+      </c>
+      <c r="AS51">
         <v>107059</v>
       </c>
-      <c r="AL51">
+      <c r="AT51">
         <v>106855</v>
       </c>
-      <c r="AM51">
+      <c r="AU51">
+        <v>4605</v>
+      </c>
+      <c r="AV51">
         <v>10</v>
       </c>
-      <c r="AN51">
+      <c r="AW51">
         <v>35</v>
       </c>
-      <c r="AO51">
-        <v>4230</v>
-      </c>
-      <c r="AP51">
-        <v>375</v>
-      </c>
-      <c r="AQ51">
-        <v>4605</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS51">
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE51">
         <v>2412.972026360853</v>
       </c>
-      <c r="AT51">
+      <c r="BF51">
         <v>0.001647077493707958</v>
       </c>
-      <c r="AU51">
+      <c r="BG51">
         <v>0.01670521297450516</v>
       </c>
-      <c r="AV51">
+      <c r="BH51">
         <v>8.970000000000001</v>
       </c>
-      <c r="AW51">
+      <c r="BI51">
         <v>0.01835229046821312</v>
       </c>
-      <c r="AX51">
+      <c r="BJ51">
         <v>6.765104574304484</v>
       </c>
-      <c r="AY51">
+      <c r="BK51">
         <v>5.028794848648937</v>
       </c>
-      <c r="AZ51">
+      <c r="BL51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BA51">
+      <c r="BM51">
         <v>2.584331224367531</v>
       </c>
-      <c r="BB51">
+      <c r="BN51">
         <v>4.987956591127648</v>
       </c>
-      <c r="BC51">
+      <c r="BO51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BD51">
+      <c r="BP51">
         <v>2.741939077729199</v>
       </c>
-      <c r="BE51">
+      <c r="BQ51">
         <v>2.041392685158225</v>
       </c>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1376</v>
+        <v>1325</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D52">
         <v>644</v>
@@ -9022,10 +10468,10 @@
         <v>578759</v>
       </c>
       <c r="N52" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9887391077291161</v>
+        <v>0.9921087492341135</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -9037,16 +10483,16 @@
         <v>11.2</v>
       </c>
       <c r="S52" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="T52">
-        <v>58.1934737590841</v>
+        <v>74.64535882271714</v>
       </c>
       <c r="U52">
         <v>20200508</v>
       </c>
       <c r="V52" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="W52">
         <v>635</v>
@@ -9064,75 +10510,102 @@
         <v>428</v>
       </c>
       <c r="AG52" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AH52" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI52">
+        <v>252</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK52">
         <v>7</v>
       </c>
-      <c r="AJ52">
+      <c r="AL52">
         <v>60</v>
       </c>
-      <c r="AK52">
-        <v>12038</v>
-      </c>
-      <c r="AL52">
-        <v>12038</v>
-      </c>
       <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
+        <v>12968</v>
       </c>
       <c r="AP52">
-        <v>4</v>
+        <v>483</v>
       </c>
       <c r="AQ52">
         <v>4</v>
       </c>
-      <c r="AR52" t="s">
-        <v>108</v>
+      <c r="AR52">
+        <v>0</v>
       </c>
       <c r="AS52">
+        <v>12038</v>
+      </c>
+      <c r="AT52">
+        <v>12038</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE52">
         <v>760.7621178791699</v>
       </c>
-      <c r="AT52">
+      <c r="BF52">
         <v>0.001097175162718852</v>
       </c>
-      <c r="AU52">
+      <c r="BG52">
         <v>0.01970250138658751</v>
       </c>
-      <c r="AV52">
+      <c r="BH52">
         <v>5.27</v>
       </c>
-      <c r="AW52">
+      <c r="BI52">
         <v>0.02079967654930636</v>
       </c>
-      <c r="AX52">
+      <c r="BJ52">
         <v>5.762497757580992</v>
       </c>
-      <c r="AY52">
+      <c r="BK52">
         <v>4.080554338988772</v>
       </c>
-      <c r="AZ52">
+      <c r="BL52">
         <v>2.808885867359812</v>
       </c>
-      <c r="BA52">
+      <c r="BM52">
         <v>0.8450980400142568</v>
       </c>
-      <c r="BB52">
+      <c r="BN52">
         <v>4.057019124322766</v>
       </c>
-      <c r="BC52">
+      <c r="BO52">
         <v>2.802773725291976</v>
       </c>
-      <c r="BD52">
+      <c r="BP52">
         <v>0.9542425094393249</v>
       </c>
     </row>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1485,7 +1485,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="1">
-        <v>1275</v>
+        <v>1326</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9961548173283249</v>
+        <v>0.995740029819967</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>91.53394787277495</v>
+        <v>93.63576722716572</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="1">
-        <v>1276</v>
+        <v>1327</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9396936619575512</v>
+        <v>0.941579943071723</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>149.9804404139065</v>
+        <v>158.8042906917459</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="1">
-        <v>1277</v>
+        <v>1328</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9585735101071652</v>
+        <v>0.9441045369039668</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>72.4740470704175</v>
+        <v>77.28268517144416</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1">
-        <v>1278</v>
+        <v>1329</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9782316520703097</v>
+        <v>0.9758290430435747</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>99.37484707052971</v>
+        <v>106.9951767558049</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" s="1">
-        <v>1279</v>
+        <v>1330</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9987941687246119</v>
+        <v>0.9973553542211694</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>114.621214595318</v>
+        <v>119.4972301309272</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" s="1">
-        <v>1280</v>
+        <v>1331</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9860540186790731</v>
+        <v>0.9862008954329935</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>62.20774888055355</v>
+        <v>63.39803093524244</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" s="1">
-        <v>1281</v>
+        <v>1332</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726436968450395</v>
+        <v>0.9726273871673385</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>147.7700549584814</v>
+        <v>148.7513674427119</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" s="1">
-        <v>1282</v>
+        <v>1333</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9719125100354388</v>
+        <v>0.9706811862205743</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>126.6392305279023</v>
+        <v>129.0832742431774</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" s="1">
-        <v>1283</v>
+        <v>1334</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.978849421709537</v>
+        <v>0.9765817195148566</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>133.2805559023537</v>
+        <v>140.1539389883827</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" s="1">
-        <v>1284</v>
+        <v>1335</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9806884548028498</v>
+        <v>0.9607522077623787</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>96.85147746037484</v>
+        <v>99.18328655735544</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="12" spans="1:70">
       <c r="A12" s="1">
-        <v>1285</v>
+        <v>1336</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9941931544408225</v>
+        <v>0.9940822406090747</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>91.58501914554807</v>
+        <v>92.40718439791485</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="13" spans="1:70">
       <c r="A13" s="1">
-        <v>1286</v>
+        <v>1337</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9437349933161601</v>
+        <v>0.9326524842233436</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>47.81581927580163</v>
+        <v>48.59268965463461</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="14" spans="1:70">
       <c r="A14" s="1">
-        <v>1287</v>
+        <v>1338</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9762479729976651</v>
+        <v>0.9595963222916397</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>42.977139494608</v>
+        <v>45.46032725857822</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="15" spans="1:70">
       <c r="A15" s="1">
-        <v>1288</v>
+        <v>1339</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9749763890778772</v>
+        <v>0.9718002033413174</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>149.453713546894</v>
+        <v>151.2859703081176</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="16" spans="1:70">
       <c r="A16" s="1">
-        <v>1289</v>
+        <v>1340</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9879377796585311</v>
+        <v>0.9875914125992487</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>78.84787775501175</v>
+        <v>81.08191263332981</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="1">
-        <v>1290</v>
+        <v>1341</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9813897143857576</v>
+        <v>0.9814184807587094</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>109.7394337303711</v>
+        <v>112.5846422331287</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="1">
-        <v>1291</v>
+        <v>1342</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9704972644250689</v>
+        <v>0.9735394097187717</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>68.07288019186623</v>
+        <v>69.53434428832985</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="1">
-        <v>1292</v>
+        <v>1343</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9944689672255347</v>
+        <v>0.9950381933825593</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>100.4023862570682</v>
+        <v>100.9351511180232</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="1">
-        <v>1293</v>
+        <v>1344</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.981659257592705</v>
+        <v>0.9817132357612998</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>151.7772520123101</v>
+        <v>158.9364260580127</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="21" spans="1:70">
       <c r="A21" s="1">
-        <v>1294</v>
+        <v>1345</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.996702555912258</v>
+        <v>0.9961676975669754</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>71.53593001211121</v>
+        <v>74.81600639285085</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="1">
-        <v>1295</v>
+        <v>1346</v>
       </c>
       <c r="B22" t="s">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9851929909913988</v>
+        <v>0.981830465517076</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>103.2403366612406</v>
+        <v>104.6609366406851</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="1">
-        <v>1296</v>
+        <v>1347</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9705834515204367</v>
+        <v>0.9699933543129484</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>141.5574427157853</v>
+        <v>139.3761503069926</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="1">
-        <v>1297</v>
+        <v>1348</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9882887715048982</v>
+        <v>0.9891974571985235</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>118.4723961100509</v>
+        <v>120.5064115436082</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="1">
-        <v>1298</v>
+        <v>1349</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9817307467490208</v>
+        <v>0.9783491147904497</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>116.3471431019844</v>
+        <v>122.5853459065865</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="1">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971131485166618</v>
+        <v>0.9972373089624437</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>109.3888784191183</v>
+        <v>110.5718127122548</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="1">
-        <v>1300</v>
+        <v>1351</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9940717914068239</v>
+        <v>0.9943986658036882</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>63.4642306382282</v>
+        <v>65.38742598918874</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="1">
-        <v>1301</v>
+        <v>1352</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9210771907078852</v>
+        <v>0.9001407125845154</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>78.48934719960789</v>
+        <v>83.09864703466461</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="1">
-        <v>1302</v>
+        <v>1353</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9731312257934863</v>
+        <v>0.9698825173018983</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>110.2133837683125</v>
+        <v>111.0130361881314</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6488,7 +6488,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="1">
-        <v>1303</v>
+        <v>1354</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9928326829811833</v>
+        <v>0.9879034061308822</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>107.0794355845264</v>
+        <v>109.3332820062451</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="1">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9868490708601265</v>
+        <v>0.9843574390058857</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.0345008057216</v>
+        <v>109.9762157245014</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="1">
-        <v>1305</v>
+        <v>1356</v>
       </c>
       <c r="B32" t="s">
         <v>99</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9758490774144092</v>
+        <v>0.976893670579473</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>191.2847067363578</v>
+        <v>194.4092026618191</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="33" spans="1:70">
       <c r="A33" s="1">
-        <v>1306</v>
+        <v>1357</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9921320852609766</v>
+        <v>0.9922561243179082</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>180.3655798148936</v>
+        <v>182.188092954467</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="34" spans="1:70">
       <c r="A34" s="1">
-        <v>1307</v>
+        <v>1358</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9821488351939572</v>
+        <v>0.9828143702079262</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>203.17023778342</v>
+        <v>211.1610001569674</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="35" spans="1:70">
       <c r="A35" s="1">
-        <v>1308</v>
+        <v>1359</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9952795482136761</v>
+        <v>0.9954424455418243</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>93.80962655871849</v>
+        <v>98.21018333517218</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="36" spans="1:70">
       <c r="A36" s="1">
-        <v>1309</v>
+        <v>1360</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9844215367003923</v>
+        <v>0.9827500548209438</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>158.0238058924984</v>
+        <v>155.9905721117894</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="37" spans="1:70">
       <c r="A37" s="1">
-        <v>1310</v>
+        <v>1361</v>
       </c>
       <c r="B37" t="s">
         <v>104</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9883347597064077</v>
+        <v>0.9895401846871976</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>71.97855804974382</v>
+        <v>74.57300784209592</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="38" spans="1:70">
       <c r="A38" s="1">
-        <v>1311</v>
+        <v>1362</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9900390545618953</v>
+        <v>0.9820133945569195</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>98.27391121152233</v>
+        <v>99.43776601559178</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="39" spans="1:70">
       <c r="A39" s="1">
-        <v>1312</v>
+        <v>1363</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9886104819709842</v>
+        <v>0.9832285793269088</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>56.7613242684394</v>
+        <v>58.54209492811339</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8299,7 +8299,7 @@
     </row>
     <row r="40" spans="1:70">
       <c r="A40" s="1">
-        <v>1313</v>
+        <v>1364</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9798306541168111</v>
+        <v>0.9806215183799796</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>60.08776123620963</v>
+        <v>61.22938109954558</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="41" spans="1:70">
       <c r="A41" s="1">
-        <v>1314</v>
+        <v>1365</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9615473858506286</v>
+        <v>0.9607602063664423</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>274.329813760173</v>
+        <v>272.4296520743738</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="42" spans="1:70">
       <c r="A42" s="1">
-        <v>1315</v>
+        <v>1366</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.97057640889811</v>
+        <v>0.9590539510032109</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>80.69518614907113</v>
+        <v>82.51981547947499</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="43" spans="1:70">
       <c r="A43" s="1">
-        <v>1316</v>
+        <v>1367</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9825784888827817</v>
+        <v>0.9827965643772899</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>101.9816028587354</v>
+        <v>103.7031124239913</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="44" spans="1:70">
       <c r="A44" s="1">
-        <v>1317</v>
+        <v>1368</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9978709122358577</v>
+        <v>0.997582898574171</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>129.6309653746785</v>
+        <v>131.7269506837322</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="45" spans="1:70">
       <c r="A45" s="1">
-        <v>1318</v>
+        <v>1369</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9944280946049716</v>
+        <v>0.9845773366767685</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>64.36408866906658</v>
+        <v>67.1087876683481</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="46" spans="1:70">
       <c r="A46" s="1">
-        <v>1319</v>
+        <v>1370</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9933386403683274</v>
+        <v>0.9911367684333515</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>105.6502142038924</v>
+        <v>106.1553195449286</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="47" spans="1:70">
       <c r="A47" s="1">
-        <v>1320</v>
+        <v>1371</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9577699286930086</v>
+        <v>0.9559963198829728</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>108.5934239042338</v>
+        <v>112.1998750967703</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="48" spans="1:70">
       <c r="A48" s="1">
-        <v>1321</v>
+        <v>1372</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9905480469442071</v>
+        <v>0.9875342187195757</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>85.63677801517683</v>
+        <v>88.98754082944932</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" s="1">
-        <v>1322</v>
+        <v>1373</v>
       </c>
       <c r="B49" t="s">
         <v>116</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.993000411042239</v>
+        <v>0.9919751296966465</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.61429497600437</v>
+        <v>71.13296840090064</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="50" spans="1:70">
       <c r="A50" s="1">
-        <v>1323</v>
+        <v>1374</v>
       </c>
       <c r="B50" t="s">
         <v>117</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9949874688666737</v>
+        <v>0.9954696619986333</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>92.96456470501974</v>
+        <v>96.00187002978161</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="51" spans="1:70">
       <c r="A51" s="1">
-        <v>1324</v>
+        <v>1375</v>
       </c>
       <c r="B51" t="s">
         <v>118</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9958508341621574</v>
+        <v>0.9952249640912556</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>112.3991414945011</v>
+        <v>116.6500361045993</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10304,7 +10304,7 @@
         <v>223</v>
       </c>
       <c r="W51">
-        <v>9590</v>
+        <v>11030</v>
       </c>
       <c r="X51">
         <v>97265</v>
@@ -10349,19 +10349,19 @@
         <v>9590</v>
       </c>
       <c r="AQ51">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AR51">
         <v>4230</v>
       </c>
       <c r="AS51">
-        <v>107059</v>
+        <v>108499</v>
       </c>
       <c r="AT51">
-        <v>106855</v>
+        <v>108295</v>
       </c>
       <c r="AU51">
-        <v>4605</v>
+        <v>4639</v>
       </c>
       <c r="AV51">
         <v>10</v>
@@ -10391,13 +10391,13 @@
         <v>2412.972026360853</v>
       </c>
       <c r="BF51">
-        <v>0.001647077493707958</v>
+        <v>0.001894396741981103</v>
       </c>
       <c r="BG51">
         <v>0.01670521297450516</v>
       </c>
       <c r="BH51">
-        <v>8.970000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="BI51">
         <v>0.01835229046821312</v>
@@ -10418,7 +10418,7 @@
         <v>4.987956591127648</v>
       </c>
       <c r="BO51">
-        <v>3.981818607170664</v>
+        <v>4.042575512440191</v>
       </c>
       <c r="BP51">
         <v>2.741939077729199</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="52" spans="1:70">
       <c r="A52" s="1">
-        <v>1325</v>
+        <v>1376</v>
       </c>
       <c r="B52" t="s">
         <v>119</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9921087492341135</v>
+        <v>0.9910505315039742</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>74.64535882271714</v>
+        <v>69.67687104084791</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.995740029819967</v>
+        <v>0.9957198271608096</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>93.63576722716572</v>
+        <v>94.17460279771319</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.941579943071723</v>
+        <v>0.9416234988714823</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>158.8042906917459</v>
+        <v>161.1657703452206</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9441045369039668</v>
+        <v>0.9416302945395029</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>77.28268517144416</v>
+        <v>78.55829070613936</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9758290430435747</v>
+        <v>0.9756548854389184</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>106.9951767558049</v>
+        <v>108.5926591479994</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9973553542211694</v>
+        <v>0.997120343810341</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>119.4972301309272</v>
+        <v>120.7833787394953</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9862008954329935</v>
+        <v>0.9863294319419419</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>63.39803093524244</v>
+        <v>63.79255926185238</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726273871673385</v>
+        <v>0.9726897996040695</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>148.7513674427119</v>
+        <v>149.4742936333717</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9706811862205743</v>
+        <v>0.9706709313977862</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>129.0832742431774</v>
+        <v>129.9258101497012</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9765817195148566</v>
+        <v>0.9761982589502315</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>140.1539389883827</v>
+        <v>141.9920359275459</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9607522077623787</v>
+        <v>0.9530347456377598</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>99.18328655735544</v>
+        <v>100.1498378133831</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9940822406090747</v>
+        <v>0.9937616129639405</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>92.40718439791485</v>
+        <v>92.84273643376157</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9326524842233436</v>
+        <v>0.9300139538671437</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>48.59268965463461</v>
+        <v>48.88559337870696</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9595963222916397</v>
+        <v>0.955787719135243</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>45.46032725857822</v>
+        <v>46.1118479530081</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9718002033413174</v>
+        <v>0.9713652571769928</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>151.2859703081176</v>
+        <v>152.0348998866004</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9875914125992487</v>
+        <v>0.9876202924226223</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>81.08191263332981</v>
+        <v>81.72690307282025</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9814184807587094</v>
+        <v>0.9816351699256938</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>112.5846422331287</v>
+        <v>113.4816611171951</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9735394097187717</v>
+        <v>0.9742755994189101</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>69.53434428832985</v>
+        <v>69.83999931161209</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9950381933825593</v>
+        <v>0.9951545601548393</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>100.9351511180232</v>
+        <v>101.2593066800259</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9817132357612998</v>
+        <v>0.9815359208210908</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>158.9364260580127</v>
+        <v>160.696125944513</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961676975669754</v>
+        <v>0.9961596677415651</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>74.81600639285085</v>
+        <v>75.72586349048588</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.981830465517076</v>
+        <v>0.981219406551598</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>104.6609366406851</v>
+        <v>105.1050221677826</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699933543129484</v>
+        <v>0.9699677964863325</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>139.3761503069926</v>
+        <v>139.1897250023065</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9891974571985235</v>
+        <v>0.9893681970356822</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>120.5064115436082</v>
+        <v>121.194751817897</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9783491147904497</v>
+        <v>0.977925651293481</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>122.5853459065865</v>
+        <v>124.1973757105089</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9972373089624437</v>
+        <v>0.9972422438048169</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>110.5718127122548</v>
+        <v>111.0521247818871</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9943986658036882</v>
+        <v>0.9944472628837248</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>65.38742598918874</v>
+        <v>65.98092882083337</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.9001407125845154</v>
+        <v>0.8967777620169708</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>83.09864703466461</v>
+        <v>84.17645689572129</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9698825173018983</v>
+        <v>0.9694261386201961</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.0130361881314</v>
+        <v>111.4854150870444</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9879034061308822</v>
+        <v>0.9847275418180482</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>109.3332820062451</v>
+        <v>110.0057905766505</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9843574390058857</v>
+        <v>0.9839897744625096</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>109.9762157245014</v>
+        <v>110.1488611984069</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.976893670579473</v>
+        <v>0.9771132679453696</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>194.4092026618191</v>
+        <v>195.4535306316348</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9922561243179082</v>
+        <v>0.9924192072619952</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>182.188092954467</v>
+        <v>182.8660712423795</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9828143702079262</v>
+        <v>0.9829101395792523</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>211.1610001569674</v>
+        <v>213.1638993972039</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954424455418243</v>
+        <v>0.9954472460953818</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>98.21018333517218</v>
+        <v>99.35332339457683</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9827500548209438</v>
+        <v>0.9825626360691235</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.9905721117894</v>
+        <v>155.850640773675</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9895401846871976</v>
+        <v>0.989851328560729</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>74.57300784209592</v>
+        <v>75.34586114020411</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9820133945569195</v>
+        <v>0.980680862664613</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>99.43776601559178</v>
+        <v>99.95347346409407</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9832285793269088</v>
+        <v>0.9819839033228608</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>58.54209492811339</v>
+        <v>58.80905854162359</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9806215183799796</v>
+        <v>0.9808295682878002</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>61.22938109954558</v>
+        <v>61.63851543369563</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9607602063664423</v>
+        <v>0.9606083202823771</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.4296520743738</v>
+        <v>272.0322499623119</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9590539510032109</v>
+        <v>0.9565630378578218</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>82.51981547947499</v>
+        <v>83.30351980944859</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9827965643772899</v>
+        <v>0.982928876275593</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>103.7031124239913</v>
+        <v>104.1999412898535</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.997582898574171</v>
+        <v>0.9976060551129439</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>131.7269506837322</v>
+        <v>132.15006838771</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9845773366767685</v>
+        <v>0.9825995399012343</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>67.1087876683481</v>
+        <v>67.81674199588305</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9911367684333515</v>
+        <v>0.9907034510668119</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.1553195449286</v>
+        <v>106.5263591538828</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9559963198829728</v>
+        <v>0.9557433275994791</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>112.1998750967703</v>
+        <v>113.1631974467264</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9875342187195757</v>
+        <v>0.9870241357807481</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>88.98754082944932</v>
+        <v>89.84020946377839</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9919751296966465</v>
+        <v>0.9917621528725704</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.13296840090064</v>
+        <v>71.33042516336089</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954696619986333</v>
+        <v>0.995474823497535</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>96.00187002978161</v>
+        <v>96.63930757293203</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952249640912556</v>
+        <v>0.9952608707182313</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>116.6500361045993</v>
+        <v>117.6855627367446</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9910505315039742</v>
+        <v>0.9906757886210448</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>69.67687104084791</v>
+        <v>69.04980477918069</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9957198271608096</v>
+        <v>0.9954001567166957</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>94.17460279771319</v>
+        <v>94.71991846558717</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9416234988714823</v>
+        <v>0.9417392480903568</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>161.1657703452206</v>
+        <v>163.2524536877891</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9416302945395029</v>
+        <v>0.9413086918707582</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>78.55829070613936</v>
+        <v>79.68477293346291</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9756548854389184</v>
+        <v>0.9757665229879547</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>108.5926591479994</v>
+        <v>110.3246783357752</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.997120343810341</v>
+        <v>0.9966890829716477</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>120.7833787394953</v>
+        <v>122.11368281125</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9863294319419419</v>
+        <v>0.9864604060205282</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>63.79255926185238</v>
+        <v>64.19381716109002</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9726897996040695</v>
+        <v>0.9727611750089475</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>149.4742936333717</v>
+        <v>150.1709488305583</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9706709313977862</v>
+        <v>0.9707877257782075</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>129.9258101497012</v>
+        <v>130.9321265079889</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9761982589502315</v>
+        <v>0.9758581986636506</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>141.9920359275459</v>
+        <v>143.858926577926</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9530347456377598</v>
+        <v>0.9466337135603662</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>100.1498378133831</v>
+        <v>101.0860830380125</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9937616129639405</v>
+        <v>0.99331877808559</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>92.84273643376157</v>
+        <v>93.30255981177964</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9300139538671437</v>
+        <v>0.9279188895989782</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>48.88559337870696</v>
+        <v>49.22284282389062</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.955787719135243</v>
+        <v>0.949543289721372</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>46.1118479530081</v>
+        <v>46.67134605681911</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9713652571769928</v>
+        <v>0.9709795985615247</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>152.0348998866004</v>
+        <v>152.7857022620528</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876202924226223</v>
+        <v>0.9876452206436327</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>81.72690307282025</v>
+        <v>82.33092817050836</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9816351699256938</v>
+        <v>0.9818478264188067</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>113.4816611171951</v>
+        <v>114.3528641506059</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9742755994189101</v>
+        <v>0.9750590101599209</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>69.83999931161209</v>
+        <v>70.3456345923866</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9951545601548393</v>
+        <v>0.9952404773153002</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.2593066800259</v>
+        <v>101.526012677945</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9815359208210908</v>
+        <v>0.9813431349193354</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>160.696125944513</v>
+        <v>162.347075534734</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961596677415651</v>
+        <v>0.9961451177803007</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>75.72586349048588</v>
+        <v>76.49843098779637</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.981219406551598</v>
+        <v>0.9806667658441854</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>105.1050221677826</v>
+        <v>105.5709594234881</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699677964863325</v>
+        <v>0.9699498859027046</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>139.1897250023065</v>
+        <v>138.9743964563413</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9893681970356822</v>
+        <v>0.98953390150868</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>121.194751817897</v>
+        <v>121.8377520193182</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.977925651293481</v>
+        <v>0.9774935986562296</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>124.1973757105089</v>
+        <v>125.6990183337441</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9972422438048169</v>
+        <v>0.9971972257243984</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>111.0521247818871</v>
+        <v>111.4977920682466</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9944472628837248</v>
+        <v>0.9945410718165952</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>65.98092882083337</v>
+        <v>66.56425733270714</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8967777620169708</v>
+        <v>0.8917213962368463</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>84.17645689572129</v>
+        <v>85.65139850319936</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9694261386201961</v>
+        <v>0.9689972802444564</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.4854150870444</v>
+        <v>111.9383922040388</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9847275418180482</v>
+        <v>0.9812741054444809</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>110.0057905766505</v>
+        <v>110.6916430468829</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9839897744625096</v>
+        <v>0.9835991083225429</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.1488611984069</v>
+        <v>110.3569891576775</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9771132679453696</v>
+        <v>0.9773284556005654</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>195.4535306316348</v>
+        <v>196.4075972157387</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9924192072619952</v>
+        <v>0.9925880210243566</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>182.8660712423795</v>
+        <v>183.6864779629288</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9829101395792523</v>
+        <v>0.9829914886087839</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>213.1638993972039</v>
+        <v>215.0426884806945</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954472460953818</v>
+        <v>0.9954586569911784</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>99.35332339457683</v>
+        <v>100.4478372737531</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9825626360691235</v>
+        <v>0.9824528909492148</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.850640773675</v>
+        <v>155.7931179909313</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.989851328560729</v>
+        <v>0.9901564540605174</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>75.34586114020411</v>
+        <v>76.13303529818994</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.980680862664613</v>
+        <v>0.9797367909552788</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>99.95347346409407</v>
+        <v>100.3403705352501</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9819839033228608</v>
+        <v>0.9810753123126865</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>58.80905854162359</v>
+        <v>59.39977522198097</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9808295682878002</v>
+        <v>0.9810518201876081</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>61.63851543369563</v>
+        <v>62.03230364652886</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9606083202823771</v>
+        <v>0.9605411393782608</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.0322499623119</v>
+        <v>272.1240283200504</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9565630378578218</v>
+        <v>0.954384547574187</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>83.30351980944859</v>
+        <v>84.12532974365871</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.982928876275593</v>
+        <v>0.9830303875038932</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.1999412898535</v>
+        <v>104.6215810281145</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9976060551129439</v>
+        <v>0.9973416467417296</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>132.15006838771</v>
+        <v>132.8147186829338</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9825995399012343</v>
+        <v>0.98043472167763</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>67.81674199588305</v>
+        <v>68.55185301506704</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9907034510668119</v>
+        <v>0.990295476270359</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.5263591538828</v>
+        <v>106.930356697913</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9557433275994791</v>
+        <v>0.9555013782313001</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>113.1631974467264</v>
+        <v>114.11937113534</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9870241357807481</v>
+        <v>0.9865156705748195</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>89.84020946377839</v>
+        <v>90.63391587379246</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9917621528725704</v>
+        <v>0.9915376228251069</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.33042516336089</v>
+        <v>71.55327080199922</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.995474823497535</v>
+        <v>0.9954806969412565</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>96.63930757293203</v>
+        <v>97.30450460852467</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952608707182313</v>
+        <v>0.9952813171096441</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>117.6855627367446</v>
+        <v>118.6295022169655</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9906757886210448</v>
+        <v>0.9902405044135393</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>69.04980477918069</v>
+        <v>68.40903271258352</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9954001567166957</v>
+        <v>0.9951274554753663</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>94.71991846558717</v>
+        <v>95.38991533783302</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9417392480903568</v>
+        <v>0.9414450915301406</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>163.2524536877891</v>
+        <v>165.4753021244592</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9413086918707582</v>
+        <v>0.9402691270818925</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>79.68477293346291</v>
+        <v>80.92136166450859</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9757665229879547</v>
+        <v>0.9760152358550779</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>110.3246783357752</v>
+        <v>112.093772889973</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9966890829716477</v>
+        <v>0.9961283795409929</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>122.11368281125</v>
+        <v>123.4807129425085</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9864604060205282</v>
+        <v>0.9865938687172502</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.19381716109002</v>
+        <v>64.57529455378697</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9727611750089475</v>
+        <v>0.9728600925255301</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>150.1709488305583</v>
+        <v>151.2338358259437</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9707877257782075</v>
+        <v>0.9709535678861576</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>130.9321265079889</v>
+        <v>131.8339321756688</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9758581986636506</v>
+        <v>0.9755467058101871</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>143.858926577926</v>
+        <v>145.7099223288697</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9466337135603662</v>
+        <v>0.9410812040998566</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>101.0860830380125</v>
+        <v>101.9992869111996</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.99331877808559</v>
+        <v>0.9928403289043036</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>93.30255981177964</v>
+        <v>93.7362014033298</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9279188895989782</v>
+        <v>0.9257497994610369</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.22284282389062</v>
+        <v>49.5282993327644</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.949543289721372</v>
+        <v>0.9420582479612726</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>46.67134605681911</v>
+        <v>47.29996555164615</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9709795985615247</v>
+        <v>0.9706393986158683</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>152.7857022620528</v>
+        <v>153.5671367850836</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876452206436327</v>
+        <v>0.9876818307072559</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>82.33092817050836</v>
+        <v>82.92012439098721</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9818478264188067</v>
+        <v>0.9820180860095685</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>114.3528641506059</v>
+        <v>115.1525658330134</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9750590101599209</v>
+        <v>0.9758077224820415</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>70.3456345923866</v>
+        <v>70.7491487418893</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9952404773153002</v>
+        <v>0.9953503848366745</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.526012677945</v>
+        <v>101.875946631753</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9813431349193354</v>
+        <v>0.9810975171200934</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>162.347075534734</v>
+        <v>164.2024514712648</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961451177803007</v>
+        <v>0.9961379418703277</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>76.49843098779637</v>
+        <v>77.24208771910924</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9806667658441854</v>
+        <v>0.9801260903390334</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>105.5709594234881</v>
+        <v>106.0052573233865</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699498859027046</v>
+        <v>0.9699422700961134</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.9743964563413</v>
+        <v>138.724780336103</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.98953390150868</v>
+        <v>0.9897004388694125</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>121.8377520193182</v>
+        <v>122.4663000094797</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9774935986562296</v>
+        <v>0.9771263520606412</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>125.6990183337441</v>
+        <v>127.1773759405598</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971972257243984</v>
+        <v>0.9971035284493027</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>111.4977920682466</v>
+        <v>112.310663487516</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9945410718165952</v>
+        <v>0.9946564982670065</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>66.56425733270714</v>
+        <v>67.12778261922567</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8917213962368463</v>
+        <v>0.885833134391502</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>85.65139850319936</v>
+        <v>87.12263498222728</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9689972802444564</v>
+        <v>0.9685887533138084</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>111.9383922040388</v>
+        <v>112.3926819613373</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9812741054444809</v>
+        <v>0.9781001745142938</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>110.6916430468829</v>
+        <v>111.3616420620307</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9835991083225429</v>
+        <v>0.983214645059369</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.3569891576775</v>
+        <v>110.4477105447814</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9773284556005654</v>
+        <v>0.9775453059998497</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>196.4075972157387</v>
+        <v>197.3017236848637</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9925880210243566</v>
+        <v>0.9927566750505901</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>183.6864779629288</v>
+        <v>184.571418156548</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9829914886087839</v>
+        <v>0.9830630834293749</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>215.0426884806945</v>
+        <v>216.8325560188327</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954586569911784</v>
+        <v>0.9954645992719088</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>100.4478372737531</v>
+        <v>101.5787615845238</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9824528909492148</v>
+        <v>0.9823830232663033</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.7931179909313</v>
+        <v>155.6479176710384</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7643,7 +7643,7 @@
         <v>289</v>
       </c>
       <c r="AK36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AL36">
         <v>104</v>
@@ -7667,7 +7667,7 @@
         <v>1634</v>
       </c>
       <c r="AV36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW36">
         <v>2</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9901564540605174</v>
+        <v>0.9904542148114484</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>76.13303529818994</v>
+        <v>76.8994451051626</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9797367909552788</v>
+        <v>0.9783815311973336</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>100.3403705352501</v>
+        <v>100.9665105930494</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9810753123126865</v>
+        <v>0.9803697006367478</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>59.39977522198097</v>
+        <v>59.94718709525391</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9810518201876081</v>
+        <v>0.9812900400923872</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.03230364652886</v>
+        <v>62.42156439549169</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605411393782608</v>
+        <v>0.9605043411464765</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.1240283200504</v>
+        <v>272.2859411395426</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.954384547574187</v>
+        <v>0.9519847866596394</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>84.12532974365871</v>
+        <v>85.01175359322185</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9830303875038932</v>
+        <v>0.9831261304605595</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.6215810281145</v>
+        <v>104.9815502086946</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9973416467417296</v>
+        <v>0.9969957168266903</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>132.8147186829338</v>
+        <v>133.523637548023</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.98043472167763</v>
+        <v>0.9782340141281455</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>68.55185301506704</v>
+        <v>69.32968014255297</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.990295476270359</v>
+        <v>0.9899318295874598</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>106.930356697913</v>
+        <v>107.4035728868903</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9555013782313001</v>
+        <v>0.9553347967790973</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>114.11937113534</v>
+        <v>115.0143436923893</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9865156705748195</v>
+        <v>0.9860503868435372</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>90.63391587379246</v>
+        <v>91.3796084851132</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9915376228251069</v>
+        <v>0.9912774273123103</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.55327080199922</v>
+        <v>71.86108283347251</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954806969412565</v>
+        <v>0.9954951344753984</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>97.30450460852467</v>
+        <v>97.93990998511605</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9952813171096441</v>
+        <v>0.9953563106497784</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>118.6295022169655</v>
+        <v>119.5982502019774</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9902405044135393</v>
+        <v>0.9897116610598259</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>68.40903271258352</v>
+        <v>68.04232247815044</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9951274554753663</v>
+        <v>0.994884373384166</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>95.38991533783302</v>
+        <v>96.05983411413852</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9414450915301406</v>
+        <v>0.9407473654303722</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>165.4753021244592</v>
+        <v>167.6615477220649</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9402691270818925</v>
+        <v>0.9386489718740828</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>80.92136166450859</v>
+        <v>82.20944675426496</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9760152358550779</v>
+        <v>0.9764666091786822</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>112.093772889973</v>
+        <v>113.7431684573348</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9961283795409929</v>
+        <v>0.9954726385697403</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>123.4807129425085</v>
+        <v>124.83639307223</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9865938687172502</v>
+        <v>0.9867524708440334</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.57529455378697</v>
+        <v>64.92806283963564</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9728600925255301</v>
+        <v>0.9729661724012366</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>151.2338358259437</v>
+        <v>152.3733292586625</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9709535678861576</v>
+        <v>0.9710980366125203</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>131.8339321756688</v>
+        <v>132.5981378803251</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9755467058101871</v>
+        <v>0.9752679805962717</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>145.7099223288697</v>
+        <v>147.6462391541324</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9410812040998566</v>
+        <v>0.9362003826527623</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>101.9992869111996</v>
+        <v>102.9030737489509</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9928403289043036</v>
+        <v>0.9921023319101399</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>93.7362014033298</v>
+        <v>94.23386064223418</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9257497994610369</v>
+        <v>0.9238179251179061</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.5282993327644</v>
+        <v>49.85083877491077</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9420582479612726</v>
+        <v>0.9351366755800166</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>47.29996555164615</v>
+        <v>47.92823179799315</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9706393986158683</v>
+        <v>0.9703543950816667</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>153.5671367850836</v>
+        <v>154.3892656928896</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9876818307072559</v>
+        <v>0.987727693617521</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>82.92012439098721</v>
+        <v>83.46590412145079</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9820180860095685</v>
+        <v>0.9822349809123041</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>115.1525658330134</v>
+        <v>115.950846367839</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9758077224820415</v>
+        <v>0.976580456709005</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>70.7491487418893</v>
+        <v>71.25952686536746</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9953503848366745</v>
+        <v>0.9954616076428157</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>101.875946631753</v>
+        <v>102.2330343242585</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9810975171200934</v>
+        <v>0.9804909569979268</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>164.2024514712648</v>
+        <v>166.233555742985</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961379418703277</v>
+        <v>0.996150808916713</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>77.24208771910924</v>
+        <v>78.0160525021325</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9801260903390334</v>
+        <v>0.9796137560441343</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.0052573233865</v>
+        <v>106.413253815424</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699422700961134</v>
+        <v>0.9699342589729372</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.724780336103</v>
+        <v>138.5028021452587</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9897004388694125</v>
+        <v>0.9898634334847772</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>122.4663000094797</v>
+        <v>123.0907748109154</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9771263520606412</v>
+        <v>0.9768034855001109</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>127.1773759405598</v>
+        <v>128.6228771254288</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9971035284493027</v>
+        <v>0.996976154901229</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>112.310663487516</v>
+        <v>112.7830709880841</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9946564982670065</v>
+        <v>0.9948031611614336</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>67.12778261922567</v>
+        <v>67.83623006537279</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.885833134391502</v>
+        <v>0.8793989573049724</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>87.12263498222728</v>
+        <v>88.61752994212627</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9685887533138084</v>
+        <v>0.9682003303503535</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>112.3926819613373</v>
+        <v>112.8270706967574</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9781001745142938</v>
+        <v>0.9750434669880294</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>111.3616420620307</v>
+        <v>112.0740762661458</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.983214645059369</v>
+        <v>0.9828339898705646</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.4477105447814</v>
+        <v>110.4899696991857</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9775453059998497</v>
+        <v>0.9777602308598601</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>197.3017236848637</v>
+        <v>198.1621341460101</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9927566750505901</v>
+        <v>0.9929077157055572</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>184.571418156548</v>
+        <v>185.5040234922256</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9830630834293749</v>
+        <v>0.9831217123334767</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>216.8325560188327</v>
+        <v>218.5605380939121</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9954645992719088</v>
+        <v>0.995491925904017</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>101.5787615845238</v>
+        <v>102.813579347537</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823830232663033</v>
+        <v>0.9823561153386473</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.6479176710384</v>
+        <v>155.5034745420696</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9904542148114484</v>
+        <v>0.9907465305078794</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>76.8994451051626</v>
+        <v>77.57250158150059</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9783815311973336</v>
+        <v>0.9771965433524774</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>100.9665105930494</v>
+        <v>101.5638560312642</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9803697006367478</v>
+        <v>0.9795515852097105</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>59.94718709525391</v>
+        <v>60.52352387272002</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9812900400923872</v>
+        <v>0.9815385304137981</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.42156439549169</v>
+        <v>62.81533514776505</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605043411464765</v>
+        <v>0.9604894165961488</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.2859411395426</v>
+        <v>272.3550170316458</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9519847866596394</v>
+        <v>0.9498375469775131</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>85.01175359322185</v>
+        <v>85.92049177612809</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9831261304605595</v>
+        <v>0.9832391236758771</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>104.9815502086946</v>
+        <v>105.3079767733041</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9969957168266903</v>
+        <v>0.9963686412834046</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>133.523637548023</v>
+        <v>134.3882116606191</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9782340141281455</v>
+        <v>0.9753617758816953</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>69.32968014255297</v>
+        <v>70.1527438051032</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9899318295874598</v>
+        <v>0.9896596155564568</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>107.4035728868903</v>
+        <v>107.8189698305288</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9553347967790973</v>
+        <v>0.9552114339128437</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>115.0143436923893</v>
+        <v>115.8171795990345</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9860503868435372</v>
+        <v>0.9855795980809866</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>91.3796084851132</v>
+        <v>92.13278750668327</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9912774273123103</v>
+        <v>0.9909721917913014</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>71.86108283347251</v>
+        <v>72.18915292408275</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954951344753984</v>
+        <v>0.9954155301519351</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>97.93990998511605</v>
+        <v>98.52096708946287</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9953563106497784</v>
+        <v>0.9954573883701567</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>119.5982502019774</v>
+        <v>120.5849193040783</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9897116610598259</v>
+        <v>0.9892329241071771</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>68.04232247815044</v>
+        <v>67.64486215384534</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.994884373384166</v>
+        <v>0.9945911075294884</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>96.05983411413852</v>
+        <v>96.70106408393364</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9407473654303722</v>
+        <v>0.9397052334591612</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>167.6615477220649</v>
+        <v>169.7257201351667</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9386489718740828</v>
+        <v>0.9375713913359345</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>82.20944675426496</v>
+        <v>83.46925064771825</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9764666091786822</v>
+        <v>0.9766799604289512</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>113.7431684573348</v>
+        <v>115.4411921697019</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9954726385697403</v>
+        <v>0.9947139519764974</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>124.83639307223</v>
+        <v>126.1738401897074</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9867524708440334</v>
+        <v>0.986932559247276</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>64.92806283963564</v>
+        <v>65.28645622324551</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9729661724012366</v>
+        <v>0.9730824996637747</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>152.3733292586625</v>
+        <v>153.5781437632421</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9710980366125203</v>
+        <v>0.9714024450501758</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>132.5981378803251</v>
+        <v>133.5108209385863</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9752679805962717</v>
+        <v>0.9750034733798865</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>147.6462391541324</v>
+        <v>149.4425380091588</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9362003826527623</v>
+        <v>0.9306678412704403</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>102.9030737489509</v>
+        <v>103.8643438551805</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9921023319101399</v>
+        <v>0.9909888532209334</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>94.23386064223418</v>
+        <v>94.8470646935409</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9238179251179061</v>
+        <v>0.921746959688671</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>49.85083877491077</v>
+        <v>50.18310814514164</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9351366755800166</v>
+        <v>0.929224285277539</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>47.92823179799315</v>
+        <v>48.67070210100204</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3806,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9703543950816667</v>
+        <v>0.9700294746385144</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>154.3892656928896</v>
+        <v>155.0165826342908</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.987727693617521</v>
+        <v>0.9877967806669382</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>83.46590412145079</v>
+        <v>83.99235193371948</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9822349809123041</v>
+        <v>0.9825890399240248</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>115.950846367839</v>
+        <v>116.8063952794131</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4355,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.976580456709005</v>
+        <v>0.9773213998379636</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4370,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>71.25952686536746</v>
+        <v>71.67063949821939</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4534,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9954616076428157</v>
+        <v>0.9955775907844647</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4549,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>102.2330343242585</v>
+        <v>102.646247177947</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9804909569979268</v>
+        <v>0.9797674097632958</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4731,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>166.233555742985</v>
+        <v>168.2629528103421</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4895,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.996150808916713</v>
+        <v>0.9961675371280504</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>78.0160525021325</v>
+        <v>78.90049827163527</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5086,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9796137560441343</v>
+        <v>0.9791657221100044</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5101,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.413253815424</v>
+        <v>106.8524502688002</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5268,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699342589729372</v>
+        <v>0.9699722915257695</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5283,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.5028021452587</v>
+        <v>138.2746331491849</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5444,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9898634334847772</v>
+        <v>0.9900250712222494</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5459,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>123.0907748109154</v>
+        <v>123.7676267310611</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5638,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9768034855001109</v>
+        <v>0.9765612333149974</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5653,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>128.6228771254288</v>
+        <v>130.0599832033564</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5829,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.996976154901229</v>
+        <v>0.9967385535228569</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5844,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>112.7830709880841</v>
+        <v>113.2789262674969</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6011,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9948031611614336</v>
+        <v>0.9944859359815144</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>67.83623006537279</v>
+        <v>68.54313602785608</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6196,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8793989573049724</v>
+        <v>0.871536988499733</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6211,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>88.61752994212627</v>
+        <v>90.07759417897675</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6366,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9682003303503535</v>
+        <v>0.9678424758885789</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6381,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>112.8270706967574</v>
+        <v>113.2245829687336</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6524,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9750434669880294</v>
+        <v>0.9721955835909454</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6539,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>112.0740762661458</v>
+        <v>112.6549241004174</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6694,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9828339898705646</v>
+        <v>0.9824600723733744</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6709,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.4899696991857</v>
+        <v>110.505588795769</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6873,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9777602308598601</v>
+        <v>0.9779749389025187</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6888,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>198.1621341460101</v>
+        <v>198.9946009630672</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7061,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9929077157055572</v>
+        <v>0.9930919128778217</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7076,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>185.5040234922256</v>
+        <v>186.4536702848387</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7240,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831217123334767</v>
+        <v>0.9831635094658294</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7255,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>218.5605380939121</v>
+        <v>220.2894206819113</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7422,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.995491925904017</v>
+        <v>0.9955337819191807</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7437,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>102.813579347537</v>
+        <v>104.1123512961636</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7592,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823561153386473</v>
+        <v>0.9823773192270724</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7607,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.5034745420696</v>
+        <v>155.3443544462682</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7768,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9907465305078794</v>
+        <v>0.9910162727700477</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7783,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>77.57250158150059</v>
+        <v>78.1291107382692</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7959,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9771965433524774</v>
+        <v>0.9760804920431845</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7974,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>101.5638560312642</v>
+        <v>102.1791041921809</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8150,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9795515852097105</v>
+        <v>0.9783911766031371</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8165,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>60.52352387272002</v>
+        <v>61.16616681759078</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8332,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9815385304137981</v>
+        <v>0.9818052016500154</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8347,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>62.81533514776505</v>
+        <v>63.21836195152581</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8505,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9604894165961488</v>
+        <v>0.9605330035063685</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8520,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.3550170316458</v>
+        <v>272.5163400256145</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8696,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9498375469775131</v>
+        <v>0.9476761699113871</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8711,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>85.92049177612809</v>
+        <v>86.88599608409194</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8866,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9832391236758771</v>
+        <v>0.9833745281748452</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8881,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>105.3079767733041</v>
+        <v>105.6177092156837</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9045,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9963686412834046</v>
+        <v>0.9955654317024795</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9060,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>134.3882116606191</v>
+        <v>135.3380867394337</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9212,7 +9212,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9753617758816953</v>
+        <v>0.9726548555728419</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9227,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>70.1527438051032</v>
+        <v>71.018927400016</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9896596155564568</v>
+        <v>0.9894306657924353</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9400,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>107.8189698305288</v>
+        <v>108.1929177808334</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9564,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9552114339128437</v>
+        <v>0.9549711855754948</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9579,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>115.8171795990345</v>
+        <v>116.6087886909576</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9737,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9855795980809866</v>
+        <v>0.9851368598030947</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9752,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>92.13278750668327</v>
+        <v>92.91232109336212</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9909721917913014</v>
+        <v>0.9905827094340524</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9940,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>72.18915292408275</v>
+        <v>72.60021050894515</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9954155301519351</v>
+        <v>0.9952350334804854</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10110,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>98.52096708946287</v>
+        <v>99.21909259465536</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10280,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9954573883701567</v>
+        <v>0.9955759332985226</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10295,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>120.5849193040783</v>
+        <v>121.5904953122649</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10471,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9892329241071771</v>
+        <v>0.9886998536773148</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10486,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>67.64486215384534</v>
+        <v>67.45133406548312</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9945911075294884</v>
+        <v>0.9935243920261494</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>96.70106408393364</v>
+        <v>98.17470595510896</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9397052334591612</v>
+        <v>0.9361768635628267</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>169.7257201351667</v>
+        <v>174.2685690808897</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9375713913359345</v>
+        <v>0.9361708707308869</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>83.46925064771825</v>
+        <v>86.04829749958881</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9766799604289512</v>
+        <v>0.9773900234780544</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>115.4411921697019</v>
+        <v>118.8095847152713</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9947139519764974</v>
+        <v>0.9939269813938847</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>126.1738401897074</v>
+        <v>128.9396749221467</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.986932559247276</v>
+        <v>0.9873097729674698</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>65.28645622324551</v>
+        <v>66.04845568284951</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9730824996637747</v>
+        <v>0.9733311696715156</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>153.5781437632421</v>
+        <v>155.8419060782666</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9714024450501758</v>
+        <v>0.9721928751084464</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>133.5108209385863</v>
+        <v>135.6004347123887</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9750034733798865</v>
+        <v>0.9745564019847749</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>149.4425380091588</v>
+        <v>152.9086044249587</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3117,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9306678412704403</v>
+        <v>0.9191904776036371</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3132,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>103.8643438551805</v>
+        <v>105.9634456734706</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3287,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9909888532209334</v>
+        <v>0.9883630908895406</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>94.8470646935409</v>
+        <v>96.18965056407814</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.921746959688671</v>
+        <v>0.9166238813684249</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3478,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>50.18310814514164</v>
+        <v>50.91946846064685</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3636,7 +3636,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.929224285277539</v>
+        <v>0.9157756224368541</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3651,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>48.67070210100204</v>
+        <v>50.32468268807332</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3665,6 +3665,9 @@
       <c r="X14">
         <v>29092</v>
       </c>
+      <c r="Z14">
+        <v>16</v>
+      </c>
       <c r="AA14">
         <v>206</v>
       </c>
@@ -3769,6 +3772,9 @@
       </c>
       <c r="BO14">
         <v>3.338057875419756</v>
+      </c>
+      <c r="BP14">
+        <v>1.204119982655925</v>
       </c>
     </row>
     <row r="15" spans="1:70">
@@ -3806,7 +3812,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9700294746385144</v>
+        <v>0.9697358620299407</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3821,7 +3827,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>155.0165826342908</v>
+        <v>156.8253620395129</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3985,7 +3991,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9877967806669382</v>
+        <v>0.9880341511431082</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4000,7 +4006,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>83.99235193371948</v>
+        <v>85.00839701136543</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4170,7 +4176,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9825890399240248</v>
+        <v>0.9832460873432377</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4185,7 +4191,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>116.8063952794131</v>
+        <v>118.4560562448557</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4355,7 +4361,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9773213998379636</v>
+        <v>0.9786653285114526</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4370,7 +4376,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>71.67063949821939</v>
+        <v>72.70670737944353</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4534,7 +4540,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9955775907844647</v>
+        <v>0.9957847882877507</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4549,7 +4555,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>102.646247177947</v>
+        <v>103.4967399940037</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4716,7 +4722,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9797674097632958</v>
+        <v>0.9782950072386051</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4731,7 +4737,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>168.2629528103421</v>
+        <v>172.0803057901433</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4895,7 +4901,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9961675371280504</v>
+        <v>0.9962287307527654</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4910,7 +4916,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>78.90049827163527</v>
+        <v>80.77037847557109</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5086,7 +5092,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9791657221100044</v>
+        <v>0.9784302746141533</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5101,7 +5107,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>106.8524502688002</v>
+        <v>107.7977346562518</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5268,7 +5274,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9699722915257695</v>
+        <v>0.9701162617424498</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5283,7 +5289,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>138.2746331491849</v>
+        <v>137.8946218557485</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5444,7 +5450,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9900250712222494</v>
+        <v>0.9903345914829137</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5459,7 +5465,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>123.7676267310611</v>
+        <v>125.2405944808737</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5638,7 +5644,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9765612333149974</v>
+        <v>0.9759828200164505</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5653,7 +5659,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>130.0599832033564</v>
+        <v>132.7459581180184</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5829,7 +5835,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9967385535228569</v>
+        <v>0.9958628189834389</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5844,7 +5850,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>113.2789262674969</v>
+        <v>114.1919302545381</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6011,7 +6017,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9944859359815144</v>
+        <v>0.9937338175491741</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6026,7 +6032,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>68.54313602785608</v>
+        <v>69.94608921475356</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6196,7 +6202,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.871536988499733</v>
+        <v>0.8585150119639298</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6211,7 +6217,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>90.07759417897675</v>
+        <v>92.95008471689559</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6366,7 +6372,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9678424758885789</v>
+        <v>0.9673586767728313</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6381,7 +6387,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>113.2245829687336</v>
+        <v>113.9306751696236</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6524,7 +6530,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9721955835909454</v>
+        <v>0.9654131823438346</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6539,7 +6545,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>112.6549241004174</v>
+        <v>114.1034741084527</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6694,7 +6700,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9824600723733744</v>
+        <v>0.9818002127733064</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6709,7 +6715,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.505588795769</v>
+        <v>110.5833634336191</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6873,7 +6879,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9779749389025187</v>
+        <v>0.9783958446401024</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6888,7 +6894,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>198.9946009630672</v>
+        <v>200.6113987985461</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7061,7 +7067,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9930919128778217</v>
+        <v>0.9935218086459738</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7076,7 +7082,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>186.4536702848387</v>
+        <v>188.4811660382126</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7240,7 +7246,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831635094658294</v>
+        <v>0.9831961298843104</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7255,7 +7261,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>220.2894206819113</v>
+        <v>223.6751000190547</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7422,7 +7428,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9955337819191807</v>
+        <v>0.9955380783741424</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7437,7 +7443,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>104.1123512961636</v>
+        <v>106.7793023914318</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7592,7 +7598,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9823773192270724</v>
+        <v>0.9827125303642829</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7607,7 +7613,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.3443544462682</v>
+        <v>155.3381895812948</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7768,7 +7774,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9910162727700477</v>
+        <v>0.9914680365073114</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7783,7 +7789,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>78.1291107382692</v>
+        <v>79.59071935797388</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7959,7 +7965,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9760804920431845</v>
+        <v>0.9733281617988324</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7974,7 +7980,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>102.1791041921809</v>
+        <v>103.4925515117816</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8150,7 +8156,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9783911766031371</v>
+        <v>0.9756884385104717</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8165,7 +8171,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>61.16616681759078</v>
+        <v>62.24476653694646</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8332,7 +8338,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.9818052016500154</v>
+        <v>0.98235550281654</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8347,7 +8353,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>63.21836195152581</v>
+        <v>64.03300422979618</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8505,7 +8511,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9605330035063685</v>
+        <v>0.9606565382571656</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8520,7 +8526,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.5163400256145</v>
+        <v>272.5451346064727</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8696,7 +8702,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9476761699113871</v>
+        <v>0.9435821501891605</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8711,7 +8717,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>86.88599608409194</v>
+        <v>88.83652926384158</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8866,7 +8872,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9833745281748452</v>
+        <v>0.9837230976483761</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8881,7 +8887,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>105.6177092156837</v>
+        <v>106.1859718054404</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9045,7 +9051,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9955654317024795</v>
+        <v>0.9934098531772768</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9060,7 +9066,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>135.3380867394337</v>
+        <v>137.4856846939339</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9074,6 +9080,9 @@
       <c r="X44">
         <v>229137</v>
       </c>
+      <c r="Z44">
+        <v>550</v>
+      </c>
       <c r="AA44">
         <v>1299</v>
       </c>
@@ -9172,6 +9181,9 @@
       </c>
       <c r="BO44">
         <v>4.159597267987408</v>
+      </c>
+      <c r="BP44">
+        <v>2.740362689494244</v>
       </c>
     </row>
     <row r="45" spans="1:70">
@@ -9212,7 +9224,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9726548555728419</v>
+        <v>0.9681173426001934</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9227,7 +9239,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>71.018927400016</v>
+        <v>72.78061940959552</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9385,7 +9397,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9894306657924353</v>
+        <v>0.9889736871792413</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9400,7 +9412,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>108.1929177808334</v>
+        <v>109.3880179848796</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9564,7 +9576,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.9549711855754948</v>
+        <v>0.954508516571893</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9579,7 +9591,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>116.6087886909576</v>
+        <v>118.1521451909547</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9737,7 +9749,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9851368598030947</v>
+        <v>0.9844356332004109</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9752,7 +9764,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>92.91232109336212</v>
+        <v>94.45924752104092</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9925,7 +9937,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9905827094340524</v>
+        <v>0.9898049227263758</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9940,7 +9952,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>72.60021050894515</v>
+        <v>73.60517311938658</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10095,7 +10107,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9952350334804854</v>
+        <v>0.9945687617373485</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10110,7 +10122,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>99.21909259465536</v>
+        <v>100.4757234993169</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10280,7 +10292,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9955759332985226</v>
+        <v>0.9958632140115138</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10295,7 +10307,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>121.5904953122649</v>
+        <v>123.4803989138697</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10471,7 +10483,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9886998536773148</v>
+        <v>0.9877702110924216</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10486,7 +10498,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>67.45133406548312</v>
+        <v>66.94827420868552</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="O2">
-        <v>0.9935243920261494</v>
+        <v>0.9927455029659484</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1539,7 +1539,7 @@
         <v>123</v>
       </c>
       <c r="T2">
-        <v>98.17470595510896</v>
+        <v>99.66115267588404</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1694,7 +1694,7 @@
         <v>121</v>
       </c>
       <c r="O3">
-        <v>0.9361768635628267</v>
+        <v>0.9338238020704843</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1709,7 +1709,7 @@
         <v>124</v>
       </c>
       <c r="T3">
-        <v>174.2685690808897</v>
+        <v>178.0361754685443</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1867,7 +1867,7 @@
         <v>121</v>
       </c>
       <c r="O4">
-        <v>0.9361708707308869</v>
+        <v>0.9366678757057526</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1882,7 +1882,7 @@
         <v>125</v>
       </c>
       <c r="T4">
-        <v>86.04829749958881</v>
+        <v>88.60281927795035</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2058,7 +2058,7 @@
         <v>121</v>
       </c>
       <c r="O5">
-        <v>0.9773900234780544</v>
+        <v>0.9783848621869</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2073,7 +2073,7 @@
         <v>126</v>
       </c>
       <c r="T5">
-        <v>118.8095847152713</v>
+        <v>121.7129182980097</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2237,7 +2237,7 @@
         <v>121</v>
       </c>
       <c r="O6">
-        <v>0.9939269813938847</v>
+        <v>0.992774262377454</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="T6">
-        <v>128.9396749221467</v>
+        <v>131.8759369858908</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2416,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="O7">
-        <v>0.9873097729674698</v>
+        <v>0.9876759368617964</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2431,7 +2431,7 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>66.04845568284951</v>
+        <v>66.77927660976165</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2595,7 +2595,7 @@
         <v>121</v>
       </c>
       <c r="O8">
-        <v>0.9733311696715156</v>
+        <v>0.9736128837283224</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2610,7 +2610,7 @@
         <v>129</v>
       </c>
       <c r="T8">
-        <v>155.8419060782666</v>
+        <v>157.8656733240961</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2768,7 +2768,7 @@
         <v>121</v>
       </c>
       <c r="O9">
-        <v>0.9721928751084464</v>
+        <v>0.9730778625801721</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2783,7 +2783,7 @@
         <v>130</v>
       </c>
       <c r="T9">
-        <v>135.6004347123887</v>
+        <v>137.9662604789494</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2935,7 +2935,7 @@
         <v>121</v>
       </c>
       <c r="O10">
-        <v>0.9745564019847749</v>
+        <v>0.9741923025448</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2950,7 +2950,7 @@
         <v>131</v>
       </c>
       <c r="T10">
-        <v>152.9086044249587</v>
+        <v>156.1334924765559</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -2990,9 +2990,6 @@
       </c>
       <c r="AK10">
         <v>304</v>
-      </c>
-      <c r="AP10">
-        <v>5899</v>
       </c>
       <c r="AQ10">
         <v>245</v>
@@ -3117,7 +3114,7 @@
         <v>121</v>
       </c>
       <c r="O11">
-        <v>0.9191904776036371</v>
+        <v>0.9101256202664183</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3132,7 +3129,7 @@
         <v>132</v>
       </c>
       <c r="T11">
-        <v>105.9634456734706</v>
+        <v>108.2069016418624</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3287,7 +3284,7 @@
         <v>121</v>
       </c>
       <c r="O12">
-        <v>0.9883630908895406</v>
+        <v>0.9861237359807216</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3302,7 +3299,7 @@
         <v>133</v>
       </c>
       <c r="T12">
-        <v>96.18965056407814</v>
+        <v>97.64849703857134</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3463,7 +3460,7 @@
         <v>121</v>
       </c>
       <c r="O13">
-        <v>0.9166238813684249</v>
+        <v>0.9117276894326415</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3478,7 +3475,7 @@
         <v>134</v>
       </c>
       <c r="T13">
-        <v>50.91946846064685</v>
+        <v>51.63567813950102</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3515,9 +3512,6 @@
       </c>
       <c r="AL13">
         <v>74</v>
-      </c>
-      <c r="AP13">
-        <v>602</v>
       </c>
       <c r="AQ13">
         <v>3</v>
@@ -3636,7 +3630,7 @@
         <v>121</v>
       </c>
       <c r="O14">
-        <v>0.9157756224368541</v>
+        <v>0.9040906439567675</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3651,7 +3645,7 @@
         <v>135</v>
       </c>
       <c r="T14">
-        <v>50.32468268807332</v>
+        <v>52.08462202560825</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3812,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="O15">
-        <v>0.9697358620299407</v>
+        <v>0.9695497045061849</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3827,7 +3821,7 @@
         <v>136</v>
       </c>
       <c r="T15">
-        <v>156.8253620395129</v>
+        <v>158.5796464872496</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -3991,7 +3985,7 @@
         <v>121</v>
       </c>
       <c r="O16">
-        <v>0.9880341511431082</v>
+        <v>0.9883980702810212</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4006,7 +4000,7 @@
         <v>137</v>
       </c>
       <c r="T16">
-        <v>85.00839701136543</v>
+        <v>85.99441386363362</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4052,9 +4046,6 @@
       </c>
       <c r="AL16">
         <v>4389</v>
-      </c>
-      <c r="AP16">
-        <v>23146</v>
       </c>
       <c r="AQ16">
         <v>643</v>
@@ -4176,7 +4167,7 @@
         <v>121</v>
       </c>
       <c r="O17">
-        <v>0.9832460873432377</v>
+        <v>0.98394630726391</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4191,7 +4182,7 @@
         <v>138</v>
       </c>
       <c r="T17">
-        <v>118.4560562448557</v>
+        <v>119.9477986925515</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4361,7 +4352,7 @@
         <v>121</v>
       </c>
       <c r="O18">
-        <v>0.9786653285114526</v>
+        <v>0.9798563136222673</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4376,7 +4367,7 @@
         <v>139</v>
       </c>
       <c r="T18">
-        <v>72.70670737944353</v>
+        <v>73.66771215417664</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4419,9 +4410,6 @@
       </c>
       <c r="AL18">
         <v>608</v>
-      </c>
-      <c r="AP18">
-        <v>6144</v>
       </c>
       <c r="AQ18">
         <v>357</v>
@@ -4540,7 +4528,7 @@
         <v>121</v>
       </c>
       <c r="O19">
-        <v>0.9957847882877507</v>
+        <v>0.9959332449173438</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4555,7 +4543,7 @@
         <v>140</v>
       </c>
       <c r="T19">
-        <v>103.4967399940037</v>
+        <v>103.9901757998439</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4722,7 +4710,7 @@
         <v>121</v>
       </c>
       <c r="O20">
-        <v>0.9782950072386051</v>
+        <v>0.9767474507350151</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4737,7 +4725,7 @@
         <v>141</v>
       </c>
       <c r="T20">
-        <v>172.0803057901433</v>
+        <v>175.6612468446718</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4774,9 +4762,6 @@
       </c>
       <c r="AK20">
         <v>2227</v>
-      </c>
-      <c r="AP20">
-        <v>30855</v>
       </c>
       <c r="AQ20">
         <v>203</v>
@@ -4901,7 +4886,7 @@
         <v>121</v>
       </c>
       <c r="O21">
-        <v>0.9962287307527654</v>
+        <v>0.9961814089814592</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4916,7 +4901,7 @@
         <v>142</v>
       </c>
       <c r="T21">
-        <v>80.77037847557109</v>
+        <v>82.61144952957281</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5092,7 +5077,7 @@
         <v>121</v>
       </c>
       <c r="O22">
-        <v>0.9784302746141533</v>
+        <v>0.9777401337865309</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5107,7 +5092,7 @@
         <v>143</v>
       </c>
       <c r="T22">
-        <v>107.7977346562518</v>
+        <v>108.6702819708001</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5274,7 +5259,7 @@
         <v>121</v>
       </c>
       <c r="O23">
-        <v>0.9701162617424498</v>
+        <v>0.9703076796657443</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5289,7 +5274,7 @@
         <v>144</v>
       </c>
       <c r="T23">
-        <v>137.8946218557485</v>
+        <v>137.4448798337261</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5450,7 +5435,7 @@
         <v>121</v>
       </c>
       <c r="O24">
-        <v>0.9903345914829137</v>
+        <v>0.9906242418143998</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5465,7 +5450,7 @@
         <v>145</v>
       </c>
       <c r="T24">
-        <v>125.2405944808737</v>
+        <v>126.6572572169543</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5644,7 +5629,7 @@
         <v>121</v>
       </c>
       <c r="O25">
-        <v>0.9759828200164505</v>
+        <v>0.9754953006911161</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5659,7 +5644,7 @@
         <v>146</v>
       </c>
       <c r="T25">
-        <v>132.7459581180184</v>
+        <v>135.5448276159194</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5835,7 +5820,7 @@
         <v>121</v>
       </c>
       <c r="O26">
-        <v>0.9958628189834389</v>
+        <v>0.995453239745992</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5850,7 +5835,7 @@
         <v>147</v>
       </c>
       <c r="T26">
-        <v>114.1919302545381</v>
+        <v>115.0420910906508</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6017,7 +6002,7 @@
         <v>121</v>
       </c>
       <c r="O27">
-        <v>0.9937338175491741</v>
+        <v>0.9932591612262739</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6032,7 +6017,7 @@
         <v>148</v>
       </c>
       <c r="T27">
-        <v>69.94608921475356</v>
+        <v>71.31539161477009</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6202,7 +6187,7 @@
         <v>121</v>
       </c>
       <c r="O28">
-        <v>0.8585150119639298</v>
+        <v>0.8499227352141761</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6217,7 +6202,7 @@
         <v>149</v>
       </c>
       <c r="T28">
-        <v>92.95008471689559</v>
+        <v>95.63447375438844</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6372,7 +6357,7 @@
         <v>121</v>
       </c>
       <c r="O29">
-        <v>0.9673586767728313</v>
+        <v>0.9668964957961899</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6387,7 +6372,7 @@
         <v>150</v>
       </c>
       <c r="T29">
-        <v>113.9306751696236</v>
+        <v>114.5882582111606</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6530,7 +6515,7 @@
         <v>121</v>
       </c>
       <c r="O30">
-        <v>0.9654131823438346</v>
+        <v>0.9596909001084118</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6545,7 +6530,7 @@
         <v>151</v>
       </c>
       <c r="T30">
-        <v>114.1034741084527</v>
+        <v>115.6205699919866</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6700,7 +6685,7 @@
         <v>121</v>
       </c>
       <c r="O31">
-        <v>0.9818002127733064</v>
+        <v>0.9811860956323643</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6715,7 +6700,7 @@
         <v>152</v>
       </c>
       <c r="T31">
-        <v>110.5833634336191</v>
+        <v>110.4778329431883</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6879,7 +6864,7 @@
         <v>121</v>
       </c>
       <c r="O32">
-        <v>0.9783958446401024</v>
+        <v>0.9787981708394786</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6894,7 +6879,7 @@
         <v>153</v>
       </c>
       <c r="T32">
-        <v>200.6113987985461</v>
+        <v>202.1772945869944</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7067,7 +7052,7 @@
         <v>121</v>
       </c>
       <c r="O33">
-        <v>0.9935218086459738</v>
+        <v>0.9939501778131263</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7082,7 +7067,7 @@
         <v>154</v>
       </c>
       <c r="T33">
-        <v>188.4811660382126</v>
+        <v>190.6723883903028</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7246,7 +7231,7 @@
         <v>121</v>
       </c>
       <c r="O34">
-        <v>0.9831961298843104</v>
+        <v>0.9831737306618504</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7261,7 +7246,7 @@
         <v>155</v>
       </c>
       <c r="T34">
-        <v>223.6751000190547</v>
+        <v>226.8927263580671</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7428,7 +7413,7 @@
         <v>121</v>
       </c>
       <c r="O35">
-        <v>0.9955380783741424</v>
+        <v>0.9956389975107665</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7443,7 +7428,7 @@
         <v>156</v>
       </c>
       <c r="T35">
-        <v>106.7793023914318</v>
+        <v>109.2894851038506</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7598,7 +7583,7 @@
         <v>121</v>
       </c>
       <c r="O36">
-        <v>0.9827125303642829</v>
+        <v>0.9831094829999871</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7613,7 +7598,7 @@
         <v>157</v>
       </c>
       <c r="T36">
-        <v>155.3381895812948</v>
+        <v>155.2769174580242</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7774,7 +7759,7 @@
         <v>121</v>
       </c>
       <c r="O37">
-        <v>0.9914680365073114</v>
+        <v>0.9918534533990506</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7789,7 +7774,7 @@
         <v>158</v>
       </c>
       <c r="T37">
-        <v>79.59071935797388</v>
+        <v>81.10410162265691</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -7965,7 +7950,7 @@
         <v>121</v>
       </c>
       <c r="O38">
-        <v>0.9733281617988324</v>
+        <v>0.9715054308421136</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7980,7 +7965,7 @@
         <v>159</v>
       </c>
       <c r="T38">
-        <v>103.4925515117816</v>
+        <v>104.3346454488333</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8156,7 +8141,7 @@
         <v>121</v>
       </c>
       <c r="O39">
-        <v>0.9756884385104717</v>
+        <v>0.9735536445707849</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8171,7 +8156,7 @@
         <v>160</v>
       </c>
       <c r="T39">
-        <v>62.24476653694646</v>
+        <v>63.46788568445146</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8338,7 +8323,7 @@
         <v>121</v>
       </c>
       <c r="O40">
-        <v>0.98235550281654</v>
+        <v>0.9828943314677659</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8353,7 +8338,7 @@
         <v>161</v>
       </c>
       <c r="T40">
-        <v>64.03300422979618</v>
+        <v>64.77781464144599</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8511,7 +8496,7 @@
         <v>121</v>
       </c>
       <c r="O41">
-        <v>0.9606565382571656</v>
+        <v>0.9607431072800734</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8526,7 +8511,7 @@
         <v>162</v>
       </c>
       <c r="T41">
-        <v>272.5451346064727</v>
+        <v>271.7061375750659</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8702,7 +8687,7 @@
         <v>121</v>
       </c>
       <c r="O42">
-        <v>0.9435821501891605</v>
+        <v>0.9413252878432203</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8717,7 +8702,7 @@
         <v>163</v>
       </c>
       <c r="T42">
-        <v>88.83652926384158</v>
+        <v>90.87541173207632</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8872,7 +8857,7 @@
         <v>121</v>
       </c>
       <c r="O43">
-        <v>0.9837230976483761</v>
+        <v>0.9839977058924619</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8887,7 +8872,7 @@
         <v>164</v>
       </c>
       <c r="T43">
-        <v>106.1859718054404</v>
+        <v>106.4742373371124</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9051,7 +9036,7 @@
         <v>121</v>
       </c>
       <c r="O44">
-        <v>0.9934098531772768</v>
+        <v>0.9917506970598344</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9066,7 +9051,7 @@
         <v>165</v>
       </c>
       <c r="T44">
-        <v>137.4856846939339</v>
+        <v>139.6031146818594</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9224,7 +9209,7 @@
         <v>121</v>
       </c>
       <c r="O45">
-        <v>0.9681173426001934</v>
+        <v>0.9652857079017381</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9239,7 +9224,7 @@
         <v>166</v>
       </c>
       <c r="T45">
-        <v>72.78061940959552</v>
+        <v>74.65409280834012</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9397,7 +9382,7 @@
         <v>121</v>
       </c>
       <c r="O46">
-        <v>0.9889736871792413</v>
+        <v>0.988869040360624</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9412,7 +9397,7 @@
         <v>167</v>
       </c>
       <c r="T46">
-        <v>109.3880179848796</v>
+        <v>110.6638639462895</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9576,7 +9561,7 @@
         <v>121</v>
       </c>
       <c r="O47">
-        <v>0.954508516571893</v>
+        <v>0.9540768748873626</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9591,7 +9576,7 @@
         <v>168</v>
       </c>
       <c r="T47">
-        <v>118.1521451909547</v>
+        <v>119.442742423732</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9749,7 +9734,7 @@
         <v>121</v>
       </c>
       <c r="O48">
-        <v>0.9844356332004109</v>
+        <v>0.9838640818694706</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9764,7 +9749,7 @@
         <v>169</v>
       </c>
       <c r="T48">
-        <v>94.45924752104092</v>
+        <v>95.84259985291321</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9937,7 +9922,7 @@
         <v>121</v>
       </c>
       <c r="O49">
-        <v>0.9898049227263758</v>
+        <v>0.9887925634513003</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9952,7 +9937,7 @@
         <v>170</v>
       </c>
       <c r="T49">
-        <v>73.60517311938658</v>
+        <v>74.60624439012902</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10107,7 +10092,7 @@
         <v>121</v>
       </c>
       <c r="O50">
-        <v>0.9945687617373485</v>
+        <v>0.9931039873146109</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10122,7 +10107,7 @@
         <v>171</v>
       </c>
       <c r="T50">
-        <v>100.4757234993169</v>
+        <v>101.7644214956402</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10292,7 +10277,7 @@
         <v>121</v>
       </c>
       <c r="O51">
-        <v>0.9958632140115138</v>
+        <v>0.9961559126149816</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10307,7 +10292,7 @@
         <v>172</v>
       </c>
       <c r="T51">
-        <v>123.4803989138697</v>
+        <v>125.0286670346898</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10483,7 +10468,7 @@
         <v>121</v>
       </c>
       <c r="O52">
-        <v>0.9877702110924216</v>
+        <v>0.9869899406722377</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10498,7 +10483,7 @@
         <v>173</v>
       </c>
       <c r="T52">
-        <v>66.94827420868552</v>
+        <v>66.31089221343848</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="304">
   <si>
     <t>Province_State</t>
   </si>
@@ -139,6 +139,12 @@
     <t>positiveCasesViral</t>
   </si>
   <si>
+    <t>deathConfirmed</t>
+  </si>
+  <si>
+    <t>deathProbable</t>
+  </si>
+  <si>
     <t>positiveIncrease</t>
   </si>
   <si>
@@ -769,6 +775,9 @@
     <t>5/7/2020 06:09</t>
   </si>
   <si>
+    <t>5/8/2020 03:00</t>
+  </si>
+  <si>
     <t>5/7/2020 16:13</t>
   </si>
   <si>
@@ -838,6 +847,9 @@
     <t>2020-05-07T06:09:00Z</t>
   </si>
   <si>
+    <t>2020-05-08T03:00:00Z</t>
+  </si>
+  <si>
     <t>2020-05-07T16:13:00Z</t>
   </si>
   <si>
@@ -905,6 +917,9 @@
   </si>
   <si>
     <t>05/07 02:09</t>
+  </si>
+  <si>
+    <t>05/07 23:00</t>
   </si>
   <si>
     <t>05/07 12:13</t>
@@ -1268,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR52"/>
+  <dimension ref="A1:BT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:72">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,16 +1497,22 @@
       <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:72">
       <c r="A2" s="1">
         <v>1326</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>9385</v>
@@ -1521,10 +1542,10 @@
         <v>4903185</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9927455029659484</v>
+        <v>0.9922872011537465</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1536,16 +1557,16 @@
         <v>15.6</v>
       </c>
       <c r="S2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T2">
-        <v>99.66115267588404</v>
+        <v>101.0334799665265</v>
       </c>
       <c r="U2">
         <v>20200508</v>
       </c>
       <c r="V2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W2">
         <v>9221</v>
@@ -1563,16 +1584,16 @@
         <v>266</v>
       </c>
       <c r="AG2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK2">
         <v>375</v>
@@ -1583,33 +1604,27 @@
       <c r="AP2">
         <v>9221</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>323</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>4618</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>120114</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>120114</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>4941</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>26</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>29</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
       <c r="AZ2">
         <v>0</v>
       </c>
@@ -1619,52 +1634,58 @@
       <c r="BB2">
         <v>0</v>
       </c>
-      <c r="BD2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE2">
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG2">
         <v>2214.313663418081</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>0.001880614335375883</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>0.02261652374935883</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>7.68</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <v>0.02449713808473472</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>6.690478279736778</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>5.079593629954077</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>3.972434276957365</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>2.583198773968623</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>5.044904132647613</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>3.964778022022376</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:72">
       <c r="A3" s="1">
         <v>1327</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3">
         <v>377</v>
@@ -1691,10 +1712,10 @@
         <v>731545</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9338238020704843</v>
+        <v>0.933262781916067</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1706,16 +1727,16 @@
         <v>12.6</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T3">
-        <v>178.0361754685443</v>
+        <v>182.6729459712783</v>
       </c>
       <c r="U3">
         <v>20200508</v>
       </c>
       <c r="V3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W3">
         <v>377</v>
@@ -1730,16 +1751,16 @@
         <v>305</v>
       </c>
       <c r="AG3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK3">
         <v>10</v>
@@ -1747,27 +1768,21 @@
       <c r="AM3">
         <v>25473</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>3</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>1129</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>25473</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>25473</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>1132</v>
       </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
       <c r="AX3">
         <v>0</v>
       </c>
@@ -1783,55 +1798,61 @@
       <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BD3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE3">
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG3">
         <v>855.3040395087586</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>0.0005153476546213836</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>0.03430547676492902</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>1.48</v>
       </c>
-      <c r="BI3">
+      <c r="BK3">
         <v>0.0348208244195504</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>5.864241046319956</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>4.406080095600492</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>1</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>4.399604505689688</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>2.576341350205793</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:72">
       <c r="A4" s="1">
         <v>1328</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>10526</v>
@@ -1864,10 +1885,10 @@
         <v>7278717</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9366678757057526</v>
+        <v>0.9381703963503741</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1879,16 +1900,16 @@
         <v>13.2</v>
       </c>
       <c r="S4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T4">
-        <v>88.60281927795035</v>
+        <v>91.05192705826343</v>
       </c>
       <c r="U4">
         <v>20200508</v>
       </c>
       <c r="V4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W4">
         <v>10526</v>
@@ -1912,16 +1933,16 @@
         <v>1747</v>
       </c>
       <c r="AG4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK4">
         <v>517</v>
@@ -1932,33 +1953,27 @@
       <c r="AM4">
         <v>101125</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>581</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>4110</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>101125</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>101125</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>4691</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>67</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>58</v>
       </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
       <c r="AZ4">
         <v>0</v>
       </c>
@@ -1968,61 +1983,67 @@
       <c r="BB4">
         <v>0</v>
       </c>
-      <c r="BD4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE4">
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG4">
         <v>2697.909746451871</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>0.001446133982128993</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>0.01244711121479239</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>10.41</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>0.01647364501188877</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>6.862054834130968</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>5.078844537332663</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>2.713490543093942</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>4.95712340411303</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>4.022263365681258</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>2.863322860120456</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>2.469822015978163</v>
       </c>
-      <c r="BR4">
+      <c r="BT4">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:72">
       <c r="A5" s="1">
         <v>1329</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>3747</v>
@@ -2055,10 +2076,10 @@
         <v>3017804</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9783848621869</v>
+        <v>0.9798125813504194</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2070,16 +2091,16 @@
         <v>15.4</v>
       </c>
       <c r="S5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T5">
-        <v>121.7129182980097</v>
+        <v>124.3718735806534</v>
       </c>
       <c r="U5">
         <v>20200508</v>
       </c>
       <c r="V5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W5">
         <v>3694</v>
@@ -2103,16 +2124,16 @@
         <v>2159</v>
       </c>
       <c r="AG5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AI5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AJ5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK5">
         <v>88</v>
@@ -2123,33 +2144,27 @@
       <c r="AP5">
         <v>3694</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>83</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>3916</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>63994</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>63994</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>3999</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>1</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>4</v>
       </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
       <c r="AZ5">
         <v>0</v>
       </c>
@@ -2159,58 +2174,64 @@
       <c r="BB5">
         <v>0</v>
       </c>
-      <c r="BD5" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE5">
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG5">
         <v>1737.182776796961</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>0.001224068892479432</v>
       </c>
-      <c r="BG5">
+      <c r="BI5">
         <v>0.01998141695086891</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>5.77</v>
       </c>
-      <c r="BI5">
+      <c r="BK5">
         <v>0.02120548584334834</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>6.479691029845591</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>4.806139256967569</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>3.573683693093798</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>1.944482672150169</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>4.780317312140151</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>3.567496891104223</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>1.845098040014257</v>
       </c>
-      <c r="BR5">
+      <c r="BT5">
         <v>1.146128035678238</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:72">
       <c r="A6" s="1">
         <v>1330</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>63779</v>
@@ -2234,10 +2255,10 @@
         <v>39512223</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O6">
-        <v>0.992774262377454</v>
+        <v>0.9908372875699147</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2249,16 +2270,16 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T6">
-        <v>131.8759369858908</v>
+        <v>134.8330729825287</v>
       </c>
       <c r="U6">
         <v>20200508</v>
       </c>
       <c r="V6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="W6">
         <v>62512</v>
@@ -2273,16 +2294,16 @@
         <v>1342</v>
       </c>
       <c r="AG6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK6">
         <v>2585</v>
@@ -2293,30 +2314,24 @@
       <c r="AP6">
         <v>62512</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>1898</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>30500</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>875272</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>875272</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>32398</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>81</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
       <c r="AY6">
         <v>0</v>
       </c>
@@ -2329,58 +2344,64 @@
       <c r="BB6">
         <v>0</v>
       </c>
-      <c r="BD6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE6">
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG6">
         <v>6285.874879442002</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>0.001582092710906192</v>
       </c>
-      <c r="BG6">
+      <c r="BI6">
         <v>0.02056983733868884</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>7.14</v>
       </c>
-      <c r="BI6">
+      <c r="BK6">
         <v>0.02215193004959503</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>7.596731464241672</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>5.942143035585056</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>4.804677705595455</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>3.417139409727326</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>5.909962321653986</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>4.795963393880709</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>3.654561554741743</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>3.127752515832973</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:72">
       <c r="A7" s="1">
         <v>1331</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>18827</v>
@@ -2413,10 +2434,10 @@
         <v>5758736</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9876759368617964</v>
+        <v>0.9881010610181354</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2428,16 +2449,16 @@
         <v>9</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T7">
-        <v>66.77927660976165</v>
+        <v>67.46687011070509</v>
       </c>
       <c r="U7">
         <v>20200508</v>
       </c>
       <c r="V7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W7">
         <v>18801</v>
@@ -2455,16 +2476,16 @@
         <v>2869</v>
       </c>
       <c r="AG7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AK7">
         <v>961</v>
@@ -2475,33 +2496,27 @@
       <c r="AP7">
         <v>16532</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>971</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>2218</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>94536</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>94536</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>3189</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>40</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>571</v>
       </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
       <c r="AZ7">
         <v>0</v>
       </c>
@@ -2511,55 +2526,61 @@
       <c r="BB7">
         <v>0</v>
       </c>
-      <c r="BD7" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE7">
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG7">
         <v>2399.736652218322</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>0.003264778937600196</v>
       </c>
-      <c r="BG7">
+      <c r="BI7">
         <v>0.01315132348487585</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>19.89</v>
       </c>
-      <c r="BI7">
+      <c r="BK7">
         <v>0.01641610242247604</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>6.760327169453462</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>4.975597222520748</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>4.274781122605907</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>2.982271233039568</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>4.879296629751168</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>4.274180949419634</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>2.914343157119441</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:72">
       <c r="A8" s="1">
         <v>1332</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>32411</v>
@@ -2592,10 +2613,10 @@
         <v>3565287</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9736128837283224</v>
+        <v>0.9739486379134754</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2607,16 +2628,16 @@
         <v>10.4</v>
       </c>
       <c r="S8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="T8">
-        <v>157.8656733240961</v>
+        <v>160.0676624740611</v>
       </c>
       <c r="U8">
         <v>20200508</v>
       </c>
       <c r="V8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="W8">
         <v>32411</v>
@@ -2634,16 +2655,16 @@
         <v>5413</v>
       </c>
       <c r="AG8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AI8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AJ8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AK8">
         <v>2874</v>
@@ -2655,29 +2676,26 @@
         <v>32411</v>
       </c>
       <c r="AQ8">
+        <v>2436</v>
+      </c>
+      <c r="AS8">
         <v>627</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>3740</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>120541</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>120541</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>4367</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>77</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
@@ -2690,55 +2708,61 @@
       <c r="BB8">
         <v>0</v>
       </c>
-      <c r="BD8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE8">
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG8">
         <v>1888.19675881514</v>
       </c>
-      <c r="BF8">
+      <c r="BH8">
         <v>0.009090712753279049</v>
       </c>
-      <c r="BG8">
+      <c r="BI8">
         <v>0.02471890762230362</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>26.89</v>
       </c>
-      <c r="BI8">
+      <c r="BK8">
         <v>0.03380962037558267</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>6.552094495618293</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>5.081134790024547</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>3.458486763798207</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>4.94512377012212</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>4.510692430840357</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>3.122870922864435</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:72">
       <c r="A9" s="1">
         <v>1333</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>6111</v>
@@ -2765,10 +2789,10 @@
         <v>973764</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9730778625801721</v>
+        <v>0.9739915017301423</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2780,16 +2804,16 @@
         <v>8.1</v>
       </c>
       <c r="S9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T9">
-        <v>137.9662604789494</v>
+        <v>140.1165544042933</v>
       </c>
       <c r="U9">
         <v>20200508</v>
       </c>
       <c r="V9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="W9">
         <v>6111</v>
@@ -2804,16 +2828,16 @@
         <v>2288</v>
       </c>
       <c r="AG9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AJ9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK9">
         <v>297</v>
@@ -2822,29 +2846,29 @@
         <v>6111</v>
       </c>
       <c r="AQ9">
+        <v>264</v>
+      </c>
+      <c r="AR9">
+        <v>33</v>
+      </c>
+      <c r="AS9">
         <v>172</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>766</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>28264</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>28264</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>938</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>12</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
       <c r="AY9">
         <v>0</v>
       </c>
@@ -2857,55 +2881,61 @@
       <c r="BB9">
         <v>0</v>
       </c>
-      <c r="BD9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE9">
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG9">
         <v>986.7948114983175</v>
       </c>
-      <c r="BF9">
+      <c r="BH9">
         <v>0.006275647898258715</v>
       </c>
-      <c r="BG9">
+      <c r="BI9">
         <v>0.02274986547048361</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>21.62</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>0.02902551336874232</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>5.98845371466423</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>4.451233624426789</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>2.328379603438738</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>4.345432547499147</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>3.786112283719826</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>2.460897842756548</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:72">
       <c r="A10" s="1">
         <v>1334</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>5899</v>
@@ -2932,10 +2962,10 @@
         <v>705749</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9741923025448</v>
+        <v>0.9740213132839652</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2947,16 +2977,16 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T10">
-        <v>156.1334924765559</v>
+        <v>159.6509280123492</v>
       </c>
       <c r="U10">
         <v>20200508</v>
       </c>
       <c r="V10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="W10">
         <v>5899</v>
@@ -2977,44 +3007,38 @@
         <v>825</v>
       </c>
       <c r="AG10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK10">
         <v>304</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>245</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>1014</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>27115</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>27115</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>1259</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>19</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
       <c r="AY10">
         <v>0</v>
       </c>
@@ -3027,61 +3051,67 @@
       <c r="BB10">
         <v>0</v>
       </c>
-      <c r="BD10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE10">
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG10">
         <v>840.0886857945416</v>
       </c>
-      <c r="BF10">
+      <c r="BH10">
         <v>0.008358495725817535</v>
       </c>
-      <c r="BG10">
+      <c r="BI10">
         <v>0.03006167915221984</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>21.76</v>
       </c>
-      <c r="BI10">
+      <c r="BK10">
         <v>0.03842017487803737</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>5.848650271452624</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>4.433209608771474</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>2.482873583608754</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>4.326663506724679</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>3.770778396169148</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>2.650307523131937</v>
       </c>
-      <c r="BQ10">
+      <c r="BS10">
         <v>2.113943352306837</v>
       </c>
-      <c r="BR10">
+      <c r="BT10">
         <v>1.959041392321094</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:72">
       <c r="A11" s="1">
         <v>1335</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>39199</v>
@@ -3111,10 +3141,10 @@
         <v>21477737</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9101256202664183</v>
+        <v>0.9056189234688359</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3126,16 +3156,16 @@
         <v>13.5</v>
       </c>
       <c r="S11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T11">
-        <v>108.2069016418624</v>
+        <v>110.3784750757618</v>
       </c>
       <c r="U11">
         <v>20200508</v>
       </c>
       <c r="V11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W11">
         <v>39199</v>
@@ -3150,16 +3180,16 @@
         <v>7157</v>
       </c>
       <c r="AG11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AI11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AJ11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AK11">
         <v>1738</v>
@@ -3170,33 +3200,27 @@
       <c r="AP11">
         <v>39199</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>371</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>20020</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>514774</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>513341</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>20391</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>71</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>167</v>
       </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
       <c r="AZ11">
         <v>0</v>
       </c>
@@ -3206,52 +3230,58 @@
       <c r="BB11">
         <v>0</v>
       </c>
-      <c r="BD11" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE11">
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG11">
         <v>4634.40794492673</v>
       </c>
-      <c r="BF11">
+      <c r="BH11">
         <v>0.001825099171295374</v>
       </c>
-      <c r="BG11">
+      <c r="BI11">
         <v>0.02207597569520476</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>7.64</v>
       </c>
-      <c r="BI11">
+      <c r="BK11">
         <v>0.02390107486650013</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>7.331988520035549</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>5.710405952284654</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>4.593274987938277</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>3.222456336679247</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>5.675908427287614</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>4.593274987938277</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:72">
       <c r="A12" s="1">
         <v>1336</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>32181</v>
@@ -3281,10 +3311,10 @@
         <v>10617423</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9861237359807216</v>
+        <v>0.9835638086872778</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3296,16 +3326,16 @@
         <v>14</v>
       </c>
       <c r="S12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T12">
-        <v>97.64849703857134</v>
+        <v>99.13399804110374</v>
       </c>
       <c r="U12">
         <v>20200508</v>
       </c>
       <c r="V12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="W12">
         <v>32106</v>
@@ -3320,16 +3350,16 @@
         <v>1399</v>
       </c>
       <c r="AG12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AI12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AJ12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK12">
         <v>1377</v>
@@ -3343,33 +3373,27 @@
       <c r="AP12">
         <v>32106</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>667</v>
       </c>
-      <c r="AR12">
+      <c r="AT12">
         <v>9597</v>
       </c>
-      <c r="AS12">
+      <c r="AU12">
         <v>227567</v>
       </c>
-      <c r="AT12">
+      <c r="AV12">
         <v>227567</v>
       </c>
-      <c r="AU12">
+      <c r="AW12">
         <v>10264</v>
       </c>
-      <c r="AV12">
+      <c r="AX12">
         <v>41</v>
       </c>
-      <c r="AW12">
+      <c r="AY12">
         <v>100</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
       <c r="AZ12">
         <v>0</v>
       </c>
@@ -3379,52 +3403,58 @@
       <c r="BB12">
         <v>0</v>
       </c>
-      <c r="BD12" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE12">
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG12">
         <v>3258.438736573084</v>
       </c>
-      <c r="BF12">
+      <c r="BH12">
         <v>0.003023897606792157</v>
       </c>
-      <c r="BG12">
+      <c r="BI12">
         <v>0.01840945773753198</v>
       </c>
-      <c r="BH12">
+      <c r="BJ12">
         <v>14.11</v>
       </c>
-      <c r="BI12">
+      <c r="BK12">
         <v>0.02143335534432414</v>
       </c>
-      <c r="BJ12">
+      <c r="BL12">
         <v>7.026019120070406</v>
       </c>
-      <c r="BK12">
+      <c r="BM12">
         <v>5.357109284274045</v>
       </c>
-      <c r="BL12">
+      <c r="BN12">
         <v>4.507599535342071</v>
       </c>
-      <c r="BM12">
+      <c r="BO12">
         <v>3.146128035678238</v>
       </c>
-      <c r="BN12">
+      <c r="BP12">
         <v>5.291060116338353</v>
       </c>
-      <c r="BO12">
+      <c r="BQ12">
         <v>4.506586201357899</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:72">
       <c r="A13" s="1">
         <v>1337</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>629</v>
@@ -3457,10 +3487,10 @@
         <v>1415872</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9117276894326415</v>
+        <v>0.906180945709481</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3472,16 +3502,16 @@
         <v>9.9</v>
       </c>
       <c r="S13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T13">
-        <v>51.63567813950102</v>
+        <v>52.28370602076458</v>
       </c>
       <c r="U13">
         <v>20200508</v>
       </c>
       <c r="V13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W13">
         <v>629</v>
@@ -3496,16 +3526,16 @@
         <v>565</v>
       </c>
       <c r="AG13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK13">
         <v>17</v>
@@ -3513,27 +3543,21 @@
       <c r="AL13">
         <v>74</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>3</v>
       </c>
-      <c r="AR13">
+      <c r="AT13">
         <v>1074</v>
       </c>
-      <c r="AS13">
+      <c r="AU13">
         <v>36618</v>
       </c>
-      <c r="AT13">
+      <c r="AV13">
         <v>36618</v>
       </c>
-      <c r="AU13">
+      <c r="AW13">
         <v>1077</v>
       </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
       <c r="AX13">
         <v>0</v>
       </c>
@@ -3549,52 +3573,58 @@
       <c r="BB13">
         <v>0</v>
       </c>
-      <c r="BD13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE13">
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG13">
         <v>1189.904197824346</v>
       </c>
-      <c r="BF13">
+      <c r="BH13">
         <v>0.0004442491976675858</v>
       </c>
-      <c r="BG13">
+      <c r="BI13">
         <v>0.02541825814762916</v>
       </c>
-      <c r="BH13">
+      <c r="BJ13">
         <v>1.72</v>
       </c>
-      <c r="BI13">
+      <c r="BK13">
         <v>0.02586250734529675</v>
       </c>
-      <c r="BJ13">
+      <c r="BL13">
         <v>6.151023993321008</v>
       </c>
-      <c r="BK13">
+      <c r="BM13">
         <v>4.563694620340237</v>
       </c>
-      <c r="BL13">
+      <c r="BN13">
         <v>2.798650645445269</v>
       </c>
-      <c r="BM13">
+      <c r="BO13">
         <v>1.230448921378274</v>
       </c>
-      <c r="BN13">
+      <c r="BP13">
         <v>4.556169779397686</v>
       </c>
-      <c r="BO13">
+      <c r="BQ13">
         <v>2.798650645445269</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:72">
       <c r="A14" s="1">
         <v>1338</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>2178</v>
@@ -3627,10 +3657,10 @@
         <v>1787065</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O14">
-        <v>0.9040906439567675</v>
+        <v>0.8931292271614554</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3642,16 +3672,16 @@
         <v>11.5</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T14">
-        <v>52.08462202560825</v>
+        <v>53.84517071626215</v>
       </c>
       <c r="U14">
         <v>20200508</v>
       </c>
       <c r="V14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W14">
         <v>2178</v>
@@ -3672,16 +3702,16 @@
         <v>1420</v>
       </c>
       <c r="AG14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AJ14" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK14">
         <v>67</v>
@@ -3695,33 +3725,27 @@
       <c r="AP14">
         <v>2007</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>20</v>
       </c>
-      <c r="AR14">
+      <c r="AT14">
         <v>360</v>
       </c>
-      <c r="AS14">
+      <c r="AU14">
         <v>31270</v>
       </c>
-      <c r="AT14">
+      <c r="AV14">
         <v>31270</v>
       </c>
-      <c r="AU14">
+      <c r="AW14">
         <v>380</v>
       </c>
-      <c r="AV14">
+      <c r="AX14">
         <v>1</v>
       </c>
-      <c r="AW14">
+      <c r="AY14">
         <v>1</v>
       </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
       <c r="AZ14">
         <v>0</v>
       </c>
@@ -3731,55 +3755,61 @@
       <c r="BB14">
         <v>0</v>
       </c>
-      <c r="BD14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE14">
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG14">
         <v>1336.811505037266</v>
       </c>
-      <c r="BF14">
+      <c r="BH14">
         <v>0.001218758131349447</v>
       </c>
-      <c r="BG14">
+      <c r="BI14">
         <v>0.01627920640827278</v>
       </c>
-      <c r="BH14">
+      <c r="BJ14">
         <v>6.97</v>
       </c>
-      <c r="BI14">
+      <c r="BK14">
         <v>0.01749796453962223</v>
       </c>
-      <c r="BJ14">
+      <c r="BL14">
         <v>6.252140349163694</v>
       </c>
-      <c r="BK14">
+      <c r="BM14">
         <v>4.495127881242933</v>
       </c>
-      <c r="BL14">
+      <c r="BN14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BM14">
+      <c r="BO14">
         <v>1.826074802700826</v>
       </c>
-      <c r="BN14">
+      <c r="BP14">
         <v>4.463773578899397</v>
       </c>
-      <c r="BO14">
+      <c r="BQ14">
         <v>3.338057875419756</v>
       </c>
-      <c r="BP14">
+      <c r="BR14">
         <v>1.204119982655925</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:72">
       <c r="A15" s="1">
         <v>1339</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>73760</v>
@@ -3803,10 +3833,10 @@
         <v>12671821</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9695497045061849</v>
+        <v>0.9696514597260955</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3818,16 +3848,16 @@
         <v>10.9</v>
       </c>
       <c r="S15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="T15">
-        <v>158.5796464872496</v>
+        <v>160.270455827901</v>
       </c>
       <c r="U15">
         <v>20200508</v>
       </c>
       <c r="V15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W15">
         <v>73760</v>
@@ -3845,16 +3875,16 @@
         <v>727</v>
       </c>
       <c r="AG15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK15">
         <v>3241</v>
@@ -3862,30 +3892,24 @@
       <c r="AP15">
         <v>73760</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>2887</v>
       </c>
-      <c r="AR15">
+      <c r="AT15">
         <v>17784</v>
       </c>
-      <c r="AS15">
+      <c r="AU15">
         <v>399714</v>
       </c>
-      <c r="AT15">
+      <c r="AV15">
         <v>399714</v>
       </c>
-      <c r="AU15">
+      <c r="AW15">
         <v>20671</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>130</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
       <c r="AY15">
         <v>0</v>
       </c>
@@ -3898,61 +3922,67 @@
       <c r="BB15">
         <v>0</v>
       </c>
-      <c r="BD15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE15">
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG15">
         <v>3559.750131680593</v>
       </c>
-      <c r="BF15">
+      <c r="BH15">
         <v>0.005820789293030575</v>
       </c>
-      <c r="BG15">
+      <c r="BI15">
         <v>0.02572274340049469</v>
       </c>
-      <c r="BH15">
+      <c r="BJ15">
         <v>18.45</v>
       </c>
-      <c r="BI15">
+      <c r="BK15">
         <v>0.03154353269352526</v>
       </c>
-      <c r="BJ15">
+      <c r="BL15">
         <v>7.102839029518357</v>
       </c>
-      <c r="BK15">
+      <c r="BM15">
         <v>5.60174935970936</v>
       </c>
-      <c r="BL15">
+      <c r="BN15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BM15">
+      <c r="BO15">
         <v>3.51067903103221</v>
       </c>
-      <c r="BN15">
+      <c r="BP15">
         <v>5.513156314927574</v>
       </c>
-      <c r="BO15">
+      <c r="BQ15">
         <v>4.867820908045573</v>
       </c>
-      <c r="BP15">
+      <c r="BR15">
         <v>3.676693609624866</v>
       </c>
-      <c r="BQ15">
+      <c r="BS15">
         <v>3.087071205906535</v>
       </c>
-      <c r="BR15">
+      <c r="BT15">
         <v>2.861534410859038</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:72">
       <c r="A16" s="1">
         <v>1340</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D16">
         <v>23146</v>
@@ -3982,10 +4012,10 @@
         <v>6732219</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9883980702810212</v>
+        <v>0.9886825699764904</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -3997,16 +4027,16 @@
         <v>11.6</v>
       </c>
       <c r="S16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T16">
-        <v>85.99441386363362</v>
+        <v>86.78979158513341</v>
       </c>
       <c r="U16">
         <v>20200508</v>
       </c>
       <c r="V16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="W16">
         <v>23146</v>
@@ -4030,16 +4060,16 @@
         <v>219</v>
       </c>
       <c r="AG16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AI16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AJ16" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AK16">
         <v>1447</v>
@@ -4047,33 +4077,27 @@
       <c r="AL16">
         <v>4389</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>643</v>
       </c>
-      <c r="AR16">
+      <c r="AT16">
         <v>4703</v>
       </c>
-      <c r="AS16">
+      <c r="AU16">
         <v>130128</v>
       </c>
-      <c r="AT16">
+      <c r="AV16">
         <v>130128</v>
       </c>
-      <c r="AU16">
+      <c r="AW16">
         <v>5346</v>
       </c>
-      <c r="AV16">
+      <c r="AX16">
         <v>33</v>
       </c>
-      <c r="AW16">
+      <c r="AY16">
         <v>4389</v>
       </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
       <c r="AZ16">
         <v>0</v>
       </c>
@@ -4083,61 +4107,67 @@
       <c r="BB16">
         <v>0</v>
       </c>
-      <c r="BD16" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE16">
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG16">
         <v>2594.651999787255</v>
       </c>
-      <c r="BF16">
+      <c r="BH16">
         <v>0.003438093739968946</v>
       </c>
-      <c r="BG16">
+      <c r="BI16">
         <v>0.01589104573098409</v>
       </c>
-      <c r="BH16">
+      <c r="BJ16">
         <v>17.79</v>
       </c>
-      <c r="BI16">
+      <c r="BK16">
         <v>0.01932913947095304</v>
       </c>
-      <c r="BJ16">
+      <c r="BL16">
         <v>6.828158235192161</v>
       </c>
-      <c r="BK16">
+      <c r="BM16">
         <v>5.114370754956073</v>
       </c>
-      <c r="BL16">
+      <c r="BN16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BM16">
+      <c r="BO16">
         <v>3.160468531119037</v>
       </c>
-      <c r="BN16">
+      <c r="BP16">
         <v>5.029310712654574</v>
       </c>
-      <c r="BO16">
+      <c r="BQ16">
         <v>4.364475948787014</v>
       </c>
-      <c r="BP16">
+      <c r="BR16">
         <v>3.13956426617585</v>
       </c>
-      <c r="BQ16">
+      <c r="BS16">
         <v>2.682145076373832</v>
       </c>
-      <c r="BR16">
+      <c r="BT16">
         <v>2.340444114840118</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:72">
       <c r="A17" s="1">
         <v>1341</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>11457</v>
@@ -4164,10 +4194,10 @@
         <v>3155070</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O17">
-        <v>0.98394630726391</v>
+        <v>0.9846122116569519</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4179,16 +4209,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T17">
-        <v>119.9477986925515</v>
+        <v>121.3082049694173</v>
       </c>
       <c r="U17">
         <v>20200508</v>
       </c>
       <c r="V17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="W17">
         <v>11457</v>
@@ -4209,16 +4239,16 @@
         <v>4685</v>
       </c>
       <c r="AG17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AJ17" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AK17">
         <v>243</v>
@@ -4226,30 +4256,24 @@
       <c r="AP17">
         <v>11457</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>398</v>
       </c>
-      <c r="AR17">
+      <c r="AT17">
         <v>3436</v>
       </c>
-      <c r="AS17">
+      <c r="AU17">
         <v>70261</v>
       </c>
-      <c r="AT17">
+      <c r="AV17">
         <v>70261</v>
       </c>
-      <c r="AU17">
+      <c r="AW17">
         <v>3834</v>
       </c>
-      <c r="AV17">
+      <c r="AX17">
         <v>12</v>
       </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
       <c r="AY17">
         <v>0</v>
       </c>
@@ -4262,61 +4286,67 @@
       <c r="BB17">
         <v>0</v>
       </c>
-      <c r="BD17" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE17">
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG17">
         <v>1776.251671357412</v>
       </c>
-      <c r="BF17">
+      <c r="BH17">
         <v>0.003631298196236534</v>
       </c>
-      <c r="BG17">
+      <c r="BI17">
         <v>0.01863793830247823</v>
       </c>
-      <c r="BH17">
+      <c r="BJ17">
         <v>16.31</v>
       </c>
-      <c r="BI17">
+      <c r="BK17">
         <v>0.02226923649871477</v>
       </c>
-      <c r="BJ17">
+      <c r="BL17">
         <v>6.499008999166996</v>
       </c>
-      <c r="BK17">
+      <c r="BM17">
         <v>4.846714326659982</v>
       </c>
-      <c r="BL17">
+      <c r="BN17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BM17">
+      <c r="BO17">
         <v>2.385606273598312</v>
       </c>
-      <c r="BN17">
+      <c r="BP17">
         <v>4.769406868913598</v>
       </c>
-      <c r="BO17">
+      <c r="BQ17">
         <v>4.05907091309298</v>
       </c>
-      <c r="BP17">
+      <c r="BR17">
         <v>2.60959440922522</v>
       </c>
-      <c r="BQ17">
+      <c r="BS17">
         <v>2.214843848047698</v>
       </c>
-      <c r="BR17">
+      <c r="BT17">
         <v>2.037426497940624</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:72">
       <c r="A18" s="1">
         <v>1342</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>6667</v>
@@ -4349,10 +4379,10 @@
         <v>2913314</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9798563136222673</v>
+        <v>0.9808425917695228</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4364,16 +4394,16 @@
         <v>10.9</v>
       </c>
       <c r="S18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T18">
-        <v>73.66771215417664</v>
+        <v>74.71889108123231</v>
       </c>
       <c r="U18">
         <v>20200508</v>
       </c>
       <c r="V18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="W18">
         <v>6501</v>
@@ -4394,16 +4424,16 @@
         <v>332</v>
       </c>
       <c r="AG18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI18" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ18" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK18">
         <v>152</v>
@@ -4411,33 +4441,27 @@
       <c r="AL18">
         <v>608</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>357</v>
       </c>
-      <c r="AR18">
+      <c r="AT18">
         <v>2529</v>
       </c>
-      <c r="AS18">
+      <c r="AU18">
         <v>47708</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>47708</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>2886</v>
       </c>
-      <c r="AV18">
+      <c r="AX18">
         <v>5</v>
       </c>
-      <c r="AW18">
+      <c r="AY18">
         <v>21</v>
       </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
       <c r="AZ18">
         <v>0</v>
       </c>
@@ -4447,52 +4471,58 @@
       <c r="BB18">
         <v>0</v>
       </c>
-      <c r="BD18" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE18">
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG18">
         <v>1706.843285131942</v>
       </c>
-      <c r="BF18">
+      <c r="BH18">
         <v>0.002231479339336577</v>
       </c>
-      <c r="BG18">
+      <c r="BI18">
         <v>0.01414437304046182</v>
       </c>
-      <c r="BH18">
+      <c r="BJ18">
         <v>13.63</v>
       </c>
-      <c r="BI18">
+      <c r="BK18">
         <v>0.0163758523797984</v>
       </c>
-      <c r="BJ18">
+      <c r="BL18">
         <v>6.464387295859416</v>
       </c>
-      <c r="BK18">
+      <c r="BM18">
         <v>4.678591210581774</v>
       </c>
-      <c r="BL18">
+      <c r="BN18">
         <v>3.823930455125564</v>
       </c>
-      <c r="BM18">
+      <c r="BO18">
         <v>2.225309281725863</v>
       </c>
-      <c r="BN18">
+      <c r="BP18">
         <v>4.614970997662866</v>
       </c>
-      <c r="BO18">
+      <c r="BQ18">
         <v>3.81298016603948</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:72">
       <c r="A19" s="1">
         <v>1343</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19">
         <v>6288</v>
@@ -4525,10 +4555,10 @@
         <v>4467673</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9959332449173438</v>
+        <v>0.9961860968780483</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4540,16 +4570,16 @@
         <v>14.6</v>
       </c>
       <c r="S19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T19">
-        <v>103.9901757998439</v>
+        <v>105.2270893000515</v>
       </c>
       <c r="U19">
         <v>20200508</v>
       </c>
       <c r="V19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="W19">
         <v>6129</v>
@@ -4573,16 +4603,16 @@
         <v>2177</v>
       </c>
       <c r="AG19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ19" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK19">
         <v>294</v>
@@ -4593,33 +4623,27 @@
       <c r="AP19">
         <v>6119</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>195</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>2600</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>81401</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>81401</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>2795</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>11</v>
       </c>
-      <c r="AW19">
+      <c r="AY19">
         <v>68</v>
       </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
       <c r="AZ19">
         <v>0</v>
       </c>
@@ -4629,58 +4653,64 @@
       <c r="BB19">
         <v>0</v>
       </c>
-      <c r="BD19" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE19">
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG19">
         <v>2113.687062930556</v>
       </c>
-      <c r="BF19">
+      <c r="BH19">
         <v>0.001371855102197497</v>
       </c>
-      <c r="BG19">
+      <c r="BI19">
         <v>0.01684814443671236</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>7.53</v>
       </c>
-      <c r="BI19">
+      <c r="BK19">
         <v>0.01821999953890985</v>
       </c>
-      <c r="BJ19">
+      <c r="BL19">
         <v>6.650081378523105</v>
       </c>
-      <c r="BK19">
+      <c r="BM19">
         <v>4.910629740169475</v>
       </c>
-      <c r="BL19">
+      <c r="BN19">
         <v>3.798512533031352</v>
       </c>
-      <c r="BM19">
+      <c r="BO19">
         <v>2.474216264076255</v>
       </c>
-      <c r="BN19">
+      <c r="BP19">
         <v>4.876633455524433</v>
       </c>
-      <c r="BO19">
+      <c r="BQ19">
         <v>3.78738962135211</v>
       </c>
-      <c r="BP19">
+      <c r="BR19">
         <v>2.551449997972875</v>
       </c>
-      <c r="BQ19">
+      <c r="BS19">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:72">
       <c r="A20" s="1">
         <v>1344</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20">
         <v>30855</v>
@@ -4707,10 +4737,10 @@
         <v>4648794</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9767474507350151</v>
+        <v>0.9746119727912953</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4722,16 +4752,16 @@
         <v>19.8</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T20">
-        <v>175.6612468446718</v>
+        <v>179.828874902338</v>
       </c>
       <c r="U20">
         <v>20200508</v>
       </c>
       <c r="V20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="W20">
         <v>30855</v>
@@ -4749,44 +4779,41 @@
         <v>20316</v>
       </c>
       <c r="AG20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK20">
         <v>2227</v>
       </c>
       <c r="AQ20">
+        <v>1991</v>
+      </c>
+      <c r="AS20">
         <v>203</v>
       </c>
-      <c r="AR20">
+      <c r="AT20">
         <v>1446</v>
       </c>
-      <c r="AS20">
+      <c r="AU20">
         <v>202416</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>202416</v>
       </c>
-      <c r="AU20">
+      <c r="AW20">
         <v>1649</v>
       </c>
-      <c r="AV20">
+      <c r="AX20">
         <v>19</v>
       </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
       <c r="AY20">
         <v>0</v>
       </c>
@@ -4799,58 +4826,64 @@
       <c r="BB20">
         <v>0</v>
       </c>
-      <c r="BD20" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE20">
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG20">
         <v>2156.106212597144</v>
       </c>
-      <c r="BF20">
+      <c r="BH20">
         <v>0.006637205262268021</v>
       </c>
-      <c r="BG20">
+      <c r="BI20">
         <v>0.03690441004699283</v>
       </c>
-      <c r="BH20">
+      <c r="BJ20">
         <v>15.24</v>
       </c>
-      <c r="BI20">
+      <c r="BK20">
         <v>0.04354161530926085</v>
       </c>
-      <c r="BJ20">
+      <c r="BL20">
         <v>6.667340301905727</v>
       </c>
-      <c r="BK20">
+      <c r="BM20">
         <v>5.306244838390451</v>
       </c>
-      <c r="BL20">
+      <c r="BN20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BM20">
+      <c r="BO20">
         <v>3.347720217034038</v>
       </c>
-      <c r="BN20">
+      <c r="BP20">
         <v>5.234418569003362</v>
       </c>
-      <c r="BO20">
+      <c r="BQ20">
         <v>4.489325550750405</v>
       </c>
-      <c r="BP20">
+      <c r="BR20">
         <v>3.133219456732494</v>
       </c>
-      <c r="BR20">
+      <c r="BT20">
         <v>2.267171728403014</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:72">
       <c r="A21" s="1">
         <v>1345</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D21">
         <v>1374</v>
@@ -4883,10 +4916,10 @@
         <v>1344212</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9961814089814592</v>
+        <v>0.9960299519408827</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4898,16 +4931,16 @@
         <v>12</v>
       </c>
       <c r="S21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T21">
-        <v>82.61144952957281</v>
+        <v>84.32112736661877</v>
       </c>
       <c r="U21">
         <v>20200508</v>
       </c>
       <c r="V21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="W21">
         <v>1374</v>
@@ -4931,16 +4964,16 @@
         <v>836</v>
       </c>
       <c r="AG21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AI21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AJ21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AK21">
         <v>63</v>
@@ -4951,33 +4984,27 @@
       <c r="AP21">
         <v>1264</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>44</v>
       </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
         <v>23466</v>
       </c>
-      <c r="AT21">
+      <c r="AV21">
         <v>23466</v>
       </c>
-      <c r="AU21">
+      <c r="AW21">
         <v>44</v>
       </c>
-      <c r="AV21">
+      <c r="AX21">
         <v>1</v>
       </c>
-      <c r="AW21">
+      <c r="AY21">
         <v>2</v>
       </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
       <c r="AZ21">
         <v>0</v>
       </c>
@@ -4987,61 +5014,67 @@
       <c r="BB21">
         <v>0</v>
       </c>
-      <c r="BD21" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE21">
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG21">
         <v>1159.401569776408</v>
       </c>
-      <c r="BF21">
+      <c r="BH21">
         <v>0.001022160194969246</v>
       </c>
-      <c r="BG21">
+      <c r="BI21">
         <v>0.0164349075889815</v>
       </c>
-      <c r="BH21">
+      <c r="BJ21">
         <v>5.86</v>
       </c>
-      <c r="BI21">
+      <c r="BK21">
         <v>0.01745706778395074</v>
       </c>
-      <c r="BJ21">
+      <c r="BL21">
         <v>6.128467768099815</v>
       </c>
-      <c r="BK21">
+      <c r="BM21">
         <v>4.370439066335774</v>
       </c>
-      <c r="BL21">
+      <c r="BN21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BM21">
+      <c r="BO21">
         <v>1.799340549453582</v>
       </c>
-      <c r="BN21">
+      <c r="BP21">
         <v>4.344235034551639</v>
       </c>
-      <c r="BO21">
+      <c r="BQ21">
         <v>3.137986732723532</v>
       </c>
-      <c r="BP21">
+      <c r="BR21">
         <v>1.643452676486187</v>
       </c>
-      <c r="BQ21">
+      <c r="BS21">
         <v>1.361727836017593</v>
       </c>
-      <c r="BR21">
+      <c r="BT21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:72">
       <c r="A22" s="1">
         <v>1346</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D22">
         <v>30485</v>
@@ -5074,10 +5107,10 @@
         <v>6045680</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9777401337865309</v>
+        <v>0.9772082451651545</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5089,16 +5122,16 @@
         <v>7.8</v>
       </c>
       <c r="S22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T22">
-        <v>108.6702819708001</v>
+        <v>109.4780018931502</v>
       </c>
       <c r="U22">
         <v>20200508</v>
       </c>
       <c r="V22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="W22">
         <v>30485</v>
@@ -5119,16 +5152,16 @@
         <v>2041</v>
       </c>
       <c r="AG22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK22">
         <v>1643</v>
@@ -5140,32 +5173,32 @@
         <v>30485</v>
       </c>
       <c r="AQ22">
+        <v>1561</v>
+      </c>
+      <c r="AR22">
+        <v>82</v>
+      </c>
+      <c r="AS22">
         <v>1111</v>
       </c>
-      <c r="AR22">
+      <c r="AT22">
         <v>2476</v>
       </c>
-      <c r="AS22">
+      <c r="AU22">
         <v>152187</v>
       </c>
-      <c r="AT22">
+      <c r="AV22">
         <v>152187</v>
       </c>
-      <c r="AU22">
+      <c r="AW22">
         <v>3587</v>
       </c>
-      <c r="AV22">
+      <c r="AX22">
         <v>63</v>
       </c>
-      <c r="AW22">
+      <c r="AY22">
         <v>148</v>
       </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
       <c r="AZ22">
         <v>0</v>
       </c>
@@ -5175,58 +5208,64 @@
       <c r="BB22">
         <v>0</v>
       </c>
-      <c r="BD22" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE22">
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG22">
         <v>2458.796453552022</v>
       </c>
-      <c r="BF22">
+      <c r="BH22">
         <v>0.005042443529925501</v>
       </c>
-      <c r="BG22">
+      <c r="BI22">
         <v>0.02013040716677032</v>
       </c>
-      <c r="BH22">
+      <c r="BJ22">
         <v>20.03</v>
       </c>
-      <c r="BI22">
+      <c r="BK22">
         <v>0.02517285069669582</v>
       </c>
-      <c r="BJ22">
+      <c r="BL22">
         <v>6.781445156088222</v>
       </c>
-      <c r="BK22">
+      <c r="BM22">
         <v>5.182377556052198</v>
       </c>
-      <c r="BL22">
+      <c r="BN22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BM22">
+      <c r="BO22">
         <v>3.193124598354462</v>
       </c>
-      <c r="BN22">
+      <c r="BP22">
         <v>5.085297715303415</v>
       </c>
-      <c r="BO22">
+      <c r="BQ22">
         <v>4.484086199357939</v>
       </c>
-      <c r="BP22">
+      <c r="BR22">
         <v>3.223755453657241</v>
       </c>
-      <c r="BQ22">
+      <c r="BS22">
         <v>2.756636108245848</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:72">
       <c r="A23" s="1">
         <v>1347</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23">
         <v>75333</v>
@@ -5256,10 +5295,10 @@
         <v>6892503</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9703076796657443</v>
+        <v>0.9705570418864128</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5271,16 +5310,16 @@
         <v>10</v>
       </c>
       <c r="S23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="T23">
-        <v>137.4448798337261</v>
+        <v>136.9853523861968</v>
       </c>
       <c r="U23">
         <v>20200508</v>
       </c>
       <c r="V23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W23">
         <v>75333</v>
@@ -5298,16 +5337,16 @@
         <v>826</v>
       </c>
       <c r="AG23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ23" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK23">
         <v>4702</v>
@@ -5318,33 +5357,27 @@
       <c r="AP23">
         <v>75333</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>1612</v>
       </c>
-      <c r="AR23">
+      <c r="AT23">
         <v>12779</v>
       </c>
-      <c r="AS23">
+      <c r="AU23">
         <v>366023</v>
       </c>
-      <c r="AT23">
+      <c r="AV23">
         <v>366023</v>
       </c>
-      <c r="AU23">
+      <c r="AW23">
         <v>14391</v>
       </c>
-      <c r="AV23">
+      <c r="AX23">
         <v>150</v>
       </c>
-      <c r="AW23">
+      <c r="AY23">
         <v>197</v>
       </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
       <c r="AZ23">
         <v>0</v>
       </c>
@@ -5354,58 +5387,64 @@
       <c r="BB23">
         <v>0</v>
       </c>
-      <c r="BD23" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE23">
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG23">
         <v>2625.357689915795</v>
       </c>
-      <c r="BF23">
+      <c r="BH23">
         <v>0.01092970144517891</v>
       </c>
-      <c r="BG23">
+      <c r="BI23">
         <v>0.04217480935445368</v>
       </c>
-      <c r="BH23">
+      <c r="BJ23">
         <v>20.58</v>
       </c>
-      <c r="BI23">
+      <c r="BK23">
         <v>0.05310451079963258</v>
       </c>
-      <c r="BJ23">
+      <c r="BL23">
         <v>6.838376963806924</v>
       </c>
-      <c r="BK23">
+      <c r="BM23">
         <v>5.563508376266657</v>
       </c>
-      <c r="BL23">
+      <c r="BN23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BM23">
+      <c r="BO23">
         <v>3.672282624788921</v>
       </c>
-      <c r="BN23">
+      <c r="BP23">
         <v>5.463430091902802</v>
       </c>
-      <c r="BO23">
+      <c r="BQ23">
         <v>4.876985262766487</v>
       </c>
-      <c r="BP23">
+      <c r="BR23">
         <v>3.524915147539867</v>
       </c>
-      <c r="BQ23">
+      <c r="BS23">
         <v>2.916980047320382</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:72">
       <c r="A24" s="1">
         <v>1348</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>46386</v>
@@ -5432,10 +5471,10 @@
         <v>9986857</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9906242418143998</v>
+        <v>0.9908815847260236</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5447,16 +5486,16 @@
         <v>11</v>
       </c>
       <c r="S24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="T24">
-        <v>126.6572572169543</v>
+        <v>128.0399878954894</v>
       </c>
       <c r="U24">
         <v>20200508</v>
       </c>
       <c r="V24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W24">
         <v>52349</v>
@@ -5477,16 +5516,16 @@
         <v>15659</v>
       </c>
       <c r="AG24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK24">
         <v>4987</v>
@@ -5504,29 +5543,29 @@
         <v>49871</v>
       </c>
       <c r="AQ24">
+        <v>4809</v>
+      </c>
+      <c r="AR24">
+        <v>215</v>
+      </c>
+      <c r="AS24">
         <v>618</v>
       </c>
-      <c r="AR24">
+      <c r="AT24">
         <v>11958</v>
       </c>
-      <c r="AS24">
+      <c r="AU24">
         <v>300491</v>
       </c>
-      <c r="AT24">
+      <c r="AV24">
         <v>300491</v>
       </c>
-      <c r="AU24">
+      <c r="AW24">
         <v>12576</v>
       </c>
-      <c r="AV24">
+      <c r="AX24">
         <v>62</v>
       </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
       <c r="AY24">
         <v>0</v>
       </c>
@@ -5539,61 +5578,67 @@
       <c r="BB24">
         <v>0</v>
       </c>
-      <c r="BD24" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE24">
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG24">
         <v>3160.19888614625</v>
       </c>
-      <c r="BF24">
+      <c r="BH24">
         <v>0.005241789283655508</v>
       </c>
-      <c r="BG24">
+      <c r="BI24">
         <v>0.02484685622313406</v>
       </c>
-      <c r="BH24">
+      <c r="BJ24">
         <v>17.42</v>
       </c>
-      <c r="BI24">
+      <c r="BK24">
         <v>0.0260595500666526</v>
       </c>
-      <c r="BJ24">
+      <c r="BL24">
         <v>6.999428831336674</v>
       </c>
-      <c r="BK24">
+      <c r="BM24">
         <v>5.415395744430167</v>
       </c>
-      <c r="BL24">
+      <c r="BN24">
         <v>4.666386923654211</v>
       </c>
-      <c r="BM24">
+      <c r="BO24">
         <v>3.643353961976863</v>
       </c>
-      <c r="BN24">
+      <c r="BP24">
         <v>5.3947002782766</v>
       </c>
-      <c r="BO24">
+      <c r="BQ24">
         <v>4.718908389956982</v>
       </c>
-      <c r="BP24">
+      <c r="BR24">
         <v>3.214048679411941</v>
       </c>
-      <c r="BQ24">
+      <c r="BS24">
         <v>2.860338006570994</v>
       </c>
-      <c r="BR24">
+      <c r="BT24">
         <v>2.755874855672491</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:72">
       <c r="A25" s="1">
         <v>1349</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>10088</v>
@@ -5626,10 +5671,10 @@
         <v>5639632</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9754953006911161</v>
+        <v>0.9753128287414995</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5641,16 +5686,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="S25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T25">
-        <v>135.5448276159194</v>
+        <v>137.8979280604234</v>
       </c>
       <c r="U25">
         <v>20200508</v>
       </c>
       <c r="V25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W25">
         <v>13040</v>
@@ -5674,16 +5719,16 @@
         <v>5163</v>
       </c>
       <c r="AG25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ25" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK25">
         <v>534</v>
@@ -5697,33 +5742,27 @@
       <c r="AP25">
         <v>10088</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>712</v>
       </c>
-      <c r="AR25">
+      <c r="AT25">
         <v>4164</v>
       </c>
-      <c r="AS25">
+      <c r="AU25">
         <v>114448</v>
       </c>
-      <c r="AT25">
+      <c r="AV25">
         <v>114448</v>
       </c>
-      <c r="AU25">
+      <c r="AW25">
         <v>4876</v>
       </c>
-      <c r="AV25">
+      <c r="AX25">
         <v>26</v>
       </c>
-      <c r="AW25">
+      <c r="AY25">
         <v>90</v>
       </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>0</v>
-      </c>
       <c r="AZ25">
         <v>0</v>
       </c>
@@ -5733,58 +5772,64 @@
       <c r="BB25">
         <v>0</v>
       </c>
-      <c r="BD25" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE25">
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG25">
         <v>2374.790938166979</v>
       </c>
-      <c r="BF25">
+      <c r="BH25">
         <v>0.002312207605035222</v>
       </c>
-      <c r="BG25">
+      <c r="BI25">
         <v>0.01798131509289968</v>
       </c>
-      <c r="BH25">
+      <c r="BJ25">
         <v>11.39</v>
       </c>
-      <c r="BI25">
+      <c r="BK25">
         <v>0.01795684541118995</v>
       </c>
-      <c r="BJ25">
+      <c r="BL25">
         <v>6.751250766113916</v>
       </c>
-      <c r="BK25">
+      <c r="BM25">
         <v>5.005480809979401</v>
       </c>
-      <c r="BL25">
+      <c r="BN25">
         <v>4.003805073565025</v>
       </c>
-      <c r="BM25">
+      <c r="BO25">
         <v>2.727541257028556</v>
       </c>
-      <c r="BN25">
+      <c r="BP25">
         <v>5.006072217510207</v>
       </c>
-      <c r="BO25">
+      <c r="BQ25">
         <v>4.115277591395901</v>
       </c>
-      <c r="BP25">
+      <c r="BR25">
         <v>2.674861140737812</v>
       </c>
-      <c r="BQ25">
+      <c r="BS25">
         <v>2.296665190261531</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:72">
       <c r="A26" s="1">
         <v>1350</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D26">
         <v>9090</v>
@@ -5817,10 +5862,10 @@
         <v>2976149</v>
       </c>
       <c r="N26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O26">
-        <v>0.995453239745992</v>
+        <v>0.9949666543211282</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5832,16 +5877,16 @@
         <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T26">
-        <v>115.0420910906508</v>
+        <v>115.866442656183</v>
       </c>
       <c r="U26">
         <v>20200508</v>
       </c>
       <c r="V26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W26">
         <v>9090</v>
@@ -5865,16 +5910,16 @@
         <v>4421</v>
       </c>
       <c r="AG26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AH26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AI26" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AJ26" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK26">
         <v>409</v>
@@ -5885,33 +5930,27 @@
       <c r="AP26">
         <v>9090</v>
       </c>
-      <c r="AQ26">
+      <c r="AS26">
         <v>404</v>
       </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
         <v>81191</v>
       </c>
-      <c r="AT26">
+      <c r="AV26">
         <v>81191</v>
       </c>
-      <c r="AU26">
+      <c r="AW26">
         <v>404</v>
       </c>
-      <c r="AV26">
+      <c r="AX26">
         <v>13</v>
       </c>
-      <c r="AW26">
+      <c r="AY26">
         <v>36</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
       <c r="AZ26">
         <v>0</v>
       </c>
@@ -5921,61 +5960,67 @@
       <c r="BB26">
         <v>0</v>
       </c>
-      <c r="BD26" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE26">
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG26">
         <v>1725.151877371961</v>
       </c>
-      <c r="BF26">
+      <c r="BH26">
         <v>0.003054282564481819</v>
       </c>
-      <c r="BG26">
+      <c r="BI26">
         <v>0.02422627361734913</v>
       </c>
-      <c r="BH26">
+      <c r="BJ26">
         <v>11.2</v>
       </c>
-      <c r="BI26">
+      <c r="BK26">
         <v>0.02728055618183095</v>
       </c>
-      <c r="BJ26">
+      <c r="BL26">
         <v>6.473654670240083</v>
       </c>
-      <c r="BK26">
+      <c r="BM26">
         <v>4.909507890485442</v>
       </c>
-      <c r="BL26">
+      <c r="BN26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BM26">
+      <c r="BO26">
         <v>2.611723308007342</v>
       </c>
-      <c r="BN26">
+      <c r="BP26">
         <v>4.857941288179487</v>
       </c>
-      <c r="BO26">
+      <c r="BQ26">
         <v>3.958563883221967</v>
       </c>
-      <c r="BP26">
+      <c r="BR26">
         <v>2.800717078282385</v>
       </c>
-      <c r="BQ26">
+      <c r="BS26">
         <v>2.089905111439398</v>
       </c>
-      <c r="BR26">
+      <c r="BT26">
         <v>1.763427993562937</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:72">
       <c r="A27" s="1">
         <v>1351</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>9733</v>
@@ -5999,10 +6044,10 @@
         <v>6137428</v>
       </c>
       <c r="N27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9932591612262739</v>
+        <v>0.9923869888905024</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6014,16 +6059,16 @@
         <v>11.9</v>
       </c>
       <c r="S27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T27">
-        <v>71.31539161477009</v>
+        <v>72.67811269419943</v>
       </c>
       <c r="U27">
         <v>20200508</v>
       </c>
       <c r="V27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="W27">
         <v>9489</v>
@@ -6038,16 +6083,16 @@
         <v>143</v>
       </c>
       <c r="AG27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AI27" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ27" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AK27">
         <v>449</v>
@@ -6064,30 +6109,24 @@
       <c r="AP27">
         <v>9489</v>
       </c>
-      <c r="AQ27">
+      <c r="AS27">
         <v>148</v>
       </c>
-      <c r="AR27">
+      <c r="AT27">
         <v>4951</v>
       </c>
-      <c r="AS27">
+      <c r="AU27">
         <v>108721</v>
       </c>
-      <c r="AT27">
+      <c r="AV27">
         <v>108721</v>
       </c>
-      <c r="AU27">
+      <c r="AW27">
         <v>5099</v>
       </c>
-      <c r="AV27">
+      <c r="AX27">
         <v>31</v>
       </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
       <c r="AY27">
         <v>0</v>
       </c>
@@ -6100,58 +6139,64 @@
       <c r="BB27">
         <v>0</v>
       </c>
-      <c r="BD27" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE27">
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG27">
         <v>2477.383296948617</v>
       </c>
-      <c r="BF27">
+      <c r="BH27">
         <v>0.001546087383835705</v>
       </c>
-      <c r="BG27">
+      <c r="BI27">
         <v>0.01616833631286591</v>
       </c>
-      <c r="BH27">
+      <c r="BJ27">
         <v>8.73</v>
       </c>
-      <c r="BI27">
+      <c r="BK27">
         <v>0.01771442369670162</v>
       </c>
-      <c r="BJ27">
+      <c r="BL27">
         <v>6.787986410322698</v>
       </c>
-      <c r="BK27">
+      <c r="BM27">
         <v>5.036313438320507</v>
       </c>
-      <c r="BL27">
+      <c r="BN27">
         <v>3.988246723375378</v>
       </c>
-      <c r="BM27">
+      <c r="BO27">
         <v>2.683947130751512</v>
       </c>
-      <c r="BN27">
+      <c r="BP27">
         <v>4.996651744557233</v>
       </c>
-      <c r="BO27">
+      <c r="BQ27">
         <v>3.977220446635385</v>
       </c>
-      <c r="BP27">
+      <c r="BR27">
         <v>2.920123326290724</v>
       </c>
-      <c r="BR27">
+      <c r="BT27">
         <v>2.155336037465062</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:72">
       <c r="A28" s="1">
         <v>1352</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28">
         <v>458</v>
@@ -6184,10 +6229,10 @@
         <v>1068778</v>
       </c>
       <c r="N28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8499227352141761</v>
+        <v>0.8424293067504275</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6199,16 +6244,16 @@
         <v>10.3</v>
       </c>
       <c r="S28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T28">
-        <v>95.63447375438844</v>
+        <v>98.29562765942451</v>
       </c>
       <c r="U28">
         <v>20200508</v>
       </c>
       <c r="V28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W28">
         <v>458</v>
@@ -6226,16 +6271,16 @@
         <v>420</v>
       </c>
       <c r="AG28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI28" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK28">
         <v>16</v>
@@ -6246,27 +6291,21 @@
       <c r="AP28">
         <v>458</v>
       </c>
-      <c r="AQ28">
+      <c r="AS28">
         <v>2</v>
       </c>
-      <c r="AR28">
+      <c r="AT28">
         <v>696</v>
       </c>
-      <c r="AS28">
+      <c r="AU28">
         <v>20945</v>
       </c>
-      <c r="AT28">
+      <c r="AV28">
         <v>20945</v>
       </c>
-      <c r="AU28">
+      <c r="AW28">
         <v>698</v>
       </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
       <c r="AX28">
         <v>0</v>
       </c>
@@ -6282,55 +6321,61 @@
       <c r="BB28">
         <v>0</v>
       </c>
-      <c r="BD28" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE28">
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG28">
         <v>1033.817198541406</v>
       </c>
-      <c r="BF28">
+      <c r="BH28">
         <v>0.0004285267847953457</v>
       </c>
-      <c r="BG28">
+      <c r="BI28">
         <v>0.01916862061157696</v>
       </c>
-      <c r="BH28">
+      <c r="BJ28">
         <v>2.19</v>
       </c>
-      <c r="BI28">
+      <c r="BK28">
         <v>0.01959714739637231</v>
       </c>
-      <c r="BJ28">
+      <c r="BL28">
         <v>6.028887505594666</v>
       </c>
-      <c r="BK28">
+      <c r="BM28">
         <v>4.321080364697238</v>
       </c>
-      <c r="BL28">
+      <c r="BN28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BM28">
+      <c r="BO28">
         <v>1.204119982655925</v>
       </c>
-      <c r="BN28">
+      <c r="BP28">
         <v>4.311478367438068</v>
       </c>
-      <c r="BO28">
+      <c r="BQ28">
         <v>2.660865478003869</v>
       </c>
-      <c r="BP28">
+      <c r="BR28">
         <v>0.7781512503836436</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:72">
       <c r="A29" s="1">
         <v>1353</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29">
         <v>7818</v>
@@ -6354,10 +6399,10 @@
         <v>1934408</v>
       </c>
       <c r="N29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9668964957961899</v>
+        <v>0.9666090622709761</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6369,16 +6414,16 @@
         <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T29">
-        <v>114.5882582111606</v>
+        <v>115.0657715047524</v>
       </c>
       <c r="U29">
         <v>20200508</v>
       </c>
       <c r="V29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W29">
         <v>7190</v>
@@ -6387,16 +6432,16 @@
         <v>33222</v>
       </c>
       <c r="AG29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AI29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AJ29" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK29">
         <v>90</v>
@@ -6404,30 +6449,24 @@
       <c r="AP29">
         <v>7190</v>
       </c>
-      <c r="AQ29">
+      <c r="AS29">
         <v>419</v>
       </c>
-      <c r="AR29">
+      <c r="AT29">
         <v>2235</v>
       </c>
-      <c r="AS29">
+      <c r="AU29">
         <v>40412</v>
       </c>
-      <c r="AT29">
+      <c r="AV29">
         <v>40412</v>
       </c>
-      <c r="AU29">
+      <c r="AW29">
         <v>2654</v>
       </c>
-      <c r="AV29">
+      <c r="AX29">
         <v>4</v>
       </c>
-      <c r="AW29">
-        <v>0</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
       <c r="AY29">
         <v>0</v>
       </c>
@@ -6440,52 +6479,58 @@
       <c r="BB29">
         <v>0</v>
       </c>
-      <c r="BD29" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE29">
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG29">
         <v>1390.829968040666</v>
       </c>
-      <c r="BF29">
+      <c r="BH29">
         <v>0.003716899433831953</v>
       </c>
-      <c r="BG29">
+      <c r="BI29">
         <v>0.01717424659120517</v>
       </c>
-      <c r="BH29">
+      <c r="BJ29">
         <v>17.79</v>
       </c>
-      <c r="BI29">
+      <c r="BK29">
         <v>0.02089114602503712</v>
       </c>
-      <c r="BJ29">
+      <c r="BL29">
         <v>6.286548079602651</v>
       </c>
-      <c r="BK29">
+      <c r="BM29">
         <v>4.606510344317186</v>
       </c>
-      <c r="BL29">
+      <c r="BN29">
         <v>3.893095666096228</v>
       </c>
-      <c r="BM29">
+      <c r="BO29">
         <v>1.954242509439325</v>
       </c>
-      <c r="BN29">
+      <c r="BP29">
         <v>4.521425773895577</v>
       </c>
-      <c r="BO29">
+      <c r="BQ29">
         <v>3.856728890382882</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:72">
       <c r="A30" s="1">
         <v>1354</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30">
         <v>5920</v>
@@ -6512,10 +6557,10 @@
         <v>3080156</v>
       </c>
       <c r="N30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9596909001084118</v>
+        <v>0.9557004810623834</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6527,16 +6572,16 @@
         <v>13.1</v>
       </c>
       <c r="S30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T30">
-        <v>115.6205699919866</v>
+        <v>117.107572878222</v>
       </c>
       <c r="U30">
         <v>20200508</v>
       </c>
       <c r="V30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="W30">
         <v>5884</v>
@@ -6548,16 +6593,16 @@
         <v>205</v>
       </c>
       <c r="AG30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AH30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AI30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AJ30" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AK30">
         <v>328</v>
@@ -6568,30 +6613,24 @@
       <c r="AP30">
         <v>5884</v>
       </c>
-      <c r="AQ30">
+      <c r="AS30">
         <v>118</v>
       </c>
-      <c r="AR30">
+      <c r="AT30">
         <v>1869</v>
       </c>
-      <c r="AS30">
+      <c r="AU30">
         <v>53344</v>
       </c>
-      <c r="AT30">
+      <c r="AV30">
         <v>53344</v>
       </c>
-      <c r="AU30">
+      <c r="AW30">
         <v>1987</v>
       </c>
-      <c r="AV30">
+      <c r="AX30">
         <v>8</v>
       </c>
-      <c r="AW30">
-        <v>0</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
       <c r="AY30">
         <v>0</v>
       </c>
@@ -6604,52 +6643,58 @@
       <c r="BB30">
         <v>0</v>
       </c>
-      <c r="BD30" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE30">
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG30">
         <v>1755.037321540485</v>
       </c>
-      <c r="BF30">
+      <c r="BH30">
         <v>0.001910292855296939</v>
       </c>
-      <c r="BG30">
+      <c r="BI30">
         <v>0.01540831048817008</v>
       </c>
-      <c r="BH30">
+      <c r="BJ30">
         <v>11.03</v>
       </c>
-      <c r="BI30">
+      <c r="BK30">
         <v>0.01731860334346702</v>
       </c>
-      <c r="BJ30">
+      <c r="BL30">
         <v>6.488572712676902</v>
       </c>
-      <c r="BK30">
+      <c r="BM30">
         <v>4.727085578147912</v>
       </c>
-      <c r="BL30">
+      <c r="BN30">
         <v>3.77232170672292</v>
       </c>
-      <c r="BM30">
+      <c r="BO30">
         <v>2.468347330412157</v>
       </c>
-      <c r="BN30">
+      <c r="BP30">
         <v>4.67632773388132</v>
       </c>
-      <c r="BO30">
+      <c r="BQ30">
         <v>3.769672664055492</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:72">
       <c r="A31" s="1">
         <v>1355</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>2947</v>
@@ -6682,10 +6727,10 @@
         <v>1359711</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9811860956323643</v>
+        <v>0.9806099856501166</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6697,16 +6742,16 @@
         <v>6.6</v>
       </c>
       <c r="S31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4778329431883</v>
+        <v>110.4633726876769</v>
       </c>
       <c r="U31">
         <v>20200508</v>
       </c>
       <c r="V31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W31">
         <v>2843</v>
@@ -6730,16 +6775,16 @@
         <v>1165</v>
       </c>
       <c r="AG31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AJ31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AK31">
         <v>114</v>
@@ -6750,33 +6795,27 @@
       <c r="AP31">
         <v>2843</v>
       </c>
-      <c r="AQ31">
+      <c r="AS31">
         <v>103</v>
       </c>
-      <c r="AR31">
+      <c r="AT31">
         <v>1763</v>
       </c>
-      <c r="AS31">
+      <c r="AU31">
         <v>31204</v>
       </c>
-      <c r="AT31">
+      <c r="AV31">
         <v>30672</v>
       </c>
-      <c r="AU31">
+      <c r="AW31">
         <v>1866</v>
       </c>
-      <c r="AV31">
+      <c r="AX31">
         <v>3</v>
       </c>
-      <c r="AW31">
+      <c r="AY31">
         <v>1</v>
       </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
       <c r="AZ31">
         <v>0</v>
       </c>
@@ -6786,55 +6825,61 @@
       <c r="BB31">
         <v>0</v>
       </c>
-      <c r="BD31" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE31">
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG31">
         <v>1166.066464657997</v>
       </c>
-      <c r="BF31">
+      <c r="BH31">
         <v>0.002090885489637136</v>
       </c>
-      <c r="BG31">
+      <c r="BI31">
         <v>0.02046684920545616</v>
       </c>
-      <c r="BH31">
+      <c r="BJ31">
         <v>9.27</v>
       </c>
-      <c r="BI31">
+      <c r="BK31">
         <v>0.02255773469509329</v>
       </c>
-      <c r="BJ31">
+      <c r="BL31">
         <v>6.133446610985868</v>
       </c>
-      <c r="BK31">
+      <c r="BM31">
         <v>4.486742095533987</v>
       </c>
-      <c r="BL31">
+      <c r="BN31">
         <v>3.469380135849925</v>
       </c>
-      <c r="BM31">
+      <c r="BO31">
         <v>2.08278537031645</v>
       </c>
-      <c r="BN31">
+      <c r="BP31">
         <v>4.444497600790215</v>
       </c>
-      <c r="BO31">
+      <c r="BQ31">
         <v>3.453776859690442</v>
       </c>
-      <c r="BP31">
+      <c r="BR31">
         <v>2.05307844348342</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:72">
       <c r="A32" s="1">
         <v>1356</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32">
         <v>135840</v>
@@ -6861,10 +6906,10 @@
         <v>8882190</v>
       </c>
       <c r="N32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9787981708394786</v>
+        <v>0.9791758599007379</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6876,16 +6921,16 @@
         <v>9.1</v>
       </c>
       <c r="S32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="T32">
-        <v>202.1772945869944</v>
+        <v>203.3886130156428</v>
       </c>
       <c r="U32">
         <v>20200508</v>
       </c>
       <c r="V32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="W32">
         <v>135454</v>
@@ -6909,16 +6954,16 @@
         <v>15642</v>
       </c>
       <c r="AG32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI32" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK32">
         <v>8952</v>
@@ -6926,30 +6971,24 @@
       <c r="AP32">
         <v>135454</v>
       </c>
-      <c r="AQ32">
+      <c r="AS32">
         <v>1819</v>
       </c>
-      <c r="AR32">
+      <c r="AT32">
         <v>4282</v>
       </c>
-      <c r="AS32">
+      <c r="AU32">
         <v>299312</v>
       </c>
-      <c r="AT32">
+      <c r="AV32">
         <v>298759</v>
       </c>
-      <c r="AU32">
+      <c r="AW32">
         <v>6101</v>
       </c>
-      <c r="AV32">
+      <c r="AX32">
         <v>151</v>
       </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
-        <v>0</v>
-      </c>
       <c r="AY32">
         <v>0</v>
       </c>
@@ -6962,61 +7001,67 @@
       <c r="BB32">
         <v>0</v>
       </c>
-      <c r="BD32" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE32">
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG32">
         <v>2980.300320437523</v>
       </c>
-      <c r="BF32">
+      <c r="BH32">
         <v>0.01525006783237017</v>
       </c>
-      <c r="BG32">
+      <c r="BI32">
         <v>0.01838566839934746</v>
       </c>
-      <c r="BH32">
+      <c r="BJ32">
         <v>45.34</v>
       </c>
-      <c r="BI32">
+      <c r="BK32">
         <v>0.03363573623171763</v>
       </c>
-      <c r="BJ32">
+      <c r="BL32">
         <v>6.948520058982782</v>
       </c>
-      <c r="BK32">
+      <c r="BM32">
         <v>5.475320997107535</v>
       </c>
-      <c r="BL32">
+      <c r="BN32">
         <v>5.133027672899877</v>
       </c>
-      <c r="BM32">
+      <c r="BO32">
         <v>3.952308009662125</v>
       </c>
-      <c r="BN32">
+      <c r="BP32">
         <v>5.2129994819759</v>
       </c>
-      <c r="BO32">
+      <c r="BQ32">
         <v>5.131791834413688</v>
       </c>
-      <c r="BP32">
+      <c r="BR32">
         <v>3.663229634532868</v>
       </c>
-      <c r="BQ32">
+      <c r="BS32">
         <v>3.158060793936605</v>
       </c>
-      <c r="BR32">
+      <c r="BT32">
         <v>3.037027879755775</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:72">
       <c r="A33" s="1">
         <v>1357</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D33">
         <v>4673</v>
@@ -7049,10 +7094,10 @@
         <v>2096829</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9939501778131263</v>
+        <v>0.9943512412707249</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7064,16 +7109,16 @@
         <v>18.2</v>
       </c>
       <c r="S33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T33">
-        <v>190.6723883903028</v>
+        <v>192.6566644840833</v>
       </c>
       <c r="U33">
         <v>20200508</v>
       </c>
       <c r="V33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="W33">
         <v>4493</v>
@@ -7091,16 +7136,16 @@
         <v>1125</v>
       </c>
       <c r="AG33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH33" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AI33" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AJ33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AK33">
         <v>172</v>
@@ -7111,33 +7156,27 @@
       <c r="AP33">
         <v>4493</v>
       </c>
-      <c r="AQ33">
+      <c r="AS33">
         <v>202</v>
       </c>
-      <c r="AR33">
+      <c r="AT33">
         <v>3146</v>
       </c>
-      <c r="AS33">
+      <c r="AU33">
         <v>89032</v>
       </c>
-      <c r="AT33">
+      <c r="AV33">
         <v>89032</v>
       </c>
-      <c r="AU33">
+      <c r="AW33">
         <v>3348</v>
       </c>
-      <c r="AV33">
+      <c r="AX33">
         <v>3</v>
       </c>
-      <c r="AW33">
+      <c r="AY33">
         <v>73</v>
       </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
       <c r="AZ33">
         <v>0</v>
       </c>
@@ -7147,55 +7186,61 @@
       <c r="BB33">
         <v>0</v>
       </c>
-      <c r="BD33" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE33">
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG33">
         <v>1448.043162340129</v>
       </c>
-      <c r="BF33">
+      <c r="BH33">
         <v>0.002142759376181844</v>
       </c>
-      <c r="BG33">
+      <c r="BI33">
         <v>0.04031754616137034</v>
       </c>
-      <c r="BH33">
+      <c r="BJ33">
         <v>5.05</v>
       </c>
-      <c r="BI33">
+      <c r="BK33">
         <v>0.04246030553755218</v>
       </c>
-      <c r="BJ33">
+      <c r="BL33">
         <v>6.321563014449838</v>
       </c>
-      <c r="BK33">
+      <c r="BM33">
         <v>4.949546129404536</v>
       </c>
-      <c r="BL33">
+      <c r="BN33">
         <v>3.669595781024313</v>
       </c>
-      <c r="BM33">
+      <c r="BO33">
         <v>2.257678574869185</v>
       </c>
-      <c r="BN33">
+      <c r="BP33">
         <v>4.927057106314735</v>
       </c>
-      <c r="BO33">
+      <c r="BQ33">
         <v>3.652536418593026</v>
       </c>
-      <c r="BP33">
+      <c r="BR33">
         <v>2.294466226161593</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:72">
       <c r="A34" s="1">
         <v>1358</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>330407</v>
@@ -7228,10 +7273,10 @@
         <v>19453561</v>
       </c>
       <c r="N34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9831737306618504</v>
+        <v>0.9830939223304581</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7243,16 +7288,16 @@
         <v>11.9</v>
       </c>
       <c r="S34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T34">
-        <v>226.8927263580671</v>
+        <v>229.8814239069285</v>
       </c>
       <c r="U34">
         <v>20200508</v>
       </c>
       <c r="V34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W34">
         <v>330407</v>
@@ -7276,16 +7321,16 @@
         <v>56378</v>
       </c>
       <c r="AG34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ34" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK34">
         <v>21045</v>
@@ -7296,33 +7341,27 @@
       <c r="AP34">
         <v>330407</v>
       </c>
-      <c r="AQ34">
+      <c r="AS34">
         <v>2758</v>
       </c>
-      <c r="AR34">
+      <c r="AT34">
         <v>28869</v>
       </c>
-      <c r="AS34">
+      <c r="AU34">
         <v>1121543</v>
       </c>
-      <c r="AT34">
+      <c r="AV34">
         <v>1121543</v>
       </c>
-      <c r="AU34">
+      <c r="AW34">
         <v>31627</v>
       </c>
-      <c r="AV34">
+      <c r="AX34">
         <v>217</v>
       </c>
-      <c r="AW34">
+      <c r="AY34">
         <v>533</v>
       </c>
-      <c r="AX34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
       <c r="AZ34">
         <v>0</v>
       </c>
@@ -7332,61 +7371,67 @@
       <c r="BB34">
         <v>0</v>
       </c>
-      <c r="BD34" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE34">
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG34">
         <v>4410.619117538942</v>
       </c>
-      <c r="BF34">
+      <c r="BH34">
         <v>0.01698439684127754</v>
       </c>
-      <c r="BG34">
+      <c r="BI34">
         <v>0.04066792707001047</v>
       </c>
-      <c r="BH34">
+      <c r="BJ34">
         <v>29.46</v>
       </c>
-      <c r="BI34">
+      <c r="BK34">
         <v>0.05765232391128802</v>
       </c>
-      <c r="BJ34">
+      <c r="BL34">
         <v>7.288999111116478</v>
       </c>
-      <c r="BK34">
+      <c r="BM34">
         <v>6.049815929104652</v>
       </c>
-      <c r="BL34">
+      <c r="BN34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BM34">
+      <c r="BO34">
         <v>4.419013480435807</v>
       </c>
-      <c r="BN34">
+      <c r="BP34">
         <v>5.898251147179793</v>
       </c>
-      <c r="BO34">
+      <c r="BQ34">
         <v>5.519049239705153</v>
       </c>
-      <c r="BP34">
+      <c r="BR34">
         <v>3.913601949729157</v>
       </c>
-      <c r="BQ34">
+      <c r="BS34">
         <v>3.448860845607441</v>
       </c>
-      <c r="BR34">
+      <c r="BT34">
         <v>3.36078268987328</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:72">
       <c r="A35" s="1">
         <v>1359</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>14006</v>
@@ -7410,10 +7455,10 @@
         <v>10488084</v>
       </c>
       <c r="N35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9956389975107665</v>
+        <v>0.9957824073753844</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7425,16 +7470,16 @@
         <v>14.1</v>
       </c>
       <c r="S35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T35">
-        <v>109.2894851038506</v>
+        <v>111.7149773455508</v>
       </c>
       <c r="U35">
         <v>20200508</v>
       </c>
       <c r="V35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W35">
         <v>13868</v>
@@ -7446,16 +7491,16 @@
         <v>515</v>
       </c>
       <c r="AG35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK35">
         <v>527</v>
@@ -7463,30 +7508,24 @@
       <c r="AP35">
         <v>13868</v>
       </c>
-      <c r="AQ35">
+      <c r="AS35">
         <v>471</v>
       </c>
-      <c r="AR35">
+      <c r="AT35">
         <v>6814</v>
       </c>
-      <c r="AS35">
+      <c r="AU35">
         <v>178613</v>
       </c>
-      <c r="AT35">
+      <c r="AV35">
         <v>178613</v>
       </c>
-      <c r="AU35">
+      <c r="AW35">
         <v>7285</v>
       </c>
-      <c r="AV35">
+      <c r="AX35">
         <v>20</v>
       </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
       <c r="AY35">
         <v>0</v>
       </c>
@@ -7499,55 +7538,61 @@
       <c r="BB35">
         <v>0</v>
       </c>
-      <c r="BD35" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE35">
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG35">
         <v>3238.531148530148</v>
       </c>
-      <c r="BF35">
+      <c r="BH35">
         <v>0.001322262483786362</v>
       </c>
-      <c r="BG35">
+      <c r="BI35">
         <v>0.01570782613869225</v>
       </c>
-      <c r="BH35">
+      <c r="BJ35">
         <v>7.76</v>
       </c>
-      <c r="BI35">
+      <c r="BK35">
         <v>0.01703008862247862</v>
       </c>
-      <c r="BJ35">
+      <c r="BL35">
         <v>7.02069615699919</v>
       </c>
-      <c r="BK35">
+      <c r="BM35">
         <v>5.251913064982536</v>
       </c>
-      <c r="BL35">
+      <c r="BN35">
         <v>4.146314122011972</v>
       </c>
-      <c r="BM35">
+      <c r="BO35">
         <v>2.724275869600789</v>
       </c>
-      <c r="BN35">
+      <c r="BP35">
         <v>5.216812242656875</v>
       </c>
-      <c r="BO35">
+      <c r="BQ35">
         <v>4.142013832984359</v>
       </c>
-      <c r="BP35">
+      <c r="BR35">
         <v>2.711807229041191</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:72">
       <c r="A36" s="1">
         <v>1360</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>1425</v>
@@ -7580,10 +7625,10 @@
         <v>762062</v>
       </c>
       <c r="N36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9831094829999871</v>
+        <v>0.9836351191667688</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7595,16 +7640,16 @@
         <v>11.1</v>
       </c>
       <c r="S36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T36">
-        <v>155.2769174580242</v>
+        <v>155.1008748399868</v>
       </c>
       <c r="U36">
         <v>20200508</v>
       </c>
       <c r="V36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="W36">
         <v>1425</v>
@@ -7622,16 +7667,16 @@
         <v>714</v>
       </c>
       <c r="AG36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK36">
         <v>24</v>
@@ -7643,32 +7688,29 @@
         <v>1425</v>
       </c>
       <c r="AQ36">
+        <v>24</v>
+      </c>
+      <c r="AS36">
         <v>54</v>
       </c>
-      <c r="AR36">
+      <c r="AT36">
         <v>1580</v>
       </c>
-      <c r="AS36">
+      <c r="AU36">
         <v>42501</v>
       </c>
-      <c r="AT36">
+      <c r="AV36">
         <v>42501</v>
       </c>
-      <c r="AU36">
+      <c r="AW36">
         <v>1634</v>
       </c>
-      <c r="AV36">
+      <c r="AX36">
         <v>1</v>
       </c>
-      <c r="AW36">
+      <c r="AY36">
         <v>2</v>
       </c>
-      <c r="AX36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
       <c r="AZ36">
         <v>0</v>
       </c>
@@ -7678,55 +7720,61 @@
       <c r="BB36">
         <v>0</v>
       </c>
-      <c r="BD36" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE36">
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG36">
         <v>872.9616257316241</v>
       </c>
-      <c r="BF36">
+      <c r="BH36">
         <v>0.001869926593899184</v>
       </c>
-      <c r="BG36">
+      <c r="BI36">
         <v>0.05390112615508974</v>
       </c>
-      <c r="BH36">
+      <c r="BJ36">
         <v>3.35</v>
       </c>
-      <c r="BI36">
+      <c r="BK36">
         <v>0.05577105274898893</v>
       </c>
-      <c r="BJ36">
+      <c r="BL36">
         <v>5.88199030619854</v>
       </c>
-      <c r="BK36">
+      <c r="BM36">
         <v>4.628399148623785</v>
       </c>
-      <c r="BL36">
+      <c r="BN36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BM36">
+      <c r="BO36">
         <v>1.518513939877888</v>
       </c>
-      <c r="BN36">
+      <c r="BP36">
         <v>4.613588145185502</v>
       </c>
-      <c r="BO36">
+      <c r="BQ36">
         <v>3.153814864344529</v>
       </c>
-      <c r="BP36">
+      <c r="BR36">
         <v>1.518513939877888</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:72">
       <c r="A37" s="1">
         <v>1361</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>23016</v>
@@ -7756,10 +7804,10 @@
         <v>11689100</v>
       </c>
       <c r="N37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9918534533990506</v>
+        <v>0.9921543638993761</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7771,16 +7819,16 @@
         <v>12.4</v>
       </c>
       <c r="S37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="T37">
-        <v>81.10410162265691</v>
+        <v>82.57395931222324</v>
       </c>
       <c r="U37">
         <v>20200508</v>
       </c>
       <c r="V37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="W37">
         <v>23016</v>
@@ -7804,16 +7852,16 @@
         <v>274</v>
       </c>
       <c r="AG37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AJ37" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AK37">
         <v>1306</v>
@@ -7825,32 +7873,32 @@
         <v>21969</v>
       </c>
       <c r="AQ37">
+        <v>1185</v>
+      </c>
+      <c r="AR37">
+        <v>121</v>
+      </c>
+      <c r="AS37">
         <v>885</v>
       </c>
-      <c r="AR37">
+      <c r="AT37">
         <v>7372</v>
       </c>
-      <c r="AS37">
+      <c r="AU37">
         <v>184316</v>
       </c>
-      <c r="AT37">
+      <c r="AV37">
         <v>184316</v>
       </c>
-      <c r="AU37">
+      <c r="AW37">
         <v>8257</v>
       </c>
-      <c r="AV37">
+      <c r="AX37">
         <v>35</v>
       </c>
-      <c r="AW37">
+      <c r="AY37">
         <v>78</v>
       </c>
-      <c r="AX37">
-        <v>0</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
       <c r="AZ37">
         <v>0</v>
       </c>
@@ -7860,61 +7908,67 @@
       <c r="BB37">
         <v>0</v>
       </c>
-      <c r="BD37" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE37">
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG37">
         <v>3418.932581961803</v>
       </c>
-      <c r="BF37">
+      <c r="BH37">
         <v>0.001969013867620262</v>
       </c>
-      <c r="BG37">
+      <c r="BI37">
         <v>0.01379918043305301</v>
       </c>
-      <c r="BH37">
+      <c r="BJ37">
         <v>12.49</v>
       </c>
-      <c r="BI37">
+      <c r="BK37">
         <v>0.01576819430067328</v>
       </c>
-      <c r="BJ37">
+      <c r="BL37">
         <v>7.067781074029195</v>
       </c>
-      <c r="BK37">
+      <c r="BM37">
         <v>5.265563036847407</v>
       </c>
-      <c r="BL37">
+      <c r="BN37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BM37">
+      <c r="BO37">
         <v>3.115943176939055</v>
       </c>
-      <c r="BN37">
+      <c r="BP37">
         <v>5.207634367388962</v>
       </c>
-      <c r="BO37">
+      <c r="BQ37">
         <v>4.36202984888227</v>
       </c>
-      <c r="BP37">
+      <c r="BR37">
         <v>3.02530586526477</v>
       </c>
-      <c r="BQ37">
+      <c r="BS37">
         <v>2.594392550375427</v>
       </c>
-      <c r="BR37">
+      <c r="BT37">
         <v>2.437750562820388</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:72">
       <c r="A38" s="1">
         <v>1362</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38">
         <v>4424</v>
@@ -7947,10 +8001,10 @@
         <v>3956971</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9715054308421136</v>
+        <v>0.9683601527625411</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -7962,16 +8016,16 @@
         <v>13.1</v>
       </c>
       <c r="S38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T38">
-        <v>104.3346454488333</v>
+        <v>105.7851231683996</v>
       </c>
       <c r="U38">
         <v>20200508</v>
       </c>
       <c r="V38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="W38">
         <v>4424</v>
@@ -7992,16 +8046,16 @@
         <v>3064</v>
       </c>
       <c r="AG38" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI38" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ38" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK38">
         <v>266</v>
@@ -8018,30 +8072,24 @@
       <c r="AO38">
         <v>85078</v>
       </c>
-      <c r="AQ38">
+      <c r="AS38">
         <v>94</v>
       </c>
-      <c r="AR38">
+      <c r="AT38">
         <v>2876</v>
       </c>
-      <c r="AS38">
+      <c r="AU38">
         <v>89857</v>
       </c>
-      <c r="AT38">
+      <c r="AV38">
         <v>89857</v>
       </c>
-      <c r="AU38">
+      <c r="AW38">
         <v>2970</v>
       </c>
-      <c r="AV38">
+      <c r="AX38">
         <v>6</v>
       </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
       <c r="AY38">
         <v>0</v>
       </c>
@@ -8054,58 +8102,64 @@
       <c r="BB38">
         <v>0</v>
       </c>
-      <c r="BD38" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE38">
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG38">
         <v>1989.213663737508</v>
       </c>
-      <c r="BF38">
+      <c r="BH38">
         <v>0.001118026894814241</v>
       </c>
-      <c r="BG38">
+      <c r="BI38">
         <v>0.0215905044540382</v>
       </c>
-      <c r="BH38">
+      <c r="BJ38">
         <v>4.92</v>
       </c>
-      <c r="BI38">
+      <c r="BK38">
         <v>0.02270853134885244</v>
       </c>
-      <c r="BJ38">
+      <c r="BL38">
         <v>6.597362867403726</v>
       </c>
-      <c r="BK38">
+      <c r="BM38">
         <v>4.953551914978187</v>
       </c>
-      <c r="BL38">
+      <c r="BN38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BM38">
+      <c r="BO38">
         <v>2.424881636631067</v>
       </c>
-      <c r="BN38">
+      <c r="BP38">
         <v>4.931625656984171</v>
       </c>
-      <c r="BO38">
+      <c r="BQ38">
         <v>3.645815118296642</v>
       </c>
-      <c r="BP38">
+      <c r="BR38">
         <v>2.357934847000454</v>
       </c>
-      <c r="BQ38">
+      <c r="BS38">
         <v>1.982271233039568</v>
       </c>
     </row>
-    <row r="39" spans="1:70">
+    <row r="39" spans="1:72">
       <c r="A39" s="1">
         <v>1363</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>3068</v>
@@ -8138,10 +8192,10 @@
         <v>4217737</v>
       </c>
       <c r="N39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9735536445707849</v>
+        <v>0.9726222284193844</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8153,16 +8207,16 @@
         <v>10.6</v>
       </c>
       <c r="S39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T39">
-        <v>63.46788568445146</v>
+        <v>64.63137399165271</v>
       </c>
       <c r="U39">
         <v>20200508</v>
       </c>
       <c r="V39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W39">
         <v>3068</v>
@@ -8186,16 +8240,16 @@
         <v>1125</v>
       </c>
       <c r="AG39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AI39" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AJ39" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AK39">
         <v>124</v>
@@ -8206,33 +8260,27 @@
       <c r="AP39">
         <v>3032</v>
       </c>
-      <c r="AQ39">
+      <c r="AS39">
         <v>79</v>
       </c>
-      <c r="AR39">
+      <c r="AT39">
         <v>2156</v>
       </c>
-      <c r="AS39">
+      <c r="AU39">
         <v>72693</v>
       </c>
-      <c r="AT39">
+      <c r="AV39">
         <v>72693</v>
       </c>
-      <c r="AU39">
+      <c r="AW39">
         <v>2235</v>
       </c>
-      <c r="AV39">
+      <c r="AX39">
         <v>3</v>
       </c>
-      <c r="AW39">
+      <c r="AY39">
         <v>14</v>
       </c>
-      <c r="AX39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
       <c r="AZ39">
         <v>0</v>
       </c>
@@ -8242,61 +8290,67 @@
       <c r="BB39">
         <v>0</v>
       </c>
-      <c r="BD39" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE39">
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG39">
         <v>2053.712978972475</v>
       </c>
-      <c r="BF39">
+      <c r="BH39">
         <v>0.0007274042928707978</v>
       </c>
-      <c r="BG39">
+      <c r="BI39">
         <v>0.01650766750036809</v>
       </c>
-      <c r="BH39">
+      <c r="BJ39">
         <v>4.22</v>
       </c>
-      <c r="BI39">
+      <c r="BK39">
         <v>0.01723507179323889</v>
       </c>
-      <c r="BJ39">
+      <c r="BL39">
         <v>6.625079495505463</v>
       </c>
-      <c r="BK39">
+      <c r="BM39">
         <v>4.861492592320653</v>
       </c>
-      <c r="BL39">
+      <c r="BN39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BM39">
+      <c r="BO39">
         <v>2.093421685162235</v>
       </c>
-      <c r="BN39">
+      <c r="BP39">
         <v>4.842765208181786</v>
       </c>
-      <c r="BO39">
+      <c r="BQ39">
         <v>3.486855355276943</v>
       </c>
-      <c r="BP39">
+      <c r="BR39">
         <v>2.201397124320451</v>
       </c>
-      <c r="BQ39">
+      <c r="BS39">
         <v>1.623249290397901</v>
       </c>
-      <c r="BR39">
+      <c r="BT39">
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:72">
       <c r="A40" s="1">
         <v>1364</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40">
         <v>57371</v>
@@ -8320,10 +8374,10 @@
         <v>12801989</v>
       </c>
       <c r="N40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9828943314677659</v>
+        <v>0.9834423988064853</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8335,16 +8389,16 @@
         <v>11.4</v>
       </c>
       <c r="S40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T40">
-        <v>64.77781464144599</v>
+        <v>65.57657771043858</v>
       </c>
       <c r="U40">
         <v>20200508</v>
       </c>
       <c r="V40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="W40">
         <v>54238</v>
@@ -8359,44 +8413,38 @@
         <v>517</v>
       </c>
       <c r="AG40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI40" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK40">
         <v>3616</v>
       </c>
-      <c r="AQ40">
+      <c r="AS40">
         <v>1323</v>
       </c>
-      <c r="AR40">
+      <c r="AT40">
         <v>6448</v>
       </c>
-      <c r="AS40">
+      <c r="AU40">
         <v>270559</v>
       </c>
-      <c r="AT40">
+      <c r="AV40">
         <v>270559</v>
       </c>
-      <c r="AU40">
+      <c r="AW40">
         <v>7771</v>
       </c>
-      <c r="AV40">
+      <c r="AX40">
         <v>200</v>
       </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
       <c r="AY40">
         <v>0</v>
       </c>
@@ -8409,58 +8457,64 @@
       <c r="BB40">
         <v>0</v>
       </c>
-      <c r="BD40" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE40">
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG40">
         <v>3577.986724402426</v>
       </c>
-      <c r="BF40">
+      <c r="BH40">
         <v>0.004236685408806397</v>
       </c>
-      <c r="BG40">
+      <c r="BI40">
         <v>0.01689745241930765</v>
       </c>
-      <c r="BH40">
+      <c r="BJ40">
         <v>20.05</v>
       </c>
-      <c r="BI40">
+      <c r="BK40">
         <v>0.02113413782811405</v>
       </c>
-      <c r="BJ40">
+      <c r="BL40">
         <v>7.107277449696098</v>
       </c>
-      <c r="BK40">
+      <c r="BM40">
         <v>5.432261985081858</v>
       </c>
-      <c r="BL40">
+      <c r="BN40">
         <v>4.758692419878901</v>
       </c>
-      <c r="BM40">
+      <c r="BO40">
         <v>3.569958818096594</v>
       </c>
-      <c r="BN40">
+      <c r="BP40">
         <v>5.335098681905209</v>
       </c>
-      <c r="BO40">
+      <c r="BQ40">
         <v>4.73430366675543</v>
       </c>
-      <c r="BP40">
+      <c r="BR40">
         <v>3.369586890736344</v>
       </c>
-      <c r="BR40">
+      <c r="BT40">
         <v>2.713490543093942</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:72">
       <c r="A41" s="1">
         <v>1365</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <v>10779</v>
@@ -8493,10 +8547,10 @@
         <v>1059361</v>
       </c>
       <c r="N41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9607431072800734</v>
+        <v>0.9610498560826908</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8508,22 +8562,22 @@
         <v>10.1</v>
       </c>
       <c r="S41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T41">
-        <v>271.7061375750659</v>
+        <v>264.5003283000372</v>
       </c>
       <c r="U41">
         <v>20200508</v>
       </c>
       <c r="V41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W41">
-        <v>10779</v>
+        <v>11141</v>
       </c>
       <c r="X41">
-        <v>74487</v>
+        <v>64338</v>
       </c>
       <c r="Z41">
         <v>312</v>
@@ -8541,16 +8595,16 @@
         <v>730</v>
       </c>
       <c r="AG41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH41" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AI41" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AJ41" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AK41">
         <v>399</v>
@@ -8558,36 +8612,39 @@
       <c r="AL41">
         <v>1187</v>
       </c>
+      <c r="AM41">
+        <v>93190</v>
+      </c>
+      <c r="AN41">
+        <v>13103</v>
+      </c>
+      <c r="AO41">
+        <v>80087</v>
+      </c>
       <c r="AP41">
-        <v>10779</v>
-      </c>
-      <c r="AQ41">
-        <v>249</v>
-      </c>
-      <c r="AR41">
-        <v>2699</v>
+        <v>11141</v>
       </c>
       <c r="AS41">
-        <v>85266</v>
+        <v>231</v>
       </c>
       <c r="AT41">
-        <v>85266</v>
+        <v>1691</v>
       </c>
       <c r="AU41">
-        <v>2948</v>
+        <v>75479</v>
       </c>
       <c r="AV41">
+        <v>75479</v>
+      </c>
+      <c r="AW41">
+        <v>1922</v>
+      </c>
+      <c r="AX41">
         <v>11</v>
       </c>
-      <c r="AW41">
+      <c r="AY41">
         <v>34</v>
       </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
       <c r="AZ41">
         <v>0</v>
       </c>
@@ -8597,61 +8654,67 @@
       <c r="BB41">
         <v>0</v>
       </c>
-      <c r="BD41" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE41">
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG41">
         <v>1029.25264148313</v>
       </c>
-      <c r="BF41">
-        <v>0.01017500172273663</v>
-      </c>
-      <c r="BG41">
-        <v>0.07031314160139933</v>
-      </c>
       <c r="BH41">
-        <v>12.64</v>
+        <v>0.01051671715307624</v>
       </c>
       <c r="BI41">
+        <v>0.06073283800328689</v>
+      </c>
+      <c r="BJ41">
+        <v>14.76</v>
+      </c>
+      <c r="BK41">
         <v>0.08048814332413597</v>
       </c>
-      <c r="BJ41">
+      <c r="BL41">
         <v>6.025043980496346</v>
       </c>
-      <c r="BK41">
+      <c r="BM41">
         <v>4.930775889831263</v>
       </c>
-      <c r="BL41">
+      <c r="BN41">
         <v>4.032578471924312</v>
       </c>
-      <c r="BM41">
+      <c r="BO41">
         <v>2.600972895686748</v>
       </c>
-      <c r="BN41">
-        <v>4.872080483205862</v>
-      </c>
-      <c r="BO41">
-        <v>4.032578471924312</v>
-      </c>
       <c r="BP41">
+        <v>4.808467556372229</v>
+      </c>
+      <c r="BQ41">
+        <v>4.046924174230035</v>
+      </c>
+      <c r="BR41">
         <v>2.494154594018443</v>
       </c>
-      <c r="BQ41">
+      <c r="BS41">
         <v>1.851258348719075</v>
       </c>
-      <c r="BR41">
+      <c r="BT41">
         <v>1.716003343634799</v>
       </c>
     </row>
-    <row r="42" spans="1:70">
+    <row r="42" spans="1:72">
       <c r="A42" s="1">
         <v>1366</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42">
         <v>7367</v>
@@ -8684,10 +8747,10 @@
         <v>5148714</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9413252878432203</v>
+        <v>0.9415121332220663</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8699,16 +8762,16 @@
         <v>14</v>
       </c>
       <c r="S42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T42">
-        <v>90.87541173207632</v>
+        <v>92.79199838793093</v>
       </c>
       <c r="U42">
         <v>20200508</v>
       </c>
       <c r="V42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="W42">
         <v>7142</v>
@@ -8723,16 +8786,16 @@
         <v>3816</v>
       </c>
       <c r="AG42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH42" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AI42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AJ42" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AK42">
         <v>316</v>
@@ -8740,30 +8803,24 @@
       <c r="AL42">
         <v>1152</v>
       </c>
-      <c r="AQ42">
+      <c r="AS42">
         <v>206</v>
       </c>
-      <c r="AR42">
+      <c r="AT42">
         <v>-4246</v>
       </c>
-      <c r="AS42">
+      <c r="AU42">
         <v>73442</v>
       </c>
-      <c r="AT42">
+      <c r="AV42">
         <v>73442</v>
       </c>
-      <c r="AU42">
+      <c r="AW42">
         <v>-4040</v>
       </c>
-      <c r="AV42">
+      <c r="AX42">
         <v>11</v>
       </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
       <c r="AY42">
         <v>0</v>
       </c>
@@ -8776,52 +8833,58 @@
       <c r="BB42">
         <v>0</v>
       </c>
-      <c r="BD42" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE42">
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG42">
         <v>2269.077786238277</v>
       </c>
-      <c r="BF42">
+      <c r="BH42">
         <v>0.001387142498107294</v>
       </c>
-      <c r="BG42">
+      <c r="BI42">
         <v>0.01287700190766083</v>
       </c>
-      <c r="BH42">
+      <c r="BJ42">
         <v>9.720000000000001</v>
       </c>
-      <c r="BI42">
+      <c r="BK42">
         <v>0.01426414440576812</v>
       </c>
-      <c r="BJ42">
+      <c r="BL42">
         <v>6.711698768371901</v>
       </c>
-      <c r="BK42">
+      <c r="BM42">
         <v>4.865944495223916</v>
       </c>
-      <c r="BL42">
+      <c r="BN42">
         <v>3.867290669854884</v>
       </c>
-      <c r="BM42">
+      <c r="BO42">
         <v>2.505149978319906</v>
       </c>
-      <c r="BN42">
+      <c r="BP42">
         <v>4.821513528404773</v>
       </c>
-      <c r="BO42">
+      <c r="BQ42">
         <v>3.853819845856763</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:72">
       <c r="A43" s="1">
         <v>1367</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>3145</v>
@@ -8854,10 +8917,10 @@
         <v>884659</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9839977058924619</v>
+        <v>0.9843066746230184</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8869,16 +8932,16 @@
         <v>10.7</v>
       </c>
       <c r="S43" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T43">
-        <v>106.4742373371124</v>
+        <v>106.6841859275612</v>
       </c>
       <c r="U43">
         <v>20200508</v>
       </c>
       <c r="V43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="W43">
         <v>3144</v>
@@ -8896,16 +8959,16 @@
         <v>2069</v>
       </c>
       <c r="AG43" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AI43" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AJ43" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK43">
         <v>31</v>
@@ -8916,33 +8979,27 @@
       <c r="AP43">
         <v>3144</v>
       </c>
-      <c r="AQ43">
+      <c r="AS43">
         <v>239</v>
       </c>
-      <c r="AR43">
+      <c r="AT43">
         <v>940</v>
       </c>
-      <c r="AS43">
+      <c r="AU43">
         <v>21293</v>
       </c>
-      <c r="AT43">
+      <c r="AV43">
         <v>21293</v>
       </c>
-      <c r="AU43">
+      <c r="AW43">
         <v>1179</v>
       </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
         <v>11</v>
       </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
       <c r="AZ43">
         <v>0</v>
       </c>
@@ -8952,55 +9009,61 @@
       <c r="BB43">
         <v>0</v>
       </c>
-      <c r="BD43" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE43">
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG43">
         <v>940.5631291944204</v>
       </c>
-      <c r="BF43">
+      <c r="BH43">
         <v>0.003553911733221501</v>
       </c>
-      <c r="BG43">
+      <c r="BI43">
         <v>0.02051524937857412</v>
       </c>
-      <c r="BH43">
+      <c r="BJ43">
         <v>14.77</v>
       </c>
-      <c r="BI43">
+      <c r="BK43">
         <v>0.02406916111179562</v>
       </c>
-      <c r="BJ43">
+      <c r="BL43">
         <v>5.94677590012512</v>
       </c>
-      <c r="BK43">
+      <c r="BM43">
         <v>4.328236854094916</v>
       </c>
-      <c r="BL43">
+      <c r="BN43">
         <v>3.497620649781288</v>
       </c>
-      <c r="BM43">
+      <c r="BO43">
         <v>1.491361693834273</v>
       </c>
-      <c r="BN43">
+      <c r="BP43">
         <v>4.258852700642303</v>
       </c>
-      <c r="BO43">
+      <c r="BQ43">
         <v>3.49748253736737</v>
       </c>
-      <c r="BP43">
+      <c r="BR43">
         <v>1.880813592280791</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:72">
       <c r="A44" s="1">
         <v>1368</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>14441</v>
@@ -9033,10 +9096,10 @@
         <v>6829174</v>
       </c>
       <c r="N44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9917506970598344</v>
+        <v>0.9898794814507718</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9048,16 +9111,16 @@
         <v>11.7</v>
       </c>
       <c r="S44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T44">
-        <v>139.6031146818594</v>
+        <v>141.8160395730485</v>
       </c>
       <c r="U44">
         <v>20200508</v>
       </c>
       <c r="V44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W44">
         <v>14441</v>
@@ -9075,16 +9138,16 @@
         <v>7011</v>
       </c>
       <c r="AG44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK44">
         <v>241</v>
@@ -9095,33 +9158,27 @@
       <c r="AP44">
         <v>14441</v>
       </c>
-      <c r="AQ44">
+      <c r="AS44">
         <v>345</v>
       </c>
-      <c r="AR44">
+      <c r="AT44">
         <v>6905</v>
       </c>
-      <c r="AS44">
+      <c r="AU44">
         <v>243578</v>
       </c>
-      <c r="AT44">
+      <c r="AV44">
         <v>243578</v>
       </c>
-      <c r="AU44">
+      <c r="AW44">
         <v>7250</v>
       </c>
-      <c r="AV44">
+      <c r="AX44">
         <v>4</v>
       </c>
-      <c r="AW44">
+      <c r="AY44">
         <v>33</v>
       </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
       <c r="AZ44">
         <v>0</v>
       </c>
@@ -9131,55 +9188,61 @@
       <c r="BB44">
         <v>0</v>
       </c>
-      <c r="BD44" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE44">
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG44">
         <v>2613.26883423807</v>
       </c>
-      <c r="BF44">
+      <c r="BH44">
         <v>0.002114604196642229</v>
       </c>
-      <c r="BG44">
+      <c r="BI44">
         <v>0.03355266683789284</v>
       </c>
-      <c r="BH44">
+      <c r="BJ44">
         <v>5.93</v>
       </c>
-      <c r="BI44">
+      <c r="BK44">
         <v>0.03566727103453507</v>
       </c>
-      <c r="BJ44">
+      <c r="BL44">
         <v>6.834368178215133</v>
       </c>
-      <c r="BK44">
+      <c r="BM44">
         <v>5.386638060192078</v>
       </c>
-      <c r="BL44">
+      <c r="BN44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BM44">
+      <c r="BO44">
         <v>2.383815365980431</v>
       </c>
-      <c r="BN44">
+      <c r="BP44">
         <v>5.360095222748518</v>
       </c>
-      <c r="BO44">
+      <c r="BQ44">
         <v>4.159597267987408</v>
       </c>
-      <c r="BP44">
+      <c r="BR44">
         <v>2.740362689494244</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:72">
       <c r="A45" s="1">
         <v>1369</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>37246</v>
@@ -9206,10 +9269,10 @@
         <v>28995881</v>
       </c>
       <c r="N45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9652857079017381</v>
+        <v>0.9611300912103541</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9221,16 +9284,16 @@
         <v>13.4</v>
       </c>
       <c r="S45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="T45">
-        <v>74.65409280834012</v>
+        <v>76.53502902179812</v>
       </c>
       <c r="U45">
         <v>20200508</v>
       </c>
       <c r="V45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="W45">
         <v>36609</v>
@@ -9245,16 +9308,16 @@
         <v>19197</v>
       </c>
       <c r="AG45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AI45" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ45" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AK45">
         <v>1004</v>
@@ -9262,30 +9325,24 @@
       <c r="AP45">
         <v>36609</v>
       </c>
-      <c r="AQ45">
+      <c r="AS45">
         <v>1219</v>
       </c>
-      <c r="AR45">
+      <c r="AT45">
         <v>20737</v>
       </c>
-      <c r="AS45">
+      <c r="AU45">
         <v>477118</v>
       </c>
-      <c r="AT45">
+      <c r="AV45">
         <v>477118</v>
       </c>
-      <c r="AU45">
+      <c r="AW45">
         <v>21956</v>
       </c>
-      <c r="AV45">
+      <c r="AX45">
         <v>31</v>
       </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
       <c r="AY45">
         <v>0</v>
       </c>
@@ -9298,55 +9355,61 @@
       <c r="BB45">
         <v>0</v>
       </c>
-      <c r="BD45" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE45">
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG45">
         <v>5384.782354004663</v>
       </c>
-      <c r="BF45">
+      <c r="BH45">
         <v>0.001262558637207816</v>
       </c>
-      <c r="BG45">
+      <c r="BI45">
         <v>0.01519212332261951</v>
       </c>
-      <c r="BH45">
+      <c r="BJ45">
         <v>7.67</v>
       </c>
-      <c r="BI45">
+      <c r="BK45">
         <v>0.01645468195982733</v>
       </c>
-      <c r="BJ45">
+      <c r="BL45">
         <v>7.462336308725756</v>
       </c>
-      <c r="BK45">
+      <c r="BM45">
         <v>5.678625801285844</v>
       </c>
-      <c r="BL45">
+      <c r="BN45">
         <v>4.571079638931142</v>
       </c>
-      <c r="BM45">
+      <c r="BO45">
         <v>3.010723865391773</v>
       </c>
-      <c r="BN45">
+      <c r="BP45">
         <v>5.643954785870446</v>
       </c>
-      <c r="BO45">
+      <c r="BQ45">
         <v>4.563587865991245</v>
       </c>
-      <c r="BP45">
+      <c r="BR45">
         <v>3.239049093140192</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:72">
       <c r="A46" s="1">
         <v>1370</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D46">
         <v>5919</v>
@@ -9379,10 +9442,10 @@
         <v>3205958</v>
       </c>
       <c r="N46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O46">
-        <v>0.988869040360624</v>
+        <v>0.9888467577126705</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9394,16 +9457,16 @@
         <v>7.8</v>
       </c>
       <c r="S46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T46">
-        <v>110.6638639462895</v>
+        <v>111.94472934076</v>
       </c>
       <c r="U46">
         <v>20200508</v>
       </c>
       <c r="V46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W46">
         <v>5919</v>
@@ -9427,16 +9490,16 @@
         <v>2769</v>
       </c>
       <c r="AG46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AI46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AJ46" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AK46">
         <v>61</v>
@@ -9447,33 +9510,27 @@
       <c r="AP46">
         <v>5919</v>
       </c>
-      <c r="AQ46">
+      <c r="AS46">
         <v>195</v>
       </c>
-      <c r="AR46">
+      <c r="AT46">
         <v>3950</v>
       </c>
-      <c r="AS46">
+      <c r="AU46">
         <v>138688</v>
       </c>
-      <c r="AT46">
+      <c r="AV46">
         <v>138688</v>
       </c>
-      <c r="AU46">
+      <c r="AW46">
         <v>4145</v>
       </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
         <v>12</v>
       </c>
-      <c r="AX46">
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
       <c r="AZ46">
         <v>0</v>
       </c>
@@ -9483,55 +9540,61 @@
       <c r="BB46">
         <v>0</v>
       </c>
-      <c r="BD46" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE46">
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG46">
         <v>1790.518919196332</v>
       </c>
-      <c r="BF46">
+      <c r="BH46">
         <v>0.001846250013256568</v>
       </c>
-      <c r="BG46">
+      <c r="BI46">
         <v>0.04141320628654524</v>
       </c>
-      <c r="BH46">
+      <c r="BJ46">
         <v>4.27</v>
       </c>
-      <c r="BI46">
+      <c r="BK46">
         <v>0.0432594562998018</v>
       </c>
-      <c r="BJ46">
+      <c r="BL46">
         <v>6.505957828533497</v>
       </c>
-      <c r="BK46">
+      <c r="BM46">
         <v>5.142038885303705</v>
       </c>
-      <c r="BL46">
+      <c r="BN46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BM46">
+      <c r="BO46">
         <v>1.785329835010767</v>
       </c>
-      <c r="BN46">
+      <c r="BP46">
         <v>5.123096684214545</v>
       </c>
-      <c r="BO46">
+      <c r="BQ46">
         <v>3.772248339971854</v>
       </c>
-      <c r="BP46">
+      <c r="BR46">
         <v>2.334453751150931</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:72">
       <c r="A47" s="1">
         <v>1371</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>919</v>
@@ -9558,10 +9621,10 @@
         <v>623989</v>
       </c>
       <c r="N47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9540768748873626</v>
+        <v>0.9538295887435732</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9573,16 +9636,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T47">
-        <v>119.442742423732</v>
+        <v>120.5062817841942</v>
       </c>
       <c r="U47">
         <v>20200508</v>
       </c>
       <c r="V47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="W47">
         <v>918</v>
@@ -9597,16 +9660,16 @@
         <v>737</v>
       </c>
       <c r="AG47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH47" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI47" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK47">
         <v>53</v>
@@ -9614,27 +9677,21 @@
       <c r="AP47">
         <v>919</v>
       </c>
-      <c r="AQ47">
+      <c r="AS47">
         <v>2</v>
       </c>
-      <c r="AR47">
+      <c r="AT47">
         <v>532</v>
       </c>
-      <c r="AS47">
+      <c r="AU47">
         <v>18140</v>
       </c>
-      <c r="AT47">
+      <c r="AV47">
         <v>18140</v>
       </c>
-      <c r="AU47">
+      <c r="AW47">
         <v>534</v>
       </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
       <c r="AX47">
         <v>0</v>
       </c>
@@ -9650,55 +9707,61 @@
       <c r="BB47">
         <v>0</v>
       </c>
-      <c r="BD47" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE47">
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG47">
         <v>789.9297437114266</v>
       </c>
-      <c r="BF47">
+      <c r="BH47">
         <v>0.001471179780412796</v>
       </c>
-      <c r="BG47">
+      <c r="BI47">
         <v>0.02759984551009713</v>
       </c>
-      <c r="BH47">
+      <c r="BJ47">
         <v>5.06</v>
       </c>
-      <c r="BI47">
+      <c r="BK47">
         <v>0.03046207545325318</v>
       </c>
-      <c r="BJ47">
+      <c r="BL47">
         <v>5.795176933782731</v>
       </c>
-      <c r="BK47">
+      <c r="BM47">
         <v>4.2789364233011</v>
       </c>
-      <c r="BL47">
+      <c r="BN47">
         <v>2.963315511386111</v>
       </c>
-      <c r="BM47">
+      <c r="BO47">
         <v>1.724275869600789</v>
       </c>
-      <c r="BN47">
+      <c r="BP47">
         <v>4.236083584895046</v>
       </c>
-      <c r="BO47">
+      <c r="BQ47">
         <v>2.962842681201242</v>
       </c>
-      <c r="BP47">
+      <c r="BR47">
         <v>1.176091259055681</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:72">
       <c r="A48" s="1">
         <v>1372</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D48">
         <v>22342</v>
@@ -9731,10 +9794,10 @@
         <v>8535519</v>
       </c>
       <c r="N48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9838640818694706</v>
+        <v>0.983397256830179</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9746,16 +9809,16 @@
         <v>10.1</v>
       </c>
       <c r="S48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T48">
-        <v>95.84259985291321</v>
+        <v>97.12535493563043</v>
       </c>
       <c r="U48">
         <v>20200508</v>
       </c>
       <c r="V48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="W48">
         <v>22342</v>
@@ -9782,16 +9845,16 @@
         <v>2997</v>
       </c>
       <c r="AG48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AI48" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AJ48" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK48">
         <v>812</v>
@@ -9806,32 +9869,32 @@
         <v>21274</v>
       </c>
       <c r="AQ48">
+        <v>787</v>
+      </c>
+      <c r="AR48">
+        <v>25</v>
+      </c>
+      <c r="AS48">
         <v>772</v>
       </c>
-      <c r="AR48">
+      <c r="AT48">
         <v>6021</v>
       </c>
-      <c r="AS48">
+      <c r="AU48">
         <v>130494</v>
       </c>
-      <c r="AT48">
+      <c r="AV48">
         <v>129945</v>
       </c>
-      <c r="AU48">
+      <c r="AW48">
         <v>6793</v>
       </c>
-      <c r="AV48">
+      <c r="AX48">
         <v>43</v>
       </c>
-      <c r="AW48">
+      <c r="AY48">
         <v>184</v>
       </c>
-      <c r="AX48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
       <c r="AZ48">
         <v>0</v>
       </c>
@@ -9841,61 +9904,67 @@
       <c r="BB48">
         <v>0</v>
       </c>
-      <c r="BD48" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE48">
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG48">
         <v>2921.561055326416</v>
       </c>
-      <c r="BF48">
+      <c r="BH48">
         <v>0.002617532688990558</v>
       </c>
-      <c r="BG48">
+      <c r="BI48">
         <v>0.01260649762480758</v>
       </c>
-      <c r="BH48">
+      <c r="BJ48">
         <v>17.19</v>
       </c>
-      <c r="BI48">
+      <c r="BK48">
         <v>0.01522403031379814</v>
       </c>
-      <c r="BJ48">
+      <c r="BL48">
         <v>6.931229933415991</v>
       </c>
-      <c r="BK48">
+      <c r="BM48">
         <v>5.113759573454686</v>
       </c>
-      <c r="BL48">
+      <c r="BN48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BM48">
+      <c r="BO48">
         <v>2.909556029241176</v>
       </c>
-      <c r="BN48">
+      <c r="BP48">
         <v>5.031824379743782</v>
       </c>
-      <c r="BO48">
+      <c r="BQ48">
         <v>4.349122047476354</v>
       </c>
-      <c r="BP48">
+      <c r="BR48">
         <v>3.210853365314893</v>
       </c>
-      <c r="BQ48">
+      <c r="BS48">
         <v>2.577491799837226</v>
       </c>
-      <c r="BR48">
+      <c r="BT48">
         <v>2.298853076409707</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:72">
       <c r="A49" s="1">
         <v>1373</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>16388</v>
@@ -9919,10 +9988,10 @@
         <v>7614893</v>
       </c>
       <c r="N49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9887925634513003</v>
+        <v>0.9878779188486753</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -9934,16 +10003,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="T49">
-        <v>74.60624439012902</v>
+        <v>75.69651592704992</v>
       </c>
       <c r="U49">
         <v>20200508</v>
       </c>
       <c r="V49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="W49">
         <v>18124</v>
@@ -9958,16 +10027,16 @@
         <v>122</v>
       </c>
       <c r="AG49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AH49" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI49" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ49" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK49">
         <v>891</v>
@@ -9975,30 +10044,24 @@
       <c r="AP49">
         <v>17519</v>
       </c>
-      <c r="AQ49">
+      <c r="AS49">
         <v>210</v>
       </c>
-      <c r="AR49">
+      <c r="AT49">
         <v>4965</v>
       </c>
-      <c r="AS49">
+      <c r="AU49">
         <v>239542</v>
       </c>
-      <c r="AT49">
+      <c r="AV49">
         <v>239542</v>
       </c>
-      <c r="AU49">
+      <c r="AW49">
         <v>5175</v>
       </c>
-      <c r="AV49">
+      <c r="AX49">
         <v>21</v>
       </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
       <c r="AY49">
         <v>0</v>
       </c>
@@ -10011,58 +10074,64 @@
       <c r="BB49">
         <v>0</v>
       </c>
-      <c r="BD49" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE49">
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG49">
         <v>2759.50955787437</v>
       </c>
-      <c r="BF49">
+      <c r="BH49">
         <v>0.002380072838843566</v>
       </c>
-      <c r="BG49">
+      <c r="BI49">
         <v>0.0290769679889133</v>
       </c>
-      <c r="BH49">
+      <c r="BJ49">
         <v>7.57</v>
       </c>
-      <c r="BI49">
+      <c r="BK49">
         <v>0.0302932687301056</v>
       </c>
-      <c r="BJ49">
+      <c r="BL49">
         <v>6.881663805264177</v>
       </c>
-      <c r="BK49">
+      <c r="BM49">
         <v>5.363009942738859</v>
       </c>
-      <c r="BL49">
+      <c r="BN49">
         <v>4.214525955281105</v>
       </c>
-      <c r="BM49">
+      <c r="BO49">
         <v>2.956648579205203</v>
       </c>
-      <c r="BN49">
+      <c r="BP49">
         <v>5.345212923601941</v>
       </c>
-      <c r="BO49">
+      <c r="BQ49">
         <v>4.258254053507148</v>
       </c>
-      <c r="BP49">
+      <c r="BR49">
         <v>2.594392550375427</v>
       </c>
-      <c r="BQ49">
+      <c r="BS49">
         <v>2.086359830674748</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:72">
       <c r="A50" s="1">
         <v>1374</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D50">
         <v>1323</v>
@@ -10089,10 +10158,10 @@
         <v>1792147</v>
       </c>
       <c r="N50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9931039873146109</v>
+        <v>0.9902098587462624</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10104,16 +10173,16 @@
         <v>16.5</v>
       </c>
       <c r="S50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="T50">
-        <v>101.7644214956402</v>
+        <v>102.9978034920374</v>
       </c>
       <c r="U50">
         <v>20200508</v>
       </c>
       <c r="V50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W50">
         <v>1310</v>
@@ -10134,16 +10203,16 @@
         <v>761</v>
       </c>
       <c r="AG50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AJ50" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK50">
         <v>51</v>
@@ -10151,27 +10220,21 @@
       <c r="AP50">
         <v>1310</v>
       </c>
-      <c r="AQ50">
+      <c r="AS50">
         <v>23</v>
       </c>
-      <c r="AR50">
+      <c r="AT50">
         <v>1892</v>
       </c>
-      <c r="AS50">
+      <c r="AU50">
         <v>59436</v>
       </c>
-      <c r="AT50">
+      <c r="AV50">
         <v>59436</v>
       </c>
-      <c r="AU50">
+      <c r="AW50">
         <v>1915</v>
       </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>0</v>
-      </c>
       <c r="AX50">
         <v>0</v>
       </c>
@@ -10187,61 +10250,67 @@
       <c r="BB50">
         <v>0</v>
       </c>
-      <c r="BD50" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE50">
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG50">
         <v>1338.71094714281</v>
       </c>
-      <c r="BF50">
+      <c r="BH50">
         <v>0.0007309668235920379</v>
       </c>
-      <c r="BG50">
+      <c r="BI50">
         <v>0.0324337233497029</v>
       </c>
-      <c r="BH50">
+      <c r="BJ50">
         <v>2.2</v>
       </c>
-      <c r="BI50">
+      <c r="BK50">
         <v>0.03316469017329494</v>
       </c>
-      <c r="BJ50">
+      <c r="BL50">
         <v>6.253373629584194</v>
       </c>
-      <c r="BK50">
+      <c r="BM50">
         <v>4.774049574030081</v>
       </c>
-      <c r="BL50">
+      <c r="BN50">
         <v>3.121559844187501</v>
       </c>
-      <c r="BM50">
+      <c r="BO50">
         <v>1.716003343634799</v>
       </c>
-      <c r="BN50">
+      <c r="BP50">
         <v>4.76437043756676</v>
       </c>
-      <c r="BO50">
+      <c r="BQ50">
         <v>3.117271295655764</v>
       </c>
-      <c r="BP50">
+      <c r="BR50">
         <v>1.812913356642855</v>
       </c>
-      <c r="BQ50">
+      <c r="BS50">
         <v>1.278753600952829</v>
       </c>
-      <c r="BR50">
+      <c r="BT50">
         <v>1.041392685158225</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:72">
       <c r="A51" s="1">
         <v>1375</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D51">
         <v>9590</v>
@@ -10274,10 +10343,10 @@
         <v>5822434</v>
       </c>
       <c r="N51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9961559126149816</v>
+        <v>0.9964283963526165</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10289,16 +10358,16 @@
         <v>8.9</v>
       </c>
       <c r="S51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T51">
-        <v>125.0286670346898</v>
+        <v>126.5350632607231</v>
       </c>
       <c r="U51">
         <v>20200508</v>
       </c>
       <c r="V51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="W51">
         <v>11030</v>
@@ -10325,16 +10394,16 @@
         <v>4694</v>
       </c>
       <c r="AG51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AH51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AI51" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AJ51" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AK51">
         <v>384</v>
@@ -10345,33 +10414,27 @@
       <c r="AP51">
         <v>9590</v>
       </c>
-      <c r="AQ51">
+      <c r="AS51">
         <v>409</v>
       </c>
-      <c r="AR51">
+      <c r="AT51">
         <v>4230</v>
       </c>
-      <c r="AS51">
+      <c r="AU51">
         <v>108499</v>
       </c>
-      <c r="AT51">
+      <c r="AV51">
         <v>108295</v>
       </c>
-      <c r="AU51">
+      <c r="AW51">
         <v>4639</v>
       </c>
-      <c r="AV51">
+      <c r="AX51">
         <v>10</v>
       </c>
-      <c r="AW51">
+      <c r="AY51">
         <v>35</v>
       </c>
-      <c r="AX51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
       <c r="AZ51">
         <v>0</v>
       </c>
@@ -10381,58 +10444,64 @@
       <c r="BB51">
         <v>0</v>
       </c>
-      <c r="BD51" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE51">
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG51">
         <v>2412.972026360853</v>
       </c>
-      <c r="BF51">
+      <c r="BH51">
         <v>0.001894396741981103</v>
       </c>
-      <c r="BG51">
+      <c r="BI51">
         <v>0.01670521297450516</v>
       </c>
-      <c r="BH51">
+      <c r="BJ51">
         <v>10.19</v>
       </c>
-      <c r="BI51">
+      <c r="BK51">
         <v>0.01835229046821312</v>
       </c>
-      <c r="BJ51">
+      <c r="BL51">
         <v>6.765104574304484</v>
       </c>
-      <c r="BK51">
+      <c r="BM51">
         <v>5.028794848648937</v>
       </c>
-      <c r="BL51">
+      <c r="BN51">
         <v>3.981818607170664</v>
       </c>
-      <c r="BM51">
+      <c r="BO51">
         <v>2.584331224367531</v>
       </c>
-      <c r="BN51">
+      <c r="BP51">
         <v>4.987956591127648</v>
       </c>
-      <c r="BO51">
+      <c r="BQ51">
         <v>4.042575512440191</v>
       </c>
-      <c r="BP51">
+      <c r="BR51">
         <v>2.741939077729199</v>
       </c>
-      <c r="BQ51">
+      <c r="BS51">
         <v>2.041392685158225</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:72">
       <c r="A52" s="1">
         <v>1376</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D52">
         <v>644</v>
@@ -10465,10 +10534,10 @@
         <v>578759</v>
       </c>
       <c r="N52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9869899406722377</v>
+        <v>0.986217641794508</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10480,16 +10549,16 @@
         <v>11.2</v>
       </c>
       <c r="S52" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T52">
-        <v>66.31089221343848</v>
+        <v>66.20380153368451</v>
       </c>
       <c r="U52">
         <v>20200508</v>
       </c>
       <c r="V52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W52">
         <v>635</v>
@@ -10507,16 +10576,16 @@
         <v>428</v>
       </c>
       <c r="AG52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AH52" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AI52" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AJ52" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AK52">
         <v>7</v>
@@ -10530,33 +10599,27 @@
       <c r="AP52">
         <v>483</v>
       </c>
-      <c r="AQ52">
+      <c r="AS52">
         <v>4</v>
       </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
         <v>12038</v>
       </c>
-      <c r="AT52">
+      <c r="AV52">
         <v>12038</v>
       </c>
-      <c r="AU52">
+      <c r="AW52">
         <v>4</v>
       </c>
-      <c r="AV52">
-        <v>0</v>
-      </c>
-      <c r="AW52">
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
         <v>1</v>
       </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
       <c r="AZ52">
         <v>0</v>
       </c>
@@ -10566,43 +10629,49 @@
       <c r="BB52">
         <v>0</v>
       </c>
-      <c r="BD52" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE52">
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG52">
         <v>760.7621178791699</v>
       </c>
-      <c r="BF52">
+      <c r="BH52">
         <v>0.001097175162718852</v>
       </c>
-      <c r="BG52">
+      <c r="BI52">
         <v>0.01970250138658751</v>
       </c>
-      <c r="BH52">
+      <c r="BJ52">
         <v>5.27</v>
       </c>
-      <c r="BI52">
+      <c r="BK52">
         <v>0.02079967654930636</v>
       </c>
-      <c r="BJ52">
+      <c r="BL52">
         <v>5.762497757580992</v>
       </c>
-      <c r="BK52">
+      <c r="BM52">
         <v>4.080554338988772</v>
       </c>
-      <c r="BL52">
+      <c r="BN52">
         <v>2.808885867359812</v>
       </c>
-      <c r="BM52">
+      <c r="BO52">
         <v>0.8450980400142568</v>
       </c>
-      <c r="BN52">
+      <c r="BP52">
         <v>4.057019124322766</v>
       </c>
-      <c r="BO52">
+      <c r="BQ52">
         <v>2.802773725291976</v>
       </c>
-      <c r="BP52">
+      <c r="BR52">
         <v>0.9542425094393249</v>
       </c>
     </row>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9922872011537465</v>
+        <v>0.9917040674105678</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>101.0334799665265</v>
+        <v>101.625583951117</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.933262781916067</v>
+        <v>0.9327422760051993</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>182.6729459712783</v>
+        <v>184.9003901554574</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9381703963503741</v>
+        <v>0.9390743308442895</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>91.05192705826343</v>
+        <v>92.24068411316235</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9798125813504194</v>
+        <v>0.9803778552233229</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>124.3718735806534</v>
+        <v>125.7469670719102</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9908372875699147</v>
+        <v>0.9897700851250645</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>134.8330729825287</v>
+        <v>136.2656439385718</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9881010610181354</v>
+        <v>0.9883300849733784</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>67.46687011070509</v>
+        <v>67.80326068979319</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9739486379134754</v>
+        <v>0.9741288719531872</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>160.0676624740611</v>
+        <v>161.1298493786164</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9739915017301423</v>
+        <v>0.9744164343776871</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>140.1165544042933</v>
+        <v>141.0331050482089</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9740213132839652</v>
+        <v>0.9739897910823604</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>159.6509280123492</v>
+        <v>161.4376817608613</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9056189234688359</v>
+        <v>0.904188466794269</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>110.3784750757618</v>
+        <v>111.4522175747452</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9835638086872778</v>
+        <v>0.9822389039349619</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>99.13399804110374</v>
+        <v>99.900395381236</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.906180945709481</v>
+        <v>0.9031429617739292</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>52.28370602076458</v>
+        <v>52.66350688888208</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8931292271614554</v>
+        <v>0.8883444798700428</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>53.84517071626215</v>
+        <v>54.77478668265677</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9696514597260955</v>
+        <v>0.9697590169887428</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>160.270455827901</v>
+        <v>161.1633582489813</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9886825699764904</v>
+        <v>0.9888452428764321</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>86.78979158513341</v>
+        <v>87.15485528580224</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9846122116569519</v>
+        <v>0.9849934681315242</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>121.3082049694173</v>
+        <v>122.0661438768435</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9808425917695228</v>
+        <v>0.9811995694859632</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>74.71889108123231</v>
+        <v>75.18906377143112</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9961860968780483</v>
+        <v>0.9962913547511227</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.2270893000515</v>
+        <v>105.547883491073</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9746119727912953</v>
+        <v>0.9733320302551723</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>179.828874902338</v>
+        <v>181.8842364652052</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9960299519408827</v>
+        <v>0.9959486522681328</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>84.32112736661877</v>
+        <v>85.2111303036357</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9772082451651545</v>
+        <v>0.9770293191273032</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>109.4780018931502</v>
+        <v>109.8906760647614</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9705570418864128</v>
+        <v>0.9707086982207874</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.9853523861968</v>
+        <v>136.7804643551931</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9908815847260236</v>
+        <v>0.9909960680000928</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>128.0399878954894</v>
+        <v>128.7841805466591</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9753128287414995</v>
+        <v>0.9753301515325077</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>137.8979280604234</v>
+        <v>139.0214369835307</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9949666543211282</v>
+        <v>0.9947401157358365</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>115.866442656183</v>
+        <v>116.2053949383516</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9923869888905024</v>
+        <v>0.9916871457350003</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>72.67811269419943</v>
+        <v>73.4060718355382</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8424293067504275</v>
+        <v>0.8382136981608586</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>98.29562765942451</v>
+        <v>99.58828243284833</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9666090622709761</v>
+        <v>0.9665736504500924</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.0657715047524</v>
+        <v>115.2981153139099</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9557004810623834</v>
+        <v>0.9545527594147224</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>117.107572878222</v>
+        <v>117.8816951008215</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9806099856501166</v>
+        <v>0.9803480044580227</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4633726876769</v>
+        <v>110.4119221717863</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9791758599007379</v>
+        <v>0.979354576379587</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>203.3886130156428</v>
+        <v>203.9631489091815</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9943512412707249</v>
+        <v>0.9945365462009536</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>192.6566644840833</v>
+        <v>193.5832827279112</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9830939223304581</v>
+        <v>0.983031859093339</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>229.8814239069285</v>
+        <v>231.3344297698374</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957824073753844</v>
+        <v>0.9958396123944544</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>111.7149773455508</v>
+        <v>112.9532342676121</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9836351191667688</v>
+        <v>0.9840269835226226</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1008748399868</v>
+        <v>155.1174280755132</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9921543638993761</v>
+        <v>0.9922509412996796</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>82.57395931222324</v>
+        <v>83.21142996158585</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9683601527625411</v>
+        <v>0.9667732954776798</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>105.7851231683996</v>
+        <v>106.5065782879501</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9726222284193844</v>
+        <v>0.9721006217219484</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>64.63137399165271</v>
+        <v>65.22533610398789</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9834423988064853</v>
+        <v>0.9837148841052705</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>65.57657771043858</v>
+        <v>65.98998933933456</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9610498560826908</v>
+        <v>0.9612244814489317</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>264.5003283000372</v>
+        <v>257.6804996349465</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9415121332220663</v>
+        <v>0.9417821428050551</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>92.79199838793093</v>
+        <v>93.75861752589293</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9843066746230184</v>
+        <v>0.9845179368770223</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.6841859275612</v>
+        <v>106.7873043901217</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9898794814507718</v>
+        <v>0.9887442017423408</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>141.8160395730485</v>
+        <v>143.0555718771016</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9611300912103541</v>
+        <v>0.9587018351617113</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>76.53502902179812</v>
+        <v>77.48647609636956</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9888467577126705</v>
+        <v>0.988839283255307</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>111.94472934076</v>
+        <v>112.5003326308167</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9538295887435732</v>
+        <v>0.9536329769061294</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>120.5062817841942</v>
+        <v>121.0085372758898</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.983397256830179</v>
+        <v>0.9832156842529307</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>97.12535493563043</v>
+        <v>97.77358547881433</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9878779188486753</v>
+        <v>0.9874731370616806</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>75.69651592704992</v>
+        <v>76.22802869010624</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9902098587462624</v>
+        <v>0.9881265291066196</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>102.9978034920374</v>
+        <v>103.6598088496494</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9964283963526165</v>
+        <v>0.9965552551568633</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>126.5350632607231</v>
+        <v>127.3114373474932</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.986217641794508</v>
+        <v>0.9859329050459731</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.20380153368451</v>
+        <v>66.24204717811676</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9917040674105678</v>
+        <v>0.9911491193615847</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>101.625583951117</v>
+        <v>102.4290369269157</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9327422760051993</v>
+        <v>0.9318510918355718</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>184.9003901554574</v>
+        <v>187.4667364336968</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9390743308442895</v>
+        <v>0.9399914227647393</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>92.24068411316235</v>
+        <v>93.44690615018715</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9803778552233229</v>
+        <v>0.9808831245847981</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>125.7469670719102</v>
+        <v>126.958511374544</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9897700851250645</v>
+        <v>0.9887705815478895</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>136.2656439385718</v>
+        <v>137.6853914852636</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9883300849733784</v>
+        <v>0.9885679984700241</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>67.80326068979319</v>
+        <v>68.14994675897407</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9741288719531872</v>
+        <v>0.9743142653953044</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>161.1298493786164</v>
+        <v>162.2633964819977</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9744164343776871</v>
+        <v>0.9748504458806888</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>141.0331050482089</v>
+        <v>141.9748847681763</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9739897910823604</v>
+        <v>0.9740051811766015</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>161.4376817608613</v>
+        <v>163.5046423703626</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.904188466794269</v>
+        <v>0.9028190223913258</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>111.4522175747452</v>
+        <v>112.5933841739964</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9822389039349619</v>
+        <v>0.9805277416258338</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>99.900395381236</v>
+        <v>100.7294244201831</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9031429617739292</v>
+        <v>0.9001898672137933</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>52.66350688888208</v>
+        <v>53.05462659088585</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8883444798700428</v>
+        <v>0.8839001212884222</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>54.77478668265677</v>
+        <v>55.74542171694245</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9697590169887428</v>
+        <v>0.9699223448383156</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>161.1633582489813</v>
+        <v>162.0707405213191</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9888452428764321</v>
+        <v>0.9890412495126663</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>87.15485528580224</v>
+        <v>87.52226080866463</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9849934681315242</v>
+        <v>0.9854388343055017</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>122.0661438768435</v>
+        <v>122.8614533219275</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9811995694859632</v>
+        <v>0.9814326210920743</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>75.18906377143112</v>
+        <v>75.80728530974223</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9962913547511227</v>
+        <v>0.9963639248692077</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.547883491073</v>
+        <v>105.9127208107678</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9733320302551723</v>
+        <v>0.9716423874960286</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>181.8842364652052</v>
+        <v>184.0680124240246</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9959486522681328</v>
+        <v>0.9958396166886138</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>85.2111303036357</v>
+        <v>86.12499503154405</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9770293191273032</v>
+        <v>0.9768857401975164</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>109.8906760647614</v>
+        <v>110.2987200897606</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9707086982207874</v>
+        <v>0.9708710956975264</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.7804643551931</v>
+        <v>136.6253650143953</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9909960680000928</v>
+        <v>0.9910977904996594</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>128.7841805466591</v>
+        <v>129.5560718620892</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9753301515325077</v>
+        <v>0.9754308523220658</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>139.0214369835307</v>
+        <v>140.2346499532906</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9947401157358365</v>
+        <v>0.9943981562098905</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>116.2053949383516</v>
+        <v>116.5726983055777</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9916871457350003</v>
+        <v>0.9909245528064095</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>73.4060718355382</v>
+        <v>74.0327896322509</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8382136981608586</v>
+        <v>0.8317867359148078</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>99.58828243284833</v>
+        <v>100.9576420456311</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9665736504500924</v>
+        <v>0.9665607594961119</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.2981153139099</v>
+        <v>115.5512378556366</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9545527594147224</v>
+        <v>0.9532455096619601</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>117.8816951008215</v>
+        <v>118.6548642433871</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9803480044580227</v>
+        <v>0.9800984171393919</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.4119221717863</v>
+        <v>110.3596084806462</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979354576379587</v>
+        <v>0.979525942757651</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>203.9631489091815</v>
+        <v>204.5466158219489</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9945365462009536</v>
+        <v>0.9947033971079234</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>193.5832827279112</v>
+        <v>194.524073957935</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.983031859093339</v>
+        <v>0.9829522737893104</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>231.3344297698374</v>
+        <v>232.8002334727269</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958396123944544</v>
+        <v>0.9958356429320963</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>112.9532342676121</v>
+        <v>114.2291826016448</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9840269835226226</v>
+        <v>0.9844528885391468</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1174280755132</v>
+        <v>155.1872089837346</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9922509412996796</v>
+        <v>0.9922719631244443</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>83.21142996158585</v>
+        <v>84.01681970436216</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9667732954776798</v>
+        <v>0.9653080375959909</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>106.5065782879501</v>
+        <v>107.2755188367393</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9721006217219484</v>
+        <v>0.9717028455023975</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>65.22533610398789</v>
+        <v>65.81433679048301</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9837148841052705</v>
+        <v>0.983984330366122</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>65.98998933933456</v>
+        <v>66.43463839743374</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9612244814489317</v>
+        <v>0.9614267828768353</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>257.6804996349465</v>
+        <v>251.2215341058515</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9417821428050551</v>
+        <v>0.9421723612264415</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>93.75861752589293</v>
+        <v>94.75672849860264</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9845179368770223</v>
+        <v>0.9847344318545681</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.7873043901217</v>
+        <v>106.9074908756879</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9887442017423408</v>
+        <v>0.9874943922728492</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>143.0555718771016</v>
+        <v>144.3439964689888</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9587018351617113</v>
+        <v>0.9566895191412895</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>77.48647609636956</v>
+        <v>78.51259779783763</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.988839283255307</v>
+        <v>0.9887244092016712</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>112.5003326308167</v>
+        <v>113.1027576792</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9536329769061294</v>
+        <v>0.9534601787249605</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>121.0085372758898</v>
+        <v>121.5477747693698</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9832156842529307</v>
+        <v>0.9831258939517691</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>97.77358547881433</v>
+        <v>98.43921507831824</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9874731370616806</v>
+        <v>0.9870908735917924</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>76.22802869010624</v>
+        <v>76.81583291556932</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9881265291066196</v>
+        <v>0.9855884729787662</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>103.6598088496494</v>
+        <v>104.366795069467</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9965552551568633</v>
+        <v>0.9966606073264537</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>127.3114373474932</v>
+        <v>128.1042972610378</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9859329050459731</v>
+        <v>0.9857867807359013</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.24204717811676</v>
+        <v>66.33332001625243</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9911491193615847</v>
+        <v>0.9899771436845602</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>102.4290369269157</v>
+        <v>104.0829197262878</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9318510918355718</v>
+        <v>0.927702960580108</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>187.4667364336968</v>
+        <v>192.1971779877346</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9399914227647393</v>
+        <v>0.9428292312273081</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>93.44690615018715</v>
+        <v>95.83480380403755</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9808831245847981</v>
+        <v>0.9815944787819587</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>126.958511374544</v>
+        <v>129.3781481741924</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9887705815478895</v>
+        <v>0.9872704134309851</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>137.6853914852636</v>
+        <v>140.5517496512687</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9885679984700241</v>
+        <v>0.9890239994479416</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>68.14994675897407</v>
+        <v>68.92142378441244</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9743142653953044</v>
+        <v>0.9746739845176776</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>162.2633964819977</v>
+        <v>163.9769797546873</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9748504458806888</v>
+        <v>0.9756853186626909</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>141.9748847681763</v>
+        <v>143.82126015033</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9740051811766015</v>
+        <v>0.974128776200851</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>163.5046423703626</v>
+        <v>167.8094722489082</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9028190223913258</v>
+        <v>0.9003400112075572</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>112.5933841739964</v>
+        <v>115.0934151022195</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9805277416258338</v>
+        <v>0.9775104021100526</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>100.7294244201831</v>
+        <v>102.3846328928452</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.9001898672137933</v>
+        <v>0.8940961060015254</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>53.05462659088585</v>
+        <v>53.89608321054679</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8839001212884222</v>
+        <v>0.8765222283817578</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>55.74542171694245</v>
+        <v>57.83226167917824</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9699223448383156</v>
+        <v>0.9703444853011537</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>162.0707405213191</v>
+        <v>163.9445250415658</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9890412495126663</v>
+        <v>0.9894864772238342</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>87.52226080866463</v>
+        <v>88.22870119691633</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9854388343055017</v>
+        <v>0.9863172488669257</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>122.8614533219275</v>
+        <v>124.4481648634334</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9814326210920743</v>
+        <v>0.9818585849521698</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>75.80728530974223</v>
+        <v>76.76835029072831</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9963639248692077</v>
+        <v>0.9964279056195373</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>105.9127208107678</v>
+        <v>106.5181533384733</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9716423874960286</v>
+        <v>0.9682416182025682</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>184.0680124240246</v>
+        <v>188.3696263688772</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9958396166886138</v>
+        <v>0.9956006004548781</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>86.12499503154405</v>
+        <v>87.8047652864105</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9768857401975164</v>
+        <v>0.9767562523738416</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>110.2987200897606</v>
+        <v>111.1593721301451</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9708710956975264</v>
+        <v>0.9712317905531966</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.6253650143953</v>
+        <v>136.3279372125248</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9910977904996594</v>
+        <v>0.9912648008834865</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>129.5560718620892</v>
+        <v>131.2172590328491</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9754308523220658</v>
+        <v>0.9759783769021623</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>140.2346499532906</v>
+        <v>142.6997718762127</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9943981562098905</v>
+        <v>0.993693140584388</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>116.5726983055777</v>
+        <v>117.2026341860587</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9909245528064095</v>
+        <v>0.9897162864527025</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>74.0327896322509</v>
+        <v>75.58395236619117</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8317867359148078</v>
+        <v>0.8220401850213437</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>100.9576420456311</v>
+        <v>103.4649318095152</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9665607594961119</v>
+        <v>0.9667034174499261</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>115.5512378556366</v>
+        <v>116.1259220507614</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9532455096619601</v>
+        <v>0.9509129914248801</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>118.6548642433871</v>
+        <v>120.2095429848877</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9800984171393919</v>
+        <v>0.9797237839428586</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.3596084806462</v>
+        <v>110.2180972071856</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979525942757651</v>
+        <v>0.9798440725906139</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>204.5466158219489</v>
+        <v>205.9633120918046</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9947033971079234</v>
+        <v>0.9950084530165824</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>194.524073957935</v>
+        <v>196.5705429897879</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9829522737893104</v>
+        <v>0.9827444390294897</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>232.8002334727269</v>
+        <v>235.6865557250867</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958356429320963</v>
+        <v>0.9958246244793977</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>114.2291826016448</v>
+        <v>116.7946970143547</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9844528885391468</v>
+        <v>0.9853398171990509</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.1872089837346</v>
+        <v>155.3677158878442</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9922719631244443</v>
+        <v>0.9921634092392677</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>84.01681970436216</v>
+        <v>85.71837852377158</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9653080375959909</v>
+        <v>0.9627788126744304</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>107.2755188367393</v>
+        <v>108.7582960500984</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9717028455023975</v>
+        <v>0.9706316348155636</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>65.81433679048301</v>
+        <v>66.98770590869762</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.983984330366122</v>
+        <v>0.9845031261606076</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>66.43463839743374</v>
+        <v>67.31477562284016</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9614267828768353</v>
+        <v>0.9617977261726017</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>251.2215341058515</v>
+        <v>239.0020037476774</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9421723612264415</v>
+        <v>0.94259651449198</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>94.75672849860264</v>
+        <v>96.77256402572809</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9847344318545681</v>
+        <v>0.9851404981755435</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>106.9074908756879</v>
+        <v>107.1481018865907</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9099,7 +9099,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9874943922728492</v>
+        <v>0.9856327137522938</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9114,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>144.3439964689888</v>
+        <v>146.7420551274697</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9272,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9566895191412895</v>
+        <v>0.9533887540851435</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9287,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>78.51259779783763</v>
+        <v>80.54981785858287</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9445,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9887244092016712</v>
+        <v>0.9886137002601231</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9460,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>113.1027576792</v>
+        <v>114.5316479173425</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9624,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9534601787249605</v>
+        <v>0.9530806555583542</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9639,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>121.5477747693698</v>
+        <v>122.5699727079772</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9797,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9831258939517691</v>
+        <v>0.9831281799814016</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9812,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>98.43921507831824</v>
+        <v>99.87053841304345</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9991,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9870908735917924</v>
+        <v>0.986555031500476</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10006,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>76.81583291556932</v>
+        <v>77.86792034269129</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10161,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9855884729787662</v>
+        <v>0.9800047852626813</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10176,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>104.366795069467</v>
+        <v>105.7574487361088</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10346,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9966606073264537</v>
+        <v>0.9967645786872725</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10361,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>128.1042972610378</v>
+        <v>129.6520777550178</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10537,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9857867807359013</v>
+        <v>0.985380590870593</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10552,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.33332001625243</v>
+        <v>66.37458446574175</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9899771436845602</v>
+        <v>0.9892011066523475</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>104.0829197262878</v>
+        <v>104.9046410491977</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.927702960580108</v>
+        <v>0.9250583133684827</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>192.1971779877346</v>
+        <v>194.3456463202258</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9428292312273081</v>
+        <v>0.9448511739538146</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>95.83480380403755</v>
+        <v>96.9343642429762</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9815944787819587</v>
+        <v>0.982069659922296</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>129.3781481741924</v>
+        <v>130.4983550918889</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9872704134309851</v>
+        <v>0.986677926857955</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>140.5517496512687</v>
+        <v>142.0582355118478</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9890239994479416</v>
+        <v>0.9892414699688475</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>68.92142378441244</v>
+        <v>69.3236659579988</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9746739845176776</v>
+        <v>0.9748709044393425</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>163.9769797546873</v>
+        <v>165.1841604194688</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9756853186626909</v>
+        <v>0.9760810295710897</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>143.82126015033</v>
+        <v>144.7629710193291</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.974128776200851</v>
+        <v>0.9742316547579265</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>167.8094722489082</v>
+        <v>170.0488658365212</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9003400112075572</v>
+        <v>0.8990700041939917</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>115.0934151022195</v>
+        <v>116.4737787422121</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9775104021100526</v>
+        <v>0.9761066431108177</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>102.3846328928452</v>
+        <v>103.2476591819089</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8940961060015254</v>
+        <v>0.8917682510584893</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>53.89608321054679</v>
+        <v>54.32312019042297</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8765222283817578</v>
+        <v>0.874231535753159</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>57.83226167917824</v>
+        <v>58.84576630917596</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9703444853011537</v>
+        <v>0.9705761992873673</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>163.9445250415658</v>
+        <v>164.8922045970973</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9894864772238342</v>
+        <v>0.9897036699422564</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>88.22870119691633</v>
+        <v>88.54984480124072</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9863172488669257</v>
+        <v>0.9867263973848891</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>124.4481648634334</v>
+        <v>125.154741413174</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9818585849521698</v>
+        <v>0.9818794367888106</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>76.76835029072831</v>
+        <v>77.44070623407158</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9964279056195373</v>
+        <v>0.9964716848195062</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>106.5181533384733</v>
+        <v>106.7423502084075</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9682416182025682</v>
+        <v>0.9667697699817749</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>188.3696263688772</v>
+        <v>190.4748223839783</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9956006004548781</v>
+        <v>0.9954690888462856</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>87.8047652864105</v>
+        <v>88.65819029552702</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9767562523738416</v>
+        <v>0.9767368191816618</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>111.1593721301451</v>
+        <v>111.6118450508128</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9712317905531966</v>
+        <v>0.9714240980775445</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.3279372125248</v>
+        <v>136.1944700212107</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9912648008834865</v>
+        <v>0.9913419484860377</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>131.2172590328491</v>
+        <v>132.0290197147672</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9759783769021623</v>
+        <v>0.9762960012639282</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>142.6997718762127</v>
+        <v>143.9180705521435</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.993693140584388</v>
+        <v>0.9935008597371073</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>117.2026341860587</v>
+        <v>117.5669630119486</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9897162864527025</v>
+        <v>0.9893285370879836</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>75.58395236619117</v>
+        <v>76.38477655273969</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8220401850213437</v>
+        <v>0.8188719319482457</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>103.4649318095152</v>
+        <v>104.795390538327</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9667034174499261</v>
+        <v>0.9668505458683174</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>116.1259220507614</v>
+        <v>116.4679510937164</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9509129914248801</v>
+        <v>0.9500810753172005</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>120.2095429848877</v>
+        <v>120.9860307284361</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9797237839428586</v>
+        <v>0.979555941669159</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.2180972071856</v>
+        <v>110.1426017332959</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9798440725906139</v>
+        <v>0.979990474127292</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>205.9633120918046</v>
+        <v>206.6011756251564</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9950084530165824</v>
+        <v>0.9951411583458183</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>196.5705429897879</v>
+        <v>197.661251647616</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9827444390294897</v>
+        <v>0.9826193631222732</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>235.6865557250867</v>
+        <v>237.0440082747486</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958246244793977</v>
+        <v>0.9958210782595049</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>116.7946970143547</v>
+        <v>118.0504160472716</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9853398171990509</v>
+        <v>0.9857675192109338</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.3677158878442</v>
+        <v>155.4886539799825</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9921634092392677</v>
+        <v>0.992061207225574</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>85.71837852377158</v>
+        <v>86.57715916737672</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9627788126744304</v>
+        <v>0.9620209295227357</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>108.7582960500984</v>
+        <v>109.3314170037033</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9706316348155636</v>
+        <v>0.9703010727083716</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>66.98770590869762</v>
+        <v>67.55668884416671</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9845031261606076</v>
+        <v>0.9847518637552953</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>67.31477562284016</v>
+        <v>67.71482384953251</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9617977261726017</v>
+        <v>0.9620565800304408</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>239.0020037476774</v>
+        <v>233.6463426182508</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.94259651449198</v>
+        <v>0.9431750762886785</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>96.77256402572809</v>
+        <v>97.81043575644387</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9851404981755435</v>
+        <v>0.9853061734895349</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.1481018865907</v>
+        <v>107.2454099842117</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -8975,9 +8975,6 @@
       </c>
       <c r="AL43">
         <v>247</v>
-      </c>
-      <c r="AP43">
-        <v>3144</v>
       </c>
       <c r="AS43">
         <v>239</v>
@@ -9099,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9856327137522938</v>
+        <v>0.9842339365205109</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9114,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>146.7420551274697</v>
+        <v>148.0936635751972</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9272,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9533887540851435</v>
+        <v>0.9525042916586497</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9287,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>80.54981785858287</v>
+        <v>81.57639646047086</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9445,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9886137002601231</v>
+        <v>0.9886539644358874</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9460,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>114.5316479173425</v>
+        <v>115.2562312642237</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9624,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9530806555583542</v>
+        <v>0.9528910485446179</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9639,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>122.5699727079772</v>
+        <v>123.0323020741494</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9797,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9831281799814016</v>
+        <v>0.983220509747871</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9812,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>99.87053841304345</v>
+        <v>100.5673000862932</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9991,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.986555031500476</v>
+        <v>0.9864207876271877</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10006,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>77.86792034269129</v>
+        <v>78.42288347952214</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10161,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9800047852626813</v>
+        <v>0.9779338496031906</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10176,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>105.7574487361088</v>
+        <v>106.3855351120344</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10346,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9967645786872725</v>
+        <v>0.9968174673022582</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10361,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>129.6520777550178</v>
+        <v>130.3432116361799</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10537,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.985380590870593</v>
+        <v>0.985207175252735</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10552,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.37458446574175</v>
+        <v>66.32654664518689</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9892011066523475</v>
+        <v>0.9875787590304222</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>104.9046410491977</v>
+        <v>106.6039645849147</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9250583133684827</v>
+        <v>0.9219566999032682</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>194.3456463202258</v>
+        <v>198.9757234931867</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9448511739538146</v>
+        <v>0.9485974352628849</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>96.9343642429762</v>
+        <v>99.21745352610422</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.982069659922296</v>
+        <v>0.9829544343407323</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>130.4983550918889</v>
+        <v>132.7127804185337</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.986677926857955</v>
+        <v>0.9851523740717348</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>142.0582355118478</v>
+        <v>145.1435355153431</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9892414699688475</v>
+        <v>0.9896425396376662</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>69.3236659579988</v>
+        <v>70.10234552740955</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9748709044393425</v>
+        <v>0.9752637976604682</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>165.1841604194688</v>
+        <v>167.3700861152649</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9760810295710897</v>
+        <v>0.9768535643613036</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>144.7629710193291</v>
+        <v>146.6096938082715</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9742316547579265</v>
+        <v>0.9745021317946267</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>170.0488658365212</v>
+        <v>174.8405671578477</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8990700041939917</v>
+        <v>0.8989741326586994</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>116.4737787422121</v>
+        <v>119.1850027920302</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9761066431108177</v>
+        <v>0.9734245468315429</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>103.2476591819089</v>
+        <v>105.0441749435526</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8917682510584893</v>
+        <v>0.8883176951157697</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>54.32312019042297</v>
+        <v>55.14419109292119</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.874231535753159</v>
+        <v>0.8722344551349972</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>58.84576630917596</v>
+        <v>60.93465463282626</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9705761992873673</v>
+        <v>0.9710676262799151</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>164.8922045970973</v>
+        <v>166.7808176133288</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9897036699422564</v>
+        <v>0.9901515586189211</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>88.54984480124072</v>
+        <v>89.19428242244297</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9867263973848891</v>
+        <v>0.987481764274829</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>125.154741413174</v>
+        <v>126.4892217640078</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9818794367888106</v>
+        <v>0.9820624089331217</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>77.44070623407158</v>
+        <v>78.69538918380876</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9964716848195062</v>
+        <v>0.9963506057552564</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>106.7423502084075</v>
+        <v>107.3922222025388</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9667697699817749</v>
+        <v>0.9636692667547657</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>190.4748223839783</v>
+        <v>194.920565708739</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9954690888462856</v>
+        <v>0.9951196820090333</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>88.65819029552702</v>
+        <v>90.30136649226307</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9767368191816618</v>
+        <v>0.9768825448756142</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>111.6118450508128</v>
+        <v>112.6714313539541</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9714240980775445</v>
+        <v>0.9718353762114016</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.1944700212107</v>
+        <v>136.0133368649044</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913419484860377</v>
+        <v>0.9914230261752129</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>132.0290197147672</v>
+        <v>133.735028727129</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9762960012639282</v>
+        <v>0.9769140671049169</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>143.9180705521435</v>
+        <v>146.1983722384601</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9935008597371073</v>
+        <v>0.9930031948765703</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>117.5669630119486</v>
+        <v>118.4425671141076</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9893285370879836</v>
+        <v>0.9879774816914173</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>76.38477655273969</v>
+        <v>78.02522097010431</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8188719319482457</v>
+        <v>0.8120950034218194</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>104.795390538327</v>
+        <v>107.4810957217555</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9668505458683174</v>
+        <v>0.9674184129321265</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>116.4679510937164</v>
+        <v>117.2882403969091</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9500810753172005</v>
+        <v>0.948480117826868</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>120.9860307284361</v>
+        <v>122.5453411676671</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.979555941669159</v>
+        <v>0.9792803765984706</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>110.1426017332959</v>
+        <v>109.9531785984429</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.979990474127292</v>
+        <v>0.9802527907021172</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>206.6011756251564</v>
+        <v>207.8168659508609</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9951411583458183</v>
+        <v>0.9953713433761084</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>197.661251647616</v>
+        <v>199.8047800461329</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9826193631222732</v>
+        <v>0.9823113940966542</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>237.0440082747486</v>
+        <v>239.662087428144</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958210782595049</v>
+        <v>0.9957617920317323</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>118.0504160472716</v>
+        <v>120.713356510988</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9857675192109338</v>
+        <v>0.9865773285241952</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.4886539799825</v>
+        <v>155.7330962855651</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.992061207225574</v>
+        <v>0.9918362428395006</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>86.57715916737672</v>
+        <v>88.28521790059533</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9620209295227357</v>
+        <v>0.9590483939778962</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>109.3314170037033</v>
+        <v>110.9332884469017</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9703010727083716</v>
+        <v>0.969736956051043</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>67.55668884416671</v>
+        <v>68.60424062671397</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9847518637552953</v>
+        <v>0.9852241215616854</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>67.71482384953251</v>
+        <v>68.57934140353399</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9620565800304408</v>
+        <v>0.9626428126269967</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>233.6463426182508</v>
+        <v>223.7097285080366</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9431750762886785</v>
+        <v>0.9442965052476394</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>97.81043575644387</v>
+        <v>99.87506614060453</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9853061734895349</v>
+        <v>0.9856490121724844</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.2454099842117</v>
+        <v>107.4302097562531</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9842339365205109</v>
+        <v>0.9818015006571416</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>148.0936635751972</v>
+        <v>150.8486835762982</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9525042916586497</v>
+        <v>0.9510296076196695</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>81.57639646047086</v>
+        <v>83.64287231209208</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9886539644358874</v>
+        <v>0.9890205449070745</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>115.2562312642237</v>
+        <v>116.7528257578034</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9528910485446179</v>
+        <v>0.9525307801278755</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>123.0323020741494</v>
+        <v>123.9259711518328</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.983220509747871</v>
+        <v>0.9835203368415177</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>100.5673000862932</v>
+        <v>102.0015249197398</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9864207876271877</v>
+        <v>0.9850460898969338</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>78.42288347952214</v>
+        <v>79.74399907751427</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9779338496031906</v>
+        <v>0.9742041661554754</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>106.3855351120344</v>
+        <v>107.8811646392131</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9968174673022582</v>
+        <v>0.996789014720075</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>130.3432116361799</v>
+        <v>131.8291119175672</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.985207175252735</v>
+        <v>0.9847563927251494</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.32654664518689</v>
+        <v>66.45738979709745</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9875787590304222</v>
+        <v>0.9857015360357073</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>106.6039645849147</v>
+        <v>108.3968644081816</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9219566999032682</v>
+        <v>0.9202042818377927</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>198.9757234931867</v>
+        <v>204.5080192237115</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9485974352628849</v>
+        <v>0.9522830661340638</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>99.21745352610422</v>
+        <v>101.4652057121239</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9829544343407323</v>
+        <v>0.9838583773896161</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>132.7127804185337</v>
+        <v>134.7963066067903</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9851523740717348</v>
+        <v>0.9839265498272507</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>145.1435355153431</v>
+        <v>148.276950475214</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9896425396376662</v>
+        <v>0.9899554202981244</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>70.10234552740955</v>
+        <v>70.89169378422488</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9752637976604682</v>
+        <v>0.9756724488843174</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>167.3700861152649</v>
+        <v>169.7487362450823</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9768535643613036</v>
+        <v>0.9776259570083247</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>146.6096938082715</v>
+        <v>148.4169633911467</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9745021317946267</v>
+        <v>0.9748471453510075</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>174.8405671578477</v>
+        <v>179.508295173781</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8989741326586994</v>
+        <v>0.8997645486284778</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>119.1850027920302</v>
+        <v>122.077398848483</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9734245468315429</v>
+        <v>0.9709880836830311</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>105.0441749435526</v>
+        <v>106.8994542273957</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8883176951157697</v>
+        <v>0.886491058240266</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>55.14419109292119</v>
+        <v>56.03740404960753</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8722344551349972</v>
+        <v>0.8697637481986189</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>60.93465463282626</v>
+        <v>63.07712197129119</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9710676262799151</v>
+        <v>0.9716727301607381</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>166.7808176133288</v>
+        <v>168.856508602488</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9901515586189211</v>
+        <v>0.9905972557128281</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>89.19428242244297</v>
+        <v>89.86600964918378</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.987481764274829</v>
+        <v>0.9882467939779804</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>126.4892217640078</v>
+        <v>127.9664496166867</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820624089331217</v>
+        <v>0.9819890453978254</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>78.69538918380876</v>
+        <v>79.99467419165127</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9963506057552564</v>
+        <v>0.9960739945224203</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>107.3922222025388</v>
+        <v>108.2061483304218</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9636692667547657</v>
+        <v>0.9605679404961928</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>194.920565708739</v>
+        <v>199.5658564346666</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9951196820090333</v>
+        <v>0.9948076225264972</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>90.30136649226307</v>
+        <v>92.01210647249476</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9768825448756142</v>
+        <v>0.9771929781806061</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>112.6714313539541</v>
+        <v>113.8879102644618</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9718353762114016</v>
+        <v>0.9722681645553396</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.0133368649044</v>
+        <v>135.9612729362645</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9914230261752129</v>
+        <v>0.9913713601982161</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>133.735028727129</v>
+        <v>135.6481564377209</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9769140671049169</v>
+        <v>0.9776515453720397</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>146.1983722384601</v>
+        <v>148.4699231030259</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9930031948765703</v>
+        <v>0.9921239843490097</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>118.4425671141076</v>
+        <v>119.512338310174</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9879774816914173</v>
+        <v>0.9862264279089782</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>78.02522097010431</v>
+        <v>79.72485251960633</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8120950034218194</v>
+        <v>0.8053603780506818</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>107.4810957217555</v>
+        <v>110.3446243916667</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9674184129321265</v>
+        <v>0.9680599001801671</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>117.2882403969091</v>
+        <v>118.1521449574703</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.948480117826868</v>
+        <v>0.9460684792007775</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>122.5453411676671</v>
+        <v>124.0851902757094</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9792803765984706</v>
+        <v>0.9790973449030431</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.9531785984429</v>
+        <v>109.8306322373161</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9802527907021172</v>
+        <v>0.9804794856087781</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>207.8168659508609</v>
+        <v>208.8270322765186</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9953713433761084</v>
+        <v>0.9955116770601203</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>199.8047800461329</v>
+        <v>201.9697715583894</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9823113940966542</v>
+        <v>0.9819353963243199</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>239.662087428144</v>
+        <v>242.2932995931761</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957617920317323</v>
+        <v>0.9957597815251058</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>120.713356510988</v>
+        <v>123.4569905341629</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9865773285241952</v>
+        <v>0.9872391692083569</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>155.7330962855651</v>
+        <v>156.045708365493</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9918362428395006</v>
+        <v>0.9914896173261101</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>88.28521790059533</v>
+        <v>90.09702607429604</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9590483939778962</v>
+        <v>0.9565774694856997</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>110.9332884469017</v>
+        <v>112.5929663516639</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.969736956051043</v>
+        <v>0.9692464640433425</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>68.60424062671397</v>
+        <v>69.83415616972302</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9852241215616854</v>
+        <v>0.9856551926577735</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>68.57934140353399</v>
+        <v>69.49699648378763</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9626428126269967</v>
+        <v>0.9632751462233006</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>223.7097285080366</v>
+        <v>214.7509871343954</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9442965052476394</v>
+        <v>0.9458965455770176</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>99.87506614060453</v>
+        <v>102.0507942400304</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9856490121724844</v>
+        <v>0.9860219478395439</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.4302097562531</v>
+        <v>107.6288235099472</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9818015006571416</v>
+        <v>0.9790180661126001</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>150.8486835762982</v>
+        <v>153.8585342879594</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9510296076196695</v>
+        <v>0.9485105427378435</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>83.64287231209208</v>
+        <v>85.74312012791044</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9890205449070745</v>
+        <v>0.989256435943983</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>116.7528257578034</v>
+        <v>118.3790019892255</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9525307801278755</v>
+        <v>0.952131360792319</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>123.9259711518328</v>
+        <v>124.6461624767668</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9835203368415177</v>
+        <v>0.9839659781790235</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>102.0015249197398</v>
+        <v>103.4648171307507</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9850460898969338</v>
+        <v>0.9838066867983839</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>79.74399907751427</v>
+        <v>81.20655801349766</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9742041661554754</v>
+        <v>0.9710000185085784</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>107.8811646392131</v>
+        <v>109.2714609896068</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.996789014720075</v>
+        <v>0.9966157410035832</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>131.8291119175672</v>
+        <v>133.4103410976611</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9847563927251494</v>
+        <v>0.9843311689744347</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.45738979709745</v>
+        <v>66.89029862470792</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9857015360357073</v>
+        <v>0.9846755358979438</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>108.3968644081816</v>
+        <v>109.3317360333046</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9202042818377927</v>
+        <v>0.9197895015561236</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>204.5080192237115</v>
+        <v>207.1881200221383</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1888,7 +1888,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9522830661340638</v>
+        <v>0.9541337270733433</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1903,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>101.4652057121239</v>
+        <v>102.5208769078519</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2079,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9838583773896161</v>
+        <v>0.9842980721887334</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2094,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>134.7963066067903</v>
+        <v>135.7998302638499</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9839265498272507</v>
+        <v>0.9835484651536792</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2273,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>148.276950475214</v>
+        <v>149.8593472661307</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9899554202981244</v>
+        <v>0.990082886868127</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2452,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>70.89169378422488</v>
+        <v>71.29799630710755</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9756724488843174</v>
+        <v>0.9758732931891934</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2631,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>169.7487362450823</v>
+        <v>170.7989973860036</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2792,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9776259570083247</v>
+        <v>0.9780223625156493</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2807,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>148.4169633911467</v>
+        <v>149.3568072368352</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2841,9 +2841,6 @@
       </c>
       <c r="AK9">
         <v>297</v>
-      </c>
-      <c r="AP9">
-        <v>6111</v>
       </c>
       <c r="AQ9">
         <v>264</v>
@@ -2965,7 +2962,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9748471453510075</v>
+        <v>0.9750523765660117</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2977,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>179.508295173781</v>
+        <v>181.8209228198876</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3141,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.8997645486284778</v>
+        <v>0.9008444065735961</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3156,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>122.077398848483</v>
+        <v>123.5222550873884</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3311,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9709880836830311</v>
+        <v>0.9696671112938976</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3326,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>106.8994542273957</v>
+        <v>107.8975742246836</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3487,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.886491058240266</v>
+        <v>0.8861614164981293</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3502,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>56.03740404960753</v>
+        <v>56.50993211149618</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3657,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8697637481986189</v>
+        <v>0.8694618374213889</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3672,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>63.07712197129119</v>
+        <v>64.12947020152329</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3833,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9716727301607381</v>
+        <v>0.9720092884749514</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3848,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>168.856508602488</v>
+        <v>169.976423055373</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4012,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9905972557128281</v>
+        <v>0.9908100580391148</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4027,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>89.86600964918378</v>
+        <v>90.22035300268111</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4194,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9882467939779804</v>
+        <v>0.9886068589680579</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4209,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>127.9664496166867</v>
+        <v>128.6042106876339</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4379,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819890453978254</v>
+        <v>0.9819912023707622</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4394,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>79.99467419165127</v>
+        <v>80.61733149458865</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4555,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9960739945224203</v>
+        <v>0.9958092541864663</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4570,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>108.2061483304218</v>
+        <v>108.6787999645659</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4737,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9605679404961928</v>
+        <v>0.9598481520144263</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4752,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>199.5658564346666</v>
+        <v>201.6275184776867</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4916,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9948076225264972</v>
+        <v>0.9946507796143179</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4931,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>92.01210647249476</v>
+        <v>92.84242179143952</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5107,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9771929781806061</v>
+        <v>0.9774127055478352</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5122,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>113.8879102644618</v>
+        <v>114.5467294404333</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5295,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9722681645553396</v>
+        <v>0.9724950176897755</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5310,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>135.9612729362645</v>
+        <v>135.97903554958</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5471,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913713601982161</v>
+        <v>0.9913149434050659</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5486,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>135.6481564377209</v>
+        <v>136.6764502795279</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5671,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9776515453720397</v>
+        <v>0.9780231183665592</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5686,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>148.4699231030259</v>
+        <v>149.6252817182319</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5862,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9921239843490097</v>
+        <v>0.9916519065963532</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5877,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>119.512338310174</v>
+        <v>120.0878384536077</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6044,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9862264279089782</v>
+        <v>0.9851538968946193</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6059,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>79.72485251960633</v>
+        <v>80.59892927416752</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6229,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8053603780506818</v>
+        <v>0.8039428646962827</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6244,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>110.3446243916667</v>
+        <v>111.7056308916347</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6399,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9680599001801671</v>
+        <v>0.9683692071202814</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6414,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>118.1521449574703</v>
+        <v>118.6417505842797</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6557,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9460684792007775</v>
+        <v>0.9448693706744661</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6572,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>124.0851902757094</v>
+        <v>124.8441064432403</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6727,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9790973449030431</v>
+        <v>0.9790350767118915</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6742,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.8306322373161</v>
+        <v>109.7523712046543</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6906,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9804794856087781</v>
+        <v>0.9805792608072198</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6921,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>208.8270322765186</v>
+        <v>209.2123578830217</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7094,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9955116770601203</v>
+        <v>0.9955601001243164</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7109,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>201.9697715583894</v>
+        <v>203.1253915844367</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7273,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9819353963243199</v>
+        <v>0.9817231971174708</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7288,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>242.2932995931761</v>
+        <v>243.6127754001549</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7455,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957597815251058</v>
+        <v>0.9957261486666579</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7470,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>123.4569905341629</v>
+        <v>124.8909631002008</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7625,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9872391692083569</v>
+        <v>0.9874752596307773</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7640,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.045708365493</v>
+        <v>156.2663704412037</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7804,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9914896173261101</v>
+        <v>0.9912414019017247</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7819,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>90.09702607429604</v>
+        <v>91.02855839527808</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8001,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9565774694856997</v>
+        <v>0.9553837319069653</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8016,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>112.5929663516639</v>
+        <v>113.4754645206093</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8192,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9692464640433425</v>
+        <v>0.9691329071935543</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8207,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>69.83415616972302</v>
+        <v>70.46461603794771</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8374,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9856551926577735</v>
+        <v>0.9858570087324443</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8389,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>69.49699648378763</v>
+        <v>69.95278865906516</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8547,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9632751462233006</v>
+        <v>0.9635829150682468</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8562,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>214.7509871343954</v>
+        <v>210.5243958686605</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8747,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9458965455770176</v>
+        <v>0.9469555465443406</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8762,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>102.0507942400304</v>
+        <v>103.1306567864656</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8917,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9860219478395439</v>
+        <v>0.9862331616390733</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8932,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.6288235099472</v>
+        <v>107.7758540784206</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9093,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9790180661126001</v>
+        <v>0.9775753940198222</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9108,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>153.8585342879594</v>
+        <v>155.4161746834389</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9266,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9485105427378435</v>
+        <v>0.9477360378143581</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9281,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>85.74312012791044</v>
+        <v>86.85239633351651</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9439,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.989256435943983</v>
+        <v>0.9893522669028043</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9454,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>118.3790019892255</v>
+        <v>119.2519501739487</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9618,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.952131360792319</v>
+        <v>0.9519705037462785</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9633,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>124.6461624767668</v>
+        <v>124.9819839911078</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9791,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9839659781790235</v>
+        <v>0.9842243304559627</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9806,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>103.4648171307507</v>
+        <v>104.1855058058009</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9985,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9838066867983839</v>
+        <v>0.9831938717868949</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10000,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>81.20655801349766</v>
+        <v>81.99277315382962</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10155,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9710000185085784</v>
+        <v>0.9696620427438069</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10170,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>109.2714609896068</v>
+        <v>109.9634735382478</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10340,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9966157410035832</v>
+        <v>0.9964619757759763</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10355,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>133.4103410976611</v>
+        <v>134.2104604018601</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10531,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9843311689744347</v>
+        <v>0.9841422431422036</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10546,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>66.89029862470792</v>
+        <v>67.05857050264908</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9846755358979438</v>
+        <v>0.9829339285226594</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>109.3317360333046</v>
+        <v>111.2094351783776</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1715,7 +1715,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9197895015561236</v>
+        <v>0.9184192643599954</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>207.1881200221383</v>
+        <v>212.6697341800737</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1767,6 +1767,9 @@
       </c>
       <c r="AM3">
         <v>25473</v>
+      </c>
+      <c r="AP3">
+        <v>377</v>
       </c>
       <c r="AS3">
         <v>3</v>
@@ -1888,7 +1891,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9541337270733433</v>
+        <v>0.9579977166995235</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1903,7 +1906,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>102.5208769078519</v>
+        <v>104.5539434018702</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2079,7 +2082,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9842980721887334</v>
+        <v>0.9851918007434819</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2094,7 +2097,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>135.7998302638499</v>
+        <v>137.9001160982307</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2258,7 +2261,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9835484651536792</v>
+        <v>0.9831707799915685</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2273,7 +2276,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>149.8593472661307</v>
+        <v>153.030222218049</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2437,7 +2440,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.990082886868127</v>
+        <v>0.9903223113205581</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2452,7 +2455,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>71.29799630710755</v>
+        <v>72.08298352389457</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2616,7 +2619,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9758732931891934</v>
+        <v>0.976267618986174</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2631,7 +2634,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>170.7989973860036</v>
+        <v>172.8690119933291</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2792,7 +2795,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9780223625156493</v>
+        <v>0.9787916160896557</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2807,7 +2810,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>149.3568072368352</v>
+        <v>151.0782555699774</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2962,7 +2965,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9750523765660117</v>
+        <v>0.9755198241629248</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2977,7 +2980,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>181.8209228198876</v>
+        <v>186.5232609050013</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3141,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9008444065735961</v>
+        <v>0.9036900232010304</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3156,7 +3159,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>123.5222550873884</v>
+        <v>126.4646563540664</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3311,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9696671112938976</v>
+        <v>0.967920668024699</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3326,7 +3329,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>107.8975742246836</v>
+        <v>109.8922359298351</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3487,7 +3490,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8861614164981293</v>
+        <v>0.8864261015845671</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3502,7 +3505,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>56.50993211149618</v>
+        <v>57.46407602658853</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3657,7 +3660,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8694618374213889</v>
+        <v>0.8710958668247584</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3672,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>64.12947020152329</v>
+        <v>66.23567238430003</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3833,7 +3836,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9720092884749514</v>
+        <v>0.9726962087629041</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3848,7 +3851,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>169.976423055373</v>
+        <v>172.1800022448656</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4012,7 +4015,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9908100580391148</v>
+        <v>0.9911972178684503</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4027,7 +4030,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>90.22035300268111</v>
+        <v>91.00198253945923</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4194,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9886068589680579</v>
+        <v>0.9892900380462214</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4209,7 +4212,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>128.6042106876339</v>
+        <v>130.0366227513471</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4379,7 +4382,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819912023707622</v>
+        <v>0.9820089666737953</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4394,7 +4397,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>80.61733149458865</v>
+        <v>81.85950634192105</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4555,7 +4558,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9958092541864663</v>
+        <v>0.9947627092895367</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4570,7 +4573,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>108.6787999645659</v>
+        <v>109.4017290158455</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4737,7 +4740,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9598481520144263</v>
+        <v>0.9575170361077578</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4752,7 +4755,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>201.6275184776867</v>
+        <v>206.1051420860007</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4916,7 +4919,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9946507796143179</v>
+        <v>0.9944570858387913</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4931,7 +4934,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>92.84242179143952</v>
+        <v>94.49200090052227</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5107,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9774127055478352</v>
+        <v>0.9779480279004744</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5122,7 +5125,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>114.5467294404333</v>
+        <v>116.0055295548266</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5295,7 +5298,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9724950176897755</v>
+        <v>0.9729561395944393</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5310,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>135.97903554958</v>
+        <v>136.0971773562069</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5471,7 +5474,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9913149434050659</v>
+        <v>0.991204080641566</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5486,7 +5489,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>136.6764502795279</v>
+        <v>138.7785502917287</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5671,7 +5674,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9780231183665592</v>
+        <v>0.9789083405863999</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5686,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>149.6252817182319</v>
+        <v>151.9783838974696</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5862,7 +5865,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9916519065963532</v>
+        <v>0.9907861558728912</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5877,7 +5880,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>120.0878384536077</v>
+        <v>121.1945324466214</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6044,7 +6047,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9851538968946193</v>
+        <v>0.9831994364234963</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6059,7 +6062,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>80.59892927416752</v>
+        <v>82.33314609957209</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6229,7 +6232,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8039428646962827</v>
+        <v>0.8073365912867753</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6244,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>111.7056308916347</v>
+        <v>114.4600347045092</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6399,7 +6402,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9683692071202814</v>
+        <v>0.9689718898997279</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6414,7 +6417,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>118.6417505842797</v>
+        <v>119.4780493834068</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6557,7 +6560,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9448693706744661</v>
+        <v>0.9429902811578827</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6572,7 +6575,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>124.8441064432403</v>
+        <v>126.393897983228</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6727,7 +6730,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9790350767118915</v>
+        <v>0.9789710138323632</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6742,7 +6745,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.7523712046543</v>
+        <v>109.552941720077</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6906,7 +6909,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9805792608072198</v>
+        <v>0.9807577567226557</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6921,7 +6924,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.2123578830217</v>
+        <v>209.7521311107029</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7094,7 +7097,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9955601001243164</v>
+        <v>0.9956744301264026</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7109,7 +7112,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>203.1253915844367</v>
+        <v>205.586729396294</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7273,7 +7276,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9817231971174708</v>
+        <v>0.9812672140136475</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7288,7 +7291,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>243.6127754001549</v>
+        <v>246.0200383817607</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7455,7 +7458,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957261486666579</v>
+        <v>0.9957797596477935</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7470,7 +7473,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>124.8909631002008</v>
+        <v>127.6280524100088</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7625,7 +7628,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9874752596307773</v>
+        <v>0.9877713484685304</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7640,7 +7643,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.2663704412037</v>
+        <v>156.9190944085682</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7804,7 +7807,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9912414019017247</v>
+        <v>0.9908588351357179</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7819,7 +7822,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>91.02855839527808</v>
+        <v>92.91062016477112</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8001,7 +8004,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9553837319069653</v>
+        <v>0.9555166807262254</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8016,7 +8019,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>113.4754645206093</v>
+        <v>114.8941814649441</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8192,7 +8195,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9691329071935543</v>
+        <v>0.9689622362230914</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8207,7 +8210,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>70.46461603794771</v>
+        <v>71.68717955145753</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8374,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9858570087324443</v>
+        <v>0.9862266735453183</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8389,7 +8392,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>69.95278865906516</v>
+        <v>70.85370320695391</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8547,7 +8550,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9635829150682468</v>
+        <v>0.9641935973374268</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8562,7 +8565,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>210.5243958686605</v>
+        <v>202.6848727155622</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8747,7 +8750,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9469555465443406</v>
+        <v>0.9490789763141101</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8762,7 +8765,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>103.1306567864656</v>
+        <v>105.3969395360071</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8917,7 +8920,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9862331616390733</v>
+        <v>0.9866151604291752</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8932,7 +8935,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>107.7758540784206</v>
+        <v>108.0032009919077</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9093,7 +9096,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9775753940198222</v>
+        <v>0.975547557406434</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9108,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>155.4161746834389</v>
+        <v>158.5469369886858</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9266,7 +9269,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9477360378143581</v>
+        <v>0.947552072110911</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9281,7 +9284,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>86.85239633351651</v>
+        <v>89.19412962039972</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9439,7 +9442,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9893522669028043</v>
+        <v>0.9896089170460539</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9454,7 +9457,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>119.2519501739487</v>
+        <v>120.9977022102963</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9618,7 +9621,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9519705037462785</v>
+        <v>0.9515603745567816</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9633,7 +9636,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>124.9819839911078</v>
+        <v>125.8911142975777</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9791,7 +9794,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9842243304559627</v>
+        <v>0.9848016007609566</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9806,7 +9809,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>104.1855058058009</v>
+        <v>105.6511035191519</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9985,7 +9988,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9831938717868949</v>
+        <v>0.9820548582677501</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10000,7 +10003,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>81.99277315382962</v>
+        <v>83.79234458754952</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10155,7 +10158,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9696620427438069</v>
+        <v>0.9678696413864699</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10170,7 +10173,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>109.9634735382478</v>
+        <v>111.5237341997298</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10340,7 +10343,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9964619757759763</v>
+        <v>0.9961613380004337</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10355,7 +10358,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>134.2104604018601</v>
+        <v>135.6687329907895</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10531,7 +10534,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9841422431422036</v>
+        <v>0.9839848285795396</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10546,7 +10549,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.05857050264908</v>
+        <v>67.25693654193542</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9829339285226594</v>
+        <v>0.9823317780511056</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>111.2094351783776</v>
+        <v>112.0970996260279</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1574,6 +1574,9 @@
       <c r="X2">
         <v>110893</v>
       </c>
+      <c r="Z2">
+        <v>481</v>
+      </c>
       <c r="AA2">
         <v>1207</v>
       </c>
@@ -1675,6 +1678,9 @@
       </c>
       <c r="BQ2">
         <v>3.964778022022376</v>
+      </c>
+      <c r="BR2">
+        <v>2.682145076373832</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1715,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9184192643599954</v>
+        <v>0.9173804334197236</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1730,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>212.6697341800737</v>
+        <v>215.3318490087498</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1891,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9579977166995235</v>
+        <v>0.9598632081145558</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1906,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>104.5539434018702</v>
+        <v>105.5345633236101</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2082,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9851918007434819</v>
+        <v>0.9856344747889499</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2097,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>137.9001160982307</v>
+        <v>139.0013107612058</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2261,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9831707799915685</v>
+        <v>0.9829135310220543</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2276,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>153.030222218049</v>
+        <v>154.6190192090321</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2440,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9903223113205581</v>
+        <v>0.9904193589308732</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2455,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.08298352389457</v>
+        <v>72.50229592026808</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2619,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.976267618986174</v>
+        <v>0.9764624664618735</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2634,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>172.8690119933291</v>
+        <v>173.9754894794027</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2675,8 +2681,8 @@
       <c r="AL8">
         <v>9389</v>
       </c>
-      <c r="AP8">
-        <v>32411</v>
+      <c r="AM8">
+        <v>123569</v>
       </c>
       <c r="AQ8">
         <v>2436</v>
@@ -2795,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9787916160896557</v>
+        <v>0.9791709977523809</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2810,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>151.0782555699774</v>
+        <v>152.0530925424271</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2965,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9755198241629248</v>
+        <v>0.9757851385013832</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2980,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>186.5232609050013</v>
+        <v>188.9987396653084</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3144,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9036900232010304</v>
+        <v>0.9056806482809173</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3159,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>126.4646563540664</v>
+        <v>127.8940862349322</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3314,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.967920668024699</v>
+        <v>0.9673928036710064</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3329,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>109.8922359298351</v>
+        <v>110.8757412821558</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3490,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8864261015845671</v>
+        <v>0.8869997991048317</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3505,7 +3511,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>57.46407602658853</v>
+        <v>57.91076573884317</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3660,7 +3666,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8710958668247584</v>
+        <v>0.8728098065379426</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3675,7 +3681,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>66.23567238430003</v>
+        <v>67.2712071869677</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3836,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9726962087629041</v>
+        <v>0.973043491835746</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3851,7 +3857,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>172.1800022448656</v>
+        <v>173.2520002845196</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4015,7 +4021,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9911972178684503</v>
+        <v>0.9913752863922061</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4030,7 +4036,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.00198253945923</v>
+        <v>91.3964712569974</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4197,7 +4203,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9892900380462214</v>
+        <v>0.9896100560830215</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4212,7 +4218,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>130.0366227513471</v>
+        <v>130.6773436556379</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4382,7 +4388,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820089666737953</v>
+        <v>0.9820618146403685</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4397,7 +4403,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>81.85950634192105</v>
+        <v>82.47610817953525</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4558,7 +4564,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9947627092895367</v>
+        <v>0.9942154848934773</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4573,7 +4579,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>109.4017290158455</v>
+        <v>109.8517128383587</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4740,7 +4746,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9575170361077578</v>
+        <v>0.9565021488158852</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4755,7 +4761,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>206.1051420860007</v>
+        <v>208.4303875310337</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4919,7 +4925,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9944570858387913</v>
+        <v>0.9943474921411883</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4934,7 +4940,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>94.49200090052227</v>
+        <v>95.33235138484868</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5110,7 +5116,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9779480279004744</v>
+        <v>0.9782463985591207</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5125,7 +5131,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>116.0055295548266</v>
+        <v>116.7614577722154</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5298,7 +5304,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9729561395944393</v>
+        <v>0.9731869201233115</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5313,7 +5319,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.0971773562069</v>
+        <v>136.1443403441897</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5474,7 +5480,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.991204080641566</v>
+        <v>0.9911384292797182</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5489,7 +5495,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>138.7785502917287</v>
+        <v>139.8140329330828</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5674,7 +5680,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9789083405863999</v>
+        <v>0.9793376349088763</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5689,7 +5695,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>151.9783838974696</v>
+        <v>153.0911248510353</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5865,7 +5871,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9907861558728912</v>
+        <v>0.9900684768022604</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5880,7 +5886,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>121.1945324466214</v>
+        <v>121.8119575741952</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6047,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9831994364234963</v>
+        <v>0.9821394432011654</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6062,7 +6068,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>82.33314609957209</v>
+        <v>83.19363526599588</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6232,7 +6238,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8073365912867753</v>
+        <v>0.8104857100362421</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6247,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>114.4600347045092</v>
+        <v>115.8839516094588</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6402,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9689718898997279</v>
+        <v>0.9693734218991342</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6417,7 +6423,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>119.4780493834068</v>
+        <v>119.8999182149937</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6560,7 +6566,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9429902811578827</v>
+        <v>0.9427763816423789</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6575,7 +6581,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>126.393897983228</v>
+        <v>127.108749262356</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6730,7 +6736,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9789710138323632</v>
+        <v>0.9789635765691086</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6745,7 +6751,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.552941720077</v>
+        <v>109.4283149372465</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6909,7 +6915,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9807577567226557</v>
+        <v>0.9808311004593986</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6924,7 +6930,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.7521311107029</v>
+        <v>209.9530244942026</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7097,7 +7103,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9956744301264026</v>
+        <v>0.9957198732393396</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7112,7 +7118,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>205.586729396294</v>
+        <v>206.8517789707869</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7276,7 +7282,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9812672140136475</v>
+        <v>0.9810158981828868</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7291,7 +7297,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>246.0200383817607</v>
+        <v>247.1765753699808</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7458,7 +7464,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9957797596477935</v>
+        <v>0.9958345802460273</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7473,7 +7479,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>127.6280524100088</v>
+        <v>129.0418432518819</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7628,7 +7634,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9877713484685304</v>
+        <v>0.9878907596780842</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7643,7 +7649,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>156.9190944085682</v>
+        <v>157.2614501175959</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7807,7 +7813,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9908588351357179</v>
+        <v>0.9907310756972336</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7822,7 +7828,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>92.91062016477112</v>
+        <v>93.82645387249795</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8004,7 +8010,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9555166807262254</v>
+        <v>0.9557682388340141</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8019,7 +8025,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>114.8941814649441</v>
+        <v>115.7580832087765</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8195,7 +8201,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9689622362230914</v>
+        <v>0.9691201791670938</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8210,7 +8216,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>71.68717955145753</v>
+        <v>72.28568225926092</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8377,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9862266735453183</v>
+        <v>0.9864026560560183</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8392,7 +8398,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>70.85370320695391</v>
+        <v>71.30383956506671</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8550,7 +8556,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9641935973374268</v>
+        <v>0.9645204056658364</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8565,7 +8571,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>202.6848727155622</v>
+        <v>199.1216771994427</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8750,7 +8756,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9490789763141101</v>
+        <v>0.9503005145766332</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8765,7 +8771,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>105.3969395360071</v>
+        <v>106.51888452331</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8920,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9866151604291752</v>
+        <v>0.986809988074721</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8935,7 +8941,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.0032009919077</v>
+        <v>108.1098898813356</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9096,7 +9102,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.975547557406434</v>
+        <v>0.9747624975961158</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9111,7 +9117,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>158.5469369886858</v>
+        <v>160.1110262124961</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9269,7 +9275,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.947552072110911</v>
+        <v>0.9480436568526369</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9284,7 +9290,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>89.19412962039972</v>
+        <v>90.35649953037105</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9442,7 +9448,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9896089170460539</v>
+        <v>0.9898432110703443</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9457,7 +9463,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>120.9977022102963</v>
+        <v>121.8586223446125</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9621,7 +9627,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9515603745567816</v>
+        <v>0.9513772746702988</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9636,7 +9642,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>125.8911142975777</v>
+        <v>126.3606626610347</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9794,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9848016007609566</v>
+        <v>0.9851060828728514</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9809,7 +9815,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>105.6511035191519</v>
+        <v>106.4067181545074</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9988,7 +9994,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9820548582677501</v>
+        <v>0.98157843680156</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10003,7 +10009,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>83.79234458754952</v>
+        <v>84.73793627494103</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10158,7 +10164,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9678696413864699</v>
+        <v>0.9673861711045126</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10173,7 +10179,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>111.5237341997298</v>
+        <v>112.377235135716</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10343,7 +10349,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9961613380004337</v>
+        <v>0.9959526255744556</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10358,7 +10364,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>135.6687329907895</v>
+        <v>136.3967771327629</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10534,7 +10540,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9839848285795396</v>
+        <v>0.9837877574416013</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10549,7 +10555,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.25693654193542</v>
+        <v>67.29715064201466</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9823317780511056</v>
+        <v>0.9820477690342322</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>112.0970996260279</v>
+        <v>112.9756179887833</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9173804334197236</v>
+        <v>0.916828292258153</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>215.3318490087498</v>
+        <v>218.2410348079311</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9598632081145558</v>
+        <v>0.9635621960619738</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>105.5345633236101</v>
+        <v>106.4478974773873</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9856344747889499</v>
+        <v>0.9866788776435739</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>139.0013107612058</v>
+        <v>139.9707874373681</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9829135310220543</v>
+        <v>0.9827456593965473</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>154.6190192090321</v>
+        <v>156.2121363262306</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904193589308732</v>
+        <v>0.990589233160092</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.50229592026808</v>
+        <v>72.91653993826708</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9764624664618735</v>
+        <v>0.9768445093391237</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>173.9754894794027</v>
+        <v>175.1041030536662</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9791709977523809</v>
+        <v>0.9798654258860626</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>152.0530925424271</v>
+        <v>152.9485545116056</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9757851385013832</v>
+        <v>0.9763377949419051</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>188.9987396653084</v>
+        <v>191.5359295950973</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9056806482809173</v>
+        <v>0.9110071944273233</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>127.8940862349322</v>
+        <v>129.3141677622065</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9673928036710064</v>
+        <v>0.9672693780293491</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>110.8757412821558</v>
+        <v>111.8551271288417</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3496,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8869997991048317</v>
+        <v>0.8893098532278121</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3511,7 +3511,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>57.91076573884317</v>
+        <v>58.35504650774057</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3666,7 +3666,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8728098065379426</v>
+        <v>0.8785670126134868</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3681,7 +3681,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>67.2712071869677</v>
+        <v>68.30126913482619</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3842,7 +3842,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.973043491835746</v>
+        <v>0.9737456744540239</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3857,7 +3857,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>173.2520002845196</v>
+        <v>174.3418401473477</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4021,7 +4021,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9913752863922061</v>
+        <v>0.9917211484857182</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4036,7 +4036,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.3964712569974</v>
+        <v>91.79751443283595</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4203,7 +4203,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9896100560830215</v>
+        <v>0.9901893857364696</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4218,7 +4218,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>130.6773436556379</v>
+        <v>131.2789354916849</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4388,7 +4388,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9820618146403685</v>
+        <v>0.98228864261994</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4403,7 +4403,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>82.47610817953525</v>
+        <v>83.15030207980715</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4564,7 +4564,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9942154848934773</v>
+        <v>0.9934618385740891</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4579,7 +4579,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>109.8517128383587</v>
+        <v>110.345717450097</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4746,7 +4746,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9565021488158852</v>
+        <v>0.9550940539934156</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4761,7 +4761,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>208.4303875310337</v>
+        <v>210.8702739319087</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4925,7 +4925,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9943474921411883</v>
+        <v>0.993997142516223</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4940,7 +4940,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>95.33235138484868</v>
+        <v>96.18768353703851</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5116,7 +5116,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9782463985591207</v>
+        <v>0.9788055217414873</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5131,7 +5131,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>116.7614577722154</v>
+        <v>117.5815384927219</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5304,7 +5304,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9731869201233115</v>
+        <v>0.9736417350357514</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5319,7 +5319,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.1443403441897</v>
+        <v>136.2011888696737</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5480,7 +5480,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9911384292797182</v>
+        <v>0.991033877500644</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5495,7 +5495,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>139.8140329330828</v>
+        <v>140.8828566146071</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5680,7 +5680,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9793376349088763</v>
+        <v>0.9800671057058203</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5695,7 +5695,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>153.0911248510353</v>
+        <v>154.1706508020548</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5871,7 +5871,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9900684768022604</v>
+        <v>0.9888193185040112</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5886,7 +5886,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>121.8119575741952</v>
+        <v>122.4744923373617</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6053,7 +6053,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9821394432011654</v>
+        <v>0.9801075395558667</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6068,7 +6068,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>83.19363526599588</v>
+        <v>84.04202807389406</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6238,7 +6238,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8104857100362421</v>
+        <v>0.8195878892206189</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6253,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>115.8839516094588</v>
+        <v>117.2939961433221</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6408,7 +6408,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9693734218991342</v>
+        <v>0.9701802536110411</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6423,7 +6423,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>119.8999182149937</v>
+        <v>120.3523856256218</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6566,7 +6566,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9427763816423789</v>
+        <v>0.9436025856408063</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6581,7 +6581,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>127.108749262356</v>
+        <v>127.8114926794709</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6736,7 +6736,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9789635765691086</v>
+        <v>0.978984822833333</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6751,7 +6751,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.4283149372465</v>
+        <v>109.2784552811036</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6915,7 +6915,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9808311004593986</v>
+        <v>0.9809451388633182</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6930,7 +6930,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>209.9530244942026</v>
+        <v>210.1701424183689</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7103,7 +7103,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957198732393396</v>
+        <v>0.9958503784585572</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7118,7 +7118,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>206.8517789707869</v>
+        <v>208.0628336941604</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7282,7 +7282,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9810158981828868</v>
+        <v>0.9804862244680527</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7297,7 +7297,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>247.1765753699808</v>
+        <v>248.3238666099947</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7464,7 +7464,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9958345802460273</v>
+        <v>0.996032863737249</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7479,7 +7479,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>129.0418432518819</v>
+        <v>130.4791180692642</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7634,7 +7634,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9878907596780842</v>
+        <v>0.9880007111554796</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7649,7 +7649,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>157.2614501175959</v>
+        <v>157.6421059078353</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7813,7 +7813,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9907310756972336</v>
+        <v>0.9906151609052579</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7828,7 +7828,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>93.82645387249795</v>
+        <v>94.74127235427068</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8010,7 +8010,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9557682388340141</v>
+        <v>0.9565922617875903</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8025,7 +8025,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>115.7580832087765</v>
+        <v>116.6230655045403</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8201,7 +8201,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9691201791670938</v>
+        <v>0.9701506816691329</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8216,7 +8216,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>72.28568225926092</v>
+        <v>72.91035344868594</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8383,7 +8383,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9864026560560183</v>
+        <v>0.986737262204141</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8398,7 +8398,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>71.30383956506671</v>
+        <v>71.75739050890321</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8556,7 +8556,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9645204056658364</v>
+        <v>0.9651719821565659</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8571,7 +8571,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>199.1216771994427</v>
+        <v>195.7522905356195</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8756,7 +8756,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9503005145766332</v>
+        <v>0.9533471586058981</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8771,7 +8771,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>106.51888452331</v>
+        <v>107.6313824257269</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8926,7 +8926,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.986809988074721</v>
+        <v>0.9871571769848252</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8941,7 +8941,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.1098898813356</v>
+        <v>108.226989685128</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9102,7 +9102,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9747624975961158</v>
+        <v>0.9739088342450597</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9117,7 +9117,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>160.1110262124961</v>
+        <v>161.7074998255246</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9275,7 +9275,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9480436568526369</v>
+        <v>0.9496560996041479</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9290,7 +9290,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>90.35649953037105</v>
+        <v>91.51952602139384</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9448,7 +9448,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9898432110703443</v>
+        <v>0.9904580874559522</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9463,7 +9463,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>121.8586223446125</v>
+        <v>122.7064420348376</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9627,7 +9627,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9513772746702988</v>
+        <v>0.9512426655266469</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9642,7 +9642,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>126.3606626610347</v>
+        <v>126.8037238998341</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9800,7 +9800,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9851060828728514</v>
+        <v>0.9856699681607389</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9815,7 +9815,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>106.4067181545074</v>
+        <v>107.1522869239695</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9994,7 +9994,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.98157843680156</v>
+        <v>0.9811972189158158</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10009,7 +10009,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>84.73793627494103</v>
+        <v>85.69181308467797</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10164,7 +10164,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9673861711045126</v>
+        <v>0.9677739847469756</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10179,7 +10179,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>112.377235135716</v>
+        <v>113.1830038599995</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10349,7 +10349,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9959526255744556</v>
+        <v>0.9957738792760068</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10364,7 +10364,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>136.3967771327629</v>
+        <v>137.1502453844659</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10540,7 +10540,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9837877574416013</v>
+        <v>0.9836479069303654</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10555,7 +10555,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.29715064201466</v>
+        <v>67.3015454387013</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9820477690342322</v>
+        <v>0.9810239348023206</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>112.9756179887833</v>
+        <v>114.7287047773405</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.916828292258153</v>
+        <v>0.9156727948786029</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>218.2410348079311</v>
+        <v>224.6649750404401</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9635621960619738</v>
+        <v>0.9652045884089987</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>106.4478974773873</v>
+        <v>108.1836859159296</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9866788776435739</v>
+        <v>0.9868313796269387</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>139.9707874373681</v>
+        <v>142.0158376968431</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9827456593965473</v>
+        <v>0.9822244731217595</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>156.2121363262306</v>
+        <v>159.3796374581826</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.990589233160092</v>
+        <v>0.9904928140056239</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>72.91653993826708</v>
+        <v>73.75946039340593</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9768445093391237</v>
+        <v>0.977035428928456</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>175.1041030536662</v>
+        <v>177.6844217973481</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9798654258860626</v>
+        <v>0.9802658571735129</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>152.9485545116056</v>
+        <v>154.7759739780635</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9763377949419051</v>
+        <v>0.9766433767402425</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>191.5359295950973</v>
+        <v>196.4998168430019</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9110071944273233</v>
+        <v>0.9126874124377051</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>129.3141677622065</v>
+        <v>132.1567504403416</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9672693780293491</v>
+        <v>0.9661941536456541</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>111.8551271288417</v>
+        <v>113.9074856131877</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3349,6 +3349,9 @@
       <c r="X12">
         <v>195461</v>
       </c>
+      <c r="Z12">
+        <v>1227</v>
+      </c>
       <c r="AA12">
         <v>5935</v>
       </c>
@@ -3450,6 +3453,9 @@
       </c>
       <c r="BQ12">
         <v>4.506586201357899</v>
+      </c>
+      <c r="BR12">
+        <v>3.088844562727004</v>
       </c>
     </row>
     <row r="13" spans="1:72">
@@ -3496,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8893098532278121</v>
+        <v>0.8883890653737913</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3511,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>58.35504650774057</v>
+        <v>59.21799938346824</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3666,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8785670126134868</v>
+        <v>0.8805838304818788</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3681,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>68.30126913482619</v>
+        <v>70.35371674340952</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3842,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9737456744540239</v>
+        <v>0.9741936536838798</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3857,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>174.3418401473477</v>
+        <v>176.5862480066188</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4021,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9917211484857182</v>
+        <v>0.9917932685219614</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4036,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>91.79751443283595</v>
+        <v>92.67544759267646</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4203,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9901893857364696</v>
+        <v>0.9905108567054486</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4218,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>131.2789354916849</v>
+        <v>132.6030111284266</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4388,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.98228864261994</v>
+        <v>0.9819584466243872</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4403,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>83.15030207980715</v>
+        <v>84.42419490576276</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4564,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9934618385740891</v>
+        <v>0.9923664501510822</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4579,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>110.345717450097</v>
+        <v>111.3160415775529</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4746,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9550940539934156</v>
+        <v>0.9536687116231267</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4761,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>210.8702739319087</v>
+        <v>215.8024848695253</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4925,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.993997142516223</v>
+        <v>0.9938845173136304</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4940,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>96.18768353703851</v>
+        <v>97.93248538780873</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5116,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9788055217414873</v>
+        <v>0.9791907964467672</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5131,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>117.5815384927219</v>
+        <v>119.1421262719741</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5304,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9736417350357514</v>
+        <v>0.9738784375732076</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5319,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.2011888696737</v>
+        <v>136.2113349653757</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5480,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.991033877500644</v>
+        <v>0.9908820905611132</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5495,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>140.8828566146071</v>
+        <v>143.0591062077767</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5680,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9800671057058203</v>
+        <v>0.9806524254071292</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5695,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>154.1706508020548</v>
+        <v>156.3902775829828</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5871,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9888193185040112</v>
+        <v>0.9875513277766244</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5886,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>122.4744923373617</v>
+        <v>123.6613668583961</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6053,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9801075395558667</v>
+        <v>0.9767726403911362</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6068,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>84.04202807389406</v>
+        <v>85.78717838739263</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6238,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8195878892206189</v>
+        <v>0.8221373650000003</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6253,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>117.2939961433221</v>
+        <v>120.1131233286544</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6408,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9701802536110411</v>
+        <v>0.9708359786097692</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6423,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>120.3523856256218</v>
+        <v>121.2496545284262</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6566,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9436025856408063</v>
+        <v>0.9429364228649074</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6581,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>127.8114926794709</v>
+        <v>129.3747112070585</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6736,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.978984822833333</v>
+        <v>0.9791040298943022</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6751,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.2784552811036</v>
+        <v>109.0500084867874</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6915,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809451388633182</v>
+        <v>0.9809742186743731</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6930,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.1701424183689</v>
+        <v>210.6261438421502</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7103,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9958503784585572</v>
+        <v>0.9957626987031646</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7118,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>208.0628336941604</v>
+        <v>210.5460257844088</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7282,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9804862244680527</v>
+        <v>0.9801716883942494</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7297,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>248.3238666099947</v>
+        <v>250.6248435356717</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7464,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.996032863737249</v>
+        <v>0.9959941591843479</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7479,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>130.4791180692642</v>
+        <v>133.3683088180352</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7634,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9880007111554796</v>
+        <v>0.9876136567426929</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7649,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>157.6421059078353</v>
+        <v>158.4390010125987</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7813,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9906151609052579</v>
+        <v>0.9902496382232818</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7828,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>94.74127235427068</v>
+        <v>96.58631281545433</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8010,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9565922617875903</v>
+        <v>0.9559312667264017</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8025,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>116.6230655045403</v>
+        <v>118.3619877328934</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8201,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9701506816691329</v>
+        <v>0.970180691849223</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8216,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>72.91035344868594</v>
+        <v>74.18745536081329</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8383,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.986737262204141</v>
+        <v>0.9868415489532678</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8398,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>71.75739050890321</v>
+        <v>72.6738793396883</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8556,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9651719821565659</v>
+        <v>0.9655339223354067</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8571,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>195.7522905356195</v>
+        <v>189.5502771290765</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8756,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9533471586058981</v>
+        <v>0.9543925412241833</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8771,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>107.6313824257269</v>
+        <v>109.8062138334217</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8926,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9871571769848252</v>
+        <v>0.9873926467580905</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8941,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.226989685128</v>
+        <v>108.5053210743456</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9102,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9739088342450597</v>
+        <v>0.972569154728224</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9117,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>161.7074998255246</v>
+        <v>165.0938489129883</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9275,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9496560996041479</v>
+        <v>0.9499262899096957</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9290,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>91.51952602139384</v>
+        <v>93.8547160122084</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9448,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9904580874559522</v>
+        <v>0.9906248067444375</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9463,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>122.7064420348376</v>
+        <v>124.3432579411023</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9627,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9512426655266469</v>
+        <v>0.9510247849462709</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9642,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>126.8037238998341</v>
+        <v>127.6519205663788</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9800,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9856699681607389</v>
+        <v>0.9860470669624752</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9815,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>107.1522869239695</v>
+        <v>108.6887444570747</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -9994,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9811972189158158</v>
+        <v>0.9807136588818982</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10009,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>85.69181308467797</v>
+        <v>87.61109863592839</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10164,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9677739847469756</v>
+        <v>0.9659556222203279</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10179,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>113.1830038599995</v>
+        <v>115.0654864023806</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10349,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9957738792760068</v>
+        <v>0.9953188524371267</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10364,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>137.1502453844659</v>
+        <v>138.756913896743</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10540,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9836479069303654</v>
+        <v>0.9828896848477257</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10555,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.3015454387013</v>
+        <v>67.94844361285621</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9810239348023206</v>
+        <v>0.9806389352996986</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>114.7287047773405</v>
+        <v>115.6300787158916</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9156727948786029</v>
+        <v>0.9156022309576749</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>224.6649750404401</v>
+        <v>228.1631917865879</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9652045884089987</v>
+        <v>0.9668029316308807</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>108.1836859159296</v>
+        <v>109.0978092130147</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9868313796269387</v>
+        <v>0.9871778223448647</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>142.0158376968431</v>
+        <v>142.9712695247469</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9822244731217595</v>
+        <v>0.9822639442551481</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>159.3796374581826</v>
+        <v>160.9753348381935</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904928140056239</v>
+        <v>0.9904111751505498</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>73.75946039340593</v>
+        <v>74.1947063496511</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.977035428928456</v>
+        <v>0.9772199054586124</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>177.6844217973481</v>
+        <v>178.9124641586682</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9802658571735129</v>
+        <v>0.9806182145422323</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>154.7759739780635</v>
+        <v>155.6866826824244</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9766433767402425</v>
+        <v>0.9769347607741592</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>196.4998168430019</v>
+        <v>199.0255262726093</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9126874124377051</v>
+        <v>0.9150388260562963</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>132.1567504403416</v>
+        <v>133.5847343846077</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9661941536456541</v>
+        <v>0.9658701461379462</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>113.9074856131877</v>
+        <v>114.9997358717665</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3502,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.8883890653737913</v>
+        <v>0.887759533467315</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>59.21799938346824</v>
+        <v>59.66959877803423</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3672,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8805838304818788</v>
+        <v>0.8845086420941861</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3687,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>70.35371674340952</v>
+        <v>71.3859996924605</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3848,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9741936536838798</v>
+        <v>0.9745928116382309</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3863,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>176.5862480066188</v>
+        <v>177.7286838441873</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4027,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9917932685219614</v>
+        <v>0.9918804269885909</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4042,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>92.67544759267646</v>
+        <v>93.14486911402065</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4209,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9905108567054486</v>
+        <v>0.9907916930571764</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4224,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>132.6030111284266</v>
+        <v>133.2253031804527</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4394,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819584466243872</v>
+        <v>0.9819056081765527</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4409,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>84.42419490576276</v>
+        <v>85.02508180729215</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4570,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9923664501510822</v>
+        <v>0.9914444096702969</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4585,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>111.3160415775529</v>
+        <v>111.8207601593695</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4752,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9536687116231267</v>
+        <v>0.9535925878957743</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4767,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>215.8024848695253</v>
+        <v>218.0319788422502</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4931,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9938845173136304</v>
+        <v>0.9937732172756395</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4946,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>97.93248538780873</v>
+        <v>98.82217590964973</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5122,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9791907964467672</v>
+        <v>0.9795581737553603</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5137,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>119.1421262719741</v>
+        <v>120.0160313979858</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5310,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9738784375732076</v>
+        <v>0.9741054128858426</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5325,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.2113349653757</v>
+        <v>136.3615457351263</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5486,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9908820905611132</v>
+        <v>0.9907935336843154</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5501,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>143.0591062077767</v>
+        <v>144.0159226170045</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5686,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9806524254071292</v>
+        <v>0.9811275870724521</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5701,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>156.3902775829828</v>
+        <v>157.5350577769351</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5877,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9875513277766244</v>
+        <v>0.9866526614877759</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5892,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>123.6613668583961</v>
+        <v>124.3611733629757</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6059,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9767726403911362</v>
+        <v>0.9744245846835585</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6074,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>85.78717838739263</v>
+        <v>86.62092770504415</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6244,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8221373650000003</v>
+        <v>0.8246460399440625</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6259,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>120.1131233286544</v>
+        <v>121.4744931139895</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6414,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9708359786097692</v>
+        <v>0.9713601954106619</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6429,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>121.2496545284262</v>
+        <v>121.7099058302209</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6572,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9429364228649074</v>
+        <v>0.9434595024390762</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6587,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>129.3747112070585</v>
+        <v>130.2053653275822</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6742,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9791040298943022</v>
+        <v>0.9792172603779823</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6757,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.0500084867874</v>
+        <v>109.0136297021337</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6921,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809742186743731</v>
+        <v>0.9809908819762727</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6936,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.6261438421502</v>
+        <v>210.7526660533225</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7109,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957626987031646</v>
+        <v>0.9957561746384911</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7124,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>210.5460257844088</v>
+        <v>211.8225154952896</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7288,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9801716883942494</v>
+        <v>0.9798607274111423</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7303,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>250.6248435356717</v>
+        <v>251.7805194057853</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7470,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9959941591843479</v>
+        <v>0.9960575213871812</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7485,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>133.3683088180352</v>
+        <v>134.8005877028288</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7640,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9876136567426929</v>
+        <v>0.9874173494316124</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7655,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>158.4390010125987</v>
+        <v>158.8526186317498</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7819,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9902496382232818</v>
+        <v>0.9900835171818947</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7834,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>96.58631281545433</v>
+        <v>97.52656132093875</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8016,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9559312667264017</v>
+        <v>0.9557739005955634</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8031,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>118.3619877328934</v>
+        <v>119.7114704622792</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8207,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.970180691849223</v>
+        <v>0.9708943228576112</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8222,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>74.18745536081329</v>
+        <v>74.85926790510982</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8389,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9868415489532678</v>
+        <v>0.9869621471369637</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8404,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>72.6738793396883</v>
+        <v>73.15309221574493</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8562,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9655339223354067</v>
+        <v>0.9658615010034164</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8577,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>189.5502771290765</v>
+        <v>186.572142744966</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8762,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9543925412241833</v>
+        <v>0.9558660498285934</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8777,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>109.8062138334217</v>
+        <v>110.866518923546</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8932,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9873926467580905</v>
+        <v>0.9876068775096296</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8947,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.5053210743456</v>
+        <v>108.7218736759303</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9108,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.972569154728224</v>
+        <v>0.9722023198161301</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9123,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>165.0938489129883</v>
+        <v>166.6940613004851</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9281,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9499262899096957</v>
+        <v>0.9508788175247189</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9296,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>93.8547160122084</v>
+        <v>95.04912953505374</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9454,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9906248067444375</v>
+        <v>0.9908681900772718</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9469,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>124.3432579411023</v>
+        <v>125.1673241587488</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9633,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9510247849462709</v>
+        <v>0.9508800708127472</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9648,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>127.6519205663788</v>
+        <v>128.0823954961519</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9806,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9860470669624752</v>
+        <v>0.9863771583055562</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9821,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>108.6887444570747</v>
+        <v>109.4892077139644</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -10000,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9807136588818982</v>
+        <v>0.9804640633580589</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10015,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>87.61109863592839</v>
+        <v>88.56849991994127</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10170,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9659556222203279</v>
+        <v>0.9653181424269615</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10185,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>115.0654864023806</v>
+        <v>115.9794076736322</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10355,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9953188524371267</v>
+        <v>0.9950698477170741</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10370,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>138.756913896743</v>
+        <v>139.5935167165375</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10546,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9828896848477257</v>
+        <v>0.9826129104392988</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10561,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>67.94844361285621</v>
+        <v>68.19672301858947</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1545,7 +1545,7 @@
         <v>123</v>
       </c>
       <c r="O2">
-        <v>0.9806389352996986</v>
+        <v>0.980472084775576</v>
       </c>
       <c r="P2">
         <v>1285737</v>
@@ -1560,7 +1560,7 @@
         <v>125</v>
       </c>
       <c r="T2">
-        <v>115.6300787158916</v>
+        <v>117.3634284267826</v>
       </c>
       <c r="U2">
         <v>20200508</v>
@@ -1721,7 +1721,7 @@
         <v>123</v>
       </c>
       <c r="O3">
-        <v>0.9156022309576749</v>
+        <v>0.9120969320136629</v>
       </c>
       <c r="P3">
         <v>22817</v>
@@ -1736,7 +1736,7 @@
         <v>126</v>
       </c>
       <c r="T3">
-        <v>228.1631917865879</v>
+        <v>234.5507356178452</v>
       </c>
       <c r="U3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>123</v>
       </c>
       <c r="O4">
-        <v>0.9668029316308807</v>
+        <v>0.96983529625663</v>
       </c>
       <c r="P4">
         <v>286614</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="T4">
-        <v>109.0978092130147</v>
+        <v>110.8219506562479</v>
       </c>
       <c r="U4">
         <v>20200508</v>
@@ -2088,7 +2088,7 @@
         <v>123</v>
       </c>
       <c r="O5">
-        <v>0.9871778223448647</v>
+        <v>0.987914569589004</v>
       </c>
       <c r="P5">
         <v>458536</v>
@@ -2103,7 +2103,7 @@
         <v>128</v>
       </c>
       <c r="T5">
-        <v>142.9712695247469</v>
+        <v>145.1743846022589</v>
       </c>
       <c r="U5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="O6">
-        <v>0.9822639442551481</v>
+        <v>0.9827798556234691</v>
       </c>
       <c r="P6">
         <v>2164519</v>
@@ -2282,7 +2282,7 @@
         <v>129</v>
       </c>
       <c r="T6">
-        <v>160.9753348381935</v>
+        <v>164.1397854652976</v>
       </c>
       <c r="U6">
         <v>20200508</v>
@@ -2446,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="O7">
-        <v>0.9904111751505498</v>
+        <v>0.9902796270662991</v>
       </c>
       <c r="P7">
         <v>216732</v>
@@ -2461,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="T7">
-        <v>74.1947063496511</v>
+        <v>75.13608033144484</v>
       </c>
       <c r="U7">
         <v>20200508</v>
@@ -2625,7 +2625,7 @@
         <v>123</v>
       </c>
       <c r="O8">
-        <v>0.9772199054586124</v>
+        <v>0.9775698103638611</v>
       </c>
       <c r="P8">
         <v>351817</v>
@@ -2640,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="T8">
-        <v>178.9124641586682</v>
+        <v>181.3564700852025</v>
       </c>
       <c r="U8">
         <v>20200508</v>
@@ -2801,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="O9">
-        <v>0.9806182145422323</v>
+        <v>0.9813035801213941</v>
       </c>
       <c r="P9">
         <v>204665</v>
@@ -2816,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="T9">
-        <v>155.6866826824244</v>
+        <v>157.6060468997431</v>
       </c>
       <c r="U9">
         <v>20200508</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="O10">
-        <v>0.9769347607741592</v>
+        <v>0.9774984887777792</v>
       </c>
       <c r="P10">
         <v>315281</v>
@@ -2986,7 +2986,7 @@
         <v>133</v>
       </c>
       <c r="T10">
-        <v>199.0255262726093</v>
+        <v>203.9207238280825</v>
       </c>
       <c r="U10">
         <v>20200508</v>
@@ -3150,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="O11">
-        <v>0.9150388260562963</v>
+        <v>0.9201820324814972</v>
       </c>
       <c r="P11">
         <v>3167011</v>
@@ -3165,7 +3165,7 @@
         <v>134</v>
       </c>
       <c r="T11">
-        <v>133.5847343846077</v>
+        <v>136.3492089836981</v>
       </c>
       <c r="U11">
         <v>20200508</v>
@@ -3320,7 +3320,7 @@
         <v>123</v>
       </c>
       <c r="O12">
-        <v>0.9658701461379462</v>
+        <v>0.9659386437494931</v>
       </c>
       <c r="P12">
         <v>3195363</v>
@@ -3335,7 +3335,7 @@
         <v>135</v>
       </c>
       <c r="T12">
-        <v>114.9997358717665</v>
+        <v>117.149505250866</v>
       </c>
       <c r="U12">
         <v>20200508</v>
@@ -3502,7 +3502,7 @@
         <v>123</v>
       </c>
       <c r="O13">
-        <v>0.887759533467315</v>
+        <v>0.8863796639613866</v>
       </c>
       <c r="P13">
         <v>24472</v>
@@ -3517,7 +3517,7 @@
         <v>136</v>
       </c>
       <c r="T13">
-        <v>59.66959877803423</v>
+        <v>60.50056871426185</v>
       </c>
       <c r="U13">
         <v>20200508</v>
@@ -3672,7 +3672,7 @@
         <v>123</v>
       </c>
       <c r="O14">
-        <v>0.8845086420941861</v>
+        <v>0.8909868331662607</v>
       </c>
       <c r="P14">
         <v>10739</v>
@@ -3687,7 +3687,7 @@
         <v>137</v>
       </c>
       <c r="T14">
-        <v>71.3859996924605</v>
+        <v>73.38290118142878</v>
       </c>
       <c r="U14">
         <v>20200508</v>
@@ -3848,7 +3848,7 @@
         <v>124</v>
       </c>
       <c r="O15">
-        <v>0.9745928116382309</v>
+        <v>0.975392998539544</v>
       </c>
       <c r="P15">
         <v>1796057</v>
@@ -3863,7 +3863,7 @@
         <v>138</v>
       </c>
       <c r="T15">
-        <v>177.7286838441873</v>
+        <v>180.008394639908</v>
       </c>
       <c r="U15">
         <v>20200508</v>
@@ -4027,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="O16">
-        <v>0.9918804269885909</v>
+        <v>0.9920321245191984</v>
       </c>
       <c r="P16">
         <v>610343</v>
@@ -4042,7 +4042,7 @@
         <v>139</v>
       </c>
       <c r="T16">
-        <v>93.14486911402065</v>
+        <v>94.0813717844639</v>
       </c>
       <c r="U16">
         <v>20200508</v>
@@ -4209,7 +4209,7 @@
         <v>123</v>
       </c>
       <c r="O17">
-        <v>0.9907916930571764</v>
+        <v>0.99131839550359</v>
       </c>
       <c r="P17">
         <v>107471</v>
@@ -4224,7 +4224,7 @@
         <v>140</v>
       </c>
       <c r="T17">
-        <v>133.2253031804527</v>
+        <v>134.3731309330622</v>
       </c>
       <c r="U17">
         <v>20200508</v>
@@ -4394,7 +4394,7 @@
         <v>123</v>
       </c>
       <c r="O18">
-        <v>0.9819056081765527</v>
+        <v>0.9820357316683759</v>
       </c>
       <c r="P18">
         <v>163713</v>
@@ -4409,7 +4409,7 @@
         <v>141</v>
       </c>
       <c r="T18">
-        <v>85.02508180729215</v>
+        <v>86.01423846612732</v>
       </c>
       <c r="U18">
         <v>20200508</v>
@@ -4570,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="O19">
-        <v>0.9914444096702969</v>
+        <v>0.990144103902015</v>
       </c>
       <c r="P19">
         <v>349407</v>
@@ -4585,7 +4585,7 @@
         <v>142</v>
       </c>
       <c r="T19">
-        <v>111.8207601593695</v>
+        <v>112.6463398193139</v>
       </c>
       <c r="U19">
         <v>20200508</v>
@@ -4752,7 +4752,7 @@
         <v>123</v>
       </c>
       <c r="O20">
-        <v>0.9535925878957743</v>
+        <v>0.9528451698366885</v>
       </c>
       <c r="P20">
         <v>1492230</v>
@@ -4767,7 +4767,7 @@
         <v>143</v>
       </c>
       <c r="T20">
-        <v>218.0319788422502</v>
+        <v>222.8297685622906</v>
       </c>
       <c r="U20">
         <v>20200508</v>
@@ -4931,7 +4931,7 @@
         <v>123</v>
       </c>
       <c r="O21">
-        <v>0.9937732172756395</v>
+        <v>0.9935816939771702</v>
       </c>
       <c r="P21">
         <v>16990</v>
@@ -4946,7 +4946,7 @@
         <v>144</v>
       </c>
       <c r="T21">
-        <v>98.82217590964973</v>
+        <v>100.5339162108572</v>
       </c>
       <c r="U21">
         <v>20200508</v>
@@ -5122,7 +5122,7 @@
         <v>123</v>
       </c>
       <c r="O22">
-        <v>0.9795581737553603</v>
+        <v>0.9802997215684631</v>
       </c>
       <c r="P22">
         <v>1759438</v>
@@ -5137,7 +5137,7 @@
         <v>145</v>
       </c>
       <c r="T22">
-        <v>120.0160313979858</v>
+        <v>121.8060443152208</v>
       </c>
       <c r="U22">
         <v>20200508</v>
@@ -5310,7 +5310,7 @@
         <v>123</v>
       </c>
       <c r="O23">
-        <v>0.9741054128858426</v>
+        <v>0.9745499300508289</v>
       </c>
       <c r="P23">
         <v>463796</v>
@@ -5325,7 +5325,7 @@
         <v>146</v>
       </c>
       <c r="T23">
-        <v>136.3615457351263</v>
+        <v>136.6520489385664</v>
       </c>
       <c r="U23">
         <v>20200508</v>
@@ -5486,7 +5486,7 @@
         <v>123</v>
       </c>
       <c r="O24">
-        <v>0.9907935336843154</v>
+        <v>0.9905457364070334</v>
       </c>
       <c r="P24">
         <v>1360345</v>
@@ -5501,7 +5501,7 @@
         <v>147</v>
       </c>
       <c r="T24">
-        <v>144.0159226170045</v>
+        <v>146.2825844175285</v>
       </c>
       <c r="U24">
         <v>20200508</v>
@@ -5686,7 +5686,7 @@
         <v>123</v>
       </c>
       <c r="O25">
-        <v>0.9811275870724521</v>
+        <v>0.9820971210273231</v>
       </c>
       <c r="P25">
         <v>336505</v>
@@ -5701,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="T25">
-        <v>157.5350577769351</v>
+        <v>159.8206566434599</v>
       </c>
       <c r="U25">
         <v>20200508</v>
@@ -5877,7 +5877,7 @@
         <v>123</v>
       </c>
       <c r="O26">
-        <v>0.9866526614877759</v>
+        <v>0.9853570873661839</v>
       </c>
       <c r="P26">
         <v>1121752</v>
@@ -5892,7 +5892,7 @@
         <v>149</v>
       </c>
       <c r="T26">
-        <v>124.3611733629757</v>
+        <v>125.5741267151177</v>
       </c>
       <c r="U26">
         <v>20200508</v>
@@ -6059,7 +6059,7 @@
         <v>123</v>
       </c>
       <c r="O27">
-        <v>0.9744245846835585</v>
+        <v>0.9700643389040383</v>
       </c>
       <c r="P27">
         <v>699730</v>
@@ -6074,7 +6074,7 @@
         <v>150</v>
       </c>
       <c r="T27">
-        <v>86.62092770504415</v>
+        <v>88.26565477777611</v>
       </c>
       <c r="U27">
         <v>20200508</v>
@@ -6244,7 +6244,7 @@
         <v>123</v>
       </c>
       <c r="O28">
-        <v>0.8246460399440625</v>
+        <v>0.8329251538090379</v>
       </c>
       <c r="P28">
         <v>4348</v>
@@ -6259,7 +6259,7 @@
         <v>151</v>
       </c>
       <c r="T28">
-        <v>121.4744931139895</v>
+        <v>124.2196551413114</v>
       </c>
       <c r="U28">
         <v>20200508</v>
@@ -6414,7 +6414,7 @@
         <v>123</v>
       </c>
       <c r="O29">
-        <v>0.9713601954106619</v>
+        <v>0.9724039621624819</v>
       </c>
       <c r="P29">
         <v>88442</v>
@@ -6429,7 +6429,7 @@
         <v>152</v>
       </c>
       <c r="T29">
-        <v>121.7099058302209</v>
+        <v>122.6090357316056</v>
       </c>
       <c r="U29">
         <v>20200508</v>
@@ -6572,7 +6572,7 @@
         <v>123</v>
       </c>
       <c r="O30">
-        <v>0.9434595024390762</v>
+        <v>0.9449781536118026</v>
       </c>
       <c r="P30">
         <v>249967</v>
@@ -6587,7 +6587,7 @@
         <v>153</v>
       </c>
       <c r="T30">
-        <v>130.2053653275822</v>
+        <v>131.9070200837729</v>
       </c>
       <c r="U30">
         <v>20200508</v>
@@ -6742,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="O31">
-        <v>0.9792172603779823</v>
+        <v>0.9794320722143408</v>
       </c>
       <c r="P31">
         <v>17622</v>
@@ -6757,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="T31">
-        <v>109.0136297021337</v>
+        <v>108.877869791698</v>
       </c>
       <c r="U31">
         <v>20200508</v>
@@ -6921,7 +6921,7 @@
         <v>123</v>
       </c>
       <c r="O32">
-        <v>0.9809908819762727</v>
+        <v>0.9809737099782178</v>
       </c>
       <c r="P32">
         <v>1129257</v>
@@ -6936,7 +6936,7 @@
         <v>155</v>
       </c>
       <c r="T32">
-        <v>210.7526660533225</v>
+        <v>211.5916764359679</v>
       </c>
       <c r="U32">
         <v>20200508</v>
@@ -7109,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="O33">
-        <v>0.9957561746384911</v>
+        <v>0.9957138861046249</v>
       </c>
       <c r="P33">
         <v>38016</v>
@@ -7124,7 +7124,7 @@
         <v>156</v>
       </c>
       <c r="T33">
-        <v>211.8225154952896</v>
+        <v>214.3997526405398</v>
       </c>
       <c r="U33">
         <v>20200508</v>
@@ -7288,7 +7288,7 @@
         <v>123</v>
       </c>
       <c r="O34">
-        <v>0.9798607274111423</v>
+        <v>0.9792101957477035</v>
       </c>
       <c r="P34">
         <v>2808679</v>
@@ -7303,7 +7303,7 @@
         <v>157</v>
       </c>
       <c r="T34">
-        <v>251.7805194057853</v>
+        <v>253.9492304979184</v>
       </c>
       <c r="U34">
         <v>20200508</v>
@@ -7470,7 +7470,7 @@
         <v>123</v>
       </c>
       <c r="O35">
-        <v>0.9960575213871812</v>
+        <v>0.9962417492543387</v>
       </c>
       <c r="P35">
         <v>2146254</v>
@@ -7485,7 +7485,7 @@
         <v>158</v>
       </c>
       <c r="T35">
-        <v>134.8005877028288</v>
+        <v>137.6684131855711</v>
       </c>
       <c r="U35">
         <v>20200508</v>
@@ -7640,7 +7640,7 @@
         <v>123</v>
       </c>
       <c r="O36">
-        <v>0.9874173494316124</v>
+        <v>0.986874217154983</v>
       </c>
       <c r="P36">
         <v>20113</v>
@@ -7655,7 +7655,7 @@
         <v>159</v>
       </c>
       <c r="T36">
-        <v>158.8526186317498</v>
+        <v>159.7944088751277</v>
       </c>
       <c r="U36">
         <v>20200508</v>
@@ -7819,7 +7819,7 @@
         <v>123</v>
       </c>
       <c r="O37">
-        <v>0.9900835171818947</v>
+        <v>0.9899711296660363</v>
       </c>
       <c r="P37">
         <v>1418048</v>
@@ -7834,7 +7834,7 @@
         <v>160</v>
       </c>
       <c r="T37">
-        <v>97.52656132093875</v>
+        <v>99.46774381851212</v>
       </c>
       <c r="U37">
         <v>20200508</v>
@@ -8016,7 +8016,7 @@
         <v>123</v>
       </c>
       <c r="O38">
-        <v>0.9557739005955634</v>
+        <v>0.9545845858233986</v>
       </c>
       <c r="P38">
         <v>282622</v>
@@ -8031,7 +8031,7 @@
         <v>161</v>
       </c>
       <c r="T38">
-        <v>119.7114704622792</v>
+        <v>122.0541006001186</v>
       </c>
       <c r="U38">
         <v>20200508</v>
@@ -8207,7 +8207,7 @@
         <v>123</v>
       </c>
       <c r="O39">
-        <v>0.9708943228576112</v>
+        <v>0.9717736956218676</v>
       </c>
       <c r="P39">
         <v>74356</v>
@@ -8222,7 +8222,7 @@
         <v>162</v>
       </c>
       <c r="T39">
-        <v>74.85926790510982</v>
+        <v>76.1363943740908</v>
       </c>
       <c r="U39">
         <v>20200508</v>
@@ -8389,7 +8389,7 @@
         <v>123</v>
       </c>
       <c r="O40">
-        <v>0.9869621471369637</v>
+        <v>0.9871817830238339</v>
       </c>
       <c r="P40">
         <v>1360576</v>
@@ -8404,7 +8404,7 @@
         <v>163</v>
       </c>
       <c r="T40">
-        <v>73.15309221574493</v>
+        <v>74.08208034672376</v>
       </c>
       <c r="U40">
         <v>20200508</v>
@@ -8562,7 +8562,7 @@
         <v>123</v>
       </c>
       <c r="O41">
-        <v>0.9658615010034164</v>
+        <v>0.9665261369728924</v>
       </c>
       <c r="P41">
         <v>59001</v>
@@ -8577,7 +8577,7 @@
         <v>164</v>
       </c>
       <c r="T41">
-        <v>186.572142744966</v>
+        <v>181.1371852128542</v>
       </c>
       <c r="U41">
         <v>20200508</v>
@@ -8762,7 +8762,7 @@
         <v>123</v>
       </c>
       <c r="O42">
-        <v>0.9558660498285934</v>
+        <v>0.959045309517345</v>
       </c>
       <c r="P42">
         <v>1328352</v>
@@ -8777,7 +8777,7 @@
         <v>165</v>
       </c>
       <c r="T42">
-        <v>110.866518923546</v>
+        <v>112.9401732829895</v>
       </c>
       <c r="U42">
         <v>20200508</v>
@@ -8932,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="O43">
-        <v>0.9876068775096296</v>
+        <v>0.9880425113772594</v>
       </c>
       <c r="P43">
         <v>15840</v>
@@ -8947,7 +8947,7 @@
         <v>166</v>
       </c>
       <c r="T43">
-        <v>108.7218736759303</v>
+        <v>109.0632504812176</v>
       </c>
       <c r="U43">
         <v>20200508</v>
@@ -9108,7 +9108,7 @@
         <v>123</v>
       </c>
       <c r="O44">
-        <v>0.9722023198161301</v>
+        <v>0.9712211827764404</v>
       </c>
       <c r="P44">
         <v>1107218</v>
@@ -9123,7 +9123,7 @@
         <v>167</v>
       </c>
       <c r="T44">
-        <v>166.6940613004851</v>
+        <v>170.3524901331481</v>
       </c>
       <c r="U44">
         <v>20200508</v>
@@ -9281,7 +9281,7 @@
         <v>123</v>
       </c>
       <c r="O45">
-        <v>0.9508788175247189</v>
+        <v>0.9536635119578765</v>
       </c>
       <c r="P45">
         <v>3269253</v>
@@ -9296,7 +9296,7 @@
         <v>168</v>
       </c>
       <c r="T45">
-        <v>95.04912953505374</v>
+        <v>97.42775893019659</v>
       </c>
       <c r="U45">
         <v>20200508</v>
@@ -9454,7 +9454,7 @@
         <v>123</v>
       </c>
       <c r="O46">
-        <v>0.9908681900772718</v>
+        <v>0.9914671943086004</v>
       </c>
       <c r="P46">
         <v>33713</v>
@@ -9469,7 +9469,7 @@
         <v>169</v>
       </c>
       <c r="T46">
-        <v>125.1673241587488</v>
+        <v>126.7271505147703</v>
       </c>
       <c r="U46">
         <v>20200508</v>
@@ -9633,7 +9633,7 @@
         <v>123</v>
       </c>
       <c r="O47">
-        <v>0.9508800708127472</v>
+        <v>0.9507359770323862</v>
       </c>
       <c r="P47">
         <v>7602</v>
@@ -9648,7 +9648,7 @@
         <v>170</v>
       </c>
       <c r="T47">
-        <v>128.0823954961519</v>
+        <v>128.9056109050909</v>
       </c>
       <c r="U47">
         <v>20200508</v>
@@ -9806,7 +9806,7 @@
         <v>123</v>
       </c>
       <c r="O48">
-        <v>0.9863771583055562</v>
+        <v>0.9870385233333023</v>
       </c>
       <c r="P48">
         <v>1582421</v>
@@ -9821,7 +9821,7 @@
         <v>171</v>
       </c>
       <c r="T48">
-        <v>109.4892077139644</v>
+        <v>111.0709478226904</v>
       </c>
       <c r="U48">
         <v>20200508</v>
@@ -10000,7 +10000,7 @@
         <v>123</v>
       </c>
       <c r="O49">
-        <v>0.9804640633580589</v>
+        <v>0.9802007965427905</v>
       </c>
       <c r="P49">
         <v>259482</v>
@@ -10015,7 +10015,7 @@
         <v>172</v>
       </c>
       <c r="T49">
-        <v>88.56849991994127</v>
+        <v>90.56248436752142</v>
       </c>
       <c r="U49">
         <v>20200508</v>
@@ -10170,7 +10170,7 @@
         <v>123</v>
       </c>
       <c r="O50">
-        <v>0.9653181424269615</v>
+        <v>0.9646800083170983</v>
       </c>
       <c r="P50">
         <v>65597</v>
@@ -10185,7 +10185,7 @@
         <v>173</v>
       </c>
       <c r="T50">
-        <v>115.9794076736322</v>
+        <v>117.8792218068142</v>
       </c>
       <c r="U50">
         <v>20200508</v>
@@ -10355,7 +10355,7 @@
         <v>123</v>
       </c>
       <c r="O51">
-        <v>0.9950698477170741</v>
+        <v>0.9946599128083584</v>
       </c>
       <c r="P51">
         <v>361909</v>
@@ -10370,7 +10370,7 @@
         <v>174</v>
       </c>
       <c r="T51">
-        <v>139.5935167165375</v>
+        <v>141.1522757135532</v>
       </c>
       <c r="U51">
         <v>20200508</v>
@@ -10546,7 +10546,7 @@
         <v>123</v>
       </c>
       <c r="O52">
-        <v>0.9826129104392988</v>
+        <v>0.9824160656032178</v>
       </c>
       <c r="P52">
         <v>5149</v>
@@ -10561,7 +10561,7 @@
         <v>175</v>
       </c>
       <c r="T52">
-        <v>68.19672301858947</v>
+        <v>68.55630676350569</v>
       </c>
       <c r="U52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>118.9427914285306</v>
+        <v>119.7150712174427</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>241.3539613318085</v>
+        <v>244.7267426546152</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>112.4629461129364</v>
+        <v>113.1876385557369</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>147.2391955861591</v>
+        <v>148.2429928267908</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>167.2331253473959</v>
+        <v>168.7398689712352</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.03917700083944</v>
+        <v>76.51251516707656</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>184.0181337208128</v>
+        <v>185.3756753076513</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>159.4460787731417</v>
+        <v>160.3287158623181</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>208.757583695431</v>
+        <v>211.1047716589786</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>138.9864144354273</v>
+        <v>140.2703549180721</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>119.3893481581063</v>
+        <v>120.5238890147951</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>61.24826551843105</v>
+        <v>61.66344816241569</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>75.28722826696053</v>
+        <v>76.20804853666439</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>182.1801987818213</v>
+        <v>183.2786530864253</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>94.96724821484139</v>
+        <v>95.41674552880424</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>135.363878663812</v>
+        <v>135.860522540009</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>86.8474818504497</v>
+        <v>87.21736274299784</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>113.568784678353</v>
+        <v>114.0883498221132</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>227.5092293660796</v>
+        <v>229.8293872768343</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>102.1754308448815</v>
+        <v>103.0094787812074</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>123.5997464299343</v>
+        <v>124.4994403407301</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>136.8580949235572</v>
+        <v>137.0522288605821</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>148.7643598489531</v>
+        <v>150.054582441949</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.9421845151237</v>
+        <v>162.9849377044636</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>126.8391371531083</v>
+        <v>127.5198729744232</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>89.92354848914786</v>
+        <v>90.76602143061487</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>127.1587586371965</v>
+        <v>128.6577134330011</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>123.4474622424448</v>
+        <v>123.8521135795866</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>133.5635858716335</v>
+        <v>134.3790158724835</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.7210115841673</v>
+        <v>108.6164211142477</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>212.4250545324983</v>
+        <v>212.9058733820604</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>217.049079474405</v>
+        <v>218.5477079839631</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>255.9815571066327</v>
+        <v>256.9924271438076</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>140.4607920060628</v>
+        <v>141.864269809664</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>160.7276835635074</v>
+        <v>161.1223565486369</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>101.6380164788142</v>
+        <v>102.7158782315234</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>124.664907962285</v>
+        <v>125.9873430854108</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>77.37143042318932</v>
+        <v>77.97268504774831</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.02255925211483</v>
+        <v>75.48946917526912</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>176.7027322451902</v>
+        <v>174.6620363112956</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>114.9993076714413</v>
+        <v>116.0120749138994</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.346792084536</v>
+        <v>109.4931472135123</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>173.8187747343279</v>
+        <v>175.6226831880502</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>99.7326261585925</v>
+        <v>100.8912607458503</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>128.1405208591082</v>
+        <v>128.8194057208504</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>129.6952382299841</v>
+        <v>130.0515352734144</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>112.6640611980494</v>
+        <v>113.468763100807</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>92.52652295271932</v>
+        <v>93.4848714535989</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>119.7921683310588</v>
+        <v>120.7346125567177</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>142.6971549438433</v>
+        <v>143.5109280432206</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>69.26964451872574</v>
+        <v>69.65224392916841</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>119.7150712174427</v>
+        <v>120.4806956408369</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>244.7267426546152</v>
+        <v>248.3333759992864</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>113.1876385557369</v>
+        <v>114.0167508247568</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>148.2429928267908</v>
+        <v>149.1339802666047</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>168.7398689712352</v>
+        <v>170.3016269206787</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.51251516707656</v>
+        <v>76.97973063750496</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>185.3756753076513</v>
+        <v>186.77835935081</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>160.3287158623181</v>
+        <v>161.1953614108766</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>211.1047716589786</v>
+        <v>213.6187470243432</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>140.2703549180721</v>
+        <v>141.5284770536351</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>120.5238890147951</v>
+        <v>121.6913899135403</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>61.66344816241569</v>
+        <v>62.10032005005609</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>76.20804853666439</v>
+        <v>77.14018431203898</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>183.2786530864253</v>
+        <v>184.4200876376663</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>95.41674552880424</v>
+        <v>95.87902218016313</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>135.860522540009</v>
+        <v>136.3465177559682</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>87.21736274299784</v>
+        <v>87.65072113473144</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>114.0883498221132</v>
+        <v>114.6172757954104</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>229.8293872768343</v>
+        <v>232.1734665268602</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>103.0094787812074</v>
+        <v>103.8342664823153</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>124.4994403407301</v>
+        <v>125.4287988059986</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.0522288605821</v>
+        <v>137.3048995916849</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>150.054582441949</v>
+        <v>151.3549992635367</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>162.9849377044636</v>
+        <v>162.4086628330139</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>127.5198729744232</v>
+        <v>128.1779098342986</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>90.76602143061487</v>
+        <v>91.61149531209821</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>128.6577134330011</v>
+        <v>130.0761392705354</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>123.8521135795866</v>
+        <v>124.2768781693144</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>134.3790158724835</v>
+        <v>135.1843566897959</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.6164211142477</v>
+        <v>108.4973333504743</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>212.9058733820604</v>
+        <v>213.4581798002814</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>218.5477079839631</v>
+        <v>219.8612994066315</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>256.9924271438076</v>
+        <v>257.9964580476583</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>141.864269809664</v>
+        <v>143.2728434119445</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>161.1223565486369</v>
+        <v>161.5515012584144</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>102.7158782315234</v>
+        <v>103.7772092267339</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>125.9873430854108</v>
+        <v>127.3075900487639</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>77.97268504774831</v>
+        <v>78.56794126299522</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.48946917526912</v>
+        <v>75.95900196090589</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>174.6620363112956</v>
+        <v>172.7135827125415</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>116.0120749138994</v>
+        <v>116.9286208082195</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.4931472135123</v>
+        <v>109.6492642566054</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>175.6226831880502</v>
+        <v>177.4764027515088</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>100.8912607458503</v>
+        <v>102.0400225695295</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>128.8194057208504</v>
+        <v>129.4684682720966</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.0515352734144</v>
+        <v>130.4099929351155</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>113.468763100807</v>
+        <v>114.2651726559146</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>93.4848714535989</v>
+        <v>94.44449218737213</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>120.7346125567177</v>
+        <v>121.7439875631042</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>143.5109280432206</v>
+        <v>144.3399050890221</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>69.65224392916841</v>
+        <v>70.03578607970195</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>120.4806956408369</v>
+        <v>121.2253353936905</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>248.3333759992864</v>
+        <v>251.990667335365</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>114.0167508247568</v>
+        <v>114.845272558602</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>149.1339802666047</v>
+        <v>150.0819436144481</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>170.3016269206787</v>
+        <v>171.7911060011863</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>76.97973063750496</v>
+        <v>77.44396109129856</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>186.77835935081</v>
+        <v>188.0186810576184</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>161.1953614108766</v>
+        <v>162.0300009796429</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>213.6187470243432</v>
+        <v>216.2377152307671</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>141.5284770536351</v>
+        <v>142.7666535624423</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>121.6913899135403</v>
+        <v>122.8353064285421</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>62.10032005005609</v>
+        <v>62.5478110029503</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>77.14018431203898</v>
+        <v>78.05999571801799</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>184.4200876376663</v>
+        <v>185.5629607573415</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>95.87902218016313</v>
+        <v>96.35055013192962</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>136.3465177559682</v>
+        <v>136.8107875790762</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>87.65072113473144</v>
+        <v>88.01972103913074</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>114.6172757954104</v>
+        <v>115.157951463665</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>232.1734665268602</v>
+        <v>234.2841230856976</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>103.8342664823153</v>
+        <v>104.6573825254316</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>125.4287988059986</v>
+        <v>126.3922162831521</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.3048995916849</v>
+        <v>137.4791799858354</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>151.3549992635367</v>
+        <v>152.6689534919311</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>162.4086628330139</v>
+        <v>161.8858706259091</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>128.1779098342986</v>
+        <v>128.8515478611438</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>91.61149531209821</v>
+        <v>92.44607446617131</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>130.0761392705354</v>
+        <v>131.4284739282836</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>124.2768781693144</v>
+        <v>124.7258302917416</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>135.1843566897959</v>
+        <v>135.949674459453</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.4973333504743</v>
+        <v>108.4255763704127</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>213.4581798002814</v>
+        <v>213.8821945885824</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>219.8612994066315</v>
+        <v>221.1456685950992</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>257.9964580476583</v>
+        <v>259.0269718583288</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>143.2728434119445</v>
+        <v>144.6718573544873</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>161.5515012584144</v>
+        <v>162.0196438531952</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>103.7772092267339</v>
+        <v>104.8331367700414</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>127.3075900487639</v>
+        <v>128.6371538557154</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>78.56794126299522</v>
+        <v>79.15558117491844</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>75.95900196090589</v>
+        <v>76.42502995701055</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>172.7135827125415</v>
+        <v>170.7857824482135</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>116.9286208082195</v>
+        <v>117.9167624664745</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.6492642566054</v>
+        <v>109.8146884615566</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>177.4764027515088</v>
+        <v>179.3528638778351</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>102.0400225695295</v>
+        <v>103.207531670416</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>129.4684682720966</v>
+        <v>130.0863221287802</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.4099929351155</v>
+        <v>130.7655618469445</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>114.2651726559146</v>
+        <v>115.0577795043875</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>94.44449218737213</v>
+        <v>95.30883997852392</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>121.7439875631042</v>
+        <v>122.7281322906603</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>144.3399050890221</v>
+        <v>145.1783134862559</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.03578607970195</v>
+        <v>70.36946447800234</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>121.2253353936905</v>
+        <v>121.9573017905084</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1724,7 +1724,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>251.990667335365</v>
+        <v>255.6235763659935</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1897,7 +1897,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>114.845272558602</v>
+        <v>115.6268542761963</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2085,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>150.0819436144481</v>
+        <v>150.9105525894117</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2261,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>171.7911060011863</v>
+        <v>173.298967806876</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2437,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>77.44396109129856</v>
+        <v>77.90588663223048</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2613,7 +2613,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>188.0186810576184</v>
+        <v>189.1067276306492</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>162.0300009796429</v>
+        <v>162.8420133272972</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2953,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>216.2377152307671</v>
+        <v>218.8444590087583</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3129,7 +3129,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>142.7666535624423</v>
+        <v>143.9638577083801</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3296,7 +3296,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>122.8353064285421</v>
+        <v>123.9876024393369</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3475,7 +3475,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>62.5478110029503</v>
+        <v>63.05434323445711</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3642,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>78.05999571801799</v>
+        <v>78.95869601221493</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3815,7 +3815,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>185.5629607573415</v>
+        <v>186.7029324866503</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>96.35055013192962</v>
+        <v>96.82481163123373</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4170,7 +4170,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>136.8107875790762</v>
+        <v>137.263113733892</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.01972103913074</v>
+        <v>88.32847515390181</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4525,7 +4525,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>115.157951463665</v>
+        <v>115.6216021330712</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4704,7 +4704,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>234.2841230856976</v>
+        <v>236.5482334624931</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4880,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>104.6573825254316</v>
+        <v>105.4694788145552</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5068,7 +5068,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>126.3922162831521</v>
+        <v>127.3653969984721</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5253,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.4791799858354</v>
+        <v>137.7567760792411</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5426,7 +5426,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>152.6689534919311</v>
+        <v>153.9599022825545</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5623,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.8858706259091</v>
+        <v>161.4146578823458</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5811,7 +5811,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>128.8515478611438</v>
+        <v>129.4405470932989</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +5990,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>92.44607446617131</v>
+        <v>93.23748282217943</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6172,7 +6172,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>131.4284739282836</v>
+        <v>132.7685425061437</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6339,7 +6339,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>124.7258302917416</v>
+        <v>125.1410400808635</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6494,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>135.949674459453</v>
+        <v>136.7311928743698</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6661,7 +6661,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.4255763704127</v>
+        <v>108.3070616844341</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6837,7 +6837,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>213.8821945885824</v>
+        <v>214.4423623463589</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7022,7 +7022,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>221.1456685950992</v>
+        <v>222.4349396920744</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7198,7 +7198,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>259.0269718583288</v>
+        <v>260.0242492363448</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7377,7 +7377,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>144.6718573544873</v>
+        <v>146.0508470696986</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7544,7 +7544,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.0196438531952</v>
+        <v>162.3879021375575</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7720,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>104.8331367700414</v>
+        <v>105.8833462487353</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7914,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>128.6371538557154</v>
+        <v>129.8432598128608</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8102,7 +8102,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>79.15558117491844</v>
+        <v>79.72032328573917</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8281,7 +8281,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>76.42502995701055</v>
+        <v>76.87570846851469</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8451,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>170.7857824482135</v>
+        <v>168.8790012091097</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8648,7 +8648,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>117.9167624664745</v>
+        <v>118.8924078465219</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8815,7 +8815,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.8146884615566</v>
+        <v>109.9740900775882</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8988,7 +8988,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>179.3528638778351</v>
+        <v>181.1805209885507</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9158,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>103.207531670416</v>
+        <v>104.2660661318198</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9328,7 +9328,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>130.0863221287802</v>
+        <v>130.6615645914801</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9504,7 +9504,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>130.7655618469445</v>
+        <v>131.1378912964449</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9674,7 +9674,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>115.0577795043875</v>
+        <v>115.824559719064</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9865,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>95.30883997852392</v>
+        <v>96.2541985102105</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10032,7 +10032,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>122.7281322906603</v>
+        <v>123.7074209618411</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10214,7 +10214,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>145.1783134862559</v>
+        <v>145.9825857480009</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10402,7 +10402,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.36946447800234</v>
+        <v>70.6560991459952</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>121.9573017905084</v>
+        <v>122.6700930133</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1597,6 +1597,9 @@
       </c>
       <c r="AO2">
         <v>9221</v>
+      </c>
+      <c r="AP2">
+        <v>375</v>
       </c>
       <c r="AR2">
         <v>323</v>
@@ -1724,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>255.6235763659935</v>
+        <v>259.121594516382</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1764,6 +1767,9 @@
       </c>
       <c r="AO3">
         <v>377</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
       </c>
       <c r="AR3">
         <v>3</v>
@@ -1897,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>115.6268542761963</v>
+        <v>116.3653359959469</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2085,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>150.9105525894117</v>
+        <v>151.8216493039663</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2261,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>173.298967806876</v>
+        <v>174.8217975928428</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2437,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>77.90588663223048</v>
+        <v>78.36103853821535</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2480,6 +2486,9 @@
       </c>
       <c r="AO7">
         <v>16532</v>
+      </c>
+      <c r="AP7">
+        <v>800</v>
       </c>
       <c r="AR7">
         <v>971</v>
@@ -2613,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>189.1067276306492</v>
+        <v>190.5036296412728</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2786,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>162.8420133272972</v>
+        <v>163.6666593101685</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2953,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>218.8444590087583</v>
+        <v>221.3214828503423</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -2992,6 +3001,9 @@
         <v>285</v>
       </c>
       <c r="AJ10">
+        <v>304</v>
+      </c>
+      <c r="AP10">
         <v>304</v>
       </c>
       <c r="AR10">
@@ -3129,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>143.9638577083801</v>
+        <v>145.1010238777683</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3169,6 +3181,9 @@
       </c>
       <c r="AO11">
         <v>39199</v>
+      </c>
+      <c r="AP11">
+        <v>1738</v>
       </c>
       <c r="AR11">
         <v>371</v>
@@ -3296,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>123.9876024393369</v>
+        <v>125.1173623036564</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3342,6 +3357,9 @@
       </c>
       <c r="AO12">
         <v>32106</v>
+      </c>
+      <c r="AP12">
+        <v>1377</v>
       </c>
       <c r="AR12">
         <v>667</v>
@@ -3475,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>63.05434323445711</v>
+        <v>63.52644438360797</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3642,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>78.95869601221493</v>
+        <v>79.80136529311974</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3691,6 +3709,9 @@
       </c>
       <c r="AO14">
         <v>2007</v>
+      </c>
+      <c r="AP14">
+        <v>67</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -3815,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>186.7029324866503</v>
+        <v>187.8013442406574</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -3991,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>96.82481163123373</v>
+        <v>97.27400593626648</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4037,6 +4058,9 @@
       </c>
       <c r="AK16">
         <v>4389</v>
+      </c>
+      <c r="AP16">
+        <v>1328</v>
       </c>
       <c r="AR16">
         <v>643</v>
@@ -4170,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>137.263113733892</v>
+        <v>137.6634166337276</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4213,6 +4237,9 @@
       </c>
       <c r="AO17">
         <v>11457</v>
+      </c>
+      <c r="AP17">
+        <v>243</v>
       </c>
       <c r="AR17">
         <v>398</v>
@@ -4352,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.32847515390181</v>
+        <v>88.72743741591299</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4395,6 +4422,9 @@
       </c>
       <c r="AK18">
         <v>608</v>
+      </c>
+      <c r="AP18">
+        <v>152</v>
       </c>
       <c r="AR18">
         <v>357</v>
@@ -4525,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>115.6216021330712</v>
+        <v>116.0406985948764</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4574,6 +4604,9 @@
       </c>
       <c r="AO19">
         <v>6119</v>
+      </c>
+      <c r="AP19">
+        <v>294</v>
       </c>
       <c r="AR19">
         <v>195</v>
@@ -4704,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>236.5482334624931</v>
+        <v>238.7294471881944</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4880,7 +4913,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>105.4694788145552</v>
+        <v>106.2618183988882</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -4929,6 +4962,9 @@
       </c>
       <c r="AO21">
         <v>1264</v>
+      </c>
+      <c r="AP21">
+        <v>63</v>
       </c>
       <c r="AR21">
         <v>44</v>
@@ -5068,7 +5104,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>127.3653969984721</v>
+        <v>128.349951808457</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5253,7 +5289,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>137.7567760792411</v>
+        <v>138.0387217067984</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5296,6 +5332,9 @@
       </c>
       <c r="AO23">
         <v>75333</v>
+      </c>
+      <c r="AP23">
+        <v>4702</v>
       </c>
       <c r="AR23">
         <v>1612</v>
@@ -5426,7 +5465,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>153.9599022825545</v>
+        <v>155.2281104118077</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5623,7 +5662,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.4146578823458</v>
+        <v>161.0048181194323</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5675,6 +5714,9 @@
       </c>
       <c r="AO25">
         <v>13040</v>
+      </c>
+      <c r="AP25">
+        <v>534</v>
       </c>
       <c r="AR25">
         <v>712</v>
@@ -5811,7 +5853,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>129.4405470932989</v>
+        <v>129.9486410657357</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -5990,7 +6032,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>93.23748282217943</v>
+        <v>94.02344734923321</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6036,6 +6078,9 @@
       </c>
       <c r="AO27">
         <v>9489</v>
+      </c>
+      <c r="AP27">
+        <v>449</v>
       </c>
       <c r="AR27">
         <v>148</v>
@@ -6172,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>132.7685425061437</v>
+        <v>134.2017721876656</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6215,6 +6260,9 @@
       </c>
       <c r="AO28">
         <v>458</v>
+      </c>
+      <c r="AP28">
+        <v>16</v>
       </c>
       <c r="AR28">
         <v>2</v>
@@ -6339,7 +6387,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.1410400808635</v>
+        <v>125.5688995694306</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6494,7 +6542,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>136.7311928743698</v>
+        <v>137.4505332667819</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6531,6 +6579,9 @@
       </c>
       <c r="AO30">
         <v>5884</v>
+      </c>
+      <c r="AP30">
+        <v>293</v>
       </c>
       <c r="AR30">
         <v>118</v>
@@ -6661,7 +6712,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.3070616844341</v>
+        <v>108.2009817189926</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6710,6 +6761,9 @@
       </c>
       <c r="AO31">
         <v>2843</v>
+      </c>
+      <c r="AP31">
+        <v>114</v>
       </c>
       <c r="AR31">
         <v>103</v>
@@ -6837,7 +6891,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>214.4423623463589</v>
+        <v>214.971781756962</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -6883,6 +6937,9 @@
       </c>
       <c r="AO32">
         <v>135454</v>
+      </c>
+      <c r="AP32">
+        <v>8952</v>
       </c>
       <c r="AR32">
         <v>1819</v>
@@ -7022,7 +7079,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>222.4349396920744</v>
+        <v>223.7383565715448</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7065,6 +7122,9 @@
       </c>
       <c r="AO33">
         <v>4493</v>
+      </c>
+      <c r="AP33">
+        <v>172</v>
       </c>
       <c r="AR33">
         <v>202</v>
@@ -7198,7 +7258,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>260.0242492363448</v>
+        <v>260.9729037498275</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7247,6 +7307,9 @@
       </c>
       <c r="AO34">
         <v>330407</v>
+      </c>
+      <c r="AP34">
+        <v>21045</v>
       </c>
       <c r="AR34">
         <v>2758</v>
@@ -7377,7 +7440,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>146.0508470696986</v>
+        <v>147.3959699525604</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7411,6 +7474,9 @@
       </c>
       <c r="AO35">
         <v>13868</v>
+      </c>
+      <c r="AP35">
+        <v>527</v>
       </c>
       <c r="AR35">
         <v>471</v>
@@ -7544,7 +7610,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.3879021375575</v>
+        <v>162.8169004317826</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7720,7 +7786,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>105.8833462487353</v>
+        <v>106.901247687145</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7914,7 +7980,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>129.8432598128608</v>
+        <v>130.9319260705174</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -7966,6 +8032,12 @@
       </c>
       <c r="AN38">
         <v>85078</v>
+      </c>
+      <c r="AO38">
+        <v>4424</v>
+      </c>
+      <c r="AP38">
+        <v>266</v>
       </c>
       <c r="AR38">
         <v>94</v>
@@ -8102,7 +8174,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>79.72032328573917</v>
+        <v>80.25707009338684</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8151,6 +8223,9 @@
       </c>
       <c r="AO39">
         <v>3032</v>
+      </c>
+      <c r="AP39">
+        <v>124</v>
       </c>
       <c r="AR39">
         <v>79</v>
@@ -8281,7 +8356,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>76.87570846851469</v>
+        <v>77.31079570044164</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8451,7 +8526,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>168.8790012091097</v>
+        <v>167.16850977141</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8509,6 +8584,9 @@
       </c>
       <c r="AO41">
         <v>11141</v>
+      </c>
+      <c r="AP41">
+        <v>399</v>
       </c>
       <c r="AR41">
         <v>231</v>
@@ -8648,7 +8726,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>118.8924078465219</v>
+        <v>119.8468995090425</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8685,6 +8763,9 @@
       </c>
       <c r="AK42">
         <v>1152</v>
+      </c>
+      <c r="AP42">
+        <v>316</v>
       </c>
       <c r="AR42">
         <v>206</v>
@@ -8815,7 +8896,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>109.9740900775882</v>
+        <v>110.1108714974121</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8855,6 +8936,9 @@
       </c>
       <c r="AK43">
         <v>247</v>
+      </c>
+      <c r="AP43">
+        <v>31</v>
       </c>
       <c r="AR43">
         <v>239</v>
@@ -8988,7 +9072,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>181.1805209885507</v>
+        <v>182.9127328161089</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9158,7 +9242,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>104.2660661318198</v>
+        <v>105.3591527874322</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9195,6 +9279,9 @@
       </c>
       <c r="AO45">
         <v>36609</v>
+      </c>
+      <c r="AP45">
+        <v>453</v>
       </c>
       <c r="AR45">
         <v>1219</v>
@@ -9328,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>130.6615645914801</v>
+        <v>131.1967371445981</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9377,6 +9464,9 @@
       </c>
       <c r="AO46">
         <v>5919</v>
+      </c>
+      <c r="AP46">
+        <v>61</v>
       </c>
       <c r="AR46">
         <v>195</v>
@@ -9504,7 +9594,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.1378912964449</v>
+        <v>131.4718011921666</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9541,6 +9631,9 @@
       </c>
       <c r="AO47">
         <v>919</v>
+      </c>
+      <c r="AP47">
+        <v>53</v>
       </c>
       <c r="AR47">
         <v>2</v>
@@ -9674,7 +9767,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>115.824559719064</v>
+        <v>116.5795441468486</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9865,7 +9958,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>96.2541985102105</v>
+        <v>97.14719486235762</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -9902,6 +9995,9 @@
       </c>
       <c r="AO49">
         <v>17519</v>
+      </c>
+      <c r="AP49">
+        <v>891</v>
       </c>
       <c r="AR49">
         <v>210</v>
@@ -10032,7 +10128,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>123.7074209618411</v>
+        <v>124.6773578265378</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10075,6 +10171,9 @@
       </c>
       <c r="AO50">
         <v>1310</v>
+      </c>
+      <c r="AP50">
+        <v>51</v>
       </c>
       <c r="AR50">
         <v>23</v>
@@ -10214,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>145.9825857480009</v>
+        <v>146.7348904005264</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10266,6 +10365,9 @@
       </c>
       <c r="AO51">
         <v>9590</v>
+      </c>
+      <c r="AP51">
+        <v>384</v>
       </c>
       <c r="AR51">
         <v>409</v>
@@ -10402,7 +10504,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>70.6560991459952</v>
+        <v>71.01410984839016</v>
       </c>
       <c r="T52">
         <v>20200508</v>
@@ -10448,6 +10550,9 @@
       </c>
       <c r="AO52">
         <v>483</v>
+      </c>
+      <c r="AP52">
+        <v>7</v>
       </c>
       <c r="AR52">
         <v>4</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>122.6700930133</v>
+        <v>123.3668406169794</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1727,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>259.121594516382</v>
+        <v>262.7443736020625</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>116.3653359959469</v>
+        <v>117.0557943326539</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>151.8216493039663</v>
+        <v>152.7146059571199</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>174.8217975928428</v>
+        <v>176.3256706996357</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>78.36103853821535</v>
+        <v>78.79502716875852</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>190.5036296412728</v>
+        <v>191.832653149909</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>163.6666593101685</v>
+        <v>164.4515751184235</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>221.3214828503423</v>
+        <v>223.6555679749046</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>145.1010238777683</v>
+        <v>146.180920400907</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>125.1173623036564</v>
+        <v>126.2092179460387</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3493,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>63.52644438360797</v>
+        <v>64.05482114529981</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>79.80136529311974</v>
+        <v>80.62637056412026</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>187.8013442406574</v>
+        <v>188.9101651058711</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>97.27400593626648</v>
+        <v>97.72012604980466</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>137.6634166337276</v>
+        <v>138.0368166140887</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4379,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>88.72743741591299</v>
+        <v>89.0660357490102</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4555,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.0406985948764</v>
+        <v>116.4622430378416</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4737,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>238.7294471881944</v>
+        <v>241.2327383974301</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4913,7 +4913,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>106.2618183988882</v>
+        <v>107.0198089282384</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5104,7 +5104,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>128.349951808457</v>
+        <v>129.3134059964786</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5289,7 +5289,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.0387217067984</v>
+        <v>138.3447747630468</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5465,7 +5465,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>155.2281104118077</v>
+        <v>156.4857395073682</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5662,7 +5662,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>161.0048181194323</v>
+        <v>160.5922815599273</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5853,7 +5853,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>129.9486410657357</v>
+        <v>130.3884661696494</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6032,7 +6032,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>94.02344734923321</v>
+        <v>94.78966364685098</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6217,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>134.2017721876656</v>
+        <v>135.5738729421195</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6387,7 +6387,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.5688995694306</v>
+        <v>125.9823539132854</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6542,7 +6542,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>137.4505332667819</v>
+        <v>138.1328046227466</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6712,7 +6712,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.2009817189926</v>
+        <v>108.1249111327526</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6891,7 +6891,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>214.971781756962</v>
+        <v>215.3791692752018</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7079,7 +7079,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>223.7383565715448</v>
+        <v>224.9506081842585</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7258,7 +7258,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>260.9729037498275</v>
+        <v>261.9196765113785</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7440,7 +7440,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>147.3959699525604</v>
+        <v>148.6770841845654</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7610,7 +7610,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>162.8169004317826</v>
+        <v>163.2521278826332</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7786,7 +7786,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>106.901247687145</v>
+        <v>107.8968667487774</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7980,7 +7980,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>130.9319260705174</v>
+        <v>132.1242692173193</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8174,7 +8174,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>80.25707009338684</v>
+        <v>80.75987554198321</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8356,7 +8356,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>77.31079570044164</v>
+        <v>77.74136093899624</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8526,7 +8526,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>167.16850977141</v>
+        <v>165.5506512101408</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8726,7 +8726,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>119.8468995090425</v>
+        <v>120.7752627974302</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8896,7 +8896,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.1108714974121</v>
+        <v>110.2283813269849</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -9072,7 +9072,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>182.9127328161089</v>
+        <v>184.5931770685124</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9242,7 +9242,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>105.3591527874322</v>
+        <v>106.4267690519084</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9415,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>131.1967371445981</v>
+        <v>131.7124361622735</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9594,7 +9594,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.4718011921666</v>
+        <v>131.8421193287567</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9767,7 +9767,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>116.5795441468486</v>
+        <v>117.3115166713645</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9958,7 +9958,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>97.14719486235762</v>
+        <v>97.95391033842945</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10128,7 +10128,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>124.6773578265378</v>
+        <v>125.6266391410731</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10313,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>146.7348904005264</v>
+        <v>147.5230614384295</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10504,7 +10504,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.01410984839016</v>
+        <v>71.35003347897919</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>123.3668406169794</v>
+        <v>124.0201419377171</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1727,7 +1727,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>262.7443736020625</v>
+        <v>266.3466147116578</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1903,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>117.0557943326539</v>
+        <v>117.7462425963918</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2091,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>152.7146059571199</v>
+        <v>153.5080117833252</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2267,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>176.3256706996357</v>
+        <v>177.7911470128472</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2443,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>78.79502716875852</v>
+        <v>79.19836458257797</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>191.832653149909</v>
+        <v>193.1560907275067</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>164.4515751184235</v>
+        <v>165.1870804734889</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>223.6555679749046</v>
+        <v>225.9411179668892</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>146.180920400907</v>
+        <v>147.2039176971957</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3311,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>126.2092179460387</v>
+        <v>127.3180628143513</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3493,7 +3493,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>64.05482114529981</v>
+        <v>64.58465713655174</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>80.62637056412026</v>
+        <v>81.47543777329834</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3836,7 +3836,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>188.9101651058711</v>
+        <v>190.0419113259734</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>97.72012604980466</v>
+        <v>98.1476910930493</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4194,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>138.0368166140887</v>
+        <v>138.4150790651939</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4379,7 +4379,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>89.0660357490102</v>
+        <v>89.45243160834853</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4555,7 +4555,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.4622430378416</v>
+        <v>116.9391812586145</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4601,6 +4601,9 @@
       </c>
       <c r="AK19">
         <v>1684</v>
+      </c>
+      <c r="AL19">
+        <v>81391</v>
       </c>
       <c r="AO19">
         <v>6119</v>
@@ -4737,7 +4740,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>241.2327383974301</v>
+        <v>243.6924058172683</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4913,7 +4916,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>107.0198089282384</v>
+        <v>107.7736454169104</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5104,7 +5107,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>129.3134059964786</v>
+        <v>130.244193174655</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5289,7 +5292,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.3447747630468</v>
+        <v>138.685185745397</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5465,7 +5468,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>156.4857395073682</v>
+        <v>157.7255966455242</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5662,7 +5665,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>160.5922815599273</v>
+        <v>160.2042865167999</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5853,7 +5856,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>130.3884661696494</v>
+        <v>130.9567085224499</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6032,7 +6035,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>94.78966364685098</v>
+        <v>95.54021578026843</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6217,7 +6220,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>135.5738729421195</v>
+        <v>136.8943755016236</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6387,7 +6390,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>125.9823539132854</v>
+        <v>126.3932767243336</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6542,7 +6545,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>138.1328046227466</v>
+        <v>138.7484587118089</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6712,7 +6715,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.1249111327526</v>
+        <v>108.041972532358</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6891,7 +6894,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>215.3791692752018</v>
+        <v>215.7805360705114</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -7079,7 +7082,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>224.9506081842585</v>
+        <v>226.2761841191861</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7258,7 +7261,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>261.9196765113785</v>
+        <v>262.8676638888398</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7440,7 +7443,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>148.6770841845654</v>
+        <v>149.9101320951475</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7610,7 +7613,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>163.2521278826332</v>
+        <v>163.6826271734508</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7786,7 +7789,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>107.8968667487774</v>
+        <v>108.8652749763045</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7980,7 +7983,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>132.1242692173193</v>
+        <v>133.2808620020788</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8174,7 +8177,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>80.75987554198321</v>
+        <v>81.27361283090401</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8356,7 +8359,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>77.74136093899624</v>
+        <v>78.16123712773386</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8526,7 +8529,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>165.5506512101408</v>
+        <v>164.0078759336576</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8726,7 +8729,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>120.7752627974302</v>
+        <v>121.6731425526576</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8896,7 +8899,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.2283813269849</v>
+        <v>110.3408092060438</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -9072,7 +9075,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>184.5931770685124</v>
+        <v>186.2321349678872</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9242,7 +9245,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>106.4267690519084</v>
+        <v>107.428714955683</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9415,7 +9418,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>131.7124361622735</v>
+        <v>132.2176833867846</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9594,7 +9597,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>131.8421193287567</v>
+        <v>132.1487152241631</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9767,7 +9770,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>117.3115166713645</v>
+        <v>118.0151058149246</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9958,7 +9961,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>97.95391033842945</v>
+        <v>98.68016319944435</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10128,7 +10131,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>125.6266391410731</v>
+        <v>126.5746166671259</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10313,7 +10316,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>147.5230614384295</v>
+        <v>148.3356140093458</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10504,7 +10507,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.35003347897919</v>
+        <v>71.67331333100223</v>
       </c>
       <c r="T52">
         <v>20200508</v>

--- a/Testing_Analytics/data/Testing_DataFrame.xlsx
+++ b/Testing_Analytics/data/Testing_DataFrame.xlsx
@@ -1551,7 +1551,7 @@
         <v>124</v>
       </c>
       <c r="S2">
-        <v>124.0201419377171</v>
+        <v>125.3684225822804</v>
       </c>
       <c r="T2">
         <v>20200508</v>
@@ -1594,6 +1594,9 @@
       </c>
       <c r="AK2">
         <v>1207</v>
+      </c>
+      <c r="AL2">
+        <v>120114</v>
       </c>
       <c r="AO2">
         <v>9221</v>
@@ -1727,7 +1730,7 @@
         <v>125</v>
       </c>
       <c r="S3">
-        <v>266.3466147116578</v>
+        <v>273.5983286243015</v>
       </c>
       <c r="T3">
         <v>20200508</v>
@@ -1903,7 +1906,7 @@
         <v>126</v>
       </c>
       <c r="S4">
-        <v>117.7462425963918</v>
+        <v>119.0472661677606</v>
       </c>
       <c r="T4">
         <v>20200508</v>
@@ -2091,7 +2094,7 @@
         <v>127</v>
       </c>
       <c r="S5">
-        <v>153.5080117833252</v>
+        <v>155.0877419066472</v>
       </c>
       <c r="T5">
         <v>20200508</v>
@@ -2267,7 +2270,7 @@
         <v>128</v>
       </c>
       <c r="S6">
-        <v>177.7911470128472</v>
+        <v>180.5771093375511</v>
       </c>
       <c r="T6">
         <v>20200508</v>
@@ -2443,7 +2446,7 @@
         <v>129</v>
       </c>
       <c r="S7">
-        <v>79.19836458257797</v>
+        <v>80.03457685615899</v>
       </c>
       <c r="T7">
         <v>20200508</v>
@@ -2486,9 +2489,6 @@
       </c>
       <c r="AO7">
         <v>16532</v>
-      </c>
-      <c r="AP7">
-        <v>800</v>
       </c>
       <c r="AR7">
         <v>971</v>
@@ -2622,7 +2622,7 @@
         <v>130</v>
       </c>
       <c r="S8">
-        <v>193.1560907275067</v>
+        <v>195.6638999523996</v>
       </c>
       <c r="T8">
         <v>20200508</v>
@@ -2795,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="S9">
-        <v>165.1870804734889</v>
+        <v>166.6037732707028</v>
       </c>
       <c r="T9">
         <v>20200508</v>
@@ -2962,7 +2962,7 @@
         <v>132</v>
       </c>
       <c r="S10">
-        <v>225.9411179668892</v>
+        <v>230.4295111560016</v>
       </c>
       <c r="T10">
         <v>20200508</v>
@@ -3001,9 +3001,6 @@
         <v>285</v>
       </c>
       <c r="AJ10">
-        <v>304</v>
-      </c>
-      <c r="AP10">
         <v>304</v>
       </c>
       <c r="AR10">
@@ -3141,7 +3138,7 @@
         <v>133</v>
       </c>
       <c r="S11">
-        <v>147.2039176971957</v>
+        <v>149.1564774962816</v>
       </c>
       <c r="T11">
         <v>20200508</v>
@@ -3311,7 +3308,7 @@
         <v>134</v>
       </c>
       <c r="S12">
-        <v>127.3180628143513</v>
+        <v>129.5584629363222</v>
       </c>
       <c r="T12">
         <v>20200508</v>
@@ -3357,9 +3354,6 @@
       </c>
       <c r="AO12">
         <v>32106</v>
-      </c>
-      <c r="AP12">
-        <v>1377</v>
       </c>
       <c r="AR12">
         <v>667</v>
@@ -3493,7 +3487,7 @@
         <v>135</v>
       </c>
       <c r="S13">
-        <v>64.58465713655174</v>
+        <v>65.63714160589556</v>
       </c>
       <c r="T13">
         <v>20200508</v>
@@ -3660,7 +3654,7 @@
         <v>136</v>
       </c>
       <c r="S14">
-        <v>81.47543777329834</v>
+        <v>83.16996126179386</v>
       </c>
       <c r="T14">
         <v>20200508</v>
@@ -3709,9 +3703,6 @@
       </c>
       <c r="AO14">
         <v>2007</v>
-      </c>
-      <c r="AP14">
-        <v>67</v>
       </c>
       <c r="AR14">
         <v>20</v>
@@ -3836,7 +3827,7 @@
         <v>137</v>
       </c>
       <c r="S15">
-        <v>190.0419113259734</v>
+        <v>192.3317173634254</v>
       </c>
       <c r="T15">
         <v>20200508</v>
@@ -4012,7 +4003,7 @@
         <v>138</v>
       </c>
       <c r="S16">
-        <v>98.1476910930493</v>
+        <v>99.04766023697486</v>
       </c>
       <c r="T16">
         <v>20200508</v>
@@ -4194,7 +4185,7 @@
         <v>139</v>
       </c>
       <c r="S17">
-        <v>138.4150790651939</v>
+        <v>139.194215130585</v>
       </c>
       <c r="T17">
         <v>20200508</v>
@@ -4237,9 +4228,6 @@
       </c>
       <c r="AO17">
         <v>11457</v>
-      </c>
-      <c r="AP17">
-        <v>243</v>
       </c>
       <c r="AR17">
         <v>398</v>
@@ -4379,7 +4367,7 @@
         <v>140</v>
       </c>
       <c r="S18">
-        <v>89.45243160834853</v>
+        <v>90.16806472652168</v>
       </c>
       <c r="T18">
         <v>20200508</v>
@@ -4422,9 +4410,6 @@
       </c>
       <c r="AK18">
         <v>608</v>
-      </c>
-      <c r="AP18">
-        <v>152</v>
       </c>
       <c r="AR18">
         <v>357</v>
@@ -4555,7 +4540,7 @@
         <v>141</v>
       </c>
       <c r="S19">
-        <v>116.9391812586145</v>
+        <v>117.9848312329534</v>
       </c>
       <c r="T19">
         <v>20200508</v>
@@ -4740,7 +4725,7 @@
         <v>142</v>
       </c>
       <c r="S20">
-        <v>243.6924058172683</v>
+        <v>248.394779389185</v>
       </c>
       <c r="T20">
         <v>20200508</v>
@@ -4916,7 +4901,7 @@
         <v>143</v>
       </c>
       <c r="S21">
-        <v>107.7736454169104</v>
+        <v>109.2894074576731</v>
       </c>
       <c r="T21">
         <v>20200508</v>
@@ -5107,7 +5092,7 @@
         <v>144</v>
       </c>
       <c r="S22">
-        <v>130.244193174655</v>
+        <v>132.0417116901243</v>
       </c>
       <c r="T22">
         <v>20200508</v>
@@ -5292,7 +5277,7 @@
         <v>145</v>
       </c>
       <c r="S23">
-        <v>138.685185745397</v>
+        <v>139.3734939602797</v>
       </c>
       <c r="T23">
         <v>20200508</v>
@@ -5468,7 +5453,7 @@
         <v>146</v>
       </c>
       <c r="S24">
-        <v>157.7255966455242</v>
+        <v>160.1698166690015</v>
       </c>
       <c r="T24">
         <v>20200508</v>
@@ -5665,7 +5650,7 @@
         <v>147</v>
       </c>
       <c r="S25">
-        <v>160.2042865167999</v>
+        <v>159.5416953902991</v>
       </c>
       <c r="T25">
         <v>20200508</v>
@@ -5856,7 +5841,7 @@
         <v>148</v>
       </c>
       <c r="S26">
-        <v>130.9567085224499</v>
+        <v>132.0431870895438</v>
       </c>
       <c r="T26">
         <v>20200508</v>
@@ -6035,7 +6020,7 @@
         <v>149</v>
       </c>
       <c r="S27">
-        <v>95.54021578026843</v>
+        <v>97.04257459745961</v>
       </c>
       <c r="T27">
         <v>20200508</v>
@@ -6081,9 +6066,6 @@
       </c>
       <c r="AO27">
         <v>9489</v>
-      </c>
-      <c r="AP27">
-        <v>449</v>
       </c>
       <c r="AR27">
         <v>148</v>
@@ -6220,7 +6202,7 @@
         <v>150</v>
       </c>
       <c r="S28">
-        <v>136.8943755016236</v>
+        <v>139.4554648831668</v>
       </c>
       <c r="T28">
         <v>20200508</v>
@@ -6263,9 +6245,6 @@
       </c>
       <c r="AO28">
         <v>458</v>
-      </c>
-      <c r="AP28">
-        <v>16</v>
       </c>
       <c r="AR28">
         <v>2</v>
@@ -6390,7 +6369,7 @@
         <v>151</v>
       </c>
       <c r="S29">
-        <v>126.3932767243336</v>
+        <v>127.2098423626867</v>
       </c>
       <c r="T29">
         <v>20200508</v>
@@ -6545,7 +6524,7 @@
         <v>152</v>
       </c>
       <c r="S30">
-        <v>138.7484587118089</v>
+        <v>140.0554596572325</v>
       </c>
       <c r="T30">
         <v>20200508</v>
@@ -6582,9 +6561,6 @@
       </c>
       <c r="AO30">
         <v>5884</v>
-      </c>
-      <c r="AP30">
-        <v>293</v>
       </c>
       <c r="AR30">
         <v>118</v>
@@ -6715,7 +6691,7 @@
         <v>153</v>
       </c>
       <c r="S31">
-        <v>108.041972532358</v>
+        <v>107.8731395717321</v>
       </c>
       <c r="T31">
         <v>20200508</v>
@@ -6764,9 +6740,6 @@
       </c>
       <c r="AO31">
         <v>2843</v>
-      </c>
-      <c r="AP31">
-        <v>114</v>
       </c>
       <c r="AR31">
         <v>103</v>
@@ -6894,7 +6867,7 @@
         <v>154</v>
       </c>
       <c r="S32">
-        <v>215.7805360705114</v>
+        <v>216.7693676711858</v>
       </c>
       <c r="T32">
         <v>20200508</v>
@@ -6936,7 +6909,7 @@
         <v>292</v>
       </c>
       <c r="AJ32">
-        <v>8952</v>
+        <v>10602</v>
       </c>
       <c r="AO32">
         <v>135454</v>
@@ -6944,6 +6917,9 @@
       <c r="AP32">
         <v>8952</v>
       </c>
+      <c r="AQ32">
+        <v>1650</v>
+      </c>
       <c r="AR32">
         <v>1819</v>
       </c>
@@ -6960,7 +6936,7 @@
         <v>6101</v>
       </c>
       <c r="AW32">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AX32">
         <v>0</v>
@@ -7082,7 +7058,7 @@
         <v>155</v>
       </c>
       <c r="S33">
-        <v>226.2761841191861</v>
+        <v>228.8499314733519</v>
       </c>
       <c r="T33">
         <v>20200508</v>
@@ -7125,9 +7101,6 @@
       </c>
       <c r="AO33">
         <v>4493</v>
-      </c>
-      <c r="AP33">
-        <v>172</v>
       </c>
       <c r="AR33">
         <v>202</v>
@@ -7261,7 +7234,7 @@
         <v>156</v>
       </c>
       <c r="S34">
-        <v>262.8676638888398</v>
+        <v>264.7569510993247</v>
       </c>
       <c r="T34">
         <v>20200508</v>
@@ -7310,9 +7283,6 @@
       </c>
       <c r="AO34">
         <v>330407</v>
-      </c>
-      <c r="AP34">
-        <v>21045</v>
       </c>
       <c r="AR34">
         <v>2758</v>
@@ -7443,7 +7413,7 @@
         <v>157</v>
       </c>
       <c r="S35">
-        <v>149.9101320951475</v>
+        <v>152.3957372948298</v>
       </c>
       <c r="T35">
         <v>20200508</v>
@@ -7613,7 +7583,7 @@
         <v>158</v>
       </c>
       <c r="S36">
-        <v>163.6826271734508</v>
+        <v>164.5716809241197</v>
       </c>
       <c r="T36">
         <v>20200508</v>
@@ -7789,7 +7759,7 @@
         <v>159</v>
       </c>
       <c r="S37">
-        <v>108.8652749763045</v>
+        <v>110.7807218720928</v>
       </c>
       <c r="T37">
         <v>20200508</v>
@@ -7983,7 +7953,7 @@
         <v>160</v>
       </c>
       <c r="S38">
-        <v>133.2808620020788</v>
+        <v>135.5851875723779</v>
       </c>
       <c r="T38">
         <v>20200508</v>
@@ -8038,9 +8008,6 @@
       </c>
       <c r="AO38">
         <v>4424</v>
-      </c>
-      <c r="AP38">
-        <v>266</v>
       </c>
       <c r="AR38">
         <v>94</v>
@@ -8177,7 +8144,7 @@
         <v>161</v>
       </c>
       <c r="S39">
-        <v>81.27361283090401</v>
+        <v>82.28580692100579</v>
       </c>
       <c r="T39">
         <v>20200508</v>
@@ -8226,9 +8193,6 @@
       </c>
       <c r="AO39">
         <v>3032</v>
-      </c>
-      <c r="AP39">
-        <v>124</v>
       </c>
       <c r="AR39">
         <v>79</v>
@@ -8359,7 +8323,7 @@
         <v>162</v>
       </c>
       <c r="S40">
-        <v>78.16123712773386</v>
+        <v>78.99725222138407</v>
       </c>
       <c r="T40">
         <v>20200508</v>
@@ -8529,7 +8493,7 @@
         <v>163</v>
       </c>
       <c r="S41">
-        <v>164.0078759336576</v>
+        <v>161.2084525257867</v>
       </c>
       <c r="T41">
         <v>20200508</v>
@@ -8587,9 +8551,6 @@
       </c>
       <c r="AO41">
         <v>11141</v>
-      </c>
-      <c r="AP41">
-        <v>399</v>
       </c>
       <c r="AR41">
         <v>231</v>
@@ -8729,7 +8690,7 @@
         <v>164</v>
       </c>
       <c r="S42">
-        <v>121.6731425526576</v>
+        <v>123.4021627606188</v>
       </c>
       <c r="T42">
         <v>20200508</v>
@@ -8899,7 +8860,7 @@
         <v>165</v>
       </c>
       <c r="S43">
-        <v>110.3408092060438</v>
+        <v>110.5789288296432</v>
       </c>
       <c r="T43">
         <v>20200508</v>
@@ -8939,9 +8900,6 @@
       </c>
       <c r="AK43">
         <v>247</v>
-      </c>
-      <c r="AP43">
-        <v>31</v>
       </c>
       <c r="AR43">
         <v>239</v>
@@ -9075,7 +9033,7 @@
         <v>166</v>
       </c>
       <c r="S44">
-        <v>186.2321349678872</v>
+        <v>189.4840710901344</v>
       </c>
       <c r="T44">
         <v>20200508</v>
@@ -9245,7 +9203,7 @@
         <v>167</v>
       </c>
       <c r="S45">
-        <v>107.428714955683</v>
+        <v>109.3351977426088</v>
       </c>
       <c r="T45">
         <v>20200508</v>
@@ -9418,7 +9376,7 @@
         <v>168</v>
       </c>
       <c r="S46">
-        <v>132.2176833867846</v>
+        <v>133.1679232662828</v>
       </c>
       <c r="T46">
         <v>20200508</v>
@@ -9467,9 +9425,6 @@
       </c>
       <c r="AO46">
         <v>5919</v>
-      </c>
-      <c r="AP46">
-        <v>61</v>
       </c>
       <c r="AR46">
         <v>195</v>
@@ -9597,7 +9552,7 @@
         <v>169</v>
       </c>
       <c r="S47">
-        <v>132.1487152241631</v>
+        <v>132.7543992779084</v>
       </c>
       <c r="T47">
         <v>20200508</v>
@@ -9770,7 +9725,7 @@
         <v>170</v>
       </c>
       <c r="S48">
-        <v>118.0151058149246</v>
+        <v>119.3870071557051</v>
       </c>
       <c r="T48">
         <v>20200508</v>
@@ -9961,7 +9916,7 @@
         <v>171</v>
       </c>
       <c r="S49">
-        <v>98.68016319944435</v>
+        <v>99.91141630136751</v>
       </c>
       <c r="T49">
         <v>20200508</v>
@@ -10131,7 +10086,7 @@
         <v>172</v>
       </c>
       <c r="S50">
-        <v>126.5746166671259</v>
+        <v>128.5215166687449</v>
       </c>
       <c r="T50">
         <v>20200508</v>
@@ -10316,7 +10271,7 @@
         <v>173</v>
       </c>
       <c r="S51">
-        <v>148.3356140093458</v>
+        <v>150.0127747192289</v>
       </c>
       <c r="T51">
         <v>20200508</v>
@@ -10507,7 +10462,7 @@
         <v>174</v>
       </c>
       <c r="S52">
-        <v>71.67331333100223</v>
+        <v>72.27629679834631</v>
       </c>
       <c r="T52">
         <v>20200508</v>
@@ -10553,9 +10508,6 @@
       </c>
       <c r="AO52">
         <v>483</v>
-      </c>
-      <c r="AP52">
-        <v>7</v>
       </c>
       <c r="AR52">
         <v>4</v>
